--- a/NonControversialData.xlsx
+++ b/NonControversialData.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,27 +389,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Brood bakken recept About 3.890.000 results (0 43 seconds) Search Results Web results Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voo Translate this page Brood bakken recept from uitpaulineskeuken.nl Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-ba Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎22 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Translate this page Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-b Translate this page Brood bakken recept from www.bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Zelf Ambachtelijk brood bakken in een uur | Recepten.tips https://recepten.tips › Recepten Translate this page Brood bakken recept from recepten.tips Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Translate this page Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Recipes Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 hrs Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Web results Zelf Brood Bakken Zonder Machine | Budgetstijl https://budgetstijl.nl › zelf-brood-bakken-zonder-machine Translate this page Brood bakken recept from budgetstijl.nl Apr 15 2012 - Een paar jaar geleden heb ik het zelf bakken van brood ontdekt. Ik wist wel dat er Hierbij heb ik een recept voor zowel wit- als volkorenbrood. Searches related to Brood bakken recept volkoren brood recept brood bakken broodbakmachine wit brood recept bruin brood bakken brood bakken zonder gist zelf brood bakken zonder broodbakmachine brood bakken temperatuur snel brood bakken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6525 Nijmegen - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Brood bakken recept About 3.890.000 results (0 43 seconds) Search Results Web results Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voo Translate this page Brood bakken recept from uitpaulineskeuken.nl Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-ba Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎22 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Translate this page Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-b Translate this page Brood bakken recept from bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Zelf Ambachtelijk brood bakken in een uur | Recepten.tips recepten.tips › Recepten Translate this page Brood bakken recept from recepten.tips Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Translate this page Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Recipes Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 hrs Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Web results Zelf Brood Bakken Zonder Machine | Budgetstijl budgetstijl.nl › zelf-brood-bakken-zonder-machine Translate this page Brood bakken recept from budgetstijl.nl Apr 15 2012 - Een paar jaar geleden heb ik het zelf bakken van brood ontdekt. Ik wist wel dat er Hierbij heb ik een recept voor zowel wit- als volkorenbrood. Searches related to Brood bakken recept volkoren brood recept brood bakken broodbakmachine wit brood recept bruin brood bakken brood bakken zonder gist zelf brood bakken zonder broodbakmachine brood bakken temperatuur snel brood bakken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6525 Nijmegen - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google honden namen About 4.810.000 results (0 40 seconds) Search Results Featured snippet from the web Image result for honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. More items Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Feedback About Featured Snippets Web results 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Namen voor een teefje · ‎Korte hondennamen · ‎Mijn namen Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Translate this page Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Populaire hondennamen | Petplan.nl https://www.petplan.nl › aanschaf-van-je-huisdier › pop Translate this page In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden https://www.honden-plein.nl › hondennamen › hondenn Translate this page Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Populaire hondennamen | Royal Canin https://www.royalcanin.nl › hondennamen Translate this page Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Translate this page De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Hondennamen op alfabetische volgorde - Dierennamen https://www.dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Searches related to honden namen honden namen teefje originele hondennamen speciale hondennamen teefje spaanse hondennamen friese hondennamen hondennamen reu met betekenis hondennamen teefje met betekenis engelse hondennamen Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6525 Nijmegen - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google honden namen About 4.810.000 results (0 40 seconds) Search Results Featured snippet from the web Image result for honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. More items Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Feedback About Featured Snippets Web results 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Namen voor een teefje · ‎Korte hondennamen · ‎Mijn namen Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Translate this page Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Populaire hondennamen | Petplan.nl petplan.nl › aanschaf-van-je-huisdier › pop Translate this page In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden honden-plein.nl › hondennamen › hondenn Translate this page Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Populaire hondennamen | Royal Canin royalcanin.nl › hondennamen Translate this page Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Translate this page De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Hondennamen op alfabetische volgorde - Dierennamen dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Searches related to honden namen honden namen teefje originele hondennamen speciale hondennamen teefje spaanse hondennamen friese hondennamen hondennamen reu met betekenis hondennamen teefje met betekenis engelse hondennamen Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6525 Nijmegen - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Wat is het grootste bot in het menselijk lichaam? About 332.000 results (0 43 seconds) Search Results Featured snippet from the web Image result for Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback About Featured Snippets Web results Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-b Translate this page Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biolog Translate this page Mar 8 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in Translate this page Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-me Translate this page Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Het dijbeen staat bekend als het grootste – én sterkste – bot van ons lichaam. De sterkte van het dijbeen Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › botten › item45095 Translate this page De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en Het menselijk lichaam bestaat uit verschillende typen botten: Pijpbeenderen. Het grootste bot dat je hebt is je dijbeen. Het kleinste botje is Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl https://www.startpagina.nl › biologie › vraag › kleinste- Translate this page Nov 30 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam Translate this page Apr 23 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50 Translate this page Feb 27 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. [DOC]De botten - Wikiwijs maken.wikiwijs.nl › bestanden › Artikel_De_botten Translate this page Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen skelet kopen skelet hoofd botten menselijk lichaam skelet mens aantal botten baby hoeveel spieren heeft een mens Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6525 Nijmegen - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Wat is het grootste bot in het menselijk lichaam? About 332.000 results (0 43 seconds) Search Results Featured snippet from the web Image result for Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback About Featured Snippets Web results Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-b Translate this page Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biolog Translate this page Mar 8 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in Translate this page Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-me Translate this page Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Het dijbeen staat bekend als het grootste – én sterkste – bot van ons lichaam. De sterkte van het dijbeen Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › botten › item45095 Translate this page De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en Het menselijk lichaam bestaat uit verschillende typen botten: Pijpbeenderen. Het grootste bot dat je hebt is je dijbeen. Het kleinste botje is Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl startpagina.nl › biologie › vraag › kleinste- Translate this page Nov 30 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam Translate this page Apr 23 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50 Translate this page Feb 27 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. [DOC]De botten - Wikiwijs maken.wikiwijs.nl › bestanden › Artikel_De_botten Translate this page Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen skelet kopen skelet hoofd botten menselijk lichaam skelet mens aantal botten baby hoeveel spieren heeft een mens Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6525 Nijmegen - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel van een komkommer is water? About 1.110.000 results (0 68 seconds) Search Results Featured snippet from the web Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback About Featured Snippets Web results Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › › Eten &amp; drinken Translate this page Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel digitale vraagbaak voor het wiskundeonderwijs - WisFaq https://www.wisfaq.nl › Translate this page Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wiskunde › vraag › 100-kil Translate this page Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › sma Translate this page Mar 4 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komk Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › themas › eten-drinken › e Translate this page Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer Translate this page Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Hoeveel water zit er per d Translate this page May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6525 Nijmegen - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel van een komkommer is water? About 1.110.000 results (0 68 seconds) Search Results Featured snippet from the web Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback About Featured Snippets Web results Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › › Eten &amp; drinken Translate this page Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel digitale vraagbaak voor het wiskundeonderwijs - WisFaq wisfaq.nl › Translate this page Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wiskunde › vraag › 100-kil Translate this page Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › sma Translate this page Mar 4 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komk Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › themas › eten-drinken › e Translate this page Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer Translate this page Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Hoeveel water zit er per d Translate this page May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6525 Nijmegen - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel mensen wonen er in Nederland? About 11.500.000 results (0 64 seconds) Search Results Netherlands/Population 17.18 million (2018) •Netherlands 17.18 million ‌ •Belgium 11.4 million ‌ Explore more Feedback Sources include: Eurostat Web results Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller Translate this page Oct 25 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-m Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Translate this page Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederl Translate this page Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederland Translate this page Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet https://www.volkskrant.nl › nieuws-achtergrond › neder - Translate this page Jan 2 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolkin Translate this page Jul 31 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. [PDF]migratie in beeld desktop_klein https://www.wodc.nl › binaries Translate this page Hoeveel mensen komen als kennismigrant naar Nederland? Hoeveel gezinsmigranten zijn er in Nederland? Naar schatting wonen er op dit moment. hoeveel mensen wonen er in nederland? - Startpagina.nl https://www.startpagina.nl › aardrijkskunde › vraag › m Translate this page Oct 20 2011 - hoeveel mensen. Nederland telt op dit moment 16.718.078 inwoners. Toegevoegd na 40 seconden: Zie voor actueel overzicht: EU member states View 15+ more United Kingdom United Kingdom Belgium Belgium France France Germany Germany Luxembourg Luxembourg Denmark Denmark Poland Poland Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen er in nederland 2018 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2019 bevolking nederland 2019 populatie nederland 2019 aantal inwoners nederland 2018 hoeveel mensen in nederland 2019 Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlandsmap expand icon Netherlands (Nederland) Country in Europe DescriptionThe Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Related statistics Population growth rate 0.6% annual change ‎(2017) Gross domestic product 826.2 billion USD ‎(2017) Life expectancy 81.51 years ‎(2016) Population elsewhere Germany 82.79 million ‎(2018) United States 327.2 million ‎(2018) Amsterdam 821 752 ‎(2015) Feedback Sources include: World Bank Eurostat United States Census Bureau United Nations Footer links Netherlands6525 Nijmegen - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel mensen wonen er in Nederland? About 11.500.000 results (0 64 seconds) Search Results Netherlands/Population 17.18 million (2018) •Netherlands 17.18 million ‌ •Belgium 11.4 million ‌ Explore more Feedback Sources include: Eurostat Web results Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller Translate this page Oct 25 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-m Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Translate this page Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederl Translate this page Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederland Translate this page Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet volkskrant.nl › nieuws-achtergrond › neder - Translate this page Jan 2 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolkin Translate this page Jul 31 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. [PDF]migratie in beeld desktop_klein wodc.nl › binaries Translate this page Hoeveel mensen komen als kennismigrant naar Nederland? Hoeveel gezinsmigranten zijn er in Nederland? Naar schatting wonen er op dit moment. hoeveel mensen wonen er in nederland? - Startpagina.nl startpagina.nl › aardrijkskunde › vraag › m Translate this page Oct 20 2011 - hoeveel mensen. Nederland telt op dit moment 16.718.078 inwoners. Toegevoegd na 40 seconden: Zie voor actueel overzicht: EU member states View 15+ more United Kingdom United Kingdom Belgium Belgium France France Germany Germany Luxembourg Luxembourg Denmark Denmark Poland Poland Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen er in nederland 2018 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2019 bevolking nederland 2019 populatie nederland 2019 aantal inwoners nederland 2018 hoeveel mensen in nederland 2019 Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlandsmap expand icon Netherlands (Nederland) Country in Europe DescriptionThe Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Related statistics Population growth rate 0.6% annual change ‎(2017) Gross domestic product 826.2 billion USD ‎(2017) Life expectancy 81.51 years ‎(2016) Population elsewhere Germany 82.79 million ‎(2018) United States 327.2 million ‎(2018) Amsterdam 821 752 ‎(2015) Feedback Sources include: World Bank Eurostat United States Census Bureau United Nations Footer links Netherlands6525 Nijmegen - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
     </row>
@@ -419,27 +419,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 8.590.000 resultaten (0 57 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎22 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎6 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van www.bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl https://www.smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van www.smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken zelf brood bakken goedkoper brood bakken temperatuur brood bakken zonder gist Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1115 Duivendrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 8.590.000 resultaten (0 57 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎22 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎6 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken zelf brood bakken goedkoper brood bakken temperatuur brood bakken zonder gist Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1115 Duivendrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 4.500.000 resultaten (0 45 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Grappig · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Populaire hondennamen | Petplan.nl https://www.petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Populaire hondennamen | Royal Canin https://www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden https://www.honden-plein.nl › hondennamen › hondennamen-teefje Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Top 100 Populaire HondenNamen - Hondenpage https://www.hondenpage.com › hondennamen › top Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen tekenfilm hondennamen limburgse honden namen hondennamen met betekenis buitenlandse hondennamen indische hondennamen disney namen hond Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1115 Duivendrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 4.500.000 resultaten (0 45 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Grappig · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Populaire hondennamen | Petplan.nl petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Populaire hondennamen | Royal Canin royalcanin.nl › populaire-kattennamen-populaire-hondennamen Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden honden-plein.nl › hondennamen › hondennamen-teefje Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Top 100 Populaire HondenNamen - Hondenpage hondenpage.com › hondennamen › top Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen tekenfilm hondennamen limburgse honden namen hondennamen met betekenis buitenlandse hondennamen indische hondennamen disney namen hond Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1115 Duivendrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 371.000 resultaten (0 48 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Wat is het grootste bot van het lichaam? https://www.w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl https://www.startpagina.nl › wetenschap › biologie › vraag › kleinste-bot- 30 nov. 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het kleinste bot in je lichaam hoeveel botten heeft een baby noem de botten van de bovenste ledematen armen noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam skelet mens achterkant hoeveel spieren heeft een mens botten menselijk lichaam Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1115 Duivendrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 371.000 resultaten (0 48 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Wat is het grootste bot van het lichaam? w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl startpagina.nl › wetenschap › biologie › vraag › kleinste-bot- 30 nov. 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het kleinste bot in je lichaam hoeveel botten heeft een baby noem de botten van de bovenste ledematen armen noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam skelet mens achterkant hoeveel spieren heeft een mens botten menselijk lichaam Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1115 Duivendrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 1.100.000 resultaten (0 39 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq https://www.wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer komkommer water hoeveel komkommer mag je eten gele komkommer wilde komkommer komkommer voedingswaarde hoeveel weegt een komkommer Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1115 Duivendrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 1.100.000 resultaten (0 39 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer komkommer water hoeveel komkommer mag je eten gele komkommer wilde komkommer komkommer voedingswaarde hoeveel weegt een komkommer Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1115 Duivendrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 37.300.000 resultaten (1 18 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) • Nederland 17 18 miljoen ‌ • België 11 4 miljoen ‌ • Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller 25 nov. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen https://www.nrc.nl › nieuws › 2019/01/02 › nederlandse-bevolking-groeit-o 2 jan. 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet https://www.volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina.nl https://www.startpagina.nl › wetenschap › aardrijkskunde › vraag › mense 20 okt. 2011 - hoeveel mensen. Nederland telt op dit moment 16.718.078 inwoners. Toegevoegd na 40 seconden: Zie voor actueel overzicht: Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2018 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 hoeveel mensen wonen er in china inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederland map expand icon Nederland Land in Europa Gerelateerde gebeurtenissen Europese kampioenschappen kortebaanzwemmen 2019 Wedstrijd · 4–8 dec. Concurrent Beschrijving Nederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Nederland1115 Duivendrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 37.300.000 resultaten (1 18 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) • Nederland 17 18 miljoen ‌ • België 11 4 miljoen ‌ • Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller 25 nov. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen nrc.nl › nieuws › 2019/01/02 › nederlandse-bevolking-groeit-o 2 jan. 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina.nl startpagina.nl › wetenschap › aardrijkskunde › vraag › mense 20 okt. 2011 - hoeveel mensen. Nederland telt op dit moment 16.718.078 inwoners. Toegevoegd na 40 seconden: Zie voor actueel overzicht: Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2018 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 hoeveel mensen wonen er in china inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederland map expand icon Nederland Land in Europa Gerelateerde gebeurtenissen Europese kampioenschappen kortebaanzwemmen 2019 Wedstrijd · 4–8 dec. Concurrent Beschrijving Nederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Nederland1115 Duivendrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
     </row>
@@ -449,27 +449,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 8.590.000 resultaten (0 37 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎22 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎6 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van www.bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl https://www.smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van www.smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Advertentie 10x brood om zelf te bakken - Baknieuws.nl‎ Advertentiewww.baknieuws.nl/‎ Baknieuws creëert een genietmomentje voor bakliefhebbers. Geniet mee! PersoneelWelkom Bij Baknieuws.nlSingle Category PageContactLocatieAgenda Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken zelf brood bakken goedkoper brood bakken temperatuur brood bakken zonder gist Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandScheveningen Den Haag - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 8.590.000 resultaten (0 37 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎22 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎6 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Advertentie 10x brood om zelf te bakken - Baknieuws.nl‎ Advertentiebaknieuws.nl/‎ Baknieuws creëert een genietmomentje voor bakliefhebbers. Geniet mee! PersoneelWelkom Bij Baknieuws.nlSingle Category PageContactLocatieAgenda Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken zelf brood bakken goedkoper brood bakken temperatuur brood bakken zonder gist Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandScheveningen Den Haag - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 4.500.000 resultaten (0 27 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Grappig · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Populaire hondennamen | Petplan.nl https://www.petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Populaire hondennamen | Royal Canin https://www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden https://www.honden-plein.nl › hondennamen › hondennamen-teefje Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Top 100 Populaire HondenNamen - Hondenpage https://www.hondenpage.com › hondennamen › top Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen tekenfilm hondennamen limburgse honden namen hondennamen met betekenis buitenlandse hondennamen indische hondennamen disney namen hond Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandScheveningen Den Haag - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 4.500.000 resultaten (0 27 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Grappig · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Populaire hondennamen | Petplan.nl petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Populaire hondennamen | Royal Canin royalcanin.nl › populaire-kattennamen-populaire-hondennamen Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden honden-plein.nl › hondennamen › hondennamen-teefje Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Top 100 Populaire HondenNamen - Hondenpage hondenpage.com › hondennamen › top Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen tekenfilm hondennamen limburgse honden namen hondennamen met betekenis buitenlandse hondennamen indische hondennamen disney namen hond Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandScheveningen Den Haag - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 371.000 resultaten (0 29 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Wat is het grootste bot van het lichaam? https://www.w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl https://www.startpagina.nl › wetenschap › biologie › vraag › kleinste-bot- 30 nov. 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het kleinste bot in je lichaam hoeveel botten heeft een baby noem de botten van de bovenste ledematen armen noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam skelet mens achterkant hoeveel spieren heeft een mens botten menselijk lichaam Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandScheveningen Den Haag - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 371.000 resultaten (0 29 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Wat is het grootste bot van het lichaam? w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl startpagina.nl › wetenschap › biologie › vraag › kleinste-bot- 30 nov. 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het kleinste bot in je lichaam hoeveel botten heeft een baby noem de botten van de bovenste ledematen armen noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam skelet mens achterkant hoeveel spieren heeft een mens botten menselijk lichaam Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandScheveningen Den Haag - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 1.100.000 resultaten (0 44 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq https://www.wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer komkommer water witte komkommer hoeveel komkommer mag je eten gele komkommer wilde komkommer komkommer voedingswaarde hoeveel weegt een komkommer Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandScheveningen Den Haag - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 1.100.000 resultaten (0 44 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer komkommer water witte komkommer hoeveel komkommer mag je eten gele komkommer wilde komkommer komkommer voedingswaarde hoeveel weegt een komkommer Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandScheveningen Den Haag - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 37.300.000 resultaten (0 63 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) • Nederland 17 18 miljoen ‌ • België 11 4 miljoen ‌ • Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller 25 nov. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen https://www.nrc.nl › nieuws › 2019/01/02 › nederlandse-bevolking-groeit-o 2 jan. 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet https://www.volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina.nl https://www.startpagina.nl › wetenschap › aardrijkskunde › vraag › mense 20 okt. 2011 - hoeveel mensen. Nederland telt op dit moment 16.718.078 inwoners. Toegevoegd na 40 seconden: Zie voor actueel overzicht: Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2018 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 hoeveel mensen wonen er in china inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederland map expand icon Nederland Land in Europa Gerelateerde gebeurtenissen Europese kampioenschappen kortebaanzwemmen 2019 Wedstrijd · 4–8 dec. Concurrent Beschrijving Nederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst NederlandScheveningen Den Haag - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 37.300.000 resultaten (0 63 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) • Nederland 17 18 miljoen ‌ • België 11 4 miljoen ‌ • Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller 25 nov. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen nrc.nl › nieuws › 2019/01/02 › nederlandse-bevolking-groeit-o 2 jan. 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina.nl startpagina.nl › wetenschap › aardrijkskunde › vraag › mense 20 okt. 2011 - hoeveel mensen. Nederland telt op dit moment 16.718.078 inwoners. Toegevoegd na 40 seconden: Zie voor actueel overzicht: Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2018 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 hoeveel mensen wonen er in china inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederland map expand icon Nederland Land in Europa Gerelateerde gebeurtenissen Europese kampioenschappen kortebaanzwemmen 2019 Wedstrijd · 4–8 dec. Concurrent Beschrijving Nederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst NederlandScheveningen Den Haag - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
     </row>
@@ -479,27 +479,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Google Zoekmodi AlleAfbeeldingenVideo'sShoppingMapsMeer InstellingenTools Ongeveer 8.590.000 resultaten (0 40 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎22 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎6 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van www.bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl https://www.smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van www.smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken zelf brood bakken goedkoper brood bakken temperatuur brood bakken zonder gist Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland3584 Utrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Google Zoekmodi AlleAfbeeldingenVideo'sShoppingMapsMeer InstellingenTools Ongeveer 8.590.000 resultaten (0 40 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎22 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎6 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken zelf brood bakken goedkoper brood bakken temperatuur brood bakken zonder gist Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland3584 Utrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 4.500.000 resultaten (0 38 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Grappig · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu · ‎Mijn namen Populaire hondennamen | Petplan.nl https://www.petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Populaire hondennamen | Royal Canin https://www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden https://www.honden-plein.nl › hondennamen › hondennamen-teefje Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Top 100 Populaire HondenNamen - Hondenpage https://www.hondenpage.com › hondennamen › top Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen tekenfilm hondennamen hondennamen met betekenis limburgse honden namen buitenlandse hondennamen indische hondennamen hondennamen met s Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland3584 Utrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 4.500.000 resultaten (0 38 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Grappig · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu · ‎Mijn namen Populaire hondennamen | Petplan.nl petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Populaire hondennamen | Royal Canin royalcanin.nl › populaire-kattennamen-populaire-hondennamen Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden honden-plein.nl › hondennamen › hondennamen-teefje Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Top 100 Populaire HondenNamen - Hondenpage hondenpage.com › hondennamen › top Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen tekenfilm hondennamen hondennamen met betekenis limburgse honden namen buitenlandse hondennamen indische hondennamen hondennamen met s Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland3584 Utrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 371.000 resultaten (0 38 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Wat is het grootste bot van het lichaam? https://www.w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl https://www.startpagina.nl › wetenschap › biologie › vraag › kleinste-bot- 30 nov. 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het kleinste bot in je lichaam hoeveel botten heeft een baby noem de botten van de bovenste ledematen armen noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam skelet mens achterkant hoeveel spieren heeft een mens botten menselijk lichaam oefenen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland3584 Utrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 371.000 resultaten (0 38 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Wat is het grootste bot van het lichaam? w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl startpagina.nl › wetenschap › biologie › vraag › kleinste-bot- 30 nov. 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het kleinste bot in je lichaam hoeveel botten heeft een baby noem de botten van de bovenste ledematen armen noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam skelet mens achterkant hoeveel spieren heeft een mens botten menselijk lichaam oefenen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland3584 Utrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 1.100.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq https://www.wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer komkommer water witte komkommer hoeveel komkommer mag je eten gele komkommer wilde komkommer komkommer voedingswaarde waar is komkommer goed voor Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland3584 Utrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 1.100.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer komkommer water witte komkommer hoeveel komkommer mag je eten gele komkommer wilde komkommer komkommer voedingswaarde waar is komkommer goed voor Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland3584 Utrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Google Zoekmodi AlleAfbeeldingenShoppingNieuwsMapsMeer InstellingenTools Ongeveer 37.300.000 resultaten (0 78 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) 1960 1970 1980 1990 2000 2010 20.000.000 20.000.000 15.000.000 15.000.000 10.000.000 10.000.000 5.000.000 5.000.000 0 0 •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller 25 nov. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen https://www.nrc.nl › nieuws › 2019/01/02 › nederlandse-bevolking-groeit-o 2 jan. 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet https://www.volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina.nl https://www.startpagina.nl › wetenschap › aardrijkskunde › vraag › mense 20 okt. 2011 - hoeveel mensen. Nederland telt op dit moment 16.718.078 inwoners. Toegevoegd na 40 seconden: Zie voor actueel overzicht: Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2018 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 hoeveel mensen wonen er in china inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa Gerelateerde gebeurtenissen Europese kampioenschappen kortebaanzwemmen 2019 Wedstrijd · 4–8 dec. Concurrent BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Nederland3584 Utrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Google Zoekmodi AlleAfbeeldingenShoppingNieuwsMapsMeer InstellingenTools Ongeveer 37.300.000 resultaten (0 78 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) 1960 1970 1980 1990 2000 2010 20.000.000 20.000.000 15.000.000 15.000.000 10.000.000 10.000.000 5.000.000 5.000.000 0 0 •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller 25 nov. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen nrc.nl › nieuws › 2019/01/02 › nederlandse-bevolking-groeit-o 2 jan. 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina.nl startpagina.nl › wetenschap › aardrijkskunde › vraag › mense 20 okt. 2011 - hoeveel mensen. Nederland telt op dit moment 16.718.078 inwoners. Toegevoegd na 40 seconden: Zie voor actueel overzicht: Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2018 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 hoeveel mensen wonen er in china inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa Gerelateerde gebeurtenissen Europese kampioenschappen kortebaanzwemmen 2019 Wedstrijd · 4–8 dec. Concurrent BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Nederland3584 Utrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -509,27 +509,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 8.590.000 resultaten (0 41 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎22 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎6 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van www.bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl https://www.smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van www.smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken zelf brood bakken goedkoper brood bakken temperatuur brood bakken zonder gist Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandUniversiteitscomplex Groningen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 8.590.000 resultaten (0 41 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎22 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎6 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken zelf brood bakken goedkoper brood bakken temperatuur brood bakken zonder gist Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandUniversiteitscomplex Groningen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 4.500.000 resultaten (0 38 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Grappig · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu · ‎Mijn namen Populaire hondennamen | Petplan.nl https://www.petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Populaire hondennamen | Royal Canin https://www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden https://www.honden-plein.nl › hondennamen › hondennamen-teefje Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Top 100 Populaire HondenNamen - Hondenpage https://www.hondenpage.com › hondennamen › top Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen tekenfilm hondennamen hondennamen met betekenis limburgse honden namen buitenlandse hondennamen indische hondennamen hondennamen met s Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandUniversiteitscomplex Groningen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 4.500.000 resultaten (0 38 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Grappig · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu · ‎Mijn namen Populaire hondennamen | Petplan.nl petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Populaire hondennamen | Royal Canin royalcanin.nl › populaire-kattennamen-populaire-hondennamen Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden honden-plein.nl › hondennamen › hondennamen-teefje Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Top 100 Populaire HondenNamen - Hondenpage hondenpage.com › hondennamen › top Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen tekenfilm hondennamen hondennamen met betekenis limburgse honden namen buitenlandse hondennamen indische hondennamen hondennamen met s Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandUniversiteitscomplex Groningen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 371.000 resultaten (0 68 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Wat is het grootste bot van het lichaam? https://www.w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl https://www.startpagina.nl › wetenschap › biologie › vraag › kleinste-bot- 30 nov. 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het kleinste bot in je lichaam hoeveel botten heeft een baby noem de botten van de bovenste ledematen armen noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam skelet mens achterkant hoeveel spieren heeft een mens botten menselijk lichaam oefenen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandUniversiteitscomplex Groningen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 371.000 resultaten (0 68 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Wat is het grootste bot van het lichaam? w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl startpagina.nl › wetenschap › biologie › vraag › kleinste-bot- 30 nov. 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het kleinste bot in je lichaam hoeveel botten heeft een baby noem de botten van de bovenste ledematen armen noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam skelet mens achterkant hoeveel spieren heeft een mens botten menselijk lichaam oefenen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandUniversiteitscomplex Groningen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 1.100.000 resultaten (0 42 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq https://www.wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer komkommer water hoeveel komkommer mag je eten gele komkommer wilde komkommer komkommer voedingswaarde hoeveel weegt een komkommer Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandUniversiteitscomplex Groningen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 1.100.000 resultaten (0 42 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer komkommer water hoeveel komkommer mag je eten gele komkommer wilde komkommer komkommer voedingswaarde hoeveel weegt een komkommer Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandUniversiteitscomplex Groningen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 37.300.000 resultaten (0 80 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller 25 nov. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen https://www.nrc.nl › nieuws › 2019/01/02 › nederlandse-bevolking-groeit-o 2 jan. 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet https://www.volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina.nl https://www.startpagina.nl › wetenschap › aardrijkskunde › vraag › mense 20 okt. 2011 - hoeveel mensen. Nederland telt op dit moment 16.718.078 inwoners. Toegevoegd na 40 seconden: Zie voor actueel overzicht: Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2018 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 hoeveel mensen wonen er in china inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa Gerelateerde gebeurtenissen Europese kampioenschappen kortebaanzwemmen 2019 Wedstrijd · 4–8 dec. Concurrent BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst NederlandUniversiteitscomplex Groningen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 37.300.000 resultaten (0 80 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller 25 nov. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen nrc.nl › nieuws › 2019/01/02 › nederlandse-bevolking-groeit-o 2 jan. 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina.nl startpagina.nl › wetenschap › aardrijkskunde › vraag › mense 20 okt. 2011 - hoeveel mensen. Nederland telt op dit moment 16.718.078 inwoners. Toegevoegd na 40 seconden: Zie voor actueel overzicht: Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2018 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 hoeveel mensen wonen er in china inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa Gerelateerde gebeurtenissen Europese kampioenschappen kortebaanzwemmen 2019 Wedstrijd · 4–8 dec. Concurrent BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst NederlandUniversiteitscomplex Groningen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -539,27 +539,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 8.590.000 resultaten (0 45 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎22 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎6 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van www.bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl https://www.smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van www.smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken zelf brood bakken goedkoper brood bakken temperatuur brood bakken zonder gist Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 8.590.000 resultaten (0 45 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎22 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎6 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken zelf brood bakken goedkoper brood bakken temperatuur brood bakken zonder gist Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 5.050.000 resultaten (0 43 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu · ‎Mijn namen Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Populaire hondennamen | Petplan.nl https://www.petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Populaire hondennamen | Royal Canin https://www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Lijst met alle leuke hondennamen voor reu &amp; teef https://www.hondennamen.nl › leuke-hondennamen Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. 30.000 hondennamen Gratis hondennaam informatie &amp; expert https://hondennamen.info Ontvang direct gratis toegang tot 30.000 hondennamen: hondennaam informatie en tips van de experts: ✅30.000 Hondennamen ✅Gratis. Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen limburgse honden namen aparte hondennamen tekenfilm hondennamen hondennamen met betekenis indische hondennamen disney namen hond friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 5.050.000 resultaten (0 43 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu · ‎Mijn namen Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Populaire hondennamen | Petplan.nl petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Populaire hondennamen | Royal Canin royalcanin.nl › populaire-kattennamen-populaire-hondennamen Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Lijst met alle leuke hondennamen voor reu &amp; teef hondennamen.nl › leuke-hondennamen Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. 30.000 hondennamen Gratis hondennaam informatie &amp; expert hondennamen.info Ontvang direct gratis toegang tot 30.000 hondennamen: hondennaam informatie en tips van de experts: ✅30.000 Hondennamen ✅Gratis. Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen limburgse honden namen aparte hondennamen tekenfilm hondennamen hondennamen met betekenis indische hondennamen disney namen hond friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 371.000 resultaten (0 44 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Wat is het grootste bot van het lichaam? https://www.w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl https://www.startpagina.nl › wetenschap › biologie › vraag › kleinste-bot- 30 nov. 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het kleinste bot in je lichaam hoeveel botten heeft een baby noem de botten van de bovenste ledematen armen noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam skelet mens achterkant hoeveel spieren heeft een mens botten menselijk lichaam Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 371.000 resultaten (0 44 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Wat is het grootste bot van het lichaam? w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl startpagina.nl › wetenschap › biologie › vraag › kleinste-bot- 30 nov. 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het kleinste bot in je lichaam hoeveel botten heeft een baby noem de botten van de bovenste ledematen armen noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam skelet mens achterkant hoeveel spieren heeft een mens botten menselijk lichaam Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 1.100.000 resultaten (0 42 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq https://www.wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer komkommer water witte komkommer hoeveel komkommer mag je eten gele komkommer wilde komkommer komkommer voedingswaarde hoeveel weegt een komkommer Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 1.100.000 resultaten (0 42 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer komkommer water witte komkommer hoeveel komkommer mag je eten gele komkommer wilde komkommer komkommer voedingswaarde hoeveel weegt een komkommer Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 34.000.000 resultaten (0 72 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller 25 nov. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen https://www.nrc.nl › nieuws › 2019/01/02 › nederlandse-bevolking-groeit-o 2 jan. 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet https://www.volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina.nl https://www.startpagina.nl › wetenschap › aardrijkskunde › vraag › mense 20 okt. 2011 - hoeveel mensen. Nederland telt op dit moment 16.718.078 inwoners. Toegevoegd na 40 seconden: Zie voor actueel overzicht: Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2018 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 hoeveel mensen wonen er in china inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa Gerelateerde gebeurtenissen Europese kampioenschappen kortebaanzwemmen 2019 Wedstrijd · 4–8 dec. Concurrent BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 34.000.000 resultaten (0 72 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller 25 nov. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen nrc.nl › nieuws › 2019/01/02 › nederlandse-bevolking-groeit-o 2 jan. 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina.nl startpagina.nl › wetenschap › aardrijkskunde › vraag › mense 20 okt. 2011 - hoeveel mensen. Nederland telt op dit moment 16.718.078 inwoners. Toegevoegd na 40 seconden: Zie voor actueel overzicht: Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2018 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 hoeveel mensen wonen er in china inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa Gerelateerde gebeurtenissen Europese kampioenschappen kortebaanzwemmen 2019 Wedstrijd · 4–8 dec. Concurrent BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -569,27 +569,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenVideo'sShoppingMapsMeer InstellingenTools Ongeveer 8.590.000 resultaten (0 42 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎22 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎6 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van www.bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl https://www.smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van www.smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken zelf brood bakken goedkoper brood bakken temperatuur brood bakken zonder gist Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6512 Nijmegen - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenVideo'sShoppingMapsMeer InstellingenTools Ongeveer 8.590.000 resultaten (0 42 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎22 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎6 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken zelf brood bakken goedkoper brood bakken temperatuur brood bakken zonder gist Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6512 Nijmegen - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 4.500.000 resultaten (0 34 seconden) Advertentie Top 5 Populaire Hondennamen | Bekijk de Lijst | Bekijk de top 5‎ Advertentiewww.dier.nu/‎ Allerlei tips en interessante weetjes vindt u op de website van Stichting DierenLot. Stichting DierenLot steunt lokale en regionale dierenorganisaties. Helpt u ook mee? Steun Goede Doelen. Help Dieren In Nood. Steun Lokale Initiatieven. Steun de Dieren Dankzij uw eenmalige gift helpt u lokale dierenorganisaties Vogelweetjes Leuke en interessante Vogelweetjes. Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Grappig · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu · ‎Mijn namen Populaire hondennamen | Petplan.nl https://www.petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Populaire hondennamen | Royal Canin https://www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Top 100 Populaire HondenNamen - Hondenpage https://www.hondenpage.com › hondennamen › top Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd 30.000 hondennamen Gratis hondennaam informatie &amp; expert https://hondennamen.info Ontvang direct gratis toegang tot 30.000 hondennamen: hondennaam informatie en tips van de experts: ✅30.000 Hondennamen ✅Gratis. Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen tekenfilm hondennamen limburgse honden namen hondennamen met betekenis buitenlandse hondennamen indische hondennamen hondennamen met s Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6512 Nijmegen - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 4.500.000 resultaten (0 34 seconden) Advertentie Top 5 Populaire Hondennamen | Bekijk de Lijst | Bekijk de top 5‎ Advertentiedier.nu/‎ Allerlei tips en interessante weetjes vindt u op de website van Stichting DierenLot. Stichting DierenLot steunt lokale en regionale dierenorganisaties. Helpt u ook mee? Steun Goede Doelen. Help Dieren In Nood. Steun Lokale Initiatieven. Steun de Dieren Dankzij uw eenmalige gift helpt u lokale dierenorganisaties Vogelweetjes Leuke en interessante Vogelweetjes. Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Grappig · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu · ‎Mijn namen Populaire hondennamen | Petplan.nl petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Populaire hondennamen | Royal Canin royalcanin.nl › populaire-kattennamen-populaire-hondennamen Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Top 100 Populaire HondenNamen - Hondenpage hondenpage.com › hondennamen › top Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd 30.000 hondennamen Gratis hondennaam informatie &amp; expert hondennamen.info Ontvang direct gratis toegang tot 30.000 hondennamen: hondennaam informatie en tips van de experts: ✅30.000 Hondennamen ✅Gratis. Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen tekenfilm hondennamen limburgse honden namen hondennamen met betekenis buitenlandse hondennamen indische hondennamen hondennamen met s Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6512 Nijmegen - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 371.000 resultaten (0 51 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Wat is het grootste bot van het lichaam? https://www.w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl https://www.startpagina.nl › wetenschap › biologie › vraag › kleinste-bot- 30 nov. 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het kleinste bot in je lichaam hoeveel botten heeft een baby noem de botten van de bovenste ledematen armen noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam skelet mens achterkant hoeveel spieren heeft een mens botten menselijk lichaam Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6512 Nijmegen - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 371.000 resultaten (0 51 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Wat is het grootste bot van het lichaam? w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl startpagina.nl › wetenschap › biologie › vraag › kleinste-bot- 30 nov. 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het kleinste bot in je lichaam hoeveel botten heeft een baby noem de botten van de bovenste ledematen armen noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam skelet mens achterkant hoeveel spieren heeft een mens botten menselijk lichaam Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6512 Nijmegen - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 1.100.000 resultaten (0 40 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq https://www.wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer komkommer water hoeveel komkommer mag je eten gele komkommer wilde komkommer komkommer voedingswaarde hoeveel weegt een komkommer Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6512 Nijmegen - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 1.100.000 resultaten (0 40 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer komkommer water hoeveel komkommer mag je eten gele komkommer wilde komkommer komkommer voedingswaarde hoeveel weegt een komkommer Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6512 Nijmegen - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingNieuwsMapsMeer InstellingenTools Ongeveer 37.300.000 resultaten (0 65 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) 1960 1970 1980 1990 2000 2010 20.000.000 20.000.000 15.000.000 15.000.000 10.000.000 10.000.000 5.000.000 5.000.000 0 0 •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller 25 nov. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen https://www.nrc.nl › nieuws › 2019/01/02 › nederlandse-bevolking-groeit-o 2 jan. 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet https://www.volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina.nl https://www.startpagina.nl › wetenschap › aardrijkskunde › vraag › mense 20 okt. 2011 - hoeveel mensen. Nederland telt op dit moment 16.718.078 inwoners. Toegevoegd na 40 seconden: Zie voor actueel overzicht: Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2018 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 hoeveel mensen wonen er in china inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa Gerelateerde gebeurtenissen Europese kampioenschappen kortebaanzwemmen 2019 Wedstrijd · 4–8 dec. Concurrent BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Nederland6512 Nijmegen - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingNieuwsMapsMeer InstellingenTools Ongeveer 37.300.000 resultaten (0 65 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) 1960 1970 1980 1990 2000 2010 20.000.000 20.000.000 15.000.000 15.000.000 10.000.000 10.000.000 5.000.000 5.000.000 0 0 •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller 25 nov. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen nrc.nl › nieuws › 2019/01/02 › nederlandse-bevolking-groeit-o 2 jan. 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina.nl startpagina.nl › wetenschap › aardrijkskunde › vraag › mense 20 okt. 2011 - hoeveel mensen. Nederland telt op dit moment 16.718.078 inwoners. Toegevoegd na 40 seconden: Zie voor actueel overzicht: Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2018 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 hoeveel mensen wonen er in china inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa Gerelateerde gebeurtenissen Europese kampioenschappen kortebaanzwemmen 2019 Wedstrijd · 4–8 dec. Concurrent BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Nederland6512 Nijmegen - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -599,27 +599,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> × Search Modes ALLE AFBEELDINGEN MAPS VIDEO'S NIEUWS SHOPPING BOEKEN VLUCHTEN ZOEKTOOLS Zoekresultaten Recepten Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Wit brood Dagelijkse kost Geen reviews 2 uur 10 min Basisrecept voor wit brooddeeg Rutger Bakt 3 0 ") 0px 0px / 13px 15px repeat-x font-size: 0px line-height: 0 "&gt; (22) 3 uur Brood bakken met de hand Aveve Geen reviews 45 min Meer recepten Feedback https://uitpaulineskeuken.nl › 2018/11 Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit 8 nov. 2018 · Stap voor stap brood maken (basisrecept) Wil je een speltbrood bakken? Vervang dan de meel en https://recepten.tips › Recepten Zelf Ambachtelijk brood bakken in een uur | Recepten.tips 6 feb. 2019 · Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in https://www.bakkenzoalsoma.nl › da Dagelijks brood (uit eigen oven) - Bakken Zoals Oma 15 dec. 2015 · Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je https://www.libelle-lekker.be › zelf- Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een https://dagelijksekost.een.be › wit-br Wit brood | Dagelijkse kost Maar om een vers brood te bakken heb je wel een beetje geduld nodig.Jeroen maakte vers brood voor het gerecht Bereidingstijd 2 uur 10 min https://broodsmakelijk.nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Als je die AFBEELDINGEN Alles bekijken Recept Alles bekijken MENSEN ZOEKEN OOK NAAR volkoren brood bakken </t>
+          <t xml:space="preserve">Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 2.630.000 results (0 45 seconds) Search Results Web results Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voo Translate this page Brood bakken recept from uitpaulineskeuken.nl Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-ba Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recipes Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 hrs Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Web results Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎22 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Translate this page Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-b Translate this page Brood bakken recept from bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Zelf Ambachtelijk brood bakken in een uur | Recepten.tips recepten.tips › Recepten Translate this page Brood bakken recept from recepten.tips Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Translate this page Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Basis Brood recept | Smulweb.nl smulweb.nl › Recepten › Nederlandse keuken Translate this page Brood bakken recept from smulweb.nl 2 hrs 30 mins Nov 14 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Searches related to Brood bakken recept volkoren brood recept brood bakken broodbakmachine bruin brood bakken wit brood recept brood bakken zonder gist zelf brood bakken zonder broodbakmachine brood bakken temperatuur snel brood bakken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands Nijmegen - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> × Search Modes ALLE AFBEELDINGEN MAPS SHOPPING VIDEO'S NIEUWS BOEKEN VLUCHTEN ZOEKTOOLS Zoekresultaten https://www.hondennamen.nl Webresultaten Lijst met alle hondennamen? Vind de perfecte hondennaam voor jouw viervoeter Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Leuke hondennamen Stoere hondennamen Hondennamen met betekenis Bekende hondennamen Hondennaam reu Aparte hondennamen Lieve hondennamen https://www.dierendokters.com › na 1001 hondennamen voor je pup reu of teef - DierenDokters Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze Stoer Namen beginnend met de Grappig Namen met de tag ENGELS www.hondennamen.nu Hondennamen - Vind de perfecte naam voor je hond. Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw https://www.royalcanin.nl › honden Populaire hondennamen | Royal Canin Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst https://www.honden-plein.nl › hond Leuke grappige en stoere hondennamen | Honden-plein.nl Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je www.herdershonden.nl › hondenna Top 100 Leuke grappige en stoere hondennamen van 2019! - Herdershonden.nl Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen MENSEN ZOEKEN OOK NAAR aparte hondennamen geweldige hondennamen hondennamen met betekenis brabantse hondennamen https://www.mcvoordieren.nl › hon Webresultaten Hondennamen - Medisch Centrum voor Dieren De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere https://www.petplan.nl › dierenadvies Populaire hondennamen | Petplan.nl In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. https://www.linda.nl › lijstjevandedag Dit is de top 10 hondennamen: van klassieke Max tot creatieve Rembrandt - LINDA.nl 6 dagen geleden · Hondenoppassite Rover.com onthult dinsdag de populairste hondennamen van 2019. En de uitkomst zal je… eh niet verbazen. De lijst is https://www.dierennamen.net › hon Hondennamen op alfabetische volgorde - Dierennamen Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of GERELATEERDE ZOEKOPDRACHTEN tekenfilm hondennamen limburgse honden namen friese hondennamen indische hondennamen disney namen hond bekende hondennamen van tv teckel namen italiaanse hondennamen Page Navigation Meer resultaten Links in voettekst Australië Google aangeboden in: Nederlands English MEER Robe South Australia Zuid-Australië - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie Inloggen InstellingenHelpFeedback PrivacyVoorwaarden </t>
+          <t xml:space="preserve">Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 4.920.000 results (0 46 seconds) Tip: Search for English results only. You can specify your search language in Preferences Search Results Web results 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Translate this page Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Korte hondennamen · ‎Namen voor een teefje · ‎Mijn namen Populaire hondennamen | Petplan.nl petplan.nl › aanschaf-van-je-huisdier › pop Translate this page In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Populaire hondennamen | Royal Canin royalcanin.nl › hondennamen Translate this page Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Translate this page De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Top 100 Populaire HondenNamen - Hondenpage hondenpage.com › hondennamen › top Translate this page Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Hondennamen op alfabetische volgorde - Dierennamen dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Searches related to Honden namen honden namen teefje originele hondennamen speciale hondennamen teefje hondennamen met betekenis hondennamen teefje met betekenis friese hondennamen spaanse hondennamen hondennamen met s Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands Nijmegen - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> × Search Modes ALLE AFBEELDINGEN SHOPPING VIDEO'S NIEUWS MAPS BOEKEN VLUCHTEN ZOEKTOOLS Zoekresultaten Samenvatting van internet Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. https://nl.m.wikipedia.org › wiki › S Skelet (mens) - Wikipedia Feedback Over dit resultaat https://nl.m.wikipedia.org › wiki › S Webresultaten Skelet (mens) - Wikipedia Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. https://nl.ripleybelieves.com › what- Wat Is Het Grootste Bot In Het Lichaam? Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup https://nl.toluna.com › polls › Wat-i Wat is het grootste bot in het menselijk lichaam? | Toluna Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden https://www.scholieren.com › verslag Werkstuk Biologie Menselijk lichaam | Scholieren.com 8 mrt. 2007 · Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit bhamega.com › windows-verwijderen grootste bot in lichaam wat is het grootste bot in je lichaam Het scheenbeen is de grootste bot in het onderbeen en wordt voornamelijk . het menselijk lichaam door het skelet beschermd tegen beschadiging wat is het https://nl.quora.com › Waarom-is-h Waarom is het dijbeen het grootste bot? - Quora 1 antwoord Wat is het zwakste bot in ons lichaam? 91 weergaven · Waar bestaat Welk bot in het menselijk lichaam breken mensen het vaakst en waarom? 54 weergaven 0 stemmen Omdat de stijgbeugel in het oor nog groter is dan het dijbeen Meer MENSEN ZOEKEN OOK NAAR wat is het kleinste bot in je lichaam hoeveel botten heeft een baby botten menselijk lichaam oefenen hoeveel spieren heeft een mens sttimsinhouston.com › wat-is-het-gr Webresultaten Top 10 Feitjes Over Menselijke Botten wat is het grootste bot in je lichaam Wat is het grootste bot in je lichaam. 07.08.2019. Auteur: Tijmen. De pols bestaat uit 8 handwortelbeentjes. Het bekken bestaat uit een aantal beenderen die Ontbrekend: menselijk https://www.alletop10lijstjes.nl › top Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. AFBEELDINGEN Alles bekijken Alles bekijken https://www.gezondheidsplein.nl › it Webresultaten Botten - Menselijk lichaam | Gezondheidsplein.nl Het menselijk lichaam bestaat uit verschillende typen botten: Pijpbeenderen. Deze botten Het grootste bot dat je hebt is je dijbeen. Het kleinste botje is de GERELATEERDE ZOEKOPDRACHTEN skelet wikipedia skelet onderdelen het skelet van de mens menselijk skelet bekken sterkste bot menselijk lichaam functies van het skelet skelet mens achterkant delen van het skelet Page Navigation Meer resultaten Links in voettekst Australië Google aangeboden in: Nederlands English MEER Robe South Australia Zuid-Australië - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie Inloggen InstellingenHelpFeedback PrivacyVoorwaarden </t>
+          <t xml:space="preserve">Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 490.000 results (0 57 seconds) Search Results Featured snippet from the web Image result for Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback About Featured Snippets Web results Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-b Translate this page Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biolog Translate this page Mar 8 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in Translate this page Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-me Translate this page Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Wat is het grootste bot van het lichaam? w-tjes.nl › searchresult Translate this page Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › botten › item45095 Translate this page De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en Het menselijk lichaam bestaat uit verschillende typen botten: Pijpbeenderen. Het grootste bot dat je hebt is je dijbeen. Het kleinste botje is Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl startpagina.nl › biologie › vraag › kleinste- Translate this page Nov 30 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam Translate this page Apr 23 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50 Translate this page Feb 27 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen skelet mens skelet kopen skelet hoofd aantal botten baby skelet tekening skelet achterkant Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands Nijmegen - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> × Search Modes ALLE AFBEELDINGEN SHOPPING VIDEO'S NIEUWS MAPS BOEKEN VLUCHTEN ZOEKTOOLS Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al datwater bestaat komkommer uit veel meer stoffen. https://www.dokterdokter.nl › item2 Waarom zijn komkommers gezond? | Dokterdokter.nl Feedback Over dit resultaat https://m.facebook.com › posts Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer | Facebook Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. https://nl.m.wikipedia.org › wiki Komkommer - Wikipedia De komkommer is een eenjarige plant uit de komkommerfamilie . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met zure room en https://www.wisfaq.nl › digitale vraagbaak voor het wiskundeonderwijs - WisFaq 18 okt. 2002 · Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers https://www.startpagina.nl › vraag 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers 1 jul. 2010 · 7 antwoorden graag uitleg hoe je dit berekend. een rekendocent beweerd dat je 50 kilo overhoud Topantwoord · 3 stemmen Je hebt de vraag niet goed weergegeven. Je begint met 100 kilo komkommers die 1% droge Meer 1 stem Jouw rekendocent kan dus niet rekenen of maakt een grapje. Er blijft ongeveer 98 kilo over Meer 6 stemmen 100 kilo komkommers Hiervan = 99% water = 99 kilo (99/100 van 100) Van deze 99 kilo verdampt Meer 5 stemmen De komkommers wegen 100 kilo. Dat is voor 99% water. Dat is 99 kilo water. Van die 99 kilo Meer 1 stem Ik ben niet zo'n rekenwonder maar het hangt er naar mijn idee ook vanaf hoeveel die ene procent Meer Alle posts bekijken https://www.dokterdokter.nl › item2 Waarom zijn komkommers gezond? | Dokterdokter.nl Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel https://www.maxvandaag.nl › themas Een komkommer bevat meer dan water: hierom is hij zo gezond - MAX Vandaag 27 aug. 2019 · Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de MENSEN ZOEKEN OOK NAAR witte komkommer komkommer water hoeveel procent water in mens gele komkommer https://www.vitens.com › hoeveel-w Webresultaten Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens 4 mei 2016 · Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? https://mobiel.voedingscentrum.nl › Komkommer | Voedingscentrum Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor de komkommerteelt is weinig land en water nodig. Voor https://www.voedingsacademy.nl › 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten Eten! - Voedingsacademy 27 jun. 2019 · Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten https://www.groentehelden.nl › blog Eet je water! - Groentehelden 2 mei 2018 · Het eten van waterrijke groenten en fruit na het sporten vullen je Een komkommer is erg effectief om je lichaam van binnenuit van het nodige GERELATEERDE ZOEKOPDRACHTEN nadelen van komkommer wilde komkommer hoeveel komkommer mag je eten watermeloen procent water hoeveel weegt een komkommer soorten komkommer komkommer voedingswaarde slangkomkommer of komkommer Page Navigation Meer resultaten Links in voettekst Australië Google aangeboden in: Nederlands English MEER Robe South Australia Zuid-Australië - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie Inloggen InstellingenHelpFeedback PrivacyVoorwaarden </t>
+          <t xml:space="preserve">Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 1.100.000 results (0 53 seconds) Search Results Featured snippet from the web Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback About Featured Snippets Web results Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › › Eten &amp; drinken Translate this page Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel digitale vraagbaak voor het wiskundeonderwijs - WisFaq wisfaq.nl › Translate this page Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wiskunde › vraag › 100-kil Translate this page Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › sma Translate this page 5 answers Mar 4 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komk Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › themas › eten-drinken › e Translate this page Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Hoeveel water zit er per d Translate this page May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer Translate this page Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands Nijmegen - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> × Search Modes ALLE AFBEELDINGEN MAPS NIEUWS VIDEO'S SHOPPING BOEKEN VLUCHTEN ZOEKTOOLS Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) 19601980200020.000.00020.000.00015.000.00015.000.00010.000.00010.000.0005.000.0005.000.00000 België 11 4 miljoen ‎(2018) Zweden 10 12 miljoen ‎(2018) Bronnen omvatten: Eurostat Meer weergeven https://www.cbs.nl › visualisaties › b Webresultaten Bevolkingsteller - CBS 25 nov. 2019 · De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen https://www.cbs.nl › faq › specifiek Hoeveel mensen wonen er in Nederland? - CBS De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners https://nl.m.wikipedia.org › wiki › B Bevolking van Nederland - Wikipedia Nederland telde in 2017 naar schatting 17 miljoen inwoners. vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen In 2005 woonden er 3 1 miljoen allochtonen in https://allecijfers.nl › nederland Héél véél informatie over Nederland (update 2019!) | AlleCijfers.nl Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of www.republiekallochtonie.nl › feiten Nederlanders buitenlanders allochtonen. De cijfers - Republiek Allochtonië 15 okt. 2019 · Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een https://www.hartvannederland.nl › n Nederland groeit in 2018 met 100.000 mensen naar 17 3 miljoen inwoners 2 jan. 2019 · In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. MENSEN ZOEKEN OOK NAAR hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 https://www.trouw.nl › binnenland Webresultaten Vooral in het westen van Nederland wordt het steeds drukker | Trouw 10 sep. 2019 · Nog altijd worden er in Nederland meer mensen geboren dan er en buiten de stad blijven wonen” zegt Daniëlle Snellen van het PBL. https://www.volkskrant.nl › nederla Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet de groei het niet hebben van 2 jan. 2018 · Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de https://www.nu.nl › binnenland Nederlandse bevolking groeit met 46.000 mensen in eerste helft 2019 | NU - Het laatste 31 jul. 2019 · De bevolking van Nederland is in de eerste helft van dit jaar met kinderen geboren terwijl er 77.000 mensen zijn gestorven. https://www.startpagina.nl › vraag hoeveel mensen wonen er in nederland? - Startpagina GoeieVraag 20 okt. 2011 · 2 antwoorden hoeveel mensen 3 stemmen Nederland telt op dit moment 16.718.078 inwoners. Toegevoegd na 40 seconden: Zie voor Meer 0 stemmen Nederland telt op dit moment: 16.718.822 Inwoners. Toegevoegd na 33 seconden: Nu 16.718.8234 Meer GERELATEERDE ZOEKOPDRACHTEN hoeveel mensen wonen er in china aantal inwoners nederland 2018 hoeveel inwoners heeft nederland 2018 inwoners nederland 1923 hoeveel huishoudens in nederland aantal inwoners nederland 1600 hoeveel vrouwen in nederland hoeveel mensen wonen er in duitsland Page Navigation Meer resultaten Links in voettekst Australië Google aangeboden in: Nederlands English MEER Robe South Australia Zuid-Australië - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie Inloggen InstellingenHelpFeedback PrivacyVoorwaarden </t>
+          <t xml:space="preserve">Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 9.220.000 results (0 73 seconds) Search Results Netherlands/Population 17.18 million (2018) • Netherlands 17.18 million ‌ • Belgium 11.4 million ‌ • Sweden 10.12 million ‌ Explore more Feedback Sources include: Eurostat Web results Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller Translate this page Nov 25 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-m Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Translate this page Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederl Translate this page Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederland Translate this page Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen nrc.nl › nieuws › 2019/01/02 › nederlandse - Translate this page Jan 2 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolkin Translate this page Jul 31 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet volkskrant.nl › nieuws-achtergrond › neder - Translate this page Jan 2 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina.nl startpagina.nl › aardrijkskunde › vraag › m Translate this page Oct 20 2011 - hoeveel mensen. Nederland telt op dit moment 16.718.078 inwoners. Toegevoegd na 40 seconden: Zie voor actueel overzicht: EU member states View 15+ more France France Belgium Belgium United Kingdom United Kingdom Germany Germany Sweden Sweden Luxembourg Luxembourg Denmark Denmark Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen in nederland 2019 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 populatie nederland 2019 aantal inwoners nederland 2018 Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlands map expand icon Netherlands (Nederland) Country in Europe Description Description The Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Capital: Amsterdam Dialing code: +31 Population: 17.18 million (2018) Eurostat Points of interest: Van Gogh Museum Keukenhof MORE Official language: Dutch Related event 2019 European Short Course Swimming Championships Competition · 4–8 Dec Competitor Destinations View 10+ more Amsterdam Amsterdam Rotterdam Rotterdam The Hague The Hague Zaanse Schans Zaanse Schans Utrecht Utrecht People also search for View 15+ more Belgium Belgium Luxembourg Luxembourg Norway Norway Denmark Denmark France France Feedback Footer links Netherlands Nijmegen - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
         </is>
       </c>
     </row>
@@ -629,27 +629,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 2.630.000 results (0 45 seconds) Search Results Web results Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voo Translate this page Brood bakken recept from uitpaulineskeuken.nl Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-ba Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recipes Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 hrs Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Web results Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎22 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Translate this page Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-b Translate this page Brood bakken recept from www.bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Zelf Ambachtelijk brood bakken in een uur | Recepten.tips https://recepten.tips › Recepten Translate this page Brood bakken recept from recepten.tips Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Translate this page Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Basis Brood recept | Smulweb.nl https://www.smulweb.nl › Recepten › Nederlandse keuken Translate this page Brood bakken recept from www.smulweb.nl 2 hrs 30 mins Nov 14 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Searches related to Brood bakken recept volkoren brood recept brood bakken broodbakmachine bruin brood bakken wit brood recept brood bakken zonder gist zelf brood bakken zonder broodbakmachine brood bakken temperatuur snel brood bakken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands Nijmegen - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 8.590.000 resultaten (0 47 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎22 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎6 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken zelf brood bakken goedkoper brood bakken temperatuur brood bakken zonder gist Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland7497 NA Bentelo - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 4.920.000 results (0 46 seconds) Tip: Search for English results only. You can specify your search language in Preferences Search Results Web results 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Translate this page Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Korte hondennamen · ‎Namen voor een teefje · ‎Mijn namen Populaire hondennamen | Petplan.nl https://www.petplan.nl › aanschaf-van-je-huisdier › pop Translate this page In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Populaire hondennamen | Royal Canin https://www.royalcanin.nl › hondennamen Translate this page Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Translate this page De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Top 100 Populaire HondenNamen - Hondenpage https://www.hondenpage.com › hondennamen › top Translate this page Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Hondennamen op alfabetische volgorde - Dierennamen https://www.dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Searches related to Honden namen honden namen teefje originele hondennamen speciale hondennamen teefje hondennamen met betekenis hondennamen teefje met betekenis friese hondennamen spaanse hondennamen hondennamen met s Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands Nijmegen - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 4.500.000 resultaten (0 30 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Grappig · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu · ‎Mijn namen Populaire hondennamen | Petplan.nl petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Populaire hondennamen | Royal Canin royalcanin.nl › populaire-kattennamen-populaire-hondennamen Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden honden-plein.nl › hondennamen › hondennamen-teefje Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Top 100 Populaire HondenNamen - Hondenpage hondenpage.com › hondennamen › top Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen tekenfilm hondennamen hondennamen met betekenis limburgse honden namen buitenlandse hondennamen indische hondennamen hondennamen met s Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland7497 NA Bentelo - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 490.000 results (0 57 seconds) Search Results Featured snippet from the web Image result for Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback About Featured Snippets Web results Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-b Translate this page Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biolog Translate this page Mar 8 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in Translate this page Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-me Translate this page Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Wat is het grootste bot van het lichaam? https://www.w-tjes.nl › searchresult Translate this page Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › botten › item45095 Translate this page De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en Het menselijk lichaam bestaat uit verschillende typen botten: Pijpbeenderen. Het grootste bot dat je hebt is je dijbeen. Het kleinste botje is Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl https://www.startpagina.nl › biologie › vraag › kleinste- Translate this page Nov 30 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam Translate this page Apr 23 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50 Translate this page Feb 27 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen skelet mens skelet kopen skelet hoofd aantal botten baby skelet tekening skelet achterkant Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands Nijmegen - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 371.000 resultaten (0 44 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Wat is het grootste bot van het lichaam? w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl startpagina.nl › wetenschap › biologie › vraag › kleinste-bot- 30 nov. 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het kleinste bot in je lichaam hoeveel botten heeft een baby noem de botten van de bovenste ledematen armen noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam skelet mens achterkant hoeveel spieren heeft een mens botten menselijk lichaam Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland7497 NA Bentelo - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 1.100.000 results (0 53 seconds) Search Results Featured snippet from the web Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback About Featured Snippets Web results Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › › Eten &amp; drinken Translate this page Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel digitale vraagbaak voor het wiskundeonderwijs - WisFaq https://www.wisfaq.nl › Translate this page Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wiskunde › vraag › 100-kil Translate this page Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › sma Translate this page 5 answers Mar 4 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komk Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › themas › eten-drinken › e Translate this page Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Hoeveel water zit er per d Translate this page May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer Translate this page Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands Nijmegen - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 1.100.000 resultaten (0 47 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer komkommer water witte komkommer hoeveel komkommer mag je eten gele komkommer wilde komkommer komkommer voedingswaarde hoeveel weegt een komkommer Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland7497 NA Bentelo - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 9.220.000 results (0 73 seconds) Search Results Netherlands/Population 17.18 million (2018) • Netherlands 17.18 million ‌ • Belgium 11.4 million ‌ • Sweden 10.12 million ‌ Explore more Feedback Sources include: Eurostat Web results Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller Translate this page Nov 25 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-m Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Translate this page Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederl Translate this page Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederland Translate this page Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen https://www.nrc.nl › nieuws › 2019/01/02 › nederlandse - Translate this page Jan 2 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolkin Translate this page Jul 31 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet https://www.volkskrant.nl › nieuws-achtergrond › neder - Translate this page Jan 2 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina.nl https://www.startpagina.nl › aardrijkskunde › vraag › m Translate this page Oct 20 2011 - hoeveel mensen. Nederland telt op dit moment 16.718.078 inwoners. Toegevoegd na 40 seconden: Zie voor actueel overzicht: EU member states View 15+ more France France Belgium Belgium United Kingdom United Kingdom Germany Germany Sweden Sweden Luxembourg Luxembourg Denmark Denmark Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen in nederland 2019 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 populatie nederland 2019 aantal inwoners nederland 2018 Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlands map expand icon Netherlands (Nederland) Country in Europe Description Description The Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Capital: Amsterdam Dialing code: +31 Population: 17.18 million (2018) Eurostat Points of interest: Van Gogh Museum Keukenhof MORE Official language: Dutch Related event 2019 European Short Course Swimming Championships Competition · 4–8 Dec Competitor Destinations View 10+ more Amsterdam Amsterdam Rotterdam Rotterdam The Hague The Hague Zaanse Schans Zaanse Schans Utrecht Utrecht People also search for View 15+ more Belgium Belgium Luxembourg Luxembourg Norway Norway Denmark Denmark France France Feedback Footer links Netherlands Nijmegen - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 37.300.000 resultaten (0 77 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller 25 nov. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina.nl startpagina.nl › wetenschap › aardrijkskunde › vraag › mense 20 okt. 2011 - hoeveel mensen. Nederland telt op dit moment 16.718.078 inwoners. Toegevoegd na 40 seconden: Zie voor actueel overzicht: Vooral in het westen van Nederland wordt het steeds drukker trouw.nl › binnenland › vooral-in-het-westen-van-nederland- 10 sep. 2019 - Nog altijd worden er in Nederland meer mensen geboren dan er en buiten de stad blijven wonen” zegt Daniëlle Snellen van het PBL. Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2018 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 hoeveel mensen wonen er in china hoeveel vrouwen in nederland Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa Gerelateerde gebeurtenissen Europese kampioenschappen kortebaanzwemmen 2019 Wedstrijd · 4–8 dec. Concurrent BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Nederland7497 NA Bentelo - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -659,27 +659,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 8.590.000 resultaten (0 47 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎22 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎6 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van www.bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl https://www.smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van www.smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken zelf brood bakken goedkoper brood bakken temperatuur brood bakken zonder gist Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland7497 NA Bentelo - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Zoekmodi Alle Afbeeldingen Video's Shopping Maps Meer InstellingenTools Ongeveer 10.400.000 resultaten (0 52 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Beoordeling: 3 - ‎22 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt rutgerbakt.nl › Brood recepten Beoordeling: 4 - ‎6 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl smulweb.nl › Recepten › Nederlandse keuken 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken zelf brood bakken goedkoper brood bakken temperatuur brood bakken zonder gist Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam-Zuid Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 4.500.000 resultaten (0 30 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Grappig · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu · ‎Mijn namen Populaire hondennamen | Petplan.nl https://www.petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Populaire hondennamen | Royal Canin https://www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden https://www.honden-plein.nl › hondennamen › hondennamen-teefje Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Top 100 Populaire HondenNamen - Hondenpage https://www.hondenpage.com › hondennamen › top Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen tekenfilm hondennamen hondennamen met betekenis limburgse honden namen buitenlandse hondennamen indische hondennamen hondennamen met s Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland7497 NA Bentelo - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Zoekmodi Alle Afbeeldingen Shopping Video's Nieuws Meer InstellingenTools Ongeveer 4.970.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu · ‎Mijn namen Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Populaire hondennamen | Petplan.nl petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Populaire hondennamen | Royal Canin royalcanin.nl › populaire-kattennamen-populaire-hondennamen Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Lijst met alle leuke hondennamen voor reu &amp; teef hondennamen.nl › leuke-hondennamen Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. 30.000 hondennamen Gratis hondennaam informatie &amp; expert hondennamen.info Ontvang direct gratis toegang tot 30.000 hondennamen: hondennaam informatie en tips van de experts: ✅30.000 Hondennamen ✅Gratis. Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen tekenfilm hondennamen limburgse honden namen hondennamen met betekenis indische hondennamen disney namen hond friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam-Zuid Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 371.000 resultaten (0 44 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Wat is het grootste bot van het lichaam? https://www.w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl https://www.startpagina.nl › wetenschap › biologie › vraag › kleinste-bot- 30 nov. 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het kleinste bot in je lichaam hoeveel botten heeft een baby noem de botten van de bovenste ledematen armen noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam skelet mens achterkant hoeveel spieren heeft een mens botten menselijk lichaam Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland7497 NA Bentelo - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Zoekmodi Alle Afbeeldingen Shopping Video's Nieuws Meer InstellingenTools Ongeveer 422.000 resultaten (0 61 seconden) Zoekresultaten Samenvatting van internet Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Wat is het grootste bot van het lichaam? w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl startpagina.nl › wetenschap › biologie › vraag › kleinste-bot- 30 nov. 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het kleinste bot in je lichaam hoeveel botten heeft een baby noem de botten van de bovenste ledematen armen noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam skelet mens achterkant hoeveel spieren heeft een mens botten menselijk lichaam Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam-Zuid Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 1.100.000 resultaten (0 47 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq https://www.wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer komkommer water witte komkommer hoeveel komkommer mag je eten gele komkommer wilde komkommer komkommer voedingswaarde hoeveel weegt een komkommer Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland7497 NA Bentelo - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Zoekmodi Alle Afbeeldingen Shopping Video's Nieuws Meer InstellingenTools Ongeveer 1.050.000 resultaten (0 51 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer komkommer water witte komkommer hoeveel komkommer mag je eten gele komkommer wilde komkommer komkommer voedingswaarde hoeveel procent water in mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam-Zuid Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 37.300.000 resultaten (0 77 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller 25 nov. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet https://www.volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina.nl https://www.startpagina.nl › wetenschap › aardrijkskunde › vraag › mense 20 okt. 2011 - hoeveel mensen. Nederland telt op dit moment 16.718.078 inwoners. Toegevoegd na 40 seconden: Zie voor actueel overzicht: Vooral in het westen van Nederland wordt het steeds drukker https://www.trouw.nl › binnenland › vooral-in-het-westen-van-nederland- 10 sep. 2019 - Nog altijd worden er in Nederland meer mensen geboren dan er en buiten de stad blijven wonen” zegt Daniëlle Snellen van het PBL. Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2018 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 hoeveel mensen wonen er in china hoeveel vrouwen in nederland Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa Gerelateerde gebeurtenissen Europese kampioenschappen kortebaanzwemmen 2019 Wedstrijd · 4–8 dec. Concurrent BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Nederland7497 NA Bentelo - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Zoekmodi Alle Afbeeldingen Shopping Nieuws Maps Meer InstellingenTools Ongeveer 39.800.000 resultaten (0 67 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) 1960 1970 1980 1990 2000 2010 20.000.000 20.000.000 15.000.000 15.000.000 10.000.000 10.000.000 5.000.000 5.000.000 0 0 • Nederland 17 18 miljoen ‌ • België 11 4 miljoen ‌ • Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller 25 nov. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina.nl startpagina.nl › wetenschap › aardrijkskunde › vraag › mense 20 okt. 2011 - hoeveel mensen. Nederland telt op dit moment 16.718.078 inwoners. Toegevoegd na 40 seconden: Zie voor actueel overzicht: Vooral in het westen van Nederland wordt het steeds drukker trouw.nl › binnenland › vooral-in-het-westen-van-nederland- 10 sep. 2019 - Nog altijd worden er in Nederland meer mensen geboren dan er en buiten de stad blijven wonen” zegt Daniëlle Snellen van het PBL. Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2018 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 hoeveel mensen wonen er in china inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Nederland Land in Europa Gerelateerde gebeurtenissen Europese kampioenschappen kortebaanzwemmen 2019 Wedstrijd · 4–8 dec. Concurrent Beschrijving Nederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst NederlandAmsterdam-Zuid Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
     </row>
@@ -689,27 +689,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Zoekmodi Alle Afbeeldingen Video's Shopping Maps Meer InstellingenTools Ongeveer 10.400.000 resultaten (0 52 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Beoordeling: 3 - ‎22 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt https://rutgerbakt.nl › Brood recepten Beoordeling: 4 - ‎6 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl https://www.smulweb.nl › Recepten › Nederlandse keuken 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken zelf brood bakken goedkoper brood bakken temperatuur brood bakken zonder gist Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam-Zuid Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Brood bakken recept About 3.660.000 results (0 55 seconds) Search Results Web results Translate this pageuitpaulineskeuken.nl/Uit Pauline's Keuken › nl › 2018/11 › basisrecept-vo Basisrecept voor brood incl. stap voor stap beschrijving - Uit Brood bakken recept from uitpaulineskeuken.nl Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Translate this pagelibelle-lekker.be/Libelle Lekker › be › artikelen › zelf-brood-bakken- Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recipes Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 hrs Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Web results Translate this pagerutgerbakt.nl/Rutger Bakt › nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎22 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Translate this pageah.nl/Albert Heijn › nl › allerhande › recepten › brood-ba Brood bakken - Allerhande - Albert Heijn Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept Translate this pagebakkenzoalsoma.nl/Bakken Zoals Oma › nl › 2012/10 › dagelijks-brood Dagelijks brood (uit eigen oven) - Bakken Zoals Oma Brood bakken recept from bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Translate this pagerecepten.tips/Recepten.tips › Recepten Zelf Ambachtelijk brood bakken in een uur | Recepten.tips Brood bakken recept from recepten.tips Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk Translate this pagebroodsmakelijk.nl/Broodsmakelijk › nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Translate this pagebroodsmakelijk.nl/Broodsmakelijk › nl › hoe-bak-ik-mijn-eerste-brood Hoe bak ik zelf mijn eerste brood (en goedkoop)? Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Translate this pagesmulweb.nl/Smulweb › nl › Recepten › Nederlandse keuken Basis Brood recept | Smulweb.nl Brood bakken recept from smulweb.nl 2 hrs 30 mins Nov 14 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Searches related to Brood bakken recept volkoren brood recept brood bakken broodbakmachine bruin brood bakken wit brood recept brood bakken zonder gist zelf brood bakken zonder broodbakmachine brood bakken temperatuur snel brood bakken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands3523 Utrecht - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Zoekmodi Alle Afbeeldingen Shopping Video's Nieuws Meer InstellingenTools Ongeveer 4.970.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu · ‎Mijn namen Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Populaire hondennamen | Petplan.nl https://www.petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Populaire hondennamen | Royal Canin https://www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Lijst met alle leuke hondennamen voor reu &amp; teef https://www.hondennamen.nl › leuke-hondennamen Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. 30.000 hondennamen Gratis hondennaam informatie &amp; expert https://hondennamen.info Ontvang direct gratis toegang tot 30.000 hondennamen: hondennaam informatie en tips van de experts: ✅30.000 Hondennamen ✅Gratis. Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen tekenfilm hondennamen limburgse honden namen hondennamen met betekenis indische hondennamen disney namen hond friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam-Zuid Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Honden namen About 4.200.000 results (0 47 seconds) Tip: Search for English results only. You can specify your search language in Preferences Ad Ad dier.nu/ ‎ Top 5 Populaire Hondennamen | Bekijk de top 5 | Bekijk de Lijst‎ ‎ Stichting DierenLot steunt lokale en regionale dierenorganisaties. Helpt u ook mee? Allerlei tips en interessante weetjes vindt u op de website van Stichting DierenLot. Help Dieren In Nood. Steun Lokale Initiatieven. Steun Goede Doelen. Vogelweetjes Leuke en interessante Vogelweetjes. Beter bestaan voor Dieren U kunt op verschillende manieren dieren helpen in Nederland. Search Results Web results Translate this pagedierendokters.com/DierenDokters › honden › namen 1001 hondennamen voor je pup reu of teef - DierenDokters Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS Translate this pageherdershonden.nl/Herdershonden.nl › nl › hondennamen Top 100 Leuke grappige en stoere hondennamen van 2019! Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Translate this pagehondennamen.nu/Hondennamen.nu › nu Hondennamen - Vind de perfecte naam voor je hond. Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Korte hondennamen · ‎Namen voor een teefje · ‎Mijn namen Translate this pagepetplan.nl/Petplan › nl › dierenadvies › aanschaf-van-je-huisdier Populaire hondennamen | Petplan.nl In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Translate this pageroyalcanin.nl/Royal Canin › nl › hondennamen Populaire hondennamen | Royal Canin Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Translate this pagehonden-plein.nl/Honden-plein.nl › nl › hondennamen Leuke grappige en stoere hondennamen | Honden-plein.nl Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Translate this pagemcvoordieren.nl/Medisch Centrum voor Dieren › nl › hondennamen Hondennamen - Medisch Centrum voor Dieren De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Translate this pagehondennamen.nl/Hondennamen.nl › nl Lijst met alle hondennamen? Vind de perfecte hondennaam Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Translate this pagehondenpage.com/Hondenpage › hondennamen › top Top 100 Populaire HondenNamen - Hondenpage Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd dierennamen.net/Dierennamen › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Dierennamen Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Searches related to Honden namen honden namen teefje originele hondennamen speciale hondennamen teefje hondennamen met betekenis hondennamen teefje met betekenis friese hondennamen spaanse hondennamen hondennamen met s Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands3523 Utrecht - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Zoekmodi Alle Afbeeldingen Shopping Video's Nieuws Meer InstellingenTools Ongeveer 422.000 resultaten (0 61 seconden) Zoekresultaten Samenvatting van internet Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Wat is het grootste bot van het lichaam? https://www.w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl https://www.startpagina.nl › wetenschap › biologie › vraag › kleinste-bot- 30 nov. 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het kleinste bot in je lichaam hoeveel botten heeft een baby noem de botten van de bovenste ledematen armen noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam skelet mens achterkant hoeveel spieren heeft een mens botten menselijk lichaam Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam-Zuid Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Wat is het grootste bot in het menselijk lichaam? About 372.000 results (0 49 seconds) Search Results Featured snippet from the web Image result for Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. nl.wikipedia.org/nl.wikipedia.org › wiki › Skelet_(mens) Skelet (mens) - Wikipedia Feedback About Featured Snippets Web results Translate this pagenl.ripleybelieves.com/nl.ripleybelieves.com › what-is-largest-bone-i Wat Is Het Grootste Bot In Het Lichaam? Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Translate this pagescholieren.com/Scholieren.com › verslag › werkstuk-biologie-mense Werkstuk Biologie Menselijk lichaam | Scholieren.com Mar 8 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Translate this pagenl.toluna.com/nl.toluna.com › polls › Wat-is-het-grootste-bo Wat is het grootste bot in het menselijk lichaam? | Toluna Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Translate this pagealletop10lijstjes.nl/Alletop10lijstjes › nl › top-10-feitjes-over-menselijk Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Translate this pagew-tjes.nl/w-tjes.nl › searchresult Wat is het grootste bot van het lichaam? Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Translate this pagegezondheidsplein.nl/Gezondheidsplein › nl › botten › item45095 Botten - Menselijk lichaam | Gezondheidsplein.nl De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en Het menselijk lichaam bestaat uit verschillende typen botten: Pijpbeenderen. Het grootste bot dat je hebt is je dijbeen. Het kleinste botje is Translate this pagestartpagina.nl/Startpagina.nl › nl › wetenschap › biologie › vraag Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl Nov 30 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. Translate this pagewikikids.nl/Wikikids › nl › Menselijk_lichaam Menselijk lichaam - Wikikids Apr 23 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Translate this pagewelingelichtekringen.nl/Welingelichte Kringen › nl › samenleving › 50-feite 50 feiten over je lichaam – Wel.nl Feb 27 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen skelet mens skelet kopen skelet hoofd aantal botten baby skelet tekening skelet achterkant Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands3523 Utrecht - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Zoekmodi Alle Afbeeldingen Shopping Video's Nieuws Meer InstellingenTools Ongeveer 1.050.000 resultaten (0 51 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq https://www.wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer komkommer water witte komkommer hoeveel komkommer mag je eten gele komkommer wilde komkommer komkommer voedingswaarde hoeveel procent water in mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam-Zuid Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel van een komkommer is water? About 1.170.000 results (0 50 seconds) Search Results Featured snippet from the web Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. dokterdokter.nl/dokterdokter.nl › gezond-leven › eten-drinken › item29820 Waarom zijn komkommers gezond? | Dokterdokter.nl Feedback About Featured Snippets Web results Translate this pagefacebook.com/Facebook › DietistZoeetje › posts › een-mens-bestaat Zoeetje - Een mens bestaat voor 60% uit water komkommer Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Translate this pagenl.wikipedia.org/Wikipedia › nl › wiki › Komkommer Komkommer - Wikipedia De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Translate this pagewisfaq.nl/WisFaq › nl › digitale vraagbaak voor het wiskundeonderwijs - WisFaq Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Translate this pagestartpagina.nl/Startpagina.nl › nl › wetenschap › wiskunde › vraag 100 kilo komkommers bestaan uit 99% water. er verdampt 1 Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Translate this pagestartpagina.nl/Startpagina › nl › eten-drinken › vraag › smaakt-ko Waarom smaakt komkommer niet hetzelfde als water 5 answers Mar 4 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Translate this pagevoedingscentrum.nl/Voedingscentrum › nl Komkommer | Voedingscentrum Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Translate this pagemaxvandaag.nl/MAX Vandaag › nl › sessies › themas › eten-drinken Een komkommer bevat meer dan water: hierom is hij zo gezond Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Translate this pagevitens.com/vitens.com › blogoverzicht › hoeveel-w Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Translate this pagevoedingsacademy.nl/voedingsacademy.nl › komkommer 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands3523 Utrecht - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Zoekmodi Alle Afbeeldingen Shopping Nieuws Maps Meer InstellingenTools Ongeveer 39.800.000 resultaten (0 67 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) 1960 1970 1980 1990 2000 2010 20.000.000 20.000.000 15.000.000 15.000.000 10.000.000 10.000.000 5.000.000 5.000.000 0 0 • Nederland 17 18 miljoen ‌ • België 11 4 miljoen ‌ • Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller 25 nov. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet https://www.volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina.nl https://www.startpagina.nl › wetenschap › aardrijkskunde › vraag › mense 20 okt. 2011 - hoeveel mensen. Nederland telt op dit moment 16.718.078 inwoners. Toegevoegd na 40 seconden: Zie voor actueel overzicht: Vooral in het westen van Nederland wordt het steeds drukker https://www.trouw.nl › binnenland › vooral-in-het-westen-van-nederland- 10 sep. 2019 - Nog altijd worden er in Nederland meer mensen geboren dan er en buiten de stad blijven wonen” zegt Daniëlle Snellen van het PBL. Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2018 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 hoeveel mensen wonen er in china inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Nederland Land in Europa Gerelateerde gebeurtenissen Europese kampioenschappen kortebaanzwemmen 2019 Wedstrijd · 4–8 dec. Concurrent Beschrijving Nederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst NederlandAmsterdam-Zuid Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel mensen wonen er in Nederland? About 11.400.000 results (0 80 seconds) Search Results Netherlands/Population 17.18 million (2018) •Netherlands 17.18 million ‌ •Belgium 11.4 million ‌ •Sweden 10.12 million ‌ Explore more Feedback Sources include: Eurostat Web results Translate this pagecbs.nl/CBS.nl › nl › nl-nl › visualisaties › bevolkingsteller Bevolkingsteller - CBS Nov 25 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Translate this pagecbs.nl/CBS.nl › nl › nl-nl › faq › specifiek › hoeveel-mens Hoeveel mensen wonen er in Nederland? - CBS De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Translate this pageallecijfers.nl/AlleCijfers.nl › nl › nederland Héél véél informatie over Nederland (update 2019 Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Translate this pagenl.wikipedia.org/Wikipedia › nl › wiki › Bevolking_van_Nederland Bevolking van Nederland - Wikipedia Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Translate this pagerepubliekallochtonie.nl/Republiek Allochtonië › nl › blog › feiten › nederla Nederlanders buitenlanders allochtonen. De cijfers Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een hartvannederland.nl/Hart van Nederland › nl › nieuws › nederland-groeit-in-2018-met-100-0 Nederland groeit in 2018 met 100.000 mensen naar 17 3 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Translate this pagenu.nl/NU.nl › nl › binnenland › nederlandse-bevolking-gr Nederlandse bevolking groeit met 46.000 mensen in eerste Jul 31 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. - Translate this pagevolkskrant.nl/de Volkskrant › nl › nieuws-achtergrond › nederlan Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet Jan 2 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de Translate this pagetrouw.nl/Trouw › nl › binnenland › vooral-in-het-westen-van Vooral in het westen van Nederland wordt het steeds drukker Sep 10 2019 - Nog altijd worden er in Nederland meer mensen geboren dan er en buiten de stad blijven wonen” zegt Daniëlle Snellen van het PBL. Translate this pagertlz.nl/RTL-Z › nl › algemeen › binnenland › artikel › pro Amsterdam wordt miljoenenstad: zoek op hoeveel jouw Sep 10 2019 - In de komende 16 jaar krijgt Nederland er naar verwachting zo'n miljoen gemeenten geldt dat er steeds meer mensen alleen zullen wonen. EU member states View 15+ more France France Belgium Belgium United Kingdom United Kingdom Germany Germany Sweden Sweden Luxembourg Luxembourg Denmark Denmark Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen in nederland 2019 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 populatie nederland 2019 aantal inwoners nederland 2018 Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlandsmap expand icon Netherlands (Nederland) Country in Europe Related event 2019 European Short Course Swimming Championships Competition · 4–8 Dec Competitor DescriptionThe Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Related statistics Gross domestic product 826.2 billion USD ‎(2017) Population growth rate 0.6% annual change ‎(2017) Life expectancy 81.51 years ‎(2016) Population elsewhere Germany 82.79 million ‎(2018) Amsterdam 821 752 ‎(2015) France 66.89 million ‎(2018) Feedback Sources include: World Bank Eurostat United Nations INSEE Footer links Netherlands3523 Utrecht - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
     </row>
@@ -719,27 +719,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Brood bakken recept About 3.660.000 results (0 55 seconds) Search Results Web results Translate this pagehttps://uitpaulineskeuken.nl/Uit Pauline's Keuken › nl › 2018/11 › basisrecept-vo Basisrecept voor brood incl. stap voor stap beschrijving - Uit Brood bakken recept from uitpaulineskeuken.nl Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Translate this pagehttps://www.libelle-lekker.be/Libelle Lekker › be › artikelen › zelf-brood-bakken- Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recipes Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 hrs Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Web results Translate this pagehttps://rutgerbakt.nl/Rutger Bakt › nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎22 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Translate this pagehttps://www.ah.nl/Albert Heijn › nl › allerhande › recepten › brood-ba Brood bakken - Allerhande - Albert Heijn Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept Translate this pagehttps://www.bakkenzoalsoma.nl/Bakken Zoals Oma › nl › 2012/10 › dagelijks-brood Dagelijks brood (uit eigen oven) - Bakken Zoals Oma Brood bakken recept from www.bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Translate this pagehttps://recepten.tips/Recepten.tips › Recepten Zelf Ambachtelijk brood bakken in een uur | Recepten.tips Brood bakken recept from recepten.tips Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk Translate this pagehttps://broodsmakelijk.nl/Broodsmakelijk › nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Translate this pagehttps://broodsmakelijk.nl/Broodsmakelijk › nl › hoe-bak-ik-mijn-eerste-brood Hoe bak ik zelf mijn eerste brood (en goedkoop)? Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Translate this pagehttps://www.smulweb.nl/Smulweb › nl › Recepten › Nederlandse keuken Basis Brood recept | Smulweb.nl Brood bakken recept from www.smulweb.nl 2 hrs 30 mins Nov 14 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Searches related to Brood bakken recept volkoren brood recept brood bakken broodbakmachine bruin brood bakken wit brood recept brood bakken zonder gist zelf brood bakken zonder broodbakmachine brood bakken temperatuur snel brood bakken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands3523 Utrecht - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Brood bakken recept About 3.660.000 results (0 52 seconds) Search Results Web results Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voo Translate this page Brood bakken recept from uitpaulineskeuken.nl Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-ba Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recipes Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 hrs Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Web results Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎22 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Translate this page Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-b Translate this page Brood bakken recept from bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Zelf Ambachtelijk brood bakken in een uur | Recepten.tips recepten.tips › Recepten Translate this page Brood bakken recept from recepten.tips Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Translate this page Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Zelf Brood Bakken Zonder Machine | Budgetstijl budgetstijl.nl › zelf-brood-bakken-zonder-machine Translate this page Brood bakken recept from budgetstijl.nl Apr 15 2012 - Een paar jaar geleden heb ik het zelf bakken van brood ontdekt. Ik wist wel dat er Hierbij heb ik een recept voor zowel wit- als volkorenbrood. Searches related to Brood bakken recept volkoren brood recept brood bakken broodbakmachine bruin brood bakken wit brood recept brood bakken zonder gist zelf brood bakken zonder broodbakmachine brood bakken temperatuur snel brood bakken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands2628 RT Delft - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Brood bakken recept About 3.660.000 results (0 55 seconds) Search Results Web results Translate this pagehttps://uitpaulineskeuken.nl/Uit Pauline's Keuken › nl › 2018/11 › basisrecept-vo Basisrecept voor brood incl. stap voor stap beschrijving - Uit Brood bakken recept from uitpaulineskeuken.nl Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Translate this pagehttps://www.libelle-lekker.be/Libelle Lekker › be › artikelen › zelf-brood-bakken- Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recipes Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 hrs Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Web results Translate this pagehttps://rutgerbakt.nl/Rutger Bakt › nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎22 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Translate this pagehttps://www.ah.nl/Albert Heijn › nl › allerhande › recepten › brood-ba Brood bakken - Allerhande - Albert Heijn Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept Translate this pagehttps://www.bakkenzoalsoma.nl/Bakken Zoals Oma › nl › 2012/10 › dagelijks-brood Dagelijks brood (uit eigen oven) - Bakken Zoals Oma Brood bakken recept from www.bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Translate this pagehttps://recepten.tips/Recepten.tips › Recepten Zelf Ambachtelijk brood bakken in een uur | Recepten.tips Brood bakken recept from recepten.tips Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk Translate this pagehttps://broodsmakelijk.nl/Broodsmakelijk › nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Translate this pagehttps://broodsmakelijk.nl/Broodsmakelijk › nl › hoe-bak-ik-mijn-eerste-brood Hoe bak ik zelf mijn eerste brood (en goedkoop)? Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Translate this pagehttps://www.smulweb.nl/Smulweb › nl › Recepten › Nederlandse keuken Basis Brood recept | Smulweb.nl Brood bakken recept from www.smulweb.nl 2 hrs 30 mins Nov 14 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Searches related to Brood bakken recept volkoren brood recept brood bakken broodbakmachine bruin brood bakken wit brood recept brood bakken zonder gist zelf brood bakken zonder broodbakmachine brood bakken temperatuur snel brood bakken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands3523 Utrecht - From your places (Home) - Use precise location - Learn more HelpSend Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Honden namen About 4.200.000 results (0 47 seconds) Tip: Search for English results only. You can specify your search language in Preferences Ad Ad www.dier.nu/ ‎ Top 5 Populaire Hondennamen | Bekijk de top 5 | Bekijk de Lijst‎ ‎ Stichting DierenLot steunt lokale en regionale dierenorganisaties. Helpt u ook mee? Allerlei tips en interessante weetjes vindt u op de website van Stichting DierenLot. Help Dieren In Nood. Steun Lokale Initiatieven. Steun Goede Doelen. Vogelweetjes Leuke en interessante Vogelweetjes. Beter bestaan voor Dieren U kunt op verschillende manieren dieren helpen in Nederland. Search Results Web results Translate this pagehttps://www.dierendokters.com/DierenDokters › honden › namen 1001 hondennamen voor je pup reu of teef - DierenDokters Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS Translate this pagehttp://www.herdershonden.nl/Herdershonden.nl › nl › hondennamen Top 100 Leuke grappige en stoere hondennamen van 2019! Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Translate this pagehttp://www.hondennamen.nu/Hondennamen.nu › nu Hondennamen - Vind de perfecte naam voor je hond. Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Korte hondennamen · ‎Namen voor een teefje · ‎Mijn namen Translate this pagehttps://www.petplan.nl/Petplan › nl › dierenadvies › aanschaf-van-je-huisdier Populaire hondennamen | Petplan.nl In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Translate this pagehttps://www.royalcanin.nl/Royal Canin › nl › hondennamen Populaire hondennamen | Royal Canin Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Translate this pagehttps://www.honden-plein.nl/Honden-plein.nl › nl › hondennamen Leuke grappige en stoere hondennamen | Honden-plein.nl Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Translate this pagehttps://www.mcvoordieren.nl/Medisch Centrum voor Dieren › nl › hondennamen Hondennamen - Medisch Centrum voor Dieren De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Translate this pagehttps://www.hondennamen.nl/Hondennamen.nl › nl Lijst met alle hondennamen? Vind de perfecte hondennaam Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Translate this pagehttps://www.hondenpage.com/Hondenpage › hondennamen › top Top 100 Populaire HondenNamen - Hondenpage Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd https://www.dierennamen.net/Dierennamen › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Dierennamen Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Searches related to Honden namen honden namen teefje originele hondennamen speciale hondennamen teefje hondennamen met betekenis hondennamen teefje met betekenis friese hondennamen spaanse hondennamen hondennamen met s Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands3523 Utrecht - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Honden namen About 4.200.000 results (0 47 seconds) Tip: Search for English results only. You can specify your search language in Preferences Search Results Web results 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Translate this page Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Korte hondennamen · ‎Namen voor een teefje · ‎Mijn namen Populaire hondennamen | Petplan.nl petplan.nl › aanschaf-van-je-huisdier › pop Translate this page In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Populaire hondennamen | Royal Canin royalcanin.nl › hondennamen Translate this page Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Translate this page De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Top 100 Populaire HondenNamen - Hondenpage hondenpage.com › hondennamen › top Translate this page Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Hondennamen op alfabetische volgorde - Dierennamen dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Searches related to Honden namen honden namen teefje originele hondennamen speciale hondennamen teefje hondennamen met betekenis hondennamen teefje met betekenis friese hondennamen spaanse hondennamen hondennamen met s Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands2628 RT Delft - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Wat is het grootste bot in het menselijk lichaam? About 372.000 results (0 49 seconds) Search Results Featured snippet from the web Image result for Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. https://nl.wikipedia.org/https://nl.wikipedia.org › wiki › Skelet_(mens) Skelet (mens) - Wikipedia Feedback About Featured Snippets Web results Translate this pagehttps://nl.ripleybelieves.com/https://nl.ripleybelieves.com › what-is-largest-bone-i Wat Is Het Grootste Bot In Het Lichaam? Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Translate this pagehttps://www.scholieren.com/Scholieren.com › verslag › werkstuk-biologie-mense Werkstuk Biologie Menselijk lichaam | Scholieren.com Mar 8 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Translate this pagehttps://nl.toluna.com/https://nl.toluna.com › polls › Wat-is-het-grootste-bo Wat is het grootste bot in het menselijk lichaam? | Toluna Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Translate this pagehttps://www.alletop10lijstjes.nl/Alletop10lijstjes › nl › top-10-feitjes-over-menselijk Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Translate this pagehttps://www.w-tjes.nl/https://www.w-tjes.nl › searchresult Wat is het grootste bot van het lichaam? Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Translate this pagehttps://www.gezondheidsplein.nl/Gezondheidsplein › nl › botten › item45095 Botten - Menselijk lichaam | Gezondheidsplein.nl De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en Het menselijk lichaam bestaat uit verschillende typen botten: Pijpbeenderen. Het grootste bot dat je hebt is je dijbeen. Het kleinste botje is Translate this pagehttps://www.startpagina.nl/Startpagina.nl › nl › wetenschap › biologie › vraag Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl Nov 30 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. Translate this pagehttps://wikikids.nl/Wikikids › nl › Menselijk_lichaam Menselijk lichaam - Wikikids Apr 23 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Translate this pagehttps://www.welingelichtekringen.nl/Welingelichte Kringen › nl › samenleving › 50-feite 50 feiten over je lichaam – Wel.nl Feb 27 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen skelet mens skelet kopen skelet hoofd aantal botten baby skelet tekening skelet achterkant Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands3523 Utrecht - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Wat is het grootste bot in het menselijk lichaam? About 372.000 results (0 51 seconds) Search Results Featured snippet from the web Image result for Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback About Featured Snippets Web results Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-b Translate this page Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biolog Translate this page Mar 8 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in Translate this page Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-me Translate this page Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Wat is het grootste bot van het lichaam? w-tjes.nl › searchresult Translate this page Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › botten › item45095 Translate this page De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en Het menselijk lichaam bestaat uit verschillende typen botten: Pijpbeenderen. Het grootste bot dat je hebt is je dijbeen. Het kleinste botje is Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl startpagina.nl › biologie › vraag › kleinste- Translate this page Nov 30 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam Translate this page Apr 23 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50 Translate this page Feb 27 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen skelet mens skelet kopen skelet hoofd aantal botten baby skelet tekening skelet achterkant Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands2628 RT Delft - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel van een komkommer is water? About 1.170.000 results (0 50 seconds) Search Results Featured snippet from the web Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. https://www.dokterdokter.nl/https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Waarom zijn komkommers gezond? | Dokterdokter.nl Feedback About Featured Snippets Web results Translate this pagehttps://www.facebook.com/Facebook › DietistZoeetje › posts › een-mens-bestaat Zoeetje - Een mens bestaat voor 60% uit water komkommer Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Translate this pagehttps://nl.wikipedia.org/Wikipedia › nl › wiki › Komkommer Komkommer - Wikipedia De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Translate this pagehttps://www.wisfaq.nl/WisFaq › nl › digitale vraagbaak voor het wiskundeonderwijs - WisFaq Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Translate this pagehttps://www.startpagina.nl/Startpagina.nl › nl › wetenschap › wiskunde › vraag 100 kilo komkommers bestaan uit 99% water. er verdampt 1 Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Translate this pagehttps://www.startpagina.nl/Startpagina › nl › eten-drinken › vraag › smaakt-ko Waarom smaakt komkommer niet hetzelfde als water 5 answers Mar 4 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Translate this pagehttps://www.voedingscentrum.nl/Voedingscentrum › nl Komkommer | Voedingscentrum Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Translate this pagehttps://www.maxvandaag.nl/MAX Vandaag › nl › sessies › themas › eten-drinken Een komkommer bevat meer dan water: hierom is hij zo gezond Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Translate this pagehttps://www.vitens.com/https://www.vitens.com › blogoverzicht › hoeveel-w Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Translate this pagehttps://www.voedingsacademy.nl/https://www.voedingsacademy.nl › komkommer 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands3523 Utrecht - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel van een komkommer is water? About 1.170.000 results (0 74 seconds) Search Results Featured snippet from the web Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback About Featured Snippets Web results Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › › Eten &amp; drinken Translate this page Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel digitale vraagbaak voor het wiskundeonderwijs - WisFaq wisfaq.nl › Translate this page Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wiskunde › vraag › 100-kil Translate this page Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › sma Translate this page 5 answers Mar 4 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komk Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › themas › eten-drinken › e Translate this page Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Hoeveel water zit er per d Translate this page May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer Translate this page Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Searches related to Hoeveel van een komkommer is water? komkommer groente of fruit augurk Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands2628 RT Delft - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel mensen wonen er in Nederland? About 11.400.000 results (0 80 seconds) Search Results Netherlands/Population 17.18 million (2018) •Netherlands 17.18 million ‌ •Belgium 11.4 million ‌ •Sweden 10.12 million ‌ Explore more Feedback Sources include: Eurostat Web results Translate this pagehttps://www.cbs.nl/CBS.nl › nl › nl-nl › visualisaties › bevolkingsteller Bevolkingsteller - CBS Nov 25 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Translate this pagehttps://www.cbs.nl/CBS.nl › nl › nl-nl › faq › specifiek › hoeveel-mens Hoeveel mensen wonen er in Nederland? - CBS De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Translate this pagehttps://allecijfers.nl/AlleCijfers.nl › nl › nederland Héél véél informatie over Nederland (update 2019 Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Translate this pagehttps://nl.wikipedia.org/Wikipedia › nl › wiki › Bevolking_van_Nederland Bevolking van Nederland - Wikipedia Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Translate this pagehttp://www.republiekallochtonie.nl/Republiek Allochtonië › nl › blog › feiten › nederla Nederlanders buitenlanders allochtonen. De cijfers Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een https://www.hartvannederland.nl/Hart van Nederland › nl › nieuws › nederland-groeit-in-2018-met-100-0 Nederland groeit in 2018 met 100.000 mensen naar 17 3 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Translate this pagehttps://www.nu.nl/NU.nl › nl › binnenland › nederlandse-bevolking-gr Nederlandse bevolking groeit met 46.000 mensen in eerste Jul 31 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. - Translate this pagehttps://www.volkskrant.nl/de Volkskrant › nl › nieuws-achtergrond › nederlan Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet Jan 2 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de Translate this pagehttps://www.trouw.nl/Trouw › nl › binnenland › vooral-in-het-westen-van Vooral in het westen van Nederland wordt het steeds drukker Sep 10 2019 - Nog altijd worden er in Nederland meer mensen geboren dan er en buiten de stad blijven wonen” zegt Daniëlle Snellen van het PBL. Translate this pagehttps://www.rtlz.nl/RTL-Z › nl › algemeen › binnenland › artikel › pro Amsterdam wordt miljoenenstad: zoek op hoeveel jouw Sep 10 2019 - In de komende 16 jaar krijgt Nederland er naar verwachting zo'n miljoen gemeenten geldt dat er steeds meer mensen alleen zullen wonen. EU member states View 15+ more France France Belgium Belgium United Kingdom United Kingdom Germany Germany Sweden Sweden Luxembourg Luxembourg Denmark Denmark Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen in nederland 2019 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 populatie nederland 2019 aantal inwoners nederland 2018 Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlandsmap expand icon Netherlands (Nederland) Country in Europe Related event 2019 European Short Course Swimming Championships Competition · 4–8 Dec Competitor DescriptionThe Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Related statistics Gross domestic product 826.2 billion USD ‎(2017) Population growth rate 0.6% annual change ‎(2017) Life expectancy 81.51 years ‎(2016) Population elsewhere Germany 82.79 million ‎(2018) Amsterdam 821 752 ‎(2015) France 66.89 million ‎(2018) Feedback Sources include: World Bank Eurostat United Nations INSEE Footer links Netherlands3523 Utrecht - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel mensen wonen er in Nederland? About 11.400.000 results (0 82 seconds) Search Results Netherlands/Population 17.18 million (2018) •Netherlands 17.18 million ‌ •Belgium 11.4 million ‌ •Sweden 10.12 million ‌ Explore more Feedback Sources include: Eurostat Web results Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller Translate this page Nov 25 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-m Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederl Translate this page Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Translate this page Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederland Translate this page Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen nrc.nl › nieuws › 2019/01/02 › nederlandse - Translate this page Jan 2 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolkin Translate this page Jul 31 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet volkskrant.nl › nieuws-achtergrond › neder - Translate this page Jan 2 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de Amsterdam wordt miljoenenstad: zoek op hoeveel jouw rtlz.nl › algemeen › binnenland › artikel Translate this page Sep 10 2019 - In de komende 16 jaar krijgt Nederland er naar verwachting zo'n miljoen gemeenten geldt dat er steeds meer mensen alleen zullen wonen. EU member states View 15+ more France France Belgium Belgium United Kingdom United Kingdom Germany Germany Sweden Sweden Luxembourg Luxembourg Denmark Denmark Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen in nederland 2019 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 populatie nederland 2019 aantal inwoners nederland 2018 Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlandsmap expand icon Netherlands (Nederland) Country in Europe Related event 2019 European Short Course Swimming Championships Competition · 4–8 Dec Competitor DescriptionThe Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Related statistics Gross domestic product 826.2 billion USD ‎(2017) Population growth rate 0.6% annual change ‎(2017) Life expectancy 81.51 years ‎(2016) Population elsewhere Germany 82.79 million ‎(2018) Amsterdam 821 752 ‎(2015) France 66.89 million ‎(2018) Feedback Sources include: World Bank Eurostat United Nations INSEE Footer links Netherlands2628 RT Delft - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
     </row>
@@ -749,27 +749,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Brood bakken recept About 3.660.000 results (0 52 seconds) Search Results Web results Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voo Translate this page Brood bakken recept from uitpaulineskeuken.nl Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-ba Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recipes Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 hrs Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Web results Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎22 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Translate this page Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-b Translate this page Brood bakken recept from www.bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Zelf Ambachtelijk brood bakken in een uur | Recepten.tips https://recepten.tips › Recepten Translate this page Brood bakken recept from recepten.tips Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Translate this page Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Zelf Brood Bakken Zonder Machine | Budgetstijl https://budgetstijl.nl › zelf-brood-bakken-zonder-machine Translate this page Brood bakken recept from budgetstijl.nl Apr 15 2012 - Een paar jaar geleden heb ik het zelf bakken van brood ontdekt. Ik wist wel dat er Hierbij heb ik een recept voor zowel wit- als volkorenbrood. Searches related to Brood bakken recept volkoren brood recept brood bakken broodbakmachine bruin brood bakken wit brood recept brood bakken zonder gist zelf brood bakken zonder broodbakmachine brood bakken temperatuur snel brood bakken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands2628 RT Delft - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 10.400.000 resultaten (0 49 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten uitpaulineskeuken.nl/uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Basisrecept voor brood incl. stap voor stap beschrijving - Uit Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. rutgerbakt.nl/rutgerbakt.nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎22 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? rutgerbakt.nl/rutgerbakt.nl › Brood recepten Bak thuis het lekkerste brood! - Rutger Bakt Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎6 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat ah.nl/ah.nl › allerhande › recepten › brood-bakken Brood bakken - Allerhande - Albert Heijn Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept libelle-lekker.be/libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenverse- Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook broodsmakelijk.nl/broodsmakelijk.nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. broodsmakelijk.nl/broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Hoe bak ik zelf mijn eerste brood (en goedkoop)? Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders bakkenzoalsoma.nl/bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Dagelijks brood (uit eigen oven) - Bakken Zoals Oma Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is smulweb.nl/smulweb.nl › Recepten › Nederlandse keuken Basis Brood recept | Smulweb.nl Brood bakken recept van smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken zelf brood bakken goedkoper brood bakken temperatuur brood bakken zonder gist Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland5623 ES Eindhoven - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Honden namen About 4.200.000 results (0 47 seconds) Tip: Search for English results only. You can specify your search language in Preferences Search Results Web results 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Translate this page Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Korte hondennamen · ‎Namen voor een teefje · ‎Mijn namen Populaire hondennamen | Petplan.nl https://www.petplan.nl › aanschaf-van-je-huisdier › pop Translate this page In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Populaire hondennamen | Royal Canin https://www.royalcanin.nl › hondennamen Translate this page Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Translate this page De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Top 100 Populaire HondenNamen - Hondenpage https://www.hondenpage.com › hondennamen › top Translate this page Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Hondennamen op alfabetische volgorde - Dierennamen https://www.dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Searches related to Honden namen honden namen teefje originele hondennamen speciale hondennamen teefje hondennamen met betekenis hondennamen teefje met betekenis friese hondennamen spaanse hondennamen hondennamen met s Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands2628 RT Delft - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Honden namen About 4.200.000 results (0 69 seconds) Tip: Search for English results only. You can specify your search language in Preferences Ad Ad· dier.nu/ ‎ Top 5 Populaire Hondennamen | Bekijk de Lijst | Bekijk de top 5‎ ‎ Allerlei tips en interessante weetjes vindt u op de website van Stichting DierenLot. Stichting DierenLot steunt lokale en regionale dierenorganisaties. Helpt u ook mee? Help Dieren In Nood. Steun Goede Doelen. Steun Lokale Initiatieven. Knaagdierenweetjes Leuke en interessante knaagdierenweetjes. Schapenweetjes Leuke en interessante Schapenweetjes. Search Results Web results Translate this pagedierendokters.com/dierendokters.com › honden › namen 1001 hondennamen voor je pup reu of teef - DierenDokters Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS Translate this pageherdershonden.nl/herdershonden.nl › hondennamen Top 100 Leuke grappige en stoere hondennamen van 2019! Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Translate this pagehondennamen.nu/hondennamen.nu Hondennamen - Vind de perfecte naam voor je hond. Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Korte hondennamen · ‎Namen voor een teefje · ‎Mijn namen Translate this pagepetplan.nl/petplan.nl › aanschaf-van-je-huisdier › popul Populaire hondennamen | Petplan.nl In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Translate this pageroyalcanin.nl/royalcanin.nl › hondennamen Populaire hondennamen | Royal Canin Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Translate this pagehonden-plein.nl/honden-plein.nl › hondennamen Leuke grappige en stoere hondennamen | Honden-plein.nl Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Translate this pagemcvoordieren.nl/mcvoordieren.nl › hondennamen Hondennamen - Medisch Centrum voor Dieren De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Translate this pagehondennamen.nl/hondennamen.nl Lijst met alle hondennamen? Vind de perfecte hondennaam Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Translate this pagehondenpage.com/hondenpage.com › hondennamen › top Top 100 Populaire HondenNamen - Hondenpage Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd dierennamen.net/dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Dierennamen Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Searches related to Honden namen honden namen teefje originele hondennamen speciale hondennamen teefje hondennamen met betekenis hondennamen teefje met betekenis friese hondennamen spaanse hondennamen hondennamen met s Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands5623 ES Eindhoven - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Wat is het grootste bot in het menselijk lichaam? About 372.000 results (0 51 seconds) Search Results Featured snippet from the web Image result for Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback About Featured Snippets Web results Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-b Translate this page Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biolog Translate this page Mar 8 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in Translate this page Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-me Translate this page Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Wat is het grootste bot van het lichaam? https://www.w-tjes.nl › searchresult Translate this page Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › botten › item45095 Translate this page De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en Het menselijk lichaam bestaat uit verschillende typen botten: Pijpbeenderen. Het grootste bot dat je hebt is je dijbeen. Het kleinste botje is Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl https://www.startpagina.nl › biologie › vraag › kleinste- Translate this page Nov 30 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam Translate this page Apr 23 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50 Translate this page Feb 27 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen skelet mens skelet kopen skelet hoofd aantal botten baby skelet tekening skelet achterkant Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands2628 RT Delft - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Wat is het grootste bot in het menselijk lichaam? About 372.000 results (0 41 seconds) Search Results Featured snippet from the web Image result for Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. nl.wikipedia.org/nl.wikipedia.org › wiki › Skelet_(mens) Skelet (mens) - Wikipedia Feedback About Featured Snippets Web results Translate this pagenl.wikipedia.org/nl.wikipedia.org › wiki › Skelet_(mens) Skelet (mens) - Wikipedia Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Translate this pagenl.ripleybelieves.com/nl.ripleybelieves.com › what-is-largest-bone-in-bod Wat Is Het Grootste Bot In Het Lichaam? Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Translate this pagescholieren.com/scholieren.com › verslag › werkstuk-biologie Werkstuk Biologie Menselijk lichaam | Scholieren.com Mar 8 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Translate this pagenl.toluna.com/nl.toluna.com › polls › Wat-is-het-grootste-bot-in-h Wat is het grootste bot in het menselijk lichaam? | Toluna Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Translate this pagealletop10lijstjes.nl/alletop10lijstjes.nl › top-10-feitjes-over-mens Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Translate this pagegezondheidsplein.nl/gezondheidsplein.nl › botten › item45095 Botten - Menselijk lichaam | Gezondheidsplein.nl De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en Het menselijk lichaam bestaat uit verschillende typen botten: Pijpbeenderen. Het grootste bot dat je hebt is je dijbeen. Het kleinste botje is Translate this pagew-tjes.nl/w-tjes.nl › searchresult Wat is het grootste bot van het lichaam? Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Translate this pagestartpagina.nl/startpagina.nl › wetenschap › biologie › vraag Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl Nov 30 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. Translate this pagewikikids.nl/wikikids.nl › Menselijk_lichaam Menselijk lichaam - Wikikids Apr 23 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Translate this pagewelingelichtekringen.nl/welingelichtekringen.nl › samenleving › 50-f 50 feiten over je lichaam – Wel.nl Feb 27 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen skelet mens skelet kopen skelet hoofd aantal botten baby skelet tekening skelet achterkant Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands5623 ES Eindhoven - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel van een komkommer is water? About 1.170.000 results (0 74 seconds) Search Results Featured snippet from the web Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback About Featured Snippets Web results Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › › Eten &amp; drinken Translate this page Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel digitale vraagbaak voor het wiskundeonderwijs - WisFaq https://www.wisfaq.nl › Translate this page Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wiskunde › vraag › 100-kil Translate this page Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › sma Translate this page 5 answers Mar 4 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komk Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › themas › eten-drinken › e Translate this page Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Hoeveel water zit er per d Translate this page May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer Translate this page Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Searches related to Hoeveel van een komkommer is water? komkommer groente of fruit augurk Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands2628 RT Delft - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel van een komkommer is water? About 1.170.000 results (0 50 seconds) Search Results Featured snippet from the web Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. dokterdokter.nl/dokterdokter.nl › waarom-zijn-komkommers-gezond › item29820 Waarom zijn komkommers gezond? | Dokterdokter.nl Feedback About Featured Snippets Web results Translate this pagefacebook.com/facebook.com › DietistZoeetje › posts › een- Zoeetje - Een mens bestaat voor 60% uit water komkommer Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Translate this pagenl.wikipedia.org/nl.wikipedia.org › wiki › Komkommer Komkommer - Wikipedia De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Translate this pagedokterdokter.nl/dokterdokter.nl › › Eten &amp; drinken Waarom zijn komkommers gezond? | Dokterdokter.nl Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel Translate this pagewisfaq.nl/wisfaq.nl › digitale vraagbaak voor het wiskundeonderwijs - WisFaq Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Translate this pagestartpagina.nl/startpagina.nl › wetenschap › wiskunde › vraag 100 kilo komkommers bestaan uit 99% water. er verdampt 1 Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Translate this pagestartpagina.nl/startpagina.nl › eten-drinken › vraag › smaak Waarom smaakt komkommer niet hetzelfde als water 5 answers Mar 4 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Translate this pagevoedingscentrum.nl/voedingscentrum.nl › encyclopedie › komko Komkommer | Voedingscentrum Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Translate this pagemaxvandaag.nl/maxvandaag.nl › themas › eten-drinken › een Een komkommer bevat meer dan water: hierom is hij zo gezond Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Translate this pagevitens.com/vitens.com › › Hoeveel water zit er per d Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Translate this pagevoedingsacademy.nl/voedingsacademy.nl › komkommer 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Searches related to Hoeveel van een komkommer is water? komkommer groente of fruit augurk Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands5623 ES Eindhoven - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel mensen wonen er in Nederland? About 11.400.000 results (0 82 seconds) Search Results Netherlands/Population 17.18 million (2018) •Netherlands 17.18 million ‌ •Belgium 11.4 million ‌ •Sweden 10.12 million ‌ Explore more Feedback Sources include: Eurostat Web results Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller Translate this page Nov 25 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-m Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederl Translate this page Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Translate this page Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederland Translate this page Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen https://www.nrc.nl › nieuws › 2019/01/02 › nederlandse - Translate this page Jan 2 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolkin Translate this page Jul 31 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet https://www.volkskrant.nl › nieuws-achtergrond › neder - Translate this page Jan 2 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de Amsterdam wordt miljoenenstad: zoek op hoeveel jouw https://www.rtlz.nl › algemeen › binnenland › artikel Translate this page Sep 10 2019 - In de komende 16 jaar krijgt Nederland er naar verwachting zo'n miljoen gemeenten geldt dat er steeds meer mensen alleen zullen wonen. EU member states View 15+ more France France Belgium Belgium United Kingdom United Kingdom Germany Germany Sweden Sweden Luxembourg Luxembourg Denmark Denmark Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen in nederland 2019 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 populatie nederland 2019 aantal inwoners nederland 2018 Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlandsmap expand icon Netherlands (Nederland) Country in Europe Related event 2019 European Short Course Swimming Championships Competition · 4–8 Dec Competitor DescriptionThe Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Related statistics Gross domestic product 826.2 billion USD ‎(2017) Population growth rate 0.6% annual change ‎(2017) Life expectancy 81.51 years ‎(2016) Population elsewhere Germany 82.79 million ‎(2018) Amsterdam 821 752 ‎(2015) France 66.89 million ‎(2018) Feedback Sources include: World Bank Eurostat United Nations INSEE Footer links Netherlands2628 RT Delft - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel mensen wonen er in Nederland? About 11.400.000 results (0 67 seconds) Search Results Netherlands/Population 17.18 million (2018) •Netherlands 17.18 million ‌ •Belgium 11.4 million ‌ •Sweden 10.12 million ‌ Explore more Feedback Sources include: Eurostat Web results Translate this pagecbs.nl/cbs.nl › nl-nl › visualisaties › bevolkingsteller Bevolkingsteller - CBS Nov 25 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Translate this pagecbs.nl/cbs.nl › nl-nl › faq › specifiek › hoeveel-men Hoeveel mensen wonen er in Nederland? - CBS De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Translate this pageallecijfers.nl/allecijfers.nl › nederland Héél véél informatie over Nederland (update 2019 Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Translate this pagenl.wikipedia.org/nl.wikipedia.org › wiki › Bevolking_van_Nederland Bevolking van Nederland - Wikipedia Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Translate this pagerepubliekallochtonie.nl/republiekallochtonie.nl › blog › feiten › nede Nederlanders buitenlanders allochtonen. De cijfers Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een hartvannederland.nl/hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 Nederland groeit in 2018 met 100.000 mensen naar 17 3 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. - Translate this pagenrc.nl/nrc.nl › nieuws › 2019/01/02 › nederlandse-b Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen Jan 2 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Translate this pagenu.nl/nu.nl › binnenland › nederlandse-bevolking- Nederlandse bevolking groeit met 46.000 mensen in eerste Jul 31 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. - Translate this pagevolkskrant.nl/volkskrant.nl › nieuws-achtergrond › nederla Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet Jan 2 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de Translate this pagertlz.nl/rtlz.nl › algemeen › binnenland › artikel › pr Amsterdam wordt miljoenenstad: zoek op hoeveel jouw Sep 10 2019 - In de komende 16 jaar krijgt Nederland er naar verwachting zo'n miljoen gemeenten geldt dat er steeds meer mensen alleen zullen wonen. EU member states View 15+ more France France Belgium Belgium United Kingdom United Kingdom Germany Germany Sweden Sweden Luxembourg Luxembourg Denmark Denmark Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen in nederland 2019 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 populatie nederland 2019 aantal inwoners nederland 2018 Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlandsmap expand icon Netherlands (Nederland) Country in Europe DescriptionThe Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Related statistics Gross domestic product 826.2 billion USD ‎(2017) Population growth rate 0.6% annual change ‎(2017) Life expectancy 81.51 years ‎(2016) Population elsewhere Germany 82.79 million ‎(2018) Amsterdam 821 752 ‎(2015) France 66.89 million ‎(2018) Feedback Sources include: World Bank Eurostat United Nations INSEE Footer links Netherlands5623 ES Eindhoven - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
     </row>
@@ -779,27 +779,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 10.400.000 resultaten (0 49 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten https://uitpaulineskeuken.nl/uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Basisrecept voor brood incl. stap voor stap beschrijving - Uit Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. https://rutgerbakt.nl/rutgerbakt.nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎22 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? https://rutgerbakt.nl/rutgerbakt.nl › Brood recepten Bak thuis het lekkerste brood! - Rutger Bakt Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎6 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat https://www.ah.nl/www.ah.nl › allerhande › recepten › brood-bakken Brood bakken - Allerhande - Albert Heijn Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept https://www.libelle-lekker.be/www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenverse- Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook https://broodsmakelijk.nl/broodsmakelijk.nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. https://broodsmakelijk.nl/broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Hoe bak ik zelf mijn eerste brood (en goedkoop)? Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders https://www.bakkenzoalsoma.nl/www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Dagelijks brood (uit eigen oven) - Bakken Zoals Oma Brood bakken recept van www.bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is https://www.smulweb.nl/www.smulweb.nl › Recepten › Nederlandse keuken Basis Brood recept | Smulweb.nl Brood bakken recept van www.smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken zelf brood bakken goedkoper brood bakken temperatuur brood bakken zonder gist Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland5623 ES Eindhoven - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Brood bakken recept About 9 450 000 results (0.54 seconds) Search Results Recipes Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Wit brood Dagelijkse kost No reviews 2 hrs 10 mins Op Basisrecept voor wit brooddeeg Rutger Bakt 3.0 (22) 3 hrs Op Show more Web results Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voo Translate this page Brood bakken recept from uitpaulineskeuken.nl 8 Nov 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-ba Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Zelf Ambachtelijk brood bakken in een uur | Recepten.tips recepten.tips › Recepten Translate this page Brood bakken recept from recepten.tips 6 Feb 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-b Translate this page Brood bakken recept from bakkenzoalsoma.nl 15 Dec 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Wit brood | Dagelijkse kost dagelijksekost.een.be › gerechten › wit-brood Translate this page Brood bakken recept from dagelijksekost.een.be 2 hrs 10 mins Moeilijk is het niet. Maar om een vers brood te bakken heb je wel een beetje geduld nodig.Jeroen maakte vers brood voor het gerecht Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎22 reviews - ‎3 hrs 13 Dec 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt rutgerbakt.nl › Brood recepten Translate this page Brood bakken recept from rutgerbakt.nl Rating: 4 - ‎6 reviews - ‎14 hrs 40 mins 2 Jun 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Translate this page Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept Searches related to Brood bakken recept volkoren brood recept brood bakken broodbakmachine bruin brood bakken brood bakken zonder gist zelf brood bakken zonder broodbakmachine brood bakken temperatuur snel brood bakken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links United KingdomCity Centre Oxford - From your places (Work) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Honden namen About 4.200.000 results (0 69 seconds) Tip: Search for English results only. You can specify your search language in Preferences Ad Ad· www.dier.nu/ ‎ Top 5 Populaire Hondennamen | Bekijk de Lijst | Bekijk de top 5‎ ‎ Allerlei tips en interessante weetjes vindt u op de website van Stichting DierenLot. Stichting DierenLot steunt lokale en regionale dierenorganisaties. Helpt u ook mee? Help Dieren In Nood. Steun Goede Doelen. Steun Lokale Initiatieven. Knaagdierenweetjes Leuke en interessante knaagdierenweetjes. Schapenweetjes Leuke en interessante Schapenweetjes. Search Results Web results Translate this pagehttps://www.dierendokters.com/www.dierendokters.com › honden › namen 1001 hondennamen voor je pup reu of teef - DierenDokters Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS Translate this pagehttp://www.herdershonden.nl/www.herdershonden.nl › hondennamen Top 100 Leuke grappige en stoere hondennamen van 2019! Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Translate this pagehttp://www.hondennamen.nu/www.hondennamen.nu Hondennamen - Vind de perfecte naam voor je hond. Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Korte hondennamen · ‎Namen voor een teefje · ‎Mijn namen Translate this pagehttps://www.petplan.nl/www.petplan.nl › aanschaf-van-je-huisdier › popul Populaire hondennamen | Petplan.nl In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Translate this pagehttps://www.royalcanin.nl/www.royalcanin.nl › hondennamen Populaire hondennamen | Royal Canin Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Translate this pagehttps://www.honden-plein.nl/www.honden-plein.nl › hondennamen Leuke grappige en stoere hondennamen | Honden-plein.nl Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Translate this pagehttps://www.mcvoordieren.nl/www.mcvoordieren.nl › hondennamen Hondennamen - Medisch Centrum voor Dieren De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Translate this pagehttps://www.hondennamen.nl/www.hondennamen.nl Lijst met alle hondennamen? Vind de perfecte hondennaam Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Translate this pagehttps://www.hondenpage.com/www.hondenpage.com › hondennamen › top Top 100 Populaire HondenNamen - Hondenpage Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd https://www.dierennamen.net/www.dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Dierennamen Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Searches related to Honden namen honden namen teefje originele hondennamen speciale hondennamen teefje hondennamen met betekenis hondennamen teefje met betekenis friese hondennamen spaanse hondennamen hondennamen met s Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands5623 ES Eindhoven - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Honden namen About 4 670 000 results (0.40 seconds) Search Results Web results 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Grappig · ‎Namen met de tag ENGELS Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Namen voor een teefje · ‎Korte hondennamen · ‎Mijn namen Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Translate this page Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen op alfabetische volgorde - Dierennamen dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Populaire hondennamen | Petplan.nl petplan.nl › aanschaf-van-je-huisdier › pop Translate this page In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Populaire hondennamen | Royal Canin royalcanin.nl › hondennamen Translate this page Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je ‎Hondennamen teefje · ‎Hondennamen reu · ‎Hondennamen top 10 Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Translate this page De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Top 100 Populaire HondenNamen - Hondenpage hondenpage.com › hondennamen › top Translate this page Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Searches related to Honden namen honden namen teefje originele hondennamen speciale hondennamen teefje hondennamen reu met betekenis spaanse hondennamen hondennamen teefje met betekenis friese hondennamen hondennamen met s Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links United KingdomCity Centre Oxford - From your places (Work) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Wat is het grootste bot in het menselijk lichaam? About 372.000 results (0 41 seconds) Search Results Featured snippet from the web Image result for Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. https://nl.wikipedia.org/nl.wikipedia.org › wiki › Skelet_(mens) Skelet (mens) - Wikipedia Feedback About Featured Snippets Web results Translate this pagehttps://nl.wikipedia.org/nl.wikipedia.org › wiki › Skelet_(mens) Skelet (mens) - Wikipedia Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Translate this pagehttps://nl.ripleybelieves.com/nl.ripleybelieves.com › what-is-largest-bone-in-bod Wat Is Het Grootste Bot In Het Lichaam? Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Translate this pagehttps://www.scholieren.com/www.scholieren.com › verslag › werkstuk-biologie Werkstuk Biologie Menselijk lichaam | Scholieren.com Mar 8 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Translate this pagehttps://nl.toluna.com/nl.toluna.com › polls › Wat-is-het-grootste-bot-in-h Wat is het grootste bot in het menselijk lichaam? | Toluna Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Translate this pagehttps://www.alletop10lijstjes.nl/www.alletop10lijstjes.nl › top-10-feitjes-over-mens Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Translate this pagehttps://www.gezondheidsplein.nl/www.gezondheidsplein.nl › botten › item45095 Botten - Menselijk lichaam | Gezondheidsplein.nl De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en Het menselijk lichaam bestaat uit verschillende typen botten: Pijpbeenderen. Het grootste bot dat je hebt is je dijbeen. Het kleinste botje is Translate this pagehttps://www.w-tjes.nl/www.w-tjes.nl › searchresult Wat is het grootste bot van het lichaam? Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Translate this pagehttps://www.startpagina.nl/www.startpagina.nl › wetenschap › biologie › vraag Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl Nov 30 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. Translate this pagehttps://wikikids.nl/wikikids.nl › Menselijk_lichaam Menselijk lichaam - Wikikids Apr 23 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Translate this pagehttps://www.welingelichtekringen.nl/www.welingelichtekringen.nl › samenleving › 50-f 50 feiten over je lichaam – Wel.nl Feb 27 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen skelet mens skelet kopen skelet hoofd aantal botten baby skelet tekening skelet achterkant Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands5623 ES Eindhoven - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Wat is het grootste bot in het menselijk lichaam? About 615 000 results (0.53 seconds) Search Results Web results Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-b Translate this page Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in Translate this page Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biolog Translate this page 8 Mar 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-me Translate this page Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. grootste bot in lichaam wat is het grootste bot in je lichaam bhamega.com › windows-verwijderen › wat-is-het-groot Translate this page Het scheenbeen is de grootste bot in het onderbeen en wordt voornamelijk . het menselijk lichaam door het skelet beschermd tegen beschadiging wat is het Waarom is het dijbeen het grootste bot? - Quora nl.quora.com › Waarom-is-het-dijbeen-het-groot - Translate this page 1 answer Wat is het zwakste bot in ons lichaam? 91 weergaven · Waar bestaat bot uit? Welk bot in het menselijk lichaam breken mensen het vaakst en waarom? Top 10 Feitjes Over Menselijke Botten wat is het grootste bot sttimsinhouston.com › tuincentrum-coen › wat-is-het-gr Translate this page Wat is het grootste bot in je lichaam. 07.08.2019. Auteur: Tijmen. De pols bestaat uit 8 handwortelbeentjes. Het bekken bestaat uit een aantal beenderen die Missing: menselijk ‎| ‎Must include: ‎menselijk Images for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? View all More images for Wat is het grootste bot in het menselijk lichaam? Report images Web results Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › botten › item45095 Translate this page Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een kat skelet schedel Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links United KingdomCity Centre Oxford - From your places (Work) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel van een komkommer is water? About 1.170.000 results (0 50 seconds) Search Results Featured snippet from the web Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. https://www.dokterdokter.nl/www.dokterdokter.nl › waarom-zijn-komkommers-gezond › item29820 Waarom zijn komkommers gezond? | Dokterdokter.nl Feedback About Featured Snippets Web results Translate this pagehttps://www.facebook.com/www.facebook.com › DietistZoeetje › posts › een- Zoeetje - Een mens bestaat voor 60% uit water komkommer Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Translate this pagehttps://nl.wikipedia.org/nl.wikipedia.org › wiki › Komkommer Komkommer - Wikipedia De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Translate this pagehttps://www.dokterdokter.nl/www.dokterdokter.nl › › Eten &amp; drinken Waarom zijn komkommers gezond? | Dokterdokter.nl Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel Translate this pagehttps://www.wisfaq.nl/www.wisfaq.nl › digitale vraagbaak voor het wiskundeonderwijs - WisFaq Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Translate this pagehttps://www.startpagina.nl/www.startpagina.nl › wetenschap › wiskunde › vraag 100 kilo komkommers bestaan uit 99% water. er verdampt 1 Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Translate this pagehttps://www.startpagina.nl/www.startpagina.nl › eten-drinken › vraag › smaak Waarom smaakt komkommer niet hetzelfde als water 5 answers Mar 4 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Translate this pagehttps://www.voedingscentrum.nl/www.voedingscentrum.nl › encyclopedie › komko Komkommer | Voedingscentrum Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Translate this pagehttps://www.maxvandaag.nl/www.maxvandaag.nl › themas › eten-drinken › een Een komkommer bevat meer dan water: hierom is hij zo gezond Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Translate this pagehttps://www.vitens.com/www.vitens.com › › Hoeveel water zit er per d Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Translate this pagehttps://www.voedingsacademy.nl/www.voedingsacademy.nl › komkommer 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Searches related to Hoeveel van een komkommer is water? komkommer groente of fruit augurk Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands5623 ES Eindhoven - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel van een komkommer is water? About 3 190 000 results (0.51 seconds) Search Results Featured snippet from the web Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback About Featured Snippets Web results Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq wisfaq.nl › Translate this page 18 Oct 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wiskunde › vraag › 100-kil Translate this page 7 answers 1 Jul 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › › Eten &amp; drinken Translate this page Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komk Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › themas › eten-drinken › e Translate this page 27 Aug 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Hoeveel water zit er per d Translate this page 4 May 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer Translate this page 27 Jun 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Kweektips komkommer | IVN ivn.nl › moestuin › kweektips-komkommer Translate this page Komkommers zijn gevoelig voor de ziekte meeldauw dus geef geen water op het blad. Zorg dat ze Je kunt komkommer zaaien in een lege eierdop rond Pasen! Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links United KingdomCity Centre Oxford - From your places (Work) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel mensen wonen er in Nederland? About 11.400.000 results (0 67 seconds) Search Results Netherlands/Population 17.18 million (2018) •Netherlands 17.18 million ‌ •Belgium 11.4 million ‌ •Sweden 10.12 million ‌ Explore more Feedback Sources include: Eurostat Web results Translate this pagehttps://www.cbs.nl/www.cbs.nl › nl-nl › visualisaties › bevolkingsteller Bevolkingsteller - CBS Nov 25 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Translate this pagehttps://www.cbs.nl/www.cbs.nl › nl-nl › faq › specifiek › hoeveel-men Hoeveel mensen wonen er in Nederland? - CBS De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Translate this pagehttps://allecijfers.nl/allecijfers.nl › nederland Héél véél informatie over Nederland (update 2019 Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Translate this pagehttps://nl.wikipedia.org/nl.wikipedia.org › wiki › Bevolking_van_Nederland Bevolking van Nederland - Wikipedia Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Translate this pagehttp://www.republiekallochtonie.nl/www.republiekallochtonie.nl › blog › feiten › nede Nederlanders buitenlanders allochtonen. De cijfers Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een https://www.hartvannederland.nl/www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 Nederland groeit in 2018 met 100.000 mensen naar 17 3 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. - Translate this pagehttps://www.nrc.nl/www.nrc.nl › nieuws › 2019/01/02 › nederlandse-b Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen Jan 2 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Translate this pagehttps://www.nu.nl/www.nu.nl › binnenland › nederlandse-bevolking- Nederlandse bevolking groeit met 46.000 mensen in eerste Jul 31 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. - Translate this pagehttps://www.volkskrant.nl/www.volkskrant.nl › nieuws-achtergrond › nederla Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet Jan 2 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de Translate this pagehttps://www.rtlz.nl/www.rtlz.nl › algemeen › binnenland › artikel › pr Amsterdam wordt miljoenenstad: zoek op hoeveel jouw Sep 10 2019 - In de komende 16 jaar krijgt Nederland er naar verwachting zo'n miljoen gemeenten geldt dat er steeds meer mensen alleen zullen wonen. EU member states View 15+ more France France Belgium Belgium United Kingdom United Kingdom Germany Germany Sweden Sweden Luxembourg Luxembourg Denmark Denmark Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen in nederland 2019 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 populatie nederland 2019 aantal inwoners nederland 2018 Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlandsmap expand icon Netherlands (Nederland) Country in Europe DescriptionThe Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Related statistics Gross domestic product 826.2 billion USD ‎(2017) Population growth rate 0.6% annual change ‎(2017) Life expectancy 81.51 years ‎(2016) Population elsewhere Germany 82.79 million ‎(2018) Amsterdam 821 752 ‎(2015) France 66.89 million ‎(2018) Feedback Sources include: World Bank Eurostat United Nations INSEE Footer links Netherlands5623 ES Eindhoven - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel mensen wonen er in Nederland? About 10 600 000 results (0.65 seconds) Search Results Netherlands/Population 17.18 million (2018) •Netherlands 17.18 million ‌ •Belgium 11.4 million ‌ •Sweden 10.12 million ‌ Explore more Feedback Sources include: Eurostat Web results Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller Translate this page 25 Nov 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-m Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Translate this page Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederl Translate this page Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 Jan 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederland Translate this page 15 Oct 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen nrc.nl › nieuws › 2019/01/02 › nederlandse - Translate this page 2 Jan 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet volkskrant.nl › nieuws-achtergrond › neder - Translate this page 2 Jan 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina startpagina.nl › aardrijkskunde › vraag › m Translate this page 2 answers 20 Oct 2011 - Nederland telt op dit moment: 16.718.822 Inwoners. Toegevoegd na 33 seconden: Nu 16.718.8234 Toegevoegd na 1 minuut: Nu 16.718.823. Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolkin Translate this page 31 Jul 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Countries in Europe View 15+ more Germany Germany Italy Italy France France Belgium Belgium Norway Norway Luxembourg Luxembourg United Kingdom United Kingdom Cricket World Cup venues View 10+ more England England New Zealand New Zealand Australia Australia Wales Wales India India South Africa South Africa Bangladesh Bangladesh European election constituencies View 15+ more Scotland Scotland Portugal Portugal Malta Malta Poland Poland Spain Spain Denmark Denmark Cyprus Cyprus Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen in nederland 2019 hoeveel inwoners heeft nederland 2018 bevolking nederland 2019 populatie nederland 2019 aantal inwoners nederland 2018 Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlandsmap expand icon Netherlands (Nederland) Country in Europe Related event 2019 European Short Course Swimming Championships Competition · 4–8 Dec Competitor DescriptionThe Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Related statistics Gross domestic product 826.2 billion USD ‎(2017) Population growth rate 0.6% annual change ‎(2017) Life expectancy 81.51 years ‎(2016) Population elsewhere Germany 82.79 million ‎(2018) Amsterdam 821 752 ‎(2015) France 66.89 million ‎(2018) Feedback Sources include: World Bank Eurostat United Nations INSEE Footer links United KingdomCity Centre Oxford - From your places (Work) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
     </row>
@@ -809,27 +809,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Brood bakken recept About 9 450 000 results (0.54 seconds) Search Results Recipes Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Wit brood Dagelijkse kost No reviews 2 hrs 10 mins Op Basisrecept voor wit brooddeeg Rutger Bakt 3.0 (22) 3 hrs Op Show more Web results Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voo Translate this page Brood bakken recept from uitpaulineskeuken.nl 8 Nov 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-ba Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Zelf Ambachtelijk brood bakken in een uur | Recepten.tips https://recepten.tips › Recepten Translate this page Brood bakken recept from recepten.tips 6 Feb 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-b Translate this page Brood bakken recept from www.bakkenzoalsoma.nl 15 Dec 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Wit brood | Dagelijkse kost https://dagelijksekost.een.be › gerechten › wit-brood Translate this page Brood bakken recept from dagelijksekost.een.be 2 hrs 10 mins Moeilijk is het niet. Maar om een vers brood te bakken heb je wel een beetje geduld nodig.Jeroen maakte vers brood voor het gerecht Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎22 reviews - ‎3 hrs 13 Dec 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt https://rutgerbakt.nl › Brood recepten Translate this page Brood bakken recept from rutgerbakt.nl Rating: 4 - ‎6 reviews - ‎14 hrs 40 mins 2 Jun 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Translate this page Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept Searches related to Brood bakken recept volkoren brood recept brood bakken broodbakmachine bruin brood bakken brood bakken zonder gist zelf brood bakken zonder broodbakmachine brood bakken temperatuur snel brood bakken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links United KingdomCity Centre Oxford - From your places (Work) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 10.200.000 resultaten (0 49 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎22 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎6 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Van oudbakken brood kun je heel goed zelf paneermeel maken door het te roosteren in de oven en te Vlechtbrood met maanzaad. 3 u. 25 min. (0). recept Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken zelf brood bakken goedkoper brood bakken temperatuur brood bakken zonder gist Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Honden namen About 4 670 000 results (0.40 seconds) Search Results Web results 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Grappig · ‎Namen met de tag ENGELS Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Namen voor een teefje · ‎Korte hondennamen · ‎Mijn namen Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Translate this page Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen op alfabetische volgorde - Dierennamen https://www.dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Populaire hondennamen | Petplan.nl https://www.petplan.nl › aanschaf-van-je-huisdier › pop Translate this page In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Populaire hondennamen | Royal Canin https://www.royalcanin.nl › hondennamen Translate this page Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je ‎Hondennamen teefje · ‎Hondennamen reu · ‎Hondennamen top 10 Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Translate this page De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Top 100 Populaire HondenNamen - Hondenpage https://www.hondenpage.com › hondennamen › top Translate this page Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Searches related to Honden namen honden namen teefje originele hondennamen speciale hondennamen teefje hondennamen reu met betekenis spaanse hondennamen hondennamen teefje met betekenis friese hondennamen hondennamen met s Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links United KingdomCity Centre Oxford - From your places (Work) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 4.540.000 resultaten (0 35 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu · ‎Mijn namen Populaire hondennamen | Petplan.nl petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Populaire hondennamen | Royal Canin royalcanin.nl › populaire-kattennamen-populaire-hondennamen Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Lijst met alle leuke hondennamen voor reu &amp; teef hondennamen.nl › leuke-hondennamen Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. 30.000 hondennamen Gratis hondennaam informatie &amp; expert hondennamen.info Ontvang direct gratis toegang tot 30.000 hondennamen: hondennaam informatie en tips van de experts: ✅30.000 Hondennamen ✅Gratis. Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen limburgse honden namen aparte hondennamen tekenfilm hondennamen hondennamen met betekenis indische hondennamen disney namen hond friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Wat is het grootste bot in het menselijk lichaam? About 615 000 results (0.53 seconds) Search Results Web results Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-b Translate this page Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in Translate this page Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biolog Translate this page 8 Mar 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-me Translate this page Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. grootste bot in lichaam wat is het grootste bot in je lichaam bhamega.com › windows-verwijderen › wat-is-het-groot Translate this page Het scheenbeen is de grootste bot in het onderbeen en wordt voornamelijk . het menselijk lichaam door het skelet beschermd tegen beschadiging wat is het Waarom is het dijbeen het grootste bot? - Quora https://nl.quora.com › Waarom-is-het-dijbeen-het-groot - Translate this page 1 answer Wat is het zwakste bot in ons lichaam? 91 weergaven · Waar bestaat bot uit? Welk bot in het menselijk lichaam breken mensen het vaakst en waarom? Top 10 Feitjes Over Menselijke Botten wat is het grootste bot sttimsinhouston.com › tuincentrum-coen › wat-is-het-gr Translate this page Wat is het grootste bot in je lichaam. 07.08.2019. Auteur: Tijmen. De pols bestaat uit 8 handwortelbeentjes. Het bekken bestaat uit een aantal beenderen die Missing: menselijk ‎| ‎Must include: ‎menselijk Images for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? View all More images for Wat is het grootste bot in het menselijk lichaam? Report images Web results Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › botten › item45095 Translate this page Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een kat skelet schedel Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links United KingdomCity Centre Oxford - From your places (Work) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 415.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl startpagina.nl › wetenschap › biologie › vraag › kleinste-bot- 30 nov. 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Wat is het grootste bot van het lichaam? w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het kleinste bot in je lichaam hoeveel botten heeft een baby noem de botten van de bovenste ledematen armen noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam skelet mens achterkant hoeveel spieren heeft een mens botten menselijk lichaam Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel van een komkommer is water? About 3 190 000 results (0.51 seconds) Search Results Featured snippet from the web Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback About Featured Snippets Web results Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq https://www.wisfaq.nl › Translate this page 18 Oct 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wiskunde › vraag › 100-kil Translate this page 7 answers 1 Jul 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › › Eten &amp; drinken Translate this page Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komk Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › themas › eten-drinken › e Translate this page 27 Aug 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Hoeveel water zit er per d Translate this page 4 May 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer Translate this page 27 Jun 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Kweektips komkommer | IVN https://www.ivn.nl › moestuin › kweektips-komkommer Translate this page Komkommers zijn gevoelig voor de ziekte meeldauw dus geef geen water op het blad. Zorg dat ze Je kunt komkommer zaaien in een lege eierdop rond Pasen! Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links United KingdomCity Centre Oxford - From your places (Work) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 1.190.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer komkommer water hoeveel komkommer mag je eten gele komkommer wilde komkommer komkommer voedingswaarde hoeveel weegt een komkommer Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel mensen wonen er in Nederland? About 10 600 000 results (0.65 seconds) Search Results Netherlands/Population 17.18 million (2018) •Netherlands 17.18 million ‌ •Belgium 11.4 million ‌ •Sweden 10.12 million ‌ Explore more Feedback Sources include: Eurostat Web results Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller Translate this page 25 Nov 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-m Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Translate this page Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederl Translate this page Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 Jan 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederland Translate this page 15 Oct 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen https://www.nrc.nl › nieuws › 2019/01/02 › nederlandse - Translate this page 2 Jan 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet https://www.volkskrant.nl › nieuws-achtergrond › neder - Translate this page 2 Jan 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina https://www.startpagina.nl › aardrijkskunde › vraag › m Translate this page 2 answers 20 Oct 2011 - Nederland telt op dit moment: 16.718.822 Inwoners. Toegevoegd na 33 seconden: Nu 16.718.8234 Toegevoegd na 1 minuut: Nu 16.718.823. Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolkin Translate this page 31 Jul 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Countries in Europe View 15+ more Germany Germany Italy Italy France France Belgium Belgium Norway Norway Luxembourg Luxembourg United Kingdom United Kingdom Cricket World Cup venues View 10+ more England England New Zealand New Zealand Australia Australia Wales Wales India India South Africa South Africa Bangladesh Bangladesh European election constituencies View 15+ more Scotland Scotland Portugal Portugal Malta Malta Poland Poland Spain Spain Denmark Denmark Cyprus Cyprus Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen in nederland 2019 hoeveel inwoners heeft nederland 2018 bevolking nederland 2019 populatie nederland 2019 aantal inwoners nederland 2018 Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlandsmap expand icon Netherlands (Nederland) Country in Europe Related event 2019 European Short Course Swimming Championships Competition · 4–8 Dec Competitor DescriptionThe Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Related statistics Gross domestic product 826.2 billion USD ‎(2017) Population growth rate 0.6% annual change ‎(2017) Life expectancy 81.51 years ‎(2016) Population elsewhere Germany 82.79 million ‎(2018) Amsterdam 821 752 ‎(2015) France 66.89 million ‎(2018) Feedback Sources include: World Bank Eurostat United Nations INSEE Footer links United KingdomCity Centre Oxford - From your places (Work) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 39.200.000 resultaten (0 67 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller 25 nov. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen nrc.nl › nieuws › 2019/01/02 › nederlandse-bevolking-groeit-o 2 jan. 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina.nl startpagina.nl › wetenschap › aardrijkskunde › vraag › mense 20 okt. 2011 - hoeveel mensen. Nederland telt op dit moment 16.718.078 inwoners. Toegevoegd na 40 seconden: Zie voor actueel overzicht: Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2018 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 hoeveel mensen wonen er in china hoeveel vrouwen in nederland Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa Gerelateerde gebeurtenissen Europese kampioenschappen kortebaanzwemmen 2019 Wedstrijd · 4–8 dec. Concurrent BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst NederlandNijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -839,27 +839,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 10.200.000 resultaten (0 49 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎22 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎6 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Van oudbakken brood kun je heel goed zelf paneermeel maken door het te roosteren in de oven en te Vlechtbrood met maanzaad. 3 u. 25 min. (0). recept Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van www.bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl https://www.smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van www.smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken zelf brood bakken goedkoper brood bakken temperatuur brood bakken zonder gist Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Brood bakken recept About 3.510.000 results (0 47 seconds) Search Results Web results Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voo Translate this page Brood bakken recept from uitpaulineskeuken.nl Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-ba Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recipes Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 hrs Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Web results Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎22 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Translate this page Van oudbakken brood kun je heel goed zelf paneermeel maken door het te roosteren in de oven en te Vlechtbrood met maanzaad. 3 u. 25 min. (0). recept Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-b Translate this page Brood bakken recept from bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Zelf Ambachtelijk brood bakken in een uur | Recepten.tips recepten.tips › Recepten Translate this page Brood bakken recept from recepten.tips Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Translate this page Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Basis Brood recept | Smulweb.nl smulweb.nl › Recepten › Nederlandse keuken Translate this page Brood bakken recept from smulweb.nl 2 hrs 30 mins Nov 14 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Searches related to Brood bakken recept volkoren brood recept brood bakken broodbakmachine bruin brood bakken wit brood recept brood bakken zonder gist zelf brood bakken zonder broodbakmachine brood bakken temperatuur snel brood bakken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6543 JS Nijmegen - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 4.540.000 resultaten (0 35 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu · ‎Mijn namen Populaire hondennamen | Petplan.nl https://www.petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Populaire hondennamen | Royal Canin https://www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Lijst met alle leuke hondennamen voor reu &amp; teef https://www.hondennamen.nl › leuke-hondennamen Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. 30.000 hondennamen Gratis hondennaam informatie &amp; expert https://hondennamen.info Ontvang direct gratis toegang tot 30.000 hondennamen: hondennaam informatie en tips van de experts: ✅30.000 Hondennamen ✅Gratis. Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen limburgse honden namen aparte hondennamen tekenfilm hondennamen hondennamen met betekenis indische hondennamen disney namen hond friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Honden namen About 4.260.000 results (0 43 seconds) Tip: Search for English results only. You can specify your search language in Preferences Search Results Web results 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Translate this page Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Korte hondennamen · ‎Namen voor een teefje · ‎Mijn namen Populaire hondennamen | Petplan.nl petplan.nl › aanschaf-van-je-huisdier › pop Translate this page In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Populaire hondennamen | Royal Canin royalcanin.nl › hondennamen Translate this page Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Translate this page De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Top 100 Populaire HondenNamen - HondenPage hondenpage.com › hondennamen › top Translate this page Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Hondennamen op alfabetische volgorde - Dierennamen dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Searches related to Honden namen honden namen teefje originele hondennamen speciale hondennamen teefje hondennamen met betekenis hondennamen teefje met betekenis friese hondennamen spaanse hondennamen hondennamen met s Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6543 JS Nijmegen - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 415.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl https://www.startpagina.nl › wetenschap › biologie › vraag › kleinste-bot- 30 nov. 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Wat is het grootste bot van het lichaam? https://www.w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het kleinste bot in je lichaam hoeveel botten heeft een baby noem de botten van de bovenste ledematen armen noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam skelet mens achterkant hoeveel spieren heeft een mens botten menselijk lichaam Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Wat is het grootste bot in het menselijk lichaam? About 375.000 results (0 52 seconds) Search Results Featured snippet from the web Image result for Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback About Featured Snippets Web results Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-b Translate this page Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biolog Translate this page Mar 8 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in Translate this page Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-me Translate this page Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › botten › item45095 Translate this page De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en Het menselijk lichaam bestaat uit verschillende typen botten: Pijpbeenderen. Het grootste bot dat je hebt is je dijbeen. Het kleinste botje is Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl startpagina.nl › biologie › vraag › kleinste- Translate this page Nov 30 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam Translate this page Apr 23 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Wat is het grootste bot van het lichaam? w-tjes.nl › searchresult Translate this page Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50 Translate this page Feb 27 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen skelet mens skelet kopen skelet hoofd aantal botten baby skelet tekening skelet achterkant Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6543 JS Nijmegen - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 1.190.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq https://www.wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer komkommer water hoeveel komkommer mag je eten gele komkommer wilde komkommer komkommer voedingswaarde hoeveel weegt een komkommer Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel van een komkommer is water? About 3.080.000 results (0 58 seconds) Search Results Featured snippet from the web Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback About Featured Snippets Web results Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq wisfaq.nl › Translate this page Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › › Eten &amp; drinken Translate this page Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wiskunde › vraag › 100-kil Translate this page 7 answers Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › sma Translate this page 5 answers Mar 4 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komk Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › themas › eten-drinken › e Translate this page Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Hoeveel water zit er per d Translate this page May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer Translate this page Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Searches related to Hoeveel van een komkommer is water? komkommer groente of fruit augurk Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6543 JS Nijmegen - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 39.200.000 resultaten (0 67 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller 25 nov. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen https://www.nrc.nl › nieuws › 2019/01/02 › nederlandse-bevolking-groeit-o 2 jan. 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet https://www.volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina.nl https://www.startpagina.nl › wetenschap › aardrijkskunde › vraag › mense 20 okt. 2011 - hoeveel mensen. Nederland telt op dit moment 16.718.078 inwoners. Toegevoegd na 40 seconden: Zie voor actueel overzicht: Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2018 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 hoeveel mensen wonen er in china hoeveel vrouwen in nederland Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa Gerelateerde gebeurtenissen Europese kampioenschappen kortebaanzwemmen 2019 Wedstrijd · 4–8 dec. Concurrent BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst NederlandNijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel mensen wonen er in Nederland? About 11.000.000 results (0 78 seconds) Search Results Netherlands/Population 17.18 million (2018) •Netherlands 17.18 million ‌ •Belgium 11.4 million ‌ •Sweden 10.12 million ‌ Explore more Feedback Sources include: Eurostat Web results Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller Translate this page Nov 25 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-m Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Translate this page Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederl Translate this page Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederland Translate this page Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolkin Translate this page Jul 31 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet volkskrant.nl › nieuws-achtergrond › neder - Translate this page Jan 2 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina.nl startpagina.nl › aardrijkskunde › vraag › m Translate this page Oct 20 2011 - hoeveel mensen. Nederland telt op dit moment 16.718.078 inwoners. Toegevoegd na 40 seconden: Zie voor actueel overzicht: Amsterdam wordt miljoenenstad: zoek op hoeveel jouw rtlz.nl › algemeen › binnenland › artikel Translate this page Sep 10 2019 - In de komende 16 jaar krijgt Nederland er naar verwachting zo'n miljoen gemeenten geldt dat er steeds meer mensen alleen zullen wonen. EU member states View 15+ more France France Belgium Belgium United Kingdom United Kingdom Germany Germany Sweden Sweden Luxembourg Luxembourg Denmark Denmark Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen in nederland 2019 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 populatie nederland 2019 aantal inwoners nederland 2018 Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlandsmap expand icon Netherlands (Nederland) Country in Europe Related event 2019 European Short Course Swimming Championships Competition · 4–8 Dec Competitor DescriptionThe Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Related statistics Gross domestic product 826.2 billion USD ‎(2017) Population growth rate 0.6% annual change ‎(2017) Life expectancy 81.51 years ‎(2016) Population elsewhere Germany 82.79 million ‎(2018) Amsterdam 821 752 ‎(2015) France 66.89 million ‎(2018) Feedback Sources include: World Bank Eurostat United Nations INSEE Footer links Netherlands6543 JS Nijmegen - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
     </row>
@@ -869,27 +869,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Brood bakken recept About 3.510.000 results (0 47 seconds) Search Results Web results Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voo Translate this page Brood bakken recept from uitpaulineskeuken.nl Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-ba Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recipes Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 hrs Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Web results Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎22 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Translate this page Van oudbakken brood kun je heel goed zelf paneermeel maken door het te roosteren in de oven en te Vlechtbrood met maanzaad. 3 u. 25 min. (0). recept Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-b Translate this page Brood bakken recept from www.bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Zelf Ambachtelijk brood bakken in een uur | Recepten.tips https://recepten.tips › Recepten Translate this page Brood bakken recept from recepten.tips Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Translate this page Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Basis Brood recept | Smulweb.nl https://www.smulweb.nl › Recepten › Nederlandse keuken Translate this page Brood bakken recept from www.smulweb.nl 2 hrs 30 mins Nov 14 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Searches related to Brood bakken recept volkoren brood recept brood bakken broodbakmachine bruin brood bakken wit brood recept brood bakken zonder gist zelf brood bakken zonder broodbakmachine brood bakken temperatuur snel brood bakken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6543 JS Nijmegen - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Brood bakken recept About 3.510.000 results (0 44 seconds) Search Results Web results Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voo Translate this page Brood bakken recept from uitpaulineskeuken.nl Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-ba Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎22 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Recipes Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 hrs Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Web results Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Translate this page Van oudbakken brood kun je heel goed zelf paneermeel maken door het te roosteren in de oven en te Vlechtbrood met maanzaad. 3 u. 25 min. (0). recept Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-b Translate this page Brood bakken recept from bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Zelf Ambachtelijk brood bakken in een uur | Recepten.tips recepten.tips › Recepten Translate this page Brood bakken recept from recepten.tips Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Translate this page Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Basis Brood recept | Smulweb.nl smulweb.nl › Recepten › Nederlandse keuken Translate this page Brood bakken recept from smulweb.nl 2 hrs 30 mins Nov 14 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Searches related to Brood bakken recept volkoren brood recept brood bakken broodbakmachine bruin brood bakken wit brood recept brood bakken zonder gist zelf brood bakken zonder broodbakmachine brood bakken temperatuur snel brood bakken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6534 AB Nijmegen - From your places (Work) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Honden namen About 4.260.000 results (0 43 seconds) Tip: Search for English results only. You can specify your search language in Preferences Search Results Web results 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Translate this page Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Korte hondennamen · ‎Namen voor een teefje · ‎Mijn namen Populaire hondennamen | Petplan.nl https://www.petplan.nl › aanschaf-van-je-huisdier › pop Translate this page In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Populaire hondennamen | Royal Canin https://www.royalcanin.nl › hondennamen Translate this page Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Translate this page De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Top 100 Populaire HondenNamen - HondenPage https://www.hondenpage.com › hondennamen › top Translate this page Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Hondennamen op alfabetische volgorde - Dierennamen https://www.dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Searches related to Honden namen honden namen teefje originele hondennamen speciale hondennamen teefje hondennamen met betekenis hondennamen teefje met betekenis friese hondennamen spaanse hondennamen hondennamen met s Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6543 JS Nijmegen - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Honden namen About 4.260.000 results (0 36 seconds) Tip: Search for English results only. You can specify your search language in Preferences Search Results Web results 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Translate this page Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Korte hondennamen · ‎Namen voor een teefje · ‎Mijn namen Populaire hondennamen | Petplan.nl petplan.nl › aanschaf-van-je-huisdier › pop Translate this page In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Populaire hondennamen | Royal Canin royalcanin.nl › hondennamen Translate this page Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Translate this page De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Top 100 Populaire HondenNamen - HondenPage hondenpage.com › hondennamen › top Translate this page Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Hondennamen op alfabetische volgorde - Dierennamen dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Searches related to Honden namen honden namen teefje originele hondennamen speciale hondennamen teefje hondennamen met betekenis hondennamen teefje met betekenis friese hondennamen spaanse hondennamen hondennamen met s Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6534 AB Nijmegen - From your places (Work) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Wat is het grootste bot in het menselijk lichaam? About 375.000 results (0 52 seconds) Search Results Featured snippet from the web Image result for Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback About Featured Snippets Web results Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-b Translate this page Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biolog Translate this page Mar 8 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in Translate this page Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-me Translate this page Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › botten › item45095 Translate this page De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en Het menselijk lichaam bestaat uit verschillende typen botten: Pijpbeenderen. Het grootste bot dat je hebt is je dijbeen. Het kleinste botje is Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl https://www.startpagina.nl › biologie › vraag › kleinste- Translate this page Nov 30 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam Translate this page Apr 23 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Wat is het grootste bot van het lichaam? https://www.w-tjes.nl › searchresult Translate this page Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50 Translate this page Feb 27 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen skelet mens skelet kopen skelet hoofd aantal botten baby skelet tekening skelet achterkant Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6543 JS Nijmegen - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Wat is het grootste bot in het menselijk lichaam? About 375.000 results (0 38 seconds) Search Results Featured snippet from the web Image result for Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback About Featured Snippets Web results Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-b Translate this page Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biolog Translate this page Mar 8 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in Translate this page Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-me Translate this page Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › botten › item45095 Translate this page De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en Het menselijk lichaam bestaat uit verschillende typen botten: Pijpbeenderen. Het grootste bot dat je hebt is je dijbeen. Het kleinste botje is Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl startpagina.nl › biologie › vraag › kleinste- Translate this page Nov 30 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam Translate this page Apr 23 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Wat is het grootste bot van het lichaam? w-tjes.nl › searchresult Translate this page Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50 Translate this page Feb 27 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen skelet mens skelet kopen skelet hoofd aantal botten baby skelet tekening skelet achterkant Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6534 AB Nijmegen - From your places (Work) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel van een komkommer is water? About 3.080.000 results (0 58 seconds) Search Results Featured snippet from the web Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback About Featured Snippets Web results Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq https://www.wisfaq.nl › Translate this page Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › › Eten &amp; drinken Translate this page Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wiskunde › vraag › 100-kil Translate this page 7 answers Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › sma Translate this page 5 answers Mar 4 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komk Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › themas › eten-drinken › e Translate this page Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Hoeveel water zit er per d Translate this page May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer Translate this page Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Searches related to Hoeveel van een komkommer is water? komkommer groente of fruit augurk Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6543 JS Nijmegen - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel van een komkommer is water? About 3.080.000 results (0 50 seconds) Search Results Featured snippet from the web Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback About Featured Snippets Web results Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq wisfaq.nl › Translate this page Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › › Eten &amp; drinken Translate this page Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wiskunde › vraag › 100-kil Translate this page 7 answers Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › sma Translate this page 5 answers Mar 4 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komk Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › themas › eten-drinken › e Translate this page Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Hoeveel water zit er per d Translate this page May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer Translate this page Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Searches related to Hoeveel van een komkommer is water? komkommer groente of fruit augurk Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6534 AB Nijmegen - From your places (Work) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel mensen wonen er in Nederland? About 11.000.000 results (0 78 seconds) Search Results Netherlands/Population 17.18 million (2018) •Netherlands 17.18 million ‌ •Belgium 11.4 million ‌ •Sweden 10.12 million ‌ Explore more Feedback Sources include: Eurostat Web results Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller Translate this page Nov 25 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-m Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Translate this page Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederl Translate this page Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederland Translate this page Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolkin Translate this page Jul 31 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet https://www.volkskrant.nl › nieuws-achtergrond › neder - Translate this page Jan 2 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina.nl https://www.startpagina.nl › aardrijkskunde › vraag › m Translate this page Oct 20 2011 - hoeveel mensen. Nederland telt op dit moment 16.718.078 inwoners. Toegevoegd na 40 seconden: Zie voor actueel overzicht: Amsterdam wordt miljoenenstad: zoek op hoeveel jouw https://www.rtlz.nl › algemeen › binnenland › artikel Translate this page Sep 10 2019 - In de komende 16 jaar krijgt Nederland er naar verwachting zo'n miljoen gemeenten geldt dat er steeds meer mensen alleen zullen wonen. EU member states View 15+ more France France Belgium Belgium United Kingdom United Kingdom Germany Germany Sweden Sweden Luxembourg Luxembourg Denmark Denmark Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen in nederland 2019 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 populatie nederland 2019 aantal inwoners nederland 2018 Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlandsmap expand icon Netherlands (Nederland) Country in Europe Related event 2019 European Short Course Swimming Championships Competition · 4–8 Dec Competitor DescriptionThe Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Related statistics Gross domestic product 826.2 billion USD ‎(2017) Population growth rate 0.6% annual change ‎(2017) Life expectancy 81.51 years ‎(2016) Population elsewhere Germany 82.79 million ‎(2018) Amsterdam 821 752 ‎(2015) France 66.89 million ‎(2018) Feedback Sources include: World Bank Eurostat United Nations INSEE Footer links Netherlands6543 JS Nijmegen - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel mensen wonen er in Nederland? About 11.000.000 results (0 67 seconds) Search Results Netherlands/Population 17.18 million (2018) •Netherlands 17.18 million ‌ •Belgium 11.4 million ‌ •Sweden 10.12 million ‌ Explore more Feedback Sources include: Eurostat Web results Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller Translate this page Nov 25 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-m Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Translate this page Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederl Translate this page Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederland Translate this page Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolkin Translate this page Jul 31 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet volkskrant.nl › nieuws-achtergrond › neder - Translate this page Jan 2 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina.nl startpagina.nl › aardrijkskunde › vraag › m Translate this page Oct 20 2011 - hoeveel mensen. Nederland telt op dit moment 16.718.078 inwoners. Toegevoegd na 40 seconden: Zie voor actueel overzicht: Amsterdam wordt miljoenenstad: zoek op hoeveel jouw rtlz.nl › algemeen › binnenland › artikel Translate this page Sep 10 2019 - In de komende 16 jaar krijgt Nederland er naar verwachting zo'n miljoen gemeenten geldt dat er steeds meer mensen alleen zullen wonen. EU member states View 15+ more France France Belgium Belgium United Kingdom United Kingdom Germany Germany Sweden Sweden Luxembourg Luxembourg Denmark Denmark Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen in nederland 2019 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 populatie nederland 2019 aantal inwoners nederland 2018 Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlandsmap expand icon Netherlands (Nederland) Country in Europe Related event 2019 European Short Course Swimming Championships Competition · 4–8 Dec Competitor DescriptionThe Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Related statistics Gross domestic product 826.2 billion USD ‎(2017) Population growth rate 0.6% annual change ‎(2017) Life expectancy 81.51 years ‎(2016) Population elsewhere Germany 82.79 million ‎(2018) Amsterdam 821 752 ‎(2015) France 66.89 million ‎(2018) Feedback Sources include: World Bank Eurostat United Nations INSEE Footer links Netherlands6534 AB Nijmegen - From your places (Work) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
     </row>
@@ -899,27 +899,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Brood bakken recept About 3.510.000 results (0 44 seconds) Search Results Web results Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voo Translate this page Brood bakken recept from uitpaulineskeuken.nl Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-ba Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎22 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Recipes Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (22) 3 hrs Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Web results Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Translate this page Van oudbakken brood kun je heel goed zelf paneermeel maken door het te roosteren in de oven en te Vlechtbrood met maanzaad. 3 u. 25 min. (0). recept Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-b Translate this page Brood bakken recept from www.bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Zelf Ambachtelijk brood bakken in een uur | Recepten.tips https://recepten.tips › Recepten Translate this page Brood bakken recept from recepten.tips Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Translate this page Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Basis Brood recept | Smulweb.nl https://www.smulweb.nl › Recepten › Nederlandse keuken Translate this page Brood bakken recept from www.smulweb.nl 2 hrs 30 mins Nov 14 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Searches related to Brood bakken recept volkoren brood recept brood bakken broodbakmachine bruin brood bakken wit brood recept brood bakken zonder gist zelf brood bakken zonder broodbakmachine brood bakken temperatuur snel brood bakken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6534 AB Nijmegen - From your places (Work) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 9.090.000 resultaten (0 50 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎6 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken zelf brood bakken zonder broodbakmachine simpel brood bakken brood bakken zonder gist wit brood bakken brood bakken met zelfrijzend bakmeel brood bakken in de oven hetelucht Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Honden namen About 4.260.000 results (0 36 seconds) Tip: Search for English results only. You can specify your search language in Preferences Search Results Web results 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Translate this page Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Korte hondennamen · ‎Namen voor een teefje · ‎Mijn namen Populaire hondennamen | Petplan.nl https://www.petplan.nl › aanschaf-van-je-huisdier › pop Translate this page In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Populaire hondennamen | Royal Canin https://www.royalcanin.nl › hondennamen Translate this page Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Translate this page De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Top 100 Populaire HondenNamen - HondenPage https://www.hondenpage.com › hondennamen › top Translate this page Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Hondennamen op alfabetische volgorde - Dierennamen https://www.dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Searches related to Honden namen honden namen teefje originele hondennamen speciale hondennamen teefje hondennamen met betekenis hondennamen teefje met betekenis friese hondennamen spaanse hondennamen hondennamen met s Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6534 AB Nijmegen - From your places (Work) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 4.540.000 resultaten (0 33 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Stoer · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu · ‎Mijn namen Populaire hondennamen | Petplan.nl petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Populaire hondennamen | Royal Canin royalcanin.nl › populaire-kattennamen-populaire-hondennamen Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Lijst met alle leuke hondennamen voor reu &amp; teef hondennamen.nl › leuke-hondennamen Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. 30.000 hondennamen Gratis hondennaam informatie &amp; expert hondennamen.info Ontvang direct gratis toegang tot 30.000 hondennamen: hondennaam informatie en tips van de experts: ✅30.000 Hondennamen ✅Gratis. Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen tekenfilm hondennamen limburgse honden namen hondennamen met betekenis indische hondennamen disney namen hond friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Wat is het grootste bot in het menselijk lichaam? About 375.000 results (0 38 seconds) Search Results Featured snippet from the web Image result for Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback About Featured Snippets Web results Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-b Translate this page Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biolog Translate this page Mar 8 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in Translate this page Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-me Translate this page Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › botten › item45095 Translate this page De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en Het menselijk lichaam bestaat uit verschillende typen botten: Pijpbeenderen. Het grootste bot dat je hebt is je dijbeen. Het kleinste botje is Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl https://www.startpagina.nl › biologie › vraag › kleinste- Translate this page Nov 30 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam Translate this page Apr 23 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Wat is het grootste bot van het lichaam? https://www.w-tjes.nl › searchresult Translate this page Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50 Translate this page Feb 27 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen skelet mens skelet kopen skelet hoofd aantal botten baby skelet tekening skelet achterkant Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6534 AB Nijmegen - From your places (Work) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 415.000 resultaten (0 36 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl startpagina.nl › wetenschap › biologie › vraag › kleinste-bot- 30 nov. 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Wat is het grootste bot van het lichaam? w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het kleinste bot in je lichaam hoeveel botten heeft een baby noem de botten van de bovenste ledematen armen noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam hoeveel spieren heeft een mens skelet mens achterkant botten menselijk lichaam oefenen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel van een komkommer is water? About 3.080.000 results (0 50 seconds) Search Results Featured snippet from the web Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback About Featured Snippets Web results Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq https://www.wisfaq.nl › Translate this page Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › › Eten &amp; drinken Translate this page Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wiskunde › vraag › 100-kil Translate this page 7 answers Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › sma Translate this page 5 answers Mar 4 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komk Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › themas › eten-drinken › e Translate this page Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Hoeveel water zit er per d Translate this page May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer Translate this page Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Searches related to Hoeveel van een komkommer is water? komkommer groente of fruit augurk Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6534 AB Nijmegen - From your places (Work) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 1.180.000 resultaten (0 58 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer komkommer water witte komkommer hoeveel komkommer mag je eten gele komkommer wilde komkommer komkommer vitamine komkommer voedingswaarde Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel mensen wonen er in Nederland? About 11.000.000 results (0 67 seconds) Search Results Netherlands/Population 17.18 million (2018) •Netherlands 17.18 million ‌ •Belgium 11.4 million ‌ •Sweden 10.12 million ‌ Explore more Feedback Sources include: Eurostat Web results Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller Translate this page Nov 25 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-m Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Translate this page Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederl Translate this page Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederland Translate this page Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolkin Translate this page Jul 31 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet https://www.volkskrant.nl › nieuws-achtergrond › neder - Translate this page Jan 2 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina.nl https://www.startpagina.nl › aardrijkskunde › vraag › m Translate this page Oct 20 2011 - hoeveel mensen. Nederland telt op dit moment 16.718.078 inwoners. Toegevoegd na 40 seconden: Zie voor actueel overzicht: Amsterdam wordt miljoenenstad: zoek op hoeveel jouw https://www.rtlz.nl › algemeen › binnenland › artikel Translate this page Sep 10 2019 - In de komende 16 jaar krijgt Nederland er naar verwachting zo'n miljoen gemeenten geldt dat er steeds meer mensen alleen zullen wonen. EU member states View 15+ more France France Belgium Belgium United Kingdom United Kingdom Germany Germany Sweden Sweden Luxembourg Luxembourg Denmark Denmark Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen in nederland 2019 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 populatie nederland 2019 aantal inwoners nederland 2018 Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlandsmap expand icon Netherlands (Nederland) Country in Europe Related event 2019 European Short Course Swimming Championships Competition · 4–8 Dec Competitor DescriptionThe Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Related statistics Gross domestic product 826.2 billion USD ‎(2017) Population growth rate 0.6% annual change ‎(2017) Life expectancy 81.51 years ‎(2016) Population elsewhere Germany 82.79 million ‎(2018) Amsterdam 821 752 ‎(2015) France 66.89 million ‎(2018) Feedback Sources include: World Bank Eurostat United Nations INSEE Footer links Netherlands6534 AB Nijmegen - From your places (Work) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 31.100.000 resultaten (0 66 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) • Nederland 17 18 miljoen ‌ • België 11 4 miljoen ‌ • Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller 25 nov. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina startpagina.nl › wetenschap › aardrijkskunde › vraag › mense 2 antwoorden 20 okt. 2011 - Nederland telt op dit moment: 16.718.822 Inwoners. Toegevoegd na 33 seconden: Nu 16.718.8234 Toegevoegd na 1 minuut: Nu 16.718.823. Vooral in het westen van Nederland wordt het steeds drukker trouw.nl › binnenland › vooral-in-het-westen-van-nederland- 10 sep. 2019 - Nog altijd worden er in Nederland meer mensen geboren dan er en buiten de stad blijven wonen” zegt Daniëlle Snellen van het PBL. Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2018 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 hoeveel mensen wonen er in china hoeveel vrouwen in nederland Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederland map expand icon Nederland Land in Europa Gerelateerde gebeurtenissen Europese kampioenschappen kortebaanzwemmen 2019 Wedstrijd · 4–8 dec. Concurrent Beschrijving Nederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
     </row>
@@ -929,27 +929,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 9.090.000 resultaten (0 50 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎6 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van www.bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl https://www.smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van www.smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken zelf brood bakken zonder broodbakmachine simpel brood bakken brood bakken zonder gist wit brood bakken brood bakken met zelfrijzend bakmeel brood bakken in de oven hetelucht Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Brood bakken recept About 2.980.000 results (0 41 seconds) Search Results Web results Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voo Translate this page Brood bakken recept from uitpaulineskeuken.nl Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎23 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-ba Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recipes Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 hrs Op Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Web results Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Translate this page Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-b Translate this page Brood bakken recept from bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Zelf Ambachtelijk brood bakken in een uur | Recepten.tips recepten.tips › Recepten Translate this page Brood bakken recept from recepten.tips Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Translate this page Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Zelf Brood Bakken Zonder Machine | Budgetstijl budgetstijl.nl › zelf-brood-bakken-zonder-machine Translate this page Brood bakken recept from budgetstijl.nl Apr 15 2012 - Een paar jaar geleden heb ik het zelf bakken van brood ontdekt. Ik wist wel dat er Hierbij heb ik een recept voor zowel wit- als volkorenbrood. Searches related to Brood bakken recept volkoren brood recept brood bakken broodbakmachine bruin brood bakken wit brood recept brood bakken zonder gist zelf brood bakken zonder broodbakmachine brood bakken temperatuur snel brood bakken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsLeiden - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 4.540.000 resultaten (0 33 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Stoer · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu · ‎Mijn namen Populaire hondennamen | Petplan.nl https://www.petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Populaire hondennamen | Royal Canin https://www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Lijst met alle leuke hondennamen voor reu &amp; teef https://www.hondennamen.nl › leuke-hondennamen Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. 30.000 hondennamen Gratis hondennaam informatie &amp; expert https://hondennamen.info Ontvang direct gratis toegang tot 30.000 hondennamen: hondennaam informatie en tips van de experts: ✅30.000 Hondennamen ✅Gratis. Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen tekenfilm hondennamen limburgse honden namen hondennamen met betekenis indische hondennamen disney namen hond friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Honden namen About 4.820.000 results (0 38 seconds) Tip: Search for English results only. You can specify your search language in Preferences Search Results Web results 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Translate this page Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Korte hondennamen · ‎Namen voor een teefje · ‎Mijn namen Populaire hondennamen | Petplan.nl petplan.nl › aanschaf-van-je-huisdier › pop Translate this page In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Populaire hondennamen | Royal Canin royalcanin.nl › hondennamen Translate this page Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Translate this page De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Top 100 Populaire HondenNamen - Hondenpage hondenpage.com › hondennamen › top Translate this page Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Hondennamen op alfabetische volgorde - Dierennamen dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Searches related to Honden namen honden namen teefje originele hondennamen speciale hondennamen teefje hondennamen met betekenis spaanse hondennamen friese hondennamen hondennamen teefje met betekenis hondennamen met s Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsLeiden - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 415.000 resultaten (0 36 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl https://www.startpagina.nl › wetenschap › biologie › vraag › kleinste-bot- 30 nov. 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Wat is het grootste bot van het lichaam? https://www.w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het kleinste bot in je lichaam hoeveel botten heeft een baby noem de botten van de bovenste ledematen armen noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam hoeveel spieren heeft een mens skelet mens achterkant botten menselijk lichaam oefenen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Wat is het grootste bot in het menselijk lichaam? About 614.000 results (0 56 seconds) Search Results Featured snippet from the web Image result for Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback About Featured Snippets Web results Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-b Translate this page Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biolog Translate this page Mar 8 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in Translate this page Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-me Translate this page Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Het dijbeen staat bekend als het grootste – én sterkste – bot van ons lichaam. De sterkte van het dijbeen Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › botten › item45095 Translate this page De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en Het menselijk lichaam bestaat uit verschillende typen botten: Pijpbeenderen. Het grootste bot dat je hebt is je dijbeen. Het kleinste botje is Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl startpagina.nl › biologie › vraag › kleinste- Translate this page Nov 30 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. Wat is het grootste bot van het lichaam? w-tjes.nl › searchresult Translate this page Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam Translate this page Apr 23 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Translate this page Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen skelet mens skelet kopen skelet hoofd aantal botten baby skelet tekening skelet achterkant Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsLeiden - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 1.180.000 resultaten (0 58 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq https://www.wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer komkommer water witte komkommer hoeveel komkommer mag je eten gele komkommer wilde komkommer komkommer vitamine komkommer voedingswaarde Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel van een komkommer is water? About 3.100.000 results (0 48 seconds) Search Results Featured snippet from the web Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback About Featured Snippets Web results Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › › Eten &amp; drinken Translate this page Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel digitale vraagbaak voor het wiskundeonderwijs - WisFaq wisfaq.nl › Translate this page Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wiskunde › vraag › 100-kil Translate this page 7 answers Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › sma Translate this page 5 answers Mar 4 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komk Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › themas › eten-drinken › e Translate this page Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Hoeveel water zit er per d Translate this page May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer Translate this page Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsLeiden - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 31.100.000 resultaten (0 66 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) • Nederland 17 18 miljoen ‌ • België 11 4 miljoen ‌ • Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller 25 nov. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet https://www.volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina https://www.startpagina.nl › wetenschap › aardrijkskunde › vraag › mense 2 antwoorden 20 okt. 2011 - Nederland telt op dit moment: 16.718.822 Inwoners. Toegevoegd na 33 seconden: Nu 16.718.8234 Toegevoegd na 1 minuut: Nu 16.718.823. Vooral in het westen van Nederland wordt het steeds drukker https://www.trouw.nl › binnenland › vooral-in-het-westen-van-nederland- 10 sep. 2019 - Nog altijd worden er in Nederland meer mensen geboren dan er en buiten de stad blijven wonen” zegt Daniëlle Snellen van het PBL. Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2018 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 hoeveel mensen wonen er in china hoeveel vrouwen in nederland Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederland map expand icon Nederland Land in Europa Gerelateerde gebeurtenissen Europese kampioenschappen kortebaanzwemmen 2019 Wedstrijd · 4–8 dec. Concurrent Beschrijving Nederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel mensen wonen er in Nederland? About 10.500.000 results (0 75 seconds) Search Results Netherlands/Population 17.18 million (2018) •Netherlands 17.18 million ‌ •Belgium 11.4 million ‌ •Sweden 10.12 million ‌ Explore more Feedback Sources include: Eurostat Web results Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller Translate this page Nov 25 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-m Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Translate this page Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederl Translate this page Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederland Translate this page Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet volkskrant.nl › nieuws-achtergrond › neder - Translate this page Jan 2 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina startpagina.nl › aardrijkskunde › vraag › m Translate this page 2 answers Oct 20 2011 - Nederland telt op dit moment: 16.718.822 Inwoners. Toegevoegd na 33 seconden: Nu 16.718.8234 Toegevoegd na 1 minuut: Nu 16.718.823. Hoeveel mensen wonen er precies in nederland startpagina.nl › wetenschap › vraag › mens Translate this page 4 answers Wetenschap. 30 maart 2010 23:30. Hoeveel mensen wonen er precies in nederland? Toch 16 miljoen of niet? Vraag volgen. Delen. Antwoorden. 4. Reacties. 0 Vooral in het westen van Nederland wordt het steeds drukker trouw.nl › binnenland › vooral-in-het-weste Translate this page Sep 10 2019 - Nog altijd worden er in Nederland meer mensen geboren dan er en buiten de stad blijven wonen” zegt Daniëlle Snellen van het PBL. EU member states View 15+ more France France Belgium Belgium United Kingdom United Kingdom Germany Germany Sweden Sweden Luxembourg Luxembourg Denmark Denmark Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen in nederland 2019 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 populatie nederland 2019 aantal inwoners nederland 2018 Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlandsmap expand icon Netherlands (Nederland) Country in Europe Related event 2019 European Short Course Swimming Championships Competition · 4–8 Dec Competitor DescriptionThe Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Related statistics Gross domestic product 826.2 billion USD ‎(2017) Population growth rate 0.6% annual change ‎(2017) Life expectancy 81.51 years ‎(2016) Population elsewhere Germany 82.79 million ‎(2018) Amsterdam 821 752 ‎(2015) France 66.89 million ‎(2018) Feedback Sources include: World Bank Eurostat United Nations INSEE Footer links NetherlandsLeiden - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
     </row>
@@ -959,27 +959,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Brood bakken recept About 2.980.000 results (0 41 seconds) Search Results Web results Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voo Translate this page Brood bakken recept from uitpaulineskeuken.nl Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎23 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-ba Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recipes Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 hrs Op Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Web results Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Translate this page Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-b Translate this page Brood bakken recept from www.bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Zelf Ambachtelijk brood bakken in een uur | Recepten.tips https://recepten.tips › Recepten Translate this page Brood bakken recept from recepten.tips Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Translate this page Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Zelf Brood Bakken Zonder Machine | Budgetstijl https://budgetstijl.nl › zelf-brood-bakken-zonder-machine Translate this page Brood bakken recept from budgetstijl.nl Apr 15 2012 - Een paar jaar geleden heb ik het zelf bakken van brood ontdekt. Ik wist wel dat er Hierbij heb ik een recept voor zowel wit- als volkorenbrood. Searches related to Brood bakken recept volkoren brood recept brood bakken broodbakmachine bruin brood bakken wit brood recept brood bakken zonder gist zelf brood bakken zonder broodbakmachine brood bakken temperatuur snel brood bakken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsLeiden - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 8.830.000 resultaten (0 44 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎6 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Basis Brood recept | Smulweb.nl smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken zelf brood bakken goedkoper brood bakken zonder gist brood bakken temperatuur Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandOost Utrecht - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Honden namen About 4.820.000 results (0 38 seconds) Tip: Search for English results only. You can specify your search language in Preferences Search Results Web results 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Translate this page Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Korte hondennamen · ‎Namen voor een teefje · ‎Mijn namen Populaire hondennamen | Petplan.nl https://www.petplan.nl › aanschaf-van-je-huisdier › pop Translate this page In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Populaire hondennamen | Royal Canin https://www.royalcanin.nl › hondennamen Translate this page Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Translate this page De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Top 100 Populaire HondenNamen - Hondenpage https://www.hondenpage.com › hondennamen › top Translate this page Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Hondennamen op alfabetische volgorde - Dierennamen https://www.dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Searches related to Honden namen honden namen teefje originele hondennamen speciale hondennamen teefje hondennamen met betekenis spaanse hondennamen friese hondennamen hondennamen teefje met betekenis hondennamen met s Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsLeiden - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 4.310.000 resultaten (0 42 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Stoer · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Populaire hondennamen | Petplan.nl petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu · ‎Mijn namen Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Populaire hondennamen | Royal Canin royalcanin.nl › populaire-kattennamen-populaire-hondennamen Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Top 10 populaire hondennamen | Honden-plein.nl honden-plein.nl › hondennamen › hondennamen-top-10 Top 10 van populaire hondennamen. De hondennamen worden overzichtelijk weergegeven in namen voor een reu en voor een teefje. Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Lijst met alle leuke hondennamen voor reu &amp; teef hondennamen.nl › leuke-hondennamen Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen limburgse honden namen tekenfilm hondennamen hondennamen met betekenis buitenlandse hondennamen indische hondennamen disney namen hond Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandOost Utrecht - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Wat is het grootste bot in het menselijk lichaam? About 614.000 results (0 56 seconds) Search Results Featured snippet from the web Image result for Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback About Featured Snippets Web results Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-b Translate this page Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biolog Translate this page Mar 8 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in Translate this page Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-me Translate this page Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Het dijbeen staat bekend als het grootste – én sterkste – bot van ons lichaam. De sterkte van het dijbeen Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › botten › item45095 Translate this page De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en Het menselijk lichaam bestaat uit verschillende typen botten: Pijpbeenderen. Het grootste bot dat je hebt is je dijbeen. Het kleinste botje is Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl https://www.startpagina.nl › biologie › vraag › kleinste- Translate this page Nov 30 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. Wat is het grootste bot van het lichaam? https://www.w-tjes.nl › searchresult Translate this page Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam Translate this page Apr 23 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Translate this page Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen skelet mens skelet kopen skelet hoofd aantal botten baby skelet tekening skelet achterkant Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsLeiden - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 516.000 resultaten (0 49 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Het dijbeen staat bekend als het grootste – én sterkste – bot van ons lichaam. De sterkte van het dijbeen Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl startpagina.nl › wetenschap › biologie › vraag › kleinste-bot- 30 nov. 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Een bot bestaat uit verschillende lagen. De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en bestaat uit een soort Wat is het grootste bot van het lichaam? w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het kleinste bot in je lichaam hoeveel botten heeft een baby noem de botten van de bovenste ledematen armen noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam hoeveel spieren heeft een mens skelet mens achterkant botten menselijk lichaam oefenen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandOost Utrecht - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel van een komkommer is water? About 3.100.000 results (0 48 seconds) Search Results Featured snippet from the web Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback About Featured Snippets Web results Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › › Eten &amp; drinken Translate this page Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel digitale vraagbaak voor het wiskundeonderwijs - WisFaq https://www.wisfaq.nl › Translate this page Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wiskunde › vraag › 100-kil Translate this page 7 answers Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › sma Translate this page 5 answers Mar 4 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komk Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › themas › eten-drinken › e Translate this page Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Hoeveel water zit er per d Translate this page May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer Translate this page Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsLeiden - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 1.160.000 resultaten (0 44 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel digitale vraagbaak voor het wiskundeonderwijs - WisFaq wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer komkommer water hoeveel komkommer mag je eten gele komkommer komkommer vitamine wilde komkommer komkommer voedingswaarde Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandOost Utrecht - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel mensen wonen er in Nederland? About 10.500.000 results (0 75 seconds) Search Results Netherlands/Population 17.18 million (2018) •Netherlands 17.18 million ‌ •Belgium 11.4 million ‌ •Sweden 10.12 million ‌ Explore more Feedback Sources include: Eurostat Web results Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller Translate this page Nov 25 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-m Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Translate this page Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederl Translate this page Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederland Translate this page Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet https://www.volkskrant.nl › nieuws-achtergrond › neder - Translate this page Jan 2 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de hoeveel mensen wonen er in nederland? - Startpagina https://www.startpagina.nl › aardrijkskunde › vraag › m Translate this page 2 answers Oct 20 2011 - Nederland telt op dit moment: 16.718.822 Inwoners. Toegevoegd na 33 seconden: Nu 16.718.8234 Toegevoegd na 1 minuut: Nu 16.718.823. Hoeveel mensen wonen er precies in nederland https://www.startpagina.nl › wetenschap › vraag › mens Translate this page 4 answers Wetenschap. 30 maart 2010 23:30. Hoeveel mensen wonen er precies in nederland? Toch 16 miljoen of niet? Vraag volgen. Delen. Antwoorden. 4. Reacties. 0 Vooral in het westen van Nederland wordt het steeds drukker https://www.trouw.nl › binnenland › vooral-in-het-weste Translate this page Sep 10 2019 - Nog altijd worden er in Nederland meer mensen geboren dan er en buiten de stad blijven wonen” zegt Daniëlle Snellen van het PBL. EU member states View 15+ more France France Belgium Belgium United Kingdom United Kingdom Germany Germany Sweden Sweden Luxembourg Luxembourg Denmark Denmark Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen in nederland 2019 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 populatie nederland 2019 aantal inwoners nederland 2018 Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlandsmap expand icon Netherlands (Nederland) Country in Europe Related event 2019 European Short Course Swimming Championships Competition · 4–8 Dec Competitor DescriptionThe Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Related statistics Gross domestic product 826.2 billion USD ‎(2017) Population growth rate 0.6% annual change ‎(2017) Life expectancy 81.51 years ‎(2016) Population elsewhere Germany 82.79 million ‎(2018) Amsterdam 821 752 ‎(2015) France 66.89 million ‎(2018) Feedback Sources include: World Bank Eurostat United Nations INSEE Footer links NetherlandsLeiden - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 37.300.000 resultaten (0 98 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller 25 nov. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen nrc.nl › nieuws › 2019/01/02 › nederlandse-bevolking-groeit-o 2 jan. 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de Bevolking Nederland groeit sterker dan vorig jaar | Het Parool parool.nl › nederland › bevolking-nederland-groeit-sterker-da 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober 17.384.238 inwoners. gingen bijna drie keer zoveel immigranten in Amsterdam wonen. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2018 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 hoeveel mensen wonen er in china hoeveel vrouwen in nederland Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa Gerelateerde gebeurtenissen Europese kampioenschappen kortebaanzwemmen 2019 Wedstrijd · 4–8 dec. Concurrent BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst NederlandOost Utrecht - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -989,27 +989,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">A × About 2.880.000 results (0 47 seconds) Search Results Web results Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voo Translate this page Brood bakken recept from uitpaulineskeuken.nl Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎23 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-ba Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Translate this page Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-b Translate this page Brood bakken recept from www.bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Zelf Ambachtelijk brood bakken in een uur | Recepten.tips https://recepten.tips › Recepten Translate this page Brood bakken recept from recepten.tips Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Translate this page Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Recipes </t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Brood bakken recept About 2.560.000 results (0 48 seconds) Search Results Web results Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voo Translate this page Brood bakken recept from uitpaulineskeuken.nl Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎23 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-ba Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Translate this page Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-b Translate this page Brood bakken recept from bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Zelf Ambachtelijk brood bakken in een uur | Recepten.tips recepten.tips › Recepten Translate this page Brood bakken recept from recepten.tips Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Translate this page Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Zelf Brood Bakken Zonder Machine | Budgetstijl budgetstijl.nl › zelf-brood-bakken-zonder-machine Translate this page Brood bakken recept from budgetstijl.nl Apr 15 2012 - Een paar jaar geleden heb ik het zelf bakken van brood ontdekt. Ik wist wel dat er Hierbij heb ik een recept voor zowel wit- als volkorenbrood. Recipes Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 hrs Op Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Searches related to Brood bakken recept brood bakken broodbakmachine wit brood recept volkoren brood recept bruin brood bakken zelf brood bakken zonder broodbakmachine brood bakken zonder gist simpel brood recept snel brood bakken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsNijmegen - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">About 4.250.000 results (0 45 seconds) 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Translate this page Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Korte hondennamen · ‎Namen voor een teefje · ‎Mijn namen Populaire hondennamen | Petplan.nl https://www.petplan.nl › aanschaf-van-je-huisdier › pop Translate this page In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Populaire hondennamen | Royal Canin https://www.royalcanin.nl › hondennamen Translate this page Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Translate this page De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl </t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Honden namen About 4.310.000 results (0 48 seconds) Tip: Search for English results only. You can specify your search language in Preferences Search Results Featured snippet from the web Image result for Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. More items Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Feedback About Featured Snippets Web results 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Translate this page Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Korte hondennamen · ‎Namen voor een teefje · ‎Mijn namen Populaire hondennamen | Petplan.nl petplan.nl › aanschaf-van-je-huisdier › pop Translate this page In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Populaire hondennamen | Royal Canin royalcanin.nl › hondennamen Translate this page Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Translate this page De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Top 100 Populaire HondenNamen - HondenPage hondenpage.com › hondennamen › top Translate this page Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Hondennamen op alfabetische volgorde - Dierennamen dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Searches related to Honden namen honden namen teefje originele hondennamen speciale hondennamen teefje hondennamen met betekenis spaanse hondennamen friese hondennamen hondennamen teefje met betekenis hondennamen met s Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsNijmegen - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">× About 593.000 results (0 64 seconds) Search Results Featured snippet from the web Image result for Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback About Featured Snippets Web results Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-b Translate this page Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in Translate this page Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biolog Translate this page Mar 8 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-me Translate this page Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl https://www.startpagina.nl › biologie › vraag › kleinste- Translate this page Nov 30 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › botten › item45095 Translate this page E </t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Wat is het grootste bot in het menselijk lichaam? About 549.000 results (0 57 seconds) Search Results Featured snippet from the web Image result for Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback About Featured Snippets Web results Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-b Translate this page Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in Translate this page Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biolog Translate this page Mar 8 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-me Translate this page Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Het dijbeen staat bekend als het grootste – én sterkste – bot van ons lichaam. De sterkte van het dijbeen Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › botten › item45095 Translate this page Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Translate this page Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50 Translate this page Feb 27 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam Translate this page Apr 23 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Wat is het grootste bot van het lichaam? w-tjes.nl › searchresult Translate this page Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen skelet kopen skelet hoofd skelet mens aantal botten baby skelet tekening skelet achterkant Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsNijmegen - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">About 1.100.000 results (0 54 seconds) Search Results Featured snippet from the web Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback About Featured Snippets Web results Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › › Eten &amp; drinken Translate this page Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel digitale vraagbaak voor het wiskundeonderwijs - WisFaq https://www.wisfaq.nl › Translate this page Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wiskunde › vraag › 100-kil Translate this page 7 answers Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › sma Translate this page </t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel van een komkommer is water? About 956.000 results (0 45 seconds) Search Results Featured snippet from the web Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback About Featured Snippets Web results Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq wisfaq.nl › Translate this page Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › › Eten &amp; drinken Translate this page Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wiskunde › vraag › 100-kil Translate this page 7 answers Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › sma Translate this page 5 answers Mar 4 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komk Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › themas › eten-drinken › e Translate this page Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Hoeveel water zit er per d Translate this page May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer Translate this page Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Searches related to Hoeveel van een komkommer is water? komkommer groente of fruit augurk Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsNijmegen - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">× About 8.040.000 results (0 67 seconds) Search Results Netherlands/Population 17.18 million (2018) • Netherlands 17.18 million ‌ • Belgium 11.4 million ‌ • Sweden 10.12 million ‌ Explore more Feedback Sources include: Eurostat Web results Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller Translate this page Nov 25 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-m Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederl Translate this page Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland </t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel mensen wonen er in Nederland? About 11.000.000 results (0 63 seconds) Tip: Search for English results only. You can specify your search language in Preferences Search Results Netherlands/Population 17.18 million (2018) •Netherlands 17.18 million ‌ •Belgium 11.4 million ‌ •Sweden 10.12 million ‌ Explore more Feedback Sources include: Eurostat Web results Population counter - CBS cbs.nl › en-gb › visualisaties › population-counter Nov 25 2019 - 25/11/2019 10:24 The counter below shows how many registered inhabitants there are in the Netherlands at this moment according to the most recent estimate of Statistics Netherlands. The figure refers to the residents in the Netherlands recorded in the municipal population Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-m Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Translate this page Nederland in cijfers en grafieken met meer dan 100 onderwerpen! [17.282.163 inwoners met 7.740.984 woningen met een gemiddelde waarde van €230.000 Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederl Translate this page Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederland Translate this page Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolkin Translate this page Jul 31 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen nrc.nl › nieuws › 2019/01/02 › nederlandse - Translate this page Jan 2 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Bevolking Nederland groeit sterker dan vorig jaar | Het Parool parool.nl › nederland › bevolking-nederlan Translate this page Oct 30 2019 - Nederland telde volgens het statistiekbureau op 1 oktober 17.384.238 inwoners. gingen bijna drie keer zoveel immigranten in Amsterdam wonen. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet volkskrant.nl › nieuws-achtergrond › neder - Translate this page Jan 2 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de EU member states View 15+ more United Kingdom United Kingdom France France Germany Germany Belgium Belgium Sweden Sweden Italy Italy Luxembourg Luxembourg Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen in nederland 2019 bevolking nederland 2019 hoeveel mensen wonen er in nederland 2018 populatie nederland 2019 aantal inwoners nederland 2018 Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlandsmap expand icon Netherlands (Nederland) Country in Europe DescriptionThe Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Related statistics Gross domestic product 826.2 billion USD ‎(2017) Population growth rate 0.6% annual change ‎(2017) Life expectancy 81.51 years ‎(2016) Population elsewhere Germany 82.79 million ‎(2018) Amsterdam 821 752 ‎(2015) France 66.89 million ‎(2018) Feedback Sources include: World Bank Eurostat United Nations INSEE Footer links NetherlandsNijmegen - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
     </row>
@@ -1019,27 +1019,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 8.830.000 resultaten (0 44 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎6 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van www.bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Basis Brood recept | Smulweb.nl https://www.smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van www.smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken zelf brood bakken goedkoper brood bakken zonder gist brood bakken temperatuur Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandOost Utrecht - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Zoekmodi Alle Afbeeldingen Video's Shopping Maps Meer InstellingenTools Ongeveer 8.140.000 resultaten (0 58 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt rutgerbakt.nl › Brood recepten Beoordeling: 4 - ‎6 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl smulweb.nl › Recepten › Nederlandse keuken 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zelf brood bakken - waterlily-unlimited waterlily-unlimited.nl › brood Zelf brood bakken is gemakkelijk snel goedkoop en lekker. Als je het nog nooit gedaan hebt lijkt het heel ingewikkeld en overal vind je weer andere recepten. Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken zelf brood bakken zonder broodbakmachine simpel brood bakken brood bakken zonder gist wit brood bakken brood bakken benodigdheden brood bakken in de oven hetelucht Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 4.310.000 resultaten (0 42 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Stoer · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Populaire hondennamen | Petplan.nl https://www.petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu · ‎Mijn namen Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Populaire hondennamen | Royal Canin https://www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Top 10 populaire hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen › hondennamen-top-10 Top 10 van populaire hondennamen. De hondennamen worden overzichtelijk weergegeven in namen voor een reu en voor een teefje. Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Lijst met alle leuke hondennamen voor reu &amp; teef https://www.hondennamen.nl › leuke-hondennamen Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen limburgse honden namen tekenfilm hondennamen hondennamen met betekenis buitenlandse hondennamen indische hondennamen disney namen hond Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandOost Utrecht - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Zoekmodi Alle Afbeeldingen Shopping Video's Nieuws Meer InstellingenTools Ongeveer 4.040.000 resultaten (0 39 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Zoekresultaten Samenvatting van internet De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Grappig · ‎Namen met de tag ENGELS Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Populaire hondennamen | Petplan.nl petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Top 10 populaire hondennamen | Honden-plein.nl honden-plein.nl › hondennamen › hondennamen-top-10 Top 10 van populaire hondennamen. De hondennamen worden overzichtelijk weergegeven in namen voor een reu en voor een teefje. Populaire hondennamen | Royal Canin royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Top 100 Populaire HondenNamen - HondenPage hondenpage.com › hondennamen › top Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen buitenlandse hondennamen limburgse honden namen tekenfilm hondennamen hondennamen met betekenis indische hondennamen brabantse hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 516.000 resultaten (0 49 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Het dijbeen staat bekend als het grootste – én sterkste – bot van ons lichaam. De sterkte van het dijbeen Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl https://www.startpagina.nl › wetenschap › biologie › vraag › kleinste-bot- 30 nov. 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Een bot bestaat uit verschillende lagen. De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en bestaat uit een soort Wat is het grootste bot van het lichaam? https://www.w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het kleinste bot in je lichaam hoeveel botten heeft een baby noem de botten van de bovenste ledematen armen noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam hoeveel spieren heeft een mens skelet mens achterkant botten menselijk lichaam oefenen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandOost Utrecht - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Zoekmodi Alle Afbeeldingen Shopping Video's Nieuws Meer InstellingenTools Ongeveer 442.000 resultaten (0 45 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Zoekresultaten Samenvatting van internet Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Manfragas. 26 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten botten worden geboren! Hieronder lees je nog meer feitjes over menselijke botten. . Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Wat is het grootste bot van het lichaam? w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. . Wat je altijd al wilde weten: kun je natte was een nacht in de machine laten zitten? 5 [DOC] De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Skelet - 22 definities - Encyclo encyclo.nl › begrip › skelet Het menselijk skelet bevat 206 verschillende botten waarvan de kleinste drie in het middenoor zitten Het grootste bot in het menselijk lichaam is het dijbeen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen wat is het kleinste bot in je lichaam noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam botten menselijk lichaam hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 1.160.000 resultaten (0 44 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel digitale vraagbaak voor het wiskundeonderwijs - WisFaq https://www.wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer komkommer water hoeveel komkommer mag je eten gele komkommer komkommer vitamine wilde komkommer komkommer voedingswaarde Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandOost Utrecht - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Zoekmodi Alle Afbeeldingen Shopping Video's Nieuws Meer InstellingenTools Ongeveer 831.000 resultaten (0 43 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. WisFaq - digitale vraagbaak voor het wiskundeonderwijs wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten raadsels en puzzels - rdzl | Komkommers raadsel uitleg rdzl.nl › komkommers_raadsel › uitleg Door de hitte bestaan de komkommers aan het eind van de dag nog maar voor 98% uit water. Hoeveel kg komkommers heeft de groenteboer over aan het eind Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer gele komkommer hoeveel procent water in mens wilde komkommer hoeveel komkommer mag je eten hoeveel weegt een komkommer komkommer eten voor het slapen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 37.300.000 resultaten (0 98 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller 25 nov. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Daar staat tegenover dat er op jaarbasis elke dag 420 mensen Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen https://www.nrc.nl › nieuws › 2019/01/02 › nederlandse-bevolking-groeit-o 2 jan. 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet https://www.volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de Bevolking Nederland groeit sterker dan vorig jaar | Het Parool https://www.parool.nl › nederland › bevolking-nederland-groeit-sterker-da 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober 17.384.238 inwoners. gingen bijna drie keer zoveel immigranten in Amsterdam wonen. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2018 bevolking nederland 2019 hoeveel inwoners heeft nederland 2018 hoeveel mensen wonen er in china hoeveel vrouwen in nederland Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa Gerelateerde gebeurtenissen Europese kampioenschappen kortebaanzwemmen 2019 Wedstrijd · 4–8 dec. Concurrent BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst NederlandOost Utrecht - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Zoekmodi Alle Afbeeldingen Shopping Nieuws Maps Meer InstellingenTools Ongeveer 34.600.000 resultaten (0 94 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) 1960 1970 1980 1990 2000 2010 20.000.000 20.000.000 15.000.000 15.000.000 10.000.000 10.000.000 5.000.000 5.000.000 0 0 • Nederland 17 18 miljoen ‌ • België 11 4 miljoen ‌ • Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller 2 dagen geleden - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Nederland in cijfers en grafieken met meer dan 100 onderwerpen! [17.282.163 inwoners met 7.740.984 woningen met een gemiddelde waarde van €230.000 Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Bevolking Nederland groeit sterker dan vorig jaar | Het Parool parool.nl › nederland › bevolking-nederland-groeit-sterker-da 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober veel vluchtelingen uit Syrië en Irak) wonen relatief vaak in en om de grote steden. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen nrc.nl › nieuws › 2019/01/02 › nederlandse-bevolking-groeit-o 2 jan. 2019 - In 2010 werden er nog 1 8 kinderen per vrouw geboren vorig jaar was dat 1 6. In Rotterdam wonen 5 5 duizend mensen meer dan een jaar eerder de vergrijzing van de bevolking - aan de randen van Nederland wonen Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 2018 hoeveel inwoners heeft nederland 2018 inwoners nederland 1923 hoeveel baby worden er per dag geboren in de wereld Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Nederland Land in Europa Beschrijving Nederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Brood bakken recept About 2.560.000 results (0 48 seconds) Search Results Web results Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voo Translate this page Brood bakken recept from uitpaulineskeuken.nl Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎23 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-ba Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Translate this page Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-b Translate this page Brood bakken recept from www.bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Zelf Ambachtelijk brood bakken in een uur | Recepten.tips https://recepten.tips › Recepten Translate this page Brood bakken recept from recepten.tips Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Translate this page Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Zelf Brood Bakken Zonder Machine | Budgetstijl https://budgetstijl.nl › zelf-brood-bakken-zonder-machine Translate this page Brood bakken recept from budgetstijl.nl Apr 15 2012 - Een paar jaar geleden heb ik het zelf bakken van brood ontdekt. Ik wist wel dat er Hierbij heb ik een recept voor zowel wit- als volkorenbrood. Recipes Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 hrs Op Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Searches related to Brood bakken recept brood bakken broodbakmachine wit brood recept volkoren brood recept bruin brood bakken zelf brood bakken zonder broodbakmachine brood bakken zonder gist simpel brood recept snel brood bakken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsNijmegen - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 8.840.000 resultaten (0 58 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎7 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken zelf brood bakken zonder broodbakmachine simpel brood bakken brood bakken zonder gist wit brood bakken brood bakken benodigdheden brood bakken in de oven hetelucht Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandFeijenoord Rotterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Honden namen About 4.310.000 results (0 48 seconds) Tip: Search for English results only. You can specify your search language in Preferences Search Results Featured snippet from the web Image result for Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. More items Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Feedback About Featured Snippets Web results 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Translate this page Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Korte hondennamen · ‎Namen voor een teefje · ‎Mijn namen Populaire hondennamen | Petplan.nl https://www.petplan.nl › aanschaf-van-je-huisdier › pop Translate this page In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Populaire hondennamen | Royal Canin https://www.royalcanin.nl › hondennamen Translate this page Royal Canin heeft de meest gebruikte leukste en populairste hondennamen van Nederland per ras in een overzichtelijke TOP 10 gezet. Een TOP-lijst Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Translate this page De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Top 100 Populaire HondenNamen - HondenPage https://www.hondenpage.com › hondennamen › top Translate this page Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Hondennamen op alfabetische volgorde - Dierennamen https://www.dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Searches related to Honden namen honden namen teefje originele hondennamen speciale hondennamen teefje hondennamen met betekenis spaanse hondennamen friese hondennamen hondennamen teefje met betekenis hondennamen met s Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsNijmegen - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 4.140.000 resultaten (0 35 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Grappig · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Populaire hondennamen | Petplan.nl petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Top 10 populaire hondennamen | Honden-plein.nl honden-plein.nl › hondennamen › hondennamen-top-10 Top 10 van populaire hondennamen. De hondennamen worden overzichtelijk weergegeven in namen voor een reu en voor een teefje. Populaire hondennamen | Royal Canin royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Top 100 Populaire HondenNamen - Hondenpage hondenpage.com › hondennamen › top Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen buitenlandse hondennamen tekenfilm hondennamen limburgse honden namen brabantse hondennamen friese hondennamen indische hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandFeijenoord Rotterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Wat is het grootste bot in het menselijk lichaam? About 549.000 results (0 57 seconds) Search Results Featured snippet from the web Image result for Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback About Featured Snippets Web results Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-b Translate this page Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in Translate this page Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 stemmen. 144 leden stemden Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biolog Translate this page Mar 8 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-me Translate this page Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Het dijbeen staat bekend als het grootste – én sterkste – bot van ons lichaam. De sterkte van het dijbeen Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › botten › item45095 Translate this page Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Translate this page Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50 Translate this page Feb 27 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam Translate this page Apr 23 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Wat is het grootste bot van het lichaam? https://www.w-tjes.nl › searchresult Translate this page Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen skelet kopen skelet hoofd skelet mens aantal botten baby skelet tekening skelet achterkant Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsNijmegen - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 453.000 resultaten (0 43 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Manfragas. 26 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Wat is het grootste bot van het lichaam? w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Skelet - 22 definities - Encyclo encyclo.nl › begrip › skelet Het menselijk skelet bevat 206 verschillende botten waarvan de kleinste drie in het middenoor zitten Het grootste bot in het menselijk lichaam is het dijbeen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen wat is het kleinste bot in je lichaam noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam botten menselijk lichaam hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel van een komkommer is water? About 956.000 results (0 45 seconds) Search Results Featured snippet from the web Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback About Featured Snippets Web results Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen digitale vraagbaak voor het wiskundeonderwijs - WisFaq https://www.wisfaq.nl › Translate this page Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › › Eten &amp; drinken Translate this page Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wiskunde › vraag › 100-kil Translate this page 7 answers Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › sma Translate this page 5 answers Mar 4 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komk Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › themas › eten-drinken › e Translate this page Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Hoeveel water zit er per d Translate this page May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer Translate this page Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Searches related to Hoeveel van een komkommer is water? komkommer groente of fruit augurk Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsNijmegen - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 859.000 resultaten (0 63 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. WisFaq - digitale vraagbaak voor het wiskundeonderwijs wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer gele komkommer hoeveel procent water in mens hoeveel komkommer mag je eten wilde komkommer hoeveel weegt een komkommer komkommer eten voor het slapen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel mensen wonen er in Nederland? About 11.000.000 results (0 63 seconds) Tip: Search for English results only. You can specify your search language in Preferences Search Results Netherlands/Population 17.18 million (2018) •Netherlands 17.18 million ‌ •Belgium 11.4 million ‌ •Sweden 10.12 million ‌ Explore more Feedback Sources include: Eurostat Web results Population counter - CBS https://www.cbs.nl › en-gb › visualisaties › population-counter Nov 25 2019 - 25/11/2019 10:24 The counter below shows how many registered inhabitants there are in the Netherlands at this moment according to the most recent estimate of Statistics Netherlands. The figure refers to the residents in the Netherlands recorded in the municipal population Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-m Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Translate this page Nederland in cijfers en grafieken met meer dan 100 onderwerpen! [17.282.163 inwoners met 7.740.984 woningen met een gemiddelde waarde van €230.000 Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederl Translate this page Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederland Translate this page Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolkin Translate this page Jul 31 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen https://www.nrc.nl › nieuws › 2019/01/02 › nederlandse - Translate this page Jan 2 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Bevolking Nederland groeit sterker dan vorig jaar | Het Parool https://www.parool.nl › nederland › bevolking-nederlan Translate this page Oct 30 2019 - Nederland telde volgens het statistiekbureau op 1 oktober 17.384.238 inwoners. gingen bijna drie keer zoveel immigranten in Amsterdam wonen. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet https://www.volkskrant.nl › nieuws-achtergrond › neder - Translate this page Jan 2 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de EU member states View 15+ more United Kingdom United Kingdom France France Germany Germany Belgium Belgium Sweden Sweden Italy Italy Luxembourg Luxembourg Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen in nederland 2019 bevolking nederland 2019 hoeveel mensen wonen er in nederland 2018 populatie nederland 2019 aantal inwoners nederland 2018 Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlandsmap expand icon Netherlands (Nederland) Country in Europe DescriptionThe Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Related statistics Gross domestic product 826.2 billion USD ‎(2017) Population growth rate 0.6% annual change ‎(2017) Life expectancy 81.51 years ‎(2016) Population elsewhere Germany 82.79 million ‎(2018) Amsterdam 821 752 ‎(2015) France 66.89 million ‎(2018) Feedback Sources include: World Bank Eurostat United Nations INSEE Footer links NetherlandsNijmegen - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 35.300.000 resultaten (0 72 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller 3 dagen geleden - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Nederland in cijfers en grafieken met meer dan 100 onderwerpen! [17.282.163 inwoners met 7.740.984 woningen met een gemiddelde waarde van €230.000 Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen nrc.nl › nieuws › 2019/01/02 › nederlandse-bevolking-groeit-o 2 jan. 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Bevolking Nederland groeit sterker dan vorig jaar | Het Parool parool.nl › nederland › bevolking-nederland-groeit-sterker-da 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober veel vluchtelingen uit Syrië en Irak) wonen relatief vaak in en om de grote steden. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. hoeveel mensen wonen er in nederland? - Startpagina.nl startpagina.nl › wetenschap › aardrijkskunde › vraag › mense 2 antwoorden 20 okt. 2011 - Nederland telt op dit moment: 16.718.822 Inwoners. Toegevoegd na 33 seconden: Nu 16.718.8234 Toegevoegd na 1 minuut: Nu 16.718.823. Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 hoeveel mensen wonen er in china hoeveel inwoners heeft nederland 2018 aantal inwoners nederland 2018 hoeveel vrouwen in nederland Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst</t>
         </is>
       </c>
     </row>
@@ -1079,27 +1079,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Zoekmodi Alle Afbeeldingen Video's Shopping Maps Meer InstellingenTools Ongeveer 8.140.000 resultaten (0 58 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt https://rutgerbakt.nl › Brood recepten Beoordeling: 4 - ‎6 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl https://www.smulweb.nl › Recepten › Nederlandse keuken 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zelf brood bakken - waterlily-unlimited https://www.waterlily-unlimited.nl › brood Zelf brood bakken is gemakkelijk snel goedkoop en lekker. Als je het nog nooit gedaan hebt lijkt het heel ingewikkeld en overal vind je weer andere recepten. Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken zelf brood bakken zonder broodbakmachine simpel brood bakken brood bakken zonder gist wit brood bakken brood bakken benodigdheden brood bakken in de oven hetelucht Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 8.840.000 resultaten (0 51 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎7 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken zelf brood bakken zonder broodbakmachine simpel brood bakken brood bakken zonder gist wit brood bakken brood bakken benodigdheden brood bakken in de oven hetelucht Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6581 Malden - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Zoekmodi Alle Afbeeldingen Shopping Video's Nieuws Meer InstellingenTools Ongeveer 4.040.000 resultaten (0 39 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Zoekresultaten Samenvatting van internet De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Grappig · ‎Namen met de tag ENGELS Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Populaire hondennamen | Petplan.nl https://www.petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Top 10 populaire hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen › hondennamen-top-10 Top 10 van populaire hondennamen. De hondennamen worden overzichtelijk weergegeven in namen voor een reu en voor een teefje. Populaire hondennamen | Royal Canin https://www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Top 100 Populaire HondenNamen - HondenPage https://www.hondenpage.com › hondennamen › top Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen buitenlandse hondennamen limburgse honden namen tekenfilm hondennamen hondennamen met betekenis indische hondennamen brabantse hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 3.590.000 resultaten (0 33 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Populaire hondennamen | Petplan.nl petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden honden-plein.nl › hondennamen › hondennamen-teefje Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Populaire hondennamen | Royal Canin royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Hondennamen op alfabetische volgorde - Dierennamen dierennamen.net › hondennamen-op-alfab Vertaal deze pagina Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen buitenlandse hondennamen tekenfilm hondennamen limburgse honden namen brabantse hondennamen indische hondennamen friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6581 Malden - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Zoekmodi Alle Afbeeldingen Shopping Video's Nieuws Meer InstellingenTools Ongeveer 442.000 resultaten (0 45 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Zoekresultaten Samenvatting van internet Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Manfragas. 26 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten botten worden geboren! Hieronder lees je nog meer feitjes over menselijke botten. . Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Wat is het grootste bot van het lichaam? https://www.w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. . Wat je altijd al wilde weten: kun je natte was een nacht in de machine laten zitten? 5 [DOC] De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Skelet - 22 definities - Encyclo https://www.encyclo.nl › begrip › skelet Het menselijk skelet bevat 206 verschillende botten waarvan de kleinste drie in het middenoor zitten Het grootste bot in het menselijk lichaam is het dijbeen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen wat is het kleinste bot in je lichaam noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam botten menselijk lichaam hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 453.000 resultaten (0 58 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Manfragas. 26 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Skelet - 22 definities - Encyclo encyclo.nl › begrip › skelet Het menselijk skelet bevat 206 verschillende botten waarvan de kleinste drie in het middenoor zitten Het grootste bot in het menselijk lichaam is het dijbeen. Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen wat is het kleinste bot in je lichaam noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam botten menselijk lichaam hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6581 Malden - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Zoekmodi Alle Afbeeldingen Shopping Video's Nieuws Meer InstellingenTools Ongeveer 831.000 resultaten (0 43 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. WisFaq - digitale vraagbaak voor het wiskundeonderwijs https://www.wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten raadsels en puzzels - rdzl | Komkommers raadsel uitleg www.rdzl.nl › komkommers_raadsel › uitleg Door de hitte bestaan de komkommers aan het eind van de dag nog maar voor 98% uit water. Hoeveel kg komkommers heeft de groenteboer over aan het eind Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer gele komkommer hoeveel procent water in mens wilde komkommer hoeveel komkommer mag je eten hoeveel weegt een komkommer komkommer eten voor het slapen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 859.000 resultaten (0 55 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. WisFaq - digitale vraagbaak voor het wiskundeonderwijs wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer gele komkommer hoeveel procent water in mens hoeveel komkommer mag je eten wilde komkommer hoeveel weegt een komkommer komkommer eten voor het slapen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6581 Malden - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Zoekmodi Alle Afbeeldingen Shopping Nieuws Maps Meer InstellingenTools Ongeveer 34.600.000 resultaten (0 94 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) 1960 1970 1980 1990 2000 2010 20.000.000 20.000.000 15.000.000 15.000.000 10.000.000 10.000.000 5.000.000 5.000.000 0 0 • Nederland 17 18 miljoen ‌ • België 11 4 miljoen ‌ • Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller 2 dagen geleden - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 https://longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Nederland in cijfers en grafieken met meer dan 100 onderwerpen! [17.282.163 inwoners met 7.740.984 woningen met een gemiddelde waarde van €230.000 Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Bevolking Nederland groeit sterker dan vorig jaar | Het Parool https://www.parool.nl › nederland › bevolking-nederland-groeit-sterker-da 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober veel vluchtelingen uit Syrië en Irak) wonen relatief vaak in en om de grote steden. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen https://www.nrc.nl › nieuws › 2019/01/02 › nederlandse-bevolking-groeit-o 2 jan. 2019 - In 2010 werden er nog 1 8 kinderen per vrouw geboren vorig jaar was dat 1 6. In Rotterdam wonen 5 5 duizend mensen meer dan een jaar eerder de vergrijzing van de bevolking - aan de randen van Nederland wonen Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 2018 hoeveel inwoners heeft nederland 2018 inwoners nederland 1923 hoeveel baby worden er per dag geboren in de wereld Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Nederland Land in Europa Beschrijving Nederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 36.400.000 resultaten (0 85 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) • Nederland 17 18 miljoen ‌ • België 11 4 miljoen ‌ • Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller 3 dagen geleden - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Bevolking Nederland groeit sterker dan vorig jaar | Het Parool parool.nl › nederland › bevolking-nederland-groeit-sterker-da 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober veel vluchtelingen uit Syrië en Irak) wonen relatief vaak in en om de grote steden. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 2018 hoeveel inwoners heeft nederland 2018 inwoners nederland 1923 hoeveel baby worden er per dag geboren in de wereld Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederland map expand icon Nederland Land in Europa Beschrijving Nederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Nederland6581 Malden - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
     </row>
@@ -1109,27 +1109,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 8.840.000 resultaten (0 58 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎7 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van www.bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl https://www.smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van www.smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken zelf brood bakken zonder broodbakmachine simpel brood bakken brood bakken zonder gist wit brood bakken brood bakken benodigdheden brood bakken in de oven hetelucht Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandFeijenoord Rotterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Brood bakken recept Ongeveer 9.150.000 resultaten (0 53 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎7 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken zelf brood bakken zonder broodbakmachine simpel brood bakken brood bakken zonder gist wit brood bakken brood bakken benodigdheden brood bakken in de oven hetelucht Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNijmegen-Midden Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 4.140.000 resultaten (0 35 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Grappig · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Populaire hondennamen | Petplan.nl https://www.petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Top 10 populaire hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen › hondennamen-top-10 Top 10 van populaire hondennamen. De hondennamen worden overzichtelijk weergegeven in namen voor een reu en voor een teefje. Populaire hondennamen | Royal Canin https://www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Top 100 Populaire HondenNamen - Hondenpage https://www.hondenpage.com › hondennamen › top Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen buitenlandse hondennamen tekenfilm hondennamen limburgse honden namen brabantse hondennamen friese hondennamen indische hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandFeijenoord Rotterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Honden namen Ongeveer 3.590.000 resultaten (0 53 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Grappig · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Populaire hondennamen | Petplan.nl petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Top 10 populaire hondennamen | Honden-plein.nl honden-plein.nl › hondennamen › hondennamen-top-10 Top 10 van populaire hondennamen. De hondennamen worden overzichtelijk weergegeven in namen voor een reu en voor een teefje. Populaire hondennamen | Royal Canin royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Top 100 Populaire HondenNamen - Hondenpage hondenpage.com › hondennamen › top Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen limburgse honden namen buitenlandse hondennamen tekenfilm hondennamen hondennamen met betekenis indische hondennamen friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNijmegen-Midden Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 453.000 resultaten (0 43 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Manfragas. 26 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Wat is het grootste bot van het lichaam? https://www.w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Skelet - 22 definities - Encyclo https://www.encyclo.nl › begrip › skelet Het menselijk skelet bevat 206 verschillende botten waarvan de kleinste drie in het middenoor zitten Het grootste bot in het menselijk lichaam is het dijbeen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen wat is het kleinste bot in je lichaam noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam botten menselijk lichaam hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Wat is het grootste bot in het menselijk lichaam? Ongeveer 443.000 resultaten (0 66 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Manfragas. 26 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Het dijbeen staat bekend als het grootste – én sterkste – bot van ons lichaam. De sterkte van het dijbeen Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Skelet - 22 definities - Encyclo encyclo.nl › begrip › skelet Het menselijk skelet bevat 206 verschillende botten waarvan de kleinste drie in het middenoor zitten Het grootste bot in het menselijk lichaam is het dijbeen. Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen wat is het kleinste bot in je lichaam noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam botten menselijk lichaam hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNijmegen-Midden Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 859.000 resultaten (0 63 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. WisFaq - digitale vraagbaak voor het wiskundeonderwijs https://www.wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer gele komkommer hoeveel procent water in mens hoeveel komkommer mag je eten wilde komkommer hoeveel weegt een komkommer komkommer eten voor het slapen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Hoeveel van een komkommer is water? Ongeveer 941.000 resultaten (0 56 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. WisFaq - digitale vraagbaak voor het wiskundeonderwijs wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer gele komkommer hoeveel procent water in mens hoeveel komkommer mag je eten wilde komkommer hoeveel weegt een komkommer komkommer eten voor het slapen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNijmegen-Midden Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 35.300.000 resultaten (0 72 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller 3 dagen geleden - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Nederland in cijfers en grafieken met meer dan 100 onderwerpen! [17.282.163 inwoners met 7.740.984 woningen met een gemiddelde waarde van €230.000 Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen https://www.nrc.nl › nieuws › 2019/01/02 › nederlandse-bevolking-groeit-o 2 jan. 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Bevolking Nederland groeit sterker dan vorig jaar | Het Parool https://www.parool.nl › nederland › bevolking-nederland-groeit-sterker-da 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober veel vluchtelingen uit Syrië en Irak) wonen relatief vaak in en om de grote steden. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. hoeveel mensen wonen er in nederland? - Startpagina.nl https://www.startpagina.nl › wetenschap › aardrijkskunde › vraag › mense 2 antwoorden 20 okt. 2011 - Nederland telt op dit moment: 16.718.822 Inwoners. Toegevoegd na 33 seconden: Nu 16.718.8234 Toegevoegd na 1 minuut: Nu 16.718.823. Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 hoeveel mensen wonen er in china hoeveel inwoners heeft nederland 2018 aantal inwoners nederland 2018 hoeveel vrouwen in nederland Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Hoeveel mensen wonen er in Nederland? Ongeveer 36.400.000 resultaten (0 90 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller 4 dagen geleden - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Bevolking Nederland groeit sterker dan vorig jaar | Het Parool parool.nl › nederland › bevolking-nederland-groeit-sterker-da 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober veel vluchtelingen uit Syrië en Irak) wonen relatief vaak in en om de grote steden. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 2018 hoeveel inwoners heeft nederland 2018 inwoners nederland 1923 hoeveel baby worden er per dag geboren in de wereld Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst NederlandNijmegen-Midden Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -1139,27 +1139,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 8.840.000 resultaten (0 51 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎7 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van www.bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl https://www.smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van www.smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken zelf brood bakken zonder broodbakmachine simpel brood bakken brood bakken zonder gist wit brood bakken brood bakken benodigdheden brood bakken in de oven hetelucht Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6581 Malden - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t xml:space="preserve"> Annotation icon WebAdvisor logo Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Ongeveer 8.560.000 resultaten (0 49 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎7 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Basis Brood recept | Smulweb.nl smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken zelf brood bakken zonder broodbakmachine brood bakken broodbakmachine simpel brood bakken wit brood bakken brood bakken zonder gist brood bakken benodigdheden zelf brood bakken goedkoper Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArnhem - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 3.590.000 resultaten (0 33 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Populaire hondennamen | Petplan.nl https://www.petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden https://www.honden-plein.nl › hondennamen › hondennamen-teefje Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Populaire hondennamen | Royal Canin https://www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Hondennamen op alfabetische volgorde - Dierennamen https://www.dierennamen.net › hondennamen-op-alfab Vertaal deze pagina Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen buitenlandse hondennamen tekenfilm hondennamen limburgse honden namen brabantse hondennamen indische hondennamen friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6581 Malden - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t xml:space="preserve"> Annotation icon WebAdvisor logo Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Ongeveer 3.560.000 resultaten (0 33 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Populaire hondennamen | Petplan.nl petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden honden-plein.nl › hondennamen › hondennamen-teefje Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Populaire hondennamen | Royal Canin royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Hondennamen op alfabetische volgorde - Dierennamen dierennamen.net › hondennamen-op-alfab Vertaal deze pagina Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen buitenlandse hondennamen tekenfilm hondennamen limburgse honden namen brabantse hondennamen indische hondennamen friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArnhem - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 453.000 resultaten (0 58 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Manfragas. 26 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Skelet - 22 definities - Encyclo https://www.encyclo.nl › begrip › skelet Het menselijk skelet bevat 206 verschillende botten waarvan de kleinste drie in het middenoor zitten Het grootste bot in het menselijk lichaam is het dijbeen. Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen wat is het kleinste bot in je lichaam noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam botten menselijk lichaam hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6581 Malden - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t xml:space="preserve"> Annotation icon WebAdvisor logo Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Ongeveer 542.000 resultaten (0 47 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Manfragas. 26 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Skelet - 22 definities - Encyclo encyclo.nl › begrip › skelet Het menselijk skelet bevat 206 verschillende botten waarvan de kleinste drie in het middenoor zitten Het grootste bot in het menselijk lichaam is het dijbeen. Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen wat is het kleinste bot in je lichaam noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam botten menselijk lichaam hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArnhem - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 859.000 resultaten (0 55 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. WisFaq - digitale vraagbaak voor het wiskundeonderwijs https://www.wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer gele komkommer hoeveel procent water in mens hoeveel komkommer mag je eten wilde komkommer hoeveel weegt een komkommer komkommer eten voor het slapen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6581 Malden - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t xml:space="preserve"> Annotation icon WebAdvisor logo Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Ongeveer 1.150.000 resultaten (0 39 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. WisFaq - digitale vraagbaak voor het wiskundeonderwijs wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer gele komkommer hoeveel procent water in mens hoeveel komkommer mag je eten wilde komkommer hoeveel weegt een komkommer komkommer eten voor het slapen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArnhem - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 36.400.000 resultaten (0 85 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) • Nederland 17 18 miljoen ‌ • België 11 4 miljoen ‌ • Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller 3 dagen geleden - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 https://longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Bevolking Nederland groeit sterker dan vorig jaar | Het Parool https://www.parool.nl › nederland › bevolking-nederland-groeit-sterker-da 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober veel vluchtelingen uit Syrië en Irak) wonen relatief vaak in en om de grote steden. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet https://www.volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 2018 hoeveel inwoners heeft nederland 2018 inwoners nederland 1923 hoeveel baby worden er per dag geboren in de wereld Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederland map expand icon Nederland Land in Europa Beschrijving Nederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Nederland6581 Malden - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t xml:space="preserve"> Annotation icon WebAdvisor logo Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Ongeveer 41.200.000 resultaten (0 78 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) • Nederland 17 18 miljoen ‌ • België 11 4 miljoen ‌ • Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller 6 dagen geleden - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de Vooral in het westen van Nederland wordt het steeds drukker trouw.nl › binnenland › vooral-in-het-westen-van-nederland- 10 sep. 2019 - Nog altijd worden er in Nederland meer mensen geboren dan er en buiten de stad blijven wonen” zegt Daniëlle Snellen van het PBL. Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 2018 hoeveel inwoners heeft nederland 2018 inwoners nederland 1923 hoeveel baby worden er per dag geboren in de wereld Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederland map expand icon Nederland Land in Europa Beschrijving Nederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst NederlandArnhem - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
     </row>
@@ -1169,27 +1169,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Brood bakken recept Ongeveer 9.150.000 resultaten (0 53 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎7 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van www.bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl https://www.smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van www.smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken zelf brood bakken zonder broodbakmachine simpel brood bakken brood bakken zonder gist wit brood bakken brood bakken benodigdheden brood bakken in de oven hetelucht Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNijmegen-Midden Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenVideo'sShoppingMapsMeer InstellingenTools Ongeveer 8.390.000 resultaten (0 58 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎7 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Basis Brood recept | Smulweb.nl smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken zelf brood bakken zonder broodbakmachine simpel brood bakken brood bakken broodbakmachine wit brood bakken brood bakken zonder gist zelf brood bakken goedkoper brood bakken in de oven hetelucht Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland7511 KE Enschede - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Honden namen Ongeveer 3.590.000 resultaten (0 53 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Grappig · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Populaire hondennamen | Petplan.nl https://www.petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Top 10 populaire hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen › hondennamen-top-10 Top 10 van populaire hondennamen. De hondennamen worden overzichtelijk weergegeven in namen voor een reu en voor een teefje. Populaire hondennamen | Royal Canin https://www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Top 100 Populaire HondenNamen - Hondenpage https://www.hondenpage.com › hondennamen › top Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen limburgse honden namen buitenlandse hondennamen tekenfilm hondennamen hondennamen met betekenis indische hondennamen friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNijmegen-Midden Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 4.660.000 resultaten (0 42 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen Hondennamen top 10 Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Populaire hondennamen | Petplan.nl petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Lijst met alle leuke hondennamen voor reu &amp; teef hondennamen.nl › leuke-hondennamen Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Top 10 populaire hondennamen | Honden-plein.nl honden-plein.nl › hondennamen › hondennamen-top-10 Top 10 van populaire hondennamen. De hondennamen worden overzichtelijk weergegeven in namen voor een reu en voor een teefje. Populaire hondennamen | Royal Canin royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen limburgse honden namen aparte hondennamen buitenlandse hondennamen tekenfilm hondennamen hondennamen met betekenis indische hondennamen brabantse hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland7511 KE Enschede - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Wat is het grootste bot in het menselijk lichaam? Ongeveer 443.000 resultaten (0 66 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Manfragas. 26 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Het dijbeen staat bekend als het grootste – én sterkste – bot van ons lichaam. De sterkte van het dijbeen Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Skelet - 22 definities - Encyclo https://www.encyclo.nl › begrip › skelet Het menselijk skelet bevat 206 verschillende botten waarvan de kleinste drie in het middenoor zitten Het grootste bot in het menselijk lichaam is het dijbeen. Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen wat is het kleinste bot in je lichaam noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam botten menselijk lichaam hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNijmegen-Midden Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 1.090.000 resultaten (0 48 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Wat wil jij leren op school? Onze stagiair Merel onderzoekt: waar willen jullie zelf meer les over krijgen? Help haar en ons en vul de vragenlijst Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Manfragas. 26 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Faber: de mensen zouden de details moeten weten van wat Anne is aangedaan. [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Skelet - 22 definities - Encyclo encyclo.nl › begrip › skelet Het menselijk skelet bevat 206 verschillende botten waarvan de kleinste drie in het middenoor zitten Het grootste bot in het menselijk lichaam is het dijbeen. Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen wat is het kleinste bot in je lichaam noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam botten menselijk lichaam hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland7511 KE Enschede - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Hoeveel van een komkommer is water? Ongeveer 941.000 resultaten (0 56 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. WisFaq - digitale vraagbaak voor het wiskundeonderwijs https://www.wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer gele komkommer hoeveel procent water in mens hoeveel komkommer mag je eten wilde komkommer hoeveel weegt een komkommer komkommer eten voor het slapen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNijmegen-Midden Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 4.540.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. WisFaq - digitale vraagbaak voor het wiskundeonderwijs wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 1 jul. 2010 - 7 antwoorden - graag uitleg hoe je dit berekend. een rekendocent beweerd dat je 50 kilo overhoud Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 4 mrt. 2012 - 5 antwoorden - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen smaak. Overheerst de 4%? Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer hoeveel procent water in mens gele komkommer hoeveel komkommer mag je eten wilde komkommer hoeveel weegt een komkommer komkommer eten voor het slapen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland7511 KE Enschede - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Hoeveel mensen wonen er in Nederland? Ongeveer 36.400.000 resultaten (0 90 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller 4 dagen geleden - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 https://longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Bevolking Nederland groeit sterker dan vorig jaar | Het Parool https://www.parool.nl › nederland › bevolking-nederland-groeit-sterker-da 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober veel vluchtelingen uit Syrië en Irak) wonen relatief vaak in en om de grote steden. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet https://www.volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 2018 hoeveel inwoners heeft nederland 2018 inwoners nederland 1923 hoeveel baby worden er per dag geboren in de wereld Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst NederlandNijmegen-Midden Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingNieuwsMapsMeer InstellingenTools Ongeveer 32.700.000 resultaten (0 70 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) 1960 1970 1980 1990 2000 2010 20.000.000 20.000.000 15.000.000 15.000.000 10.000.000 10.000.000 5.000.000 5.000.000 0 0 •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller 20 dec. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Vooral in het westen van Nederland wordt het steeds drukker trouw.nl › binnenland › vooral-in-het-westen-van-nederland- 10 sep. 2019 - Nog altijd worden er in Nederland meer mensen geboren dan er en buiten de stad blijven wonen” zegt Daniëlle Snellen van het PBL. Jeugd - algemeen - Cijfers | NJi nji.nl › Databank › Cijfers-per-onderwerp › Jeugd---algemeen Aantal kinderen en jongeren in Nederland Percentage jeugd per provincie Leerlingen per De meeste kinderen en jongeren wonen in Zuid-Holland gevolgd door Noord-Holland. Hoeveel kinderen en jongeren zijn er in Nederland? Bevolking | Cijfers &amp; Context | Vergrijzing volksgezondheidenzorg.info › onderwerp › vergrijzing In de twintigste eeuw is het aantal 65-plussers in Nederland meer dan Op 1 januari 2018 waren er ruim 779.000 mensen van 80 jaar en ouder wat neerkomt Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 hoeveel mensen wonen er in china hoeveel inwoners heeft nederland 2018 aantal inwoners nederland 2018 hoeveel vrouwen in nederland Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Nederland7511 KE Enschede - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -1199,27 +1199,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Annotation icon WebAdvisor logo Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Ongeveer 8.560.000 resultaten (0 49 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎7 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van www.bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Basis Brood recept | Smulweb.nl https://www.smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van www.smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken zelf brood bakken zonder broodbakmachine brood bakken broodbakmachine simpel brood bakken wit brood bakken brood bakken zonder gist brood bakken benodigdheden zelf brood bakken goedkoper Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArnhem - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 9.390.000 resultaten (0 41 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎7 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Basis Brood recept | Smulweb.nl smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken zelf brood bakken goedkoper wit brood bakken snel wit brood bakken brood bakken temperatuur Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandLeidsche Rijn Utrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Annotation icon WebAdvisor logo Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Ongeveer 3.560.000 resultaten (0 33 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Populaire hondennamen | Petplan.nl https://www.petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden https://www.honden-plein.nl › hondennamen › hondennamen-teefje Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Populaire hondennamen | Royal Canin https://www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Hondennamen op alfabetische volgorde - Dierennamen https://www.dierennamen.net › hondennamen-op-alfab Vertaal deze pagina Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen buitenlandse hondennamen tekenfilm hondennamen limburgse honden namen brabantse hondennamen indische hondennamen friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArnhem - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 4.630.000 resultaten (0 37 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen Hondennamen top 10 Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Populaire hondennamen | Petplan.nl petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Lijst met alle leuke hondennamen voor reu &amp; teef hondennamen.nl › leuke-hondennamen Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Top 10 populaire hondennamen | Honden-plein.nl honden-plein.nl › hondennamen › hondennamen-top-10 Top 10 van populaire hondennamen. De hondennamen worden overzichtelijk weergegeven in namen voor een reu en voor een teefje. Populaire hondennamen | Royal Canin royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen limburgse honden namen aparte hondennamen buitenlandse hondennamen tekenfilm hondennamen hondennamen met betekenis indische hondennamen brabantse hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandLeidsche Rijn Utrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Annotation icon WebAdvisor logo Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Ongeveer 542.000 resultaten (0 47 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Manfragas. 26 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Skelet - 22 definities - Encyclo https://www.encyclo.nl › begrip › skelet Het menselijk skelet bevat 206 verschillende botten waarvan de kleinste drie in het middenoor zitten Het grootste bot in het menselijk lichaam is het dijbeen. Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen wat is het kleinste bot in je lichaam noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam botten menselijk lichaam hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArnhem - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 2.400.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Manfragas. 26 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Skelet - 22 definities - Encyclo encyclo.nl › begrip › skelet Het menselijk skelet bevat 206 verschillende botten waarvan de kleinste drie in het middenoor zitten Het grootste bot in het menselijk lichaam is het dijbeen. Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen armen wat is het kleinste bot in je lichaam noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam botten menselijk lichaam hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandLeidsche Rijn Utrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Annotation icon WebAdvisor logo Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Ongeveer 1.150.000 resultaten (0 39 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. WisFaq - digitale vraagbaak voor het wiskundeonderwijs https://www.wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer gele komkommer hoeveel procent water in mens hoeveel komkommer mag je eten wilde komkommer hoeveel weegt een komkommer komkommer eten voor het slapen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArnhem - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 4.450.000 resultaten (0 40 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. WisFaq - digitale vraagbaak voor het wiskundeonderwijs wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer gele komkommer hoeveel procent water in mens hoeveel komkommer mag je eten wilde komkommer hoeveel weegt een komkommer komkommer eten voor het slapen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandLeidsche Rijn Utrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Annotation icon WebAdvisor logo Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Ongeveer 41.200.000 resultaten (0 78 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) • Nederland 17 18 miljoen ‌ • België 11 4 miljoen ‌ • Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller 6 dagen geleden - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 https://longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet https://www.volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-mi 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de Vooral in het westen van Nederland wordt het steeds drukker https://www.trouw.nl › binnenland › vooral-in-het-westen-van-nederland- 10 sep. 2019 - Nog altijd worden er in Nederland meer mensen geboren dan er en buiten de stad blijven wonen” zegt Daniëlle Snellen van het PBL. Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 2018 hoeveel inwoners heeft nederland 2018 inwoners nederland 1923 hoeveel baby worden er per dag geboren in de wereld Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederland map expand icon Nederland Land in Europa Beschrijving Nederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst NederlandArnhem - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 40.000.000 resultaten (0 74 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller 20 dec. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Bevolking Nederland groeit sterker dan vorig jaar | Het Parool parool.nl › nederland › bevolking-nederland-groeit-sterker-da 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober veel vluchtelingen uit Syrië en Irak) wonen relatief vaak in en om de grote steden. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen nrc.nl › nieuws › 2019/01/02 › nederlandse-bevolking-groeit-o 2 jan. 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 2018 hoeveel inwoners heeft nederland 2018 inwoners nederland 1923 hoeveel baby worden er per dag geboren in de wereld Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst NederlandLeidsche Rijn Utrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -1229,27 +1229,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenVideo'sShoppingMapsMeer InstellingenTools Ongeveer 8.390.000 resultaten (0 58 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎7 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van www.bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Basis Brood recept | Smulweb.nl https://www.smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van www.smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken zelf brood bakken zonder broodbakmachine simpel brood bakken brood bakken broodbakmachine wit brood bakken brood bakken zonder gist zelf brood bakken goedkoper brood bakken in de oven hetelucht Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland7511 KE Enschede - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 8.880.000 resultaten (0 50 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎7 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken brood bakken benodigdheden brood bakken zonder gist brood bakken in de oven hetelucht Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArnhem - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 4.660.000 resultaten (0 42 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen Hondennamen top 10 Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Populaire hondennamen | Petplan.nl https://www.petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Lijst met alle leuke hondennamen voor reu &amp; teef https://www.hondennamen.nl › leuke-hondennamen Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Top 10 populaire hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen › hondennamen-top-10 Top 10 van populaire hondennamen. De hondennamen worden overzichtelijk weergegeven in namen voor een reu en voor een teefje. Populaire hondennamen | Royal Canin https://www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen limburgse honden namen aparte hondennamen buitenlandse hondennamen tekenfilm hondennamen hondennamen met betekenis indische hondennamen brabantse hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland7511 KE Enschede - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 4.070.000 resultaten (0 44 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen Hondennamen top 10 Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Lijst met alle leuke hondennamen voor reu &amp; teef hondennamen.nl › leuke-hondennamen Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden honden-plein.nl › hondennamen › hondennamen-teefje Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Populaire hondennamen | Royal Canin royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Populaire hondennamen | Petplan.nl petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen buitenlandse hondennamen tekenfilm hondennamen limburgse honden namen brabantse hondennamen indische hondennamen friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArnhem - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 1.090.000 resultaten (0 48 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Wat wil jij leren op school? Onze stagiair Merel onderzoekt: waar willen jullie zelf meer les over krijgen? Help haar en ons en vul de vragenlijst Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Manfragas. 26 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Faber: de mensen zouden de details moeten weten van wat Anne is aangedaan. [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Skelet - 22 definities - Encyclo https://www.encyclo.nl › begrip › skelet Het menselijk skelet bevat 206 verschillende botten waarvan de kleinste drie in het middenoor zitten Het grootste bot in het menselijk lichaam is het dijbeen. Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen wat is het kleinste bot in je lichaam noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam botten menselijk lichaam hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland7511 KE Enschede - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 2.540.000 resultaten (0 53 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Manfragas. 26 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Skelet - 22 definities - Encyclo encyclo.nl › begrip › skelet Het menselijk skelet bevat 206 verschillende botten waarvan de kleinste drie in het middenoor zitten Het grootste bot in het menselijk lichaam is het dijbeen. Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen wat is het kleinste bot in je lichaam sterkste bot menselijk lichaam noem de botten van de onderste ledematen benen botten menselijk lichaam hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArnhem - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 4.540.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. WisFaq - digitale vraagbaak voor het wiskundeonderwijs https://www.wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 1 jul. 2010 - 7 antwoorden - graag uitleg hoe je dit berekend. een rekendocent beweerd dat je 50 kilo overhoud Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 4 mrt. 2012 - 5 antwoorden - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen smaak. Overheerst de 4%? Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer hoeveel procent water in mens gele komkommer hoeveel komkommer mag je eten wilde komkommer hoeveel weegt een komkommer komkommer eten voor het slapen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland7511 KE Enschede - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 4.350.000 resultaten (0 47 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen WisFaq - digitale vraagbaak voor het wiskundeonderwijs wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer gele komkommer wilde komkommer hoeveel komkommer mag je eten hoeveel weegt een komkommer hoeveel procent water in mens slangkomkommer of komkommer Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArnhem - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingNieuwsMapsMeer InstellingenTools Ongeveer 32.700.000 resultaten (0 70 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) 1960 1970 1980 1990 2000 2010 20.000.000 20.000.000 15.000.000 15.000.000 10.000.000 10.000.000 5.000.000 5.000.000 0 0 •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller 20 dec. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Vooral in het westen van Nederland wordt het steeds drukker https://www.trouw.nl › binnenland › vooral-in-het-westen-van-nederland- 10 sep. 2019 - Nog altijd worden er in Nederland meer mensen geboren dan er en buiten de stad blijven wonen” zegt Daniëlle Snellen van het PBL. Jeugd - algemeen - Cijfers | NJi https://www.nji.nl › Databank › Cijfers-per-onderwerp › Jeugd---algemeen Aantal kinderen en jongeren in Nederland Percentage jeugd per provincie Leerlingen per De meeste kinderen en jongeren wonen in Zuid-Holland gevolgd door Noord-Holland. Hoeveel kinderen en jongeren zijn er in Nederland? Bevolking | Cijfers &amp; Context | Vergrijzing https://www.volksgezondheidenzorg.info › onderwerp › vergrijzing In de twintigste eeuw is het aantal 65-plussers in Nederland meer dan Op 1 januari 2018 waren er ruim 779.000 mensen van 80 jaar en ouder wat neerkomt Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 hoeveel mensen wonen er in china hoeveel inwoners heeft nederland 2018 aantal inwoners nederland 2018 hoeveel vrouwen in nederland Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Nederland7511 KE Enschede - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 35.000.000 resultaten (0 83 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller 20 dec. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Nederland in cijfers en grafieken met meer dan 100 onderwerpen! [17.282.163 inwoners met 7.740.984 woningen met een gemiddelde waarde van €230.000 Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Bevolking Nederland groeit sterker dan vorig jaar | Het Parool parool.nl › nederland › bevolking-nederland-groeit-sterker-da 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober 17.384.238 inwoners. gingen bijna drie keer zoveel immigranten in Amsterdam wonen. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door rtlnieuws.nl › bevolkingsgroei-2019-migratie-grote-steden 5 dagen geleden - waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente groeit of Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 2018 hoeveel inwoners heeft nederland 2018 inwoners nederland 1923 hoeveel baby worden er per dag geboren in de wereld Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst NederlandArnhem - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -1259,27 +1259,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 9.390.000 resultaten (0 41 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎7 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van www.bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Basis Brood recept | Smulweb.nl https://www.smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van www.smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken zelf brood bakken goedkoper wit brood bakken snel wit brood bakken brood bakken temperatuur Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandLeidsche Rijn Utrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 10.300.000 resultaten (0 46 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎7 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken brood bakken benodigdheden brood bakken temperatuur brood bakken zonder gist Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1381 Weesp - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 4.630.000 resultaten (0 37 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen Hondennamen top 10 Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Populaire hondennamen | Petplan.nl https://www.petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Lijst met alle leuke hondennamen voor reu &amp; teef https://www.hondennamen.nl › leuke-hondennamen Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Top 10 populaire hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen › hondennamen-top-10 Top 10 van populaire hondennamen. De hondennamen worden overzichtelijk weergegeven in namen voor een reu en voor een teefje. Populaire hondennamen | Royal Canin https://www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen limburgse honden namen aparte hondennamen buitenlandse hondennamen tekenfilm hondennamen hondennamen met betekenis indische hondennamen brabantse hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandLeidsche Rijn Utrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 4.340.000 resultaten (0 37 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen Hondennamen top 10 Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Lijst met alle leuke hondennamen voor reu &amp; teef hondennamen.nl › leuke-hondennamen Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden honden-plein.nl › hondennamen › hondennamen-teefje Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Populaire hondennamen | Royal Canin royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Populaire hondennamen | Petplan.nl petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen buitenlandse hondennamen tekenfilm hondennamen limburgse honden namen brabantse hondennamen indische hondennamen friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1382 PZ Weesp - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 2.400.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Manfragas. 26 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Skelet - 22 definities - Encyclo https://www.encyclo.nl › begrip › skelet Het menselijk skelet bevat 206 verschillende botten waarvan de kleinste drie in het middenoor zitten Het grootste bot in het menselijk lichaam is het dijbeen. Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen armen wat is het kleinste bot in je lichaam noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam botten menselijk lichaam hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandLeidsche Rijn Utrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 2.600.000 resultaten (0 44 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Manfragas. 26 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Skelet - 22 definities - Encyclo encyclo.nl › begrip › skelet Het menselijk skelet bevat 206 verschillende botten waarvan de kleinste drie in het middenoor zitten Het grootste bot in het menselijk lichaam is het dijbeen. Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen wat is het kleinste bot in je lichaam sterkste bot menselijk lichaam noem de botten van de onderste ledematen benen botten menselijk lichaam hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1382 PZ Weesp - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 4.450.000 resultaten (0 40 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. WisFaq - digitale vraagbaak voor het wiskundeonderwijs https://www.wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer gele komkommer hoeveel procent water in mens hoeveel komkommer mag je eten wilde komkommer hoeveel weegt een komkommer komkommer eten voor het slapen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandLeidsche Rijn Utrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 3.720.000 resultaten (0 43 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen WisFaq - digitale vraagbaak voor het wiskundeonderwijs wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer gele komkommer wilde komkommer hoeveel komkommer mag je eten hoeveel weegt een komkommer hoeveel procent water in mens slangkomkommer of komkommer Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1382 PZ Weesp - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 40.000.000 resultaten (0 74 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller 20 dec. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Kentallen · ‎Etnische Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 https://longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? Buitenlanders zijn dan de mensen die wel in Nederland wonen maar niet over een Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Bevolking Nederland groeit sterker dan vorig jaar | Het Parool https://www.parool.nl › nederland › bevolking-nederland-groeit-sterker-da 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober veel vluchtelingen uit Syrië en Irak) wonen relatief vaak in en om de grote steden. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. Nederlandse bevolking groeit opnieuw bijna 17 3 miljoen https://www.nrc.nl › nieuws › 2019/01/02 › nederlandse-bevolking-groeit-o 2 jan. 2019 - Vooral in de vier grote steden en Noord-Brabant nam het aantal inwoners toe. In het noorden van het land en Limburg kromp de bevolking juist Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 2018 hoeveel inwoners heeft nederland 2018 inwoners nederland 1923 hoeveel baby worden er per dag geboren in de wereld Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst NederlandLeidsche Rijn Utrecht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 41.600.000 resultaten (0 68 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller 20 dec. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Bevolking Nederland groeit sterker dan vorig jaar | Het Parool parool.nl › nederland › bevolking-nederland-groeit-sterker-da 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober 17.384.238 inwoners. gingen bijna drie keer zoveel immigranten in Amsterdam wonen. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door rtlnieuws.nl › bevolkingsgroei-2019-migratie-grote-steden 5 dagen geleden - waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente groeit of Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 2018 hoeveel inwoners heeft nederland 2018 inwoners nederland 1923 hoeveel baby worden er per dag geboren in de wereld Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Nederland1382 PZ Weesp - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -1289,27 +1289,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 8.880.000 resultaten (0 50 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎7 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van www.bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl https://www.smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van www.smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken brood bakken benodigdheden brood bakken zonder gist brood bakken in de oven hetelucht Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArnhem - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenVideo'sShoppingMapsMeer InstellingenTools Ongeveer 18.200.000 resultaten (0 45 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎7 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken brood bakken temperatuur wit brood bakken zelf brood bakken goedkoper brood bakken benodigdheden Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam-Zuid Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 4.070.000 resultaten (0 44 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen Hondennamen top 10 Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Lijst met alle leuke hondennamen voor reu &amp; teef https://www.hondennamen.nl › leuke-hondennamen Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden https://www.honden-plein.nl › hondennamen › hondennamen-teefje Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Populaire hondennamen | Royal Canin https://www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Populaire hondennamen | Petplan.nl https://www.petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen buitenlandse hondennamen tekenfilm hondennamen limburgse honden namen brabantse hondennamen indische hondennamen friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArnhem - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 4.830.000 resultaten (0 38 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen Hondennamen top 10 Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Feedback Over samenvattingen Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Grappig · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2020! herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Lijst met alle leuke hondennamen voor reu &amp; teef hondennamen.nl › leuke-hondennamen Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Populaire hondennamen | Royal Canin royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Populaire hondennamen | Petplan.nl petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Top 100 Populaire HondenNamen - Hondenpage hondenpage.com › hondennamen › top Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen limburgse honden namen aparte hondennamen hondennamen met betekenis tekenfilm hondennamen indische hondennamen friese hondennamen brabantse hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam-Zuid Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 2.540.000 resultaten (0 53 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Manfragas. 26 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Skelet - 22 definities - Encyclo https://www.encyclo.nl › begrip › skelet Het menselijk skelet bevat 206 verschillende botten waarvan de kleinste drie in het middenoor zitten Het grootste bot in het menselijk lichaam is het dijbeen. Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen wat is het kleinste bot in je lichaam sterkste bot menselijk lichaam noem de botten van de onderste ledematen benen botten menselijk lichaam hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArnhem - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 2.700.000 resultaten (0 50 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over samenvattingen Webresultaten Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Manfragas. 27 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Skelet - 22 definities - Encyclo encyclo.nl › begrip › skelet Het menselijk skelet bevat 206 verschillende botten waarvan de kleinste drie in het middenoor zitten Het grootste bot in het menselijk lichaam is het dijbeen. Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen wat is het kleinste bot in je lichaam noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam botten menselijk lichaam hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam-Zuid Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 4.350.000 resultaten (0 47 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen WisFaq - digitale vraagbaak voor het wiskundeonderwijs https://www.wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer gele komkommer wilde komkommer hoeveel komkommer mag je eten hoeveel weegt een komkommer hoeveel procent water in mens slangkomkommer of komkommer Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArnhem - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 4.480.000 resultaten (0 48 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over samenvattingen Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen WisFaq - digitale vraagbaak voor het wiskundeonderwijs wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? komkommer geel geworden nadelen van komkommer witte komkommer wilde komkommer hoeveel komkommer mag je eten slangkomkommer of komkommer komkommer voedingswaarde levenscyclus komkommerplant Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam-Zuid Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 35.000.000 resultaten (0 83 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller 20 dec. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 https://longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Nederland in cijfers en grafieken met meer dan 100 onderwerpen! [17.282.163 inwoners met 7.740.984 woningen met een gemiddelde waarde van €230.000 Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Bevolking Nederland groeit sterker dan vorig jaar | Het Parool https://www.parool.nl › nederland › bevolking-nederland-groeit-sterker-da 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober 17.384.238 inwoners. gingen bijna drie keer zoveel immigranten in Amsterdam wonen. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door https://www.rtlnieuws.nl › bevolkingsgroei-2019-migratie-grote-steden 5 dagen geleden - waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente groeit of Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 2018 hoeveel inwoners heeft nederland 2018 inwoners nederland 1923 hoeveel baby worden er per dag geboren in de wereld Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst NederlandArnhem - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingNieuwsMapsMeer InstellingenTools Ongeveer 40.800.000 resultaten (0 71 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) 1960 1970 1980 1990 2000 2010 20.000.000 20.000.000 15.000.000 15.000.000 10.000.000 10.000.000 5.000.000 5.000.000 0 0 •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller 20 dec. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2019: 17 4 miljoen inwoners. .. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder ontwikkelde In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Bevolking Nederland groeit sterker dan vorig jaar | Het Parool parool.nl › nederland › bevolking-nederland-groeit-sterker-da 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober 17.384.238 inwoners. gingen bijna drie keer zoveel immigranten in Amsterdam wonen. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door rtlnieuws.nl › bevolkingsgroei-2019-migratie-grote-steden 6 dagen geleden - waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente groeit of Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 1600 aantal inwoners nederland 2018 leeftijdsopbouw nederland inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst NederlandAmsterdam-Zuid Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -1319,27 +1319,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 10.300.000 resultaten (0 46 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎7 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van www.bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl https://www.smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van www.smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken brood bakken benodigdheden brood bakken temperatuur brood bakken zonder gist Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1381 Weesp - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 18.200.000 resultaten (0 46 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎7 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Zelf brood bakken - waterlily-unlimited waterlily-unlimited.nl › brood Brood bakken recept van waterlily-unlimited.nl Zelf brood bakken is gemakkelijk snel goedkoop en lekker. Als je het nog nooit gedaan hebt lijkt het heel ingewikkeld en overal vind je weer andere recepten. Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken brood bakken temperatuur wit brood bakken zelf brood bakken goedkoper brood bakken benodigdheden Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 4.340.000 resultaten (0 37 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen Hondennamen top 10 Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Lijst met alle leuke hondennamen voor reu &amp; teef https://www.hondennamen.nl › leuke-hondennamen Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden https://www.honden-plein.nl › hondennamen › hondennamen-teefje Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Populaire hondennamen | Royal Canin https://www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Populaire hondennamen | Petplan.nl https://www.petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen buitenlandse hondennamen tekenfilm hondennamen limburgse honden namen brabantse hondennamen indische hondennamen friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1382 PZ Weesp - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 4.830.000 resultaten (0 39 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen Hondennamen top 10 Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Grappig · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2020! herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Lijst met alle leuke hondennamen voor reu &amp; teef hondennamen.nl › leuke-hondennamen Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Populaire hondennamen | Royal Canin royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Populaire hondennamen | Petplan.nl petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Top 100 Populaire HondenNamen - Hondenpage hondenpage.com › hondennamen › top Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen limburgse honden namen aparte hondennamen hondennamen met betekenis tekenfilm hondennamen indische hondennamen friese hondennamen brabantse hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 2.600.000 resultaten (0 44 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Manfragas. 26 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Skelet - 22 definities - Encyclo https://www.encyclo.nl › begrip › skelet Het menselijk skelet bevat 206 verschillende botten waarvan de kleinste drie in het middenoor zitten Het grootste bot in het menselijk lichaam is het dijbeen. Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen wat is het kleinste bot in je lichaam sterkste bot menselijk lichaam noem de botten van de onderste ledematen benen botten menselijk lichaam hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1382 PZ Weesp - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 2.700.000 resultaten (0 39 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Manfragas. 27 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Skelet - 22 definities - Encyclo encyclo.nl › begrip › skelet Het menselijk skelet bevat 206 verschillende botten waarvan de kleinste drie in het middenoor zitten Het grootste bot in het menselijk lichaam is het dijbeen. Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen wat is het kleinste bot in je lichaam noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam botten menselijk lichaam hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst </t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 3.720.000 resultaten (0 43 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen WisFaq - digitale vraagbaak voor het wiskundeonderwijs https://www.wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer witte komkommer gele komkommer wilde komkommer hoeveel komkommer mag je eten hoeveel weegt een komkommer hoeveel procent water in mens slangkomkommer of komkommer Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1382 PZ Weesp - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 4.480.000 resultaten (0 51 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen WisFaq - digitale vraagbaak voor het wiskundeonderwijs wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? komkommer geel geworden nadelen van komkommer witte komkommer wilde komkommer hoeveel komkommer mag je eten slangkomkommer of komkommer komkommer voedingswaarde levenscyclus komkommerplant Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 41.600.000 resultaten (0 68 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller 20 dec. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 https://longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2017 naar schatting 17 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Bevolking Nederland groeit sterker dan vorig jaar | Het Parool https://www.parool.nl › nederland › bevolking-nederland-groeit-sterker-da 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober 17.384.238 inwoners. gingen bijna drie keer zoveel immigranten in Amsterdam wonen. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door https://www.rtlnieuws.nl › bevolkingsgroei-2019-migratie-grote-steden 5 dagen geleden - waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente groeit of Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 2018 hoeveel inwoners heeft nederland 2018 inwoners nederland 1923 hoeveel baby worden er per dag geboren in de wereld Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Nederland1382 PZ Weesp - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 40.800.000 resultaten (0 83 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller 20 dec. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2019: 17 4 miljoen inwoners. .. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in de grotere Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Bevolking Nederland groeit sterker dan vorig jaar | Het Parool parool.nl › nederland › bevolking-nederland-groeit-sterker-da 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober 17.384.238 inwoners. gingen bijna drie keer zoveel immigranten in Amsterdam wonen. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door rtlnieuws.nl › bevolkingsgroei-2019-migratie-grote-steden 6 dagen geleden - waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente groeit of Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 1600 aantal inwoners nederland 2018 leeftijdsopbouw nederland inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst</t>
         </is>
       </c>
     </row>
@@ -1349,27 +1349,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenVideo'sShoppingMapsMeer InstellingenTools Ongeveer 18.200.000 resultaten (0 45 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎7 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van www.bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Basis Brood recept | Smulweb.nl https://www.smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van www.smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken brood bakken temperatuur wit brood bakken zelf brood bakken goedkoper brood bakken benodigdheden Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam-Zuid Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Brood bakken recept About 2.470.000 results (0 54 seconds) Search Results Web results Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voo Translate this page Brood bakken recept from uitpaulineskeuken.nl Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Wil je een speltbrood bakken? Recept stap voor stap brood maken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎23 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-ba Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Translate this page Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-b Translate this page Brood bakken recept from bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Translate this page Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Zelf Ambachtelijk brood bakken in een uur | Recepten.tips recepten.tips › Recepten Translate this page Brood bakken recept from recepten.tips Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk Recipes Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 hrs Op Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Web results Zelf Brood Bakken Zonder Machine | Budgetstijl budgetstijl.nl › zelf-brood-bakken-zonder-machine Translate this page Brood bakken recept from budgetstijl.nl Apr 15 2012 - Een paar jaar geleden heb ik het zelf bakken van brood ontdekt. Ik wist wel dat er Hierbij heb ik een recept voor zowel wit- als volkorenbrood. Searches related to Brood bakken recept brood bakken broodbakmachine wit brood recept volkoren brood recept bruin brood bakken zelf brood bakken zonder broodbakmachine brood bakken zonder gist broodjes bakken brood bakken temperatuur Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6525 Nijmegen - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 4.830.000 resultaten (0 38 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen Hondennamen top 10 Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Feedback Over samenvattingen Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Grappig · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2020! https://www.herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Lijst met alle leuke hondennamen voor reu &amp; teef https://www.hondennamen.nl › leuke-hondennamen Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Populaire hondennamen | Royal Canin https://www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Populaire hondennamen | Petplan.nl https://www.petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Top 100 Populaire HondenNamen - Hondenpage https://www.hondenpage.com › hondennamen › top Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen limburgse honden namen aparte hondennamen hondennamen met betekenis tekenfilm hondennamen indische hondennamen friese hondennamen brabantse hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam-Zuid Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Honden namen About 3.230.000 results (0 47 seconds) Search Results Featured snippet from the web Image result for Honden namen Hondennamen top 10 Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. More items Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Feedback About Featured Snippets Web results 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! herdershonden.nl › hondennamen Translate this page Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Korte hondennamen · ‎Namen voor een teefje Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Translate this page De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Populaire hondennamen | Royal Canin royalcanin.nl › hondennamen Translate this page Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Populaire hondennamen | Petplan.nl petplan.nl › aanschaf-van-je-huisdier › pop Translate this page In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Top 100 Populaire HondenNamen - Hondenpage hondenpage.com › hondennamen › top Translate this page Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Hondennamen op alfabetische volgorde - Dierennamen dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Searches related to Honden namen honden namen teefje originele hondennamen populaire hondennamen speciale hondennamen teefje spaanse hondennamen hondennamen met betekenis friese hondennamen hondennamen met s Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6525 Nijmegen - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 2.700.000 resultaten (0 50 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over samenvattingen Webresultaten Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Manfragas. 27 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Skelet - 22 definities - Encyclo https://www.encyclo.nl › begrip › skelet Het menselijk skelet bevat 206 verschillende botten waarvan de kleinste drie in het middenoor zitten Het grootste bot in het menselijk lichaam is het dijbeen. Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen wat is het kleinste bot in je lichaam noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam botten menselijk lichaam hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam-Zuid Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Wat is het grootste bot in het menselijk lichaam? About 2.500.000 results (0 52 seconds) Search Results Featured snippet from the web Image result for Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback About Featured Snippets Web results Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-b Translate this page Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in Translate this page Manfragas. 27 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-me Translate this page Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biolog Translate this page Mar 8 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › botten › item45095 Translate this page Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Translate this page Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam Translate this page Apr 23 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Beenderen | Skelet | Menselijk Lichaam - Menselijk Lichaam menselijklichaam.nl › skelet Translate this page Dec 30 2010 - De beenderen komen in nogal wat vormen voor. Naast botweefsel dat het grootste deel van het bot uitmaakt vindt men in het beenmerg vet- Images for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? View all More images for Wat is het grootste bot in het menselijk lichaam? Report images Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen aantal botten baby skelet hoofd skelet kopen skelet mens hoeveel spieren heeft een mens skelet tekening Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6525 Nijmegen - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 4.480.000 resultaten (0 48 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over samenvattingen Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen WisFaq - digitale vraagbaak voor het wiskundeonderwijs https://www.wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? komkommer geel geworden nadelen van komkommer witte komkommer wilde komkommer hoeveel komkommer mag je eten slangkomkommer of komkommer komkommer voedingswaarde levenscyclus komkommerplant Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam-Zuid Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel van een komkommer is water? About 3.810.000 results (0 43 seconds) Search Results Featured snippet from the web Image result for Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback About Featured Snippets Web results Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. WisFaq - digitale vraagbaak voor het wiskundeonderwijs wisfaq.nl › Translate this page Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wiskunde › vraag › 100-kil Translate this page Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › › Eten &amp; drinken Translate this page Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komk Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › themas › eten-drinken › e Translate this page Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Hoeveel water zit er per d Translate this page May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer Translate this page Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Komkommer - Diana's mooie moestuin mooiemoestuin.nl › vruchtgewassen › kom Translate this page Komkommers zijn dorstige planten en door regelmatig een flinke hoeveelheid water te geven zorg je ervoor dat de planten niet te ver van de plant water Searches related to Hoeveel van een komkommer is water? komkommer groente of fruit augurk komkommer engels Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6525 Nijmegen - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingNieuwsMapsMeer InstellingenTools Ongeveer 40.800.000 resultaten (0 71 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) 1960 1970 1980 1990 2000 2010 20.000.000 20.000.000 15.000.000 15.000.000 10.000.000 10.000.000 5.000.000 5.000.000 0 0 •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller 20 dec. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 https://longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2019: 17 4 miljoen inwoners. De oorzaak hiervan is te vinden in de verbeterde hygiënische omstandigheden waaronder mensen leven samen met een verder ontwikkelde In 2005 woonden er 3 1 miljoen allochtonen in Nederland. Niet-westerse allochtonen wonen vooral in de grote steden. Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Bevolking Nederland groeit sterker dan vorig jaar | Het Parool https://www.parool.nl › nederland › bevolking-nederland-groeit-sterker-da 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober 17.384.238 inwoners. gingen bijna drie keer zoveel immigranten in Amsterdam wonen. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door https://www.rtlnieuws.nl › bevolkingsgroei-2019-migratie-grote-steden 6 dagen geleden - waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente groeit of Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 1600 aantal inwoners nederland 2018 leeftijdsopbouw nederland inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst NederlandAmsterdam-Zuid Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel mensen wonen er in Nederland? About 7.740.000 results (0 62 seconds) Tip: Search for English results only. You can specify your search language in Preferences Search Results Netherlands/Population 17.18 million (2018) •Netherlands 17.18 million ‌ •Belgium 11.4 million ‌ •Sweden 10.12 million ‌ Explore more Feedback Sources include: Eurostat Web results Population counter - CBS cbs.nl › en-gb › visualisaties › population-counter Dec 20 2019 - How many people are living in the Netherlands? The counter shows how many registered inhabitants there are in the Netherlands at this moment according to the most recent estimate of Statistics Netherlands. The population of the Netherlands is growing by an average of 370 people per Missing: wonen ‎er Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-m Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederl Translate this page Nederland telde in 2019: 17 4 miljoen inwoners. .. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in de grotere ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Bevolkingssamenstelling Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Translate this page Nederland in cijfers en grafieken met meer dan 100 onderwerpen! [17.282.163 inwoners met 7.740.984 woningen met een gemiddelde waarde van €230.000 Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederland Translate this page Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Bevolking Nederland groeit sterker dan vorig jaar | Het Parool parool.nl › nederland › bevolking-nederlan Translate this page Oct 30 2019 - Nederland telde volgens het statistiekbureau op 1 oktober 17.384.238 inwoners. gingen bijna drie keer zoveel immigranten in Amsterdam wonen. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolkin Translate this page Jul 31 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland Bevolking stijgt naar 17 4 miljoen inwoners rtlnieuws.nl › nieuws › nederland › artikel Translate this page 7 days ago - waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente groeit of Jeugd - algemeen - Cijfers | NJi nji.nl › Databank › Cijfers-per-onderwerp Translate this page Aantal kinderen en jongeren in Nederland Percentage jeugd per provincie Leerlingen per De meeste kinderen en jongeren wonen in Zuid-Holland gevolgd door Noord-Holland. Hoeveel kinderen en jongeren zijn er in Nederland? EU member states View 15+ more France France United Kingdom United Kingdom Germany Germany Belgium Belgium Sweden Sweden Luxembourg Luxembourg Italy Italy Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen in nederland 2019 bevolking nederland 2019 populatie nederland 2019 aantal inwoners nederland 2018 hoeveel inwoners heeft nederland 2018 Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlandsmap expand icon Netherlands (Nederland) Country in Europe DescriptionThe Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Related statistics Gross domestic product 826.2 billion USD ‎(2017) Population growth rate 0.6% annual change ‎(2017) Life expectancy 81.51 years ‎(2016) Population elsewhere Germany 82.79 million ‎(2018) Amsterdam 821 752 ‎(2015) France 66.89 million ‎(2018) Feedback Sources include: World Bank Eurostat United Nations INSEE Footer links Netherlands6525 Nijmegen - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
     </row>
@@ -1379,27 +1379,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 18.200.000 resultaten (0 46 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎7 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van www.bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Zelf brood bakken - waterlily-unlimited https://www.waterlily-unlimited.nl › brood Brood bakken recept van www.waterlily-unlimited.nl Zelf brood bakken is gemakkelijk snel goedkoop en lekker. Als je het nog nooit gedaan hebt lijkt het heel ingewikkeld en overal vind je weer andere recepten. Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken brood bakken temperatuur wit brood bakken zelf brood bakken goedkoper brood bakken benodigdheden Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende </t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 8.800.000 resultaten (0 47 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Kerf het deeg in met een scherp mes en bak het brood in ongeveer 35 Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎7 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Afbeeldingen van Brood bakken recept Afbeeldingsresultaat voor Brood bakken recept Afbeeldingsresultaat voor Brood bakken recept Afbeeldingsresultaat voor Brood bakken recept Afbeeldingsresultaat voor Brood bakken recept Afbeeldingsresultaat voor Brood bakken recept Afbeeldingsresultaat voor Brood bakken recept Afbeeldingsresultaat voor Brood bakken recept Afbeeldingsresultaat voor Brood bakken recept Afbeeldingsresultaat voor Brood bakken recept Afbeeldingsresultaat voor Brood bakken recept Alles bekijken Meer afbeeldingen voor Brood bakken recept Afbeeldingen melden Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken brood bakken temperatuur zelf brood bakken goedkoper brood bakken benodigdheden Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Uit je locatiegeschiedenis - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 4.830.000 resultaten (0 39 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen Hondennamen top 10 Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Feedback Over dit resultaat Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Grappig · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2020! https://www.herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Lijst met alle leuke hondennamen voor reu &amp; teef https://www.hondennamen.nl › leuke-hondennamen Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Populaire hondennamen | Royal Canin https://www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Populaire hondennamen | Petplan.nl https://www.petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Top 100 Populaire HondenNamen - Hondenpage https://www.hondenpage.com › hondennamen › top Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen limburgse honden namen aparte hondennamen hondennamen met betekenis tekenfilm hondennamen indische hondennamen friese hondennamen brabantse hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst </t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 4.350.000 resultaten (0 37 seconden) Advertenties Top 5 Populaire Hondennamen | Bekijk de top 5 | Bekijk de Lijst‎ Advertentiedier.nu/‎ Stichting DierenLot steunt lokale en regionale dierenorganisaties. Helpt u ook mee? Kattenweetjes Leuke en interessante kattenweetjes. Schapenweetjes Leuke en interessante Schapenweetjes. Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Feedback Over samenvattingen Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2020! herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Lijst met alle leuke hondennamen voor reu &amp; teef hondennamen.nl › leuke-hondennamen Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Populaire hondennamen | Royal Canin royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Populaire hondennamen | Petplan.nl petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Hondennamen op alfabetische volgorde - Dierennamen dierennamen.net › hondennamen-op-alfab Vertaal deze pagina Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen limburgse honden namen hondennamen met betekenis aparte hondennamen tekenfilm hondennamen indische hondennamen friese hondennamen brabantse hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Uit je locatiegeschiedenis - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 2.700.000 resultaten (0 39 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over dit resultaat Webresultaten Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Manfragas. 27 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Skelet - 22 definities - Encyclo https://www.encyclo.nl › begrip › skelet Het menselijk skelet bevat 206 verschillende botten waarvan de kleinste drie in het middenoor zitten Het grootste bot in het menselijk lichaam is het dijbeen. Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen wat is het kleinste bot in je lichaam noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam botten menselijk lichaam hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst </t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 1.610.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over samenvattingen Webresultaten Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Het dijbeen staat bekend als het grootste – én sterkste – bot van ons lichaam. De sterkte van het dijbeen Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Manfragas. 27 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Botten - Kosmisch.nl kosmisch.nl › normal Dat skelet geeft je lichaam stevigheid en beschermt kwetsbare organen. Het grootste bot in je lichaam is je dijbeen het kleinste botje zit in je oor en is 3mm. 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Menselijk lichaam - Wikikids wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen wat is het kleinste bot in je lichaam noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam botten menselijk lichaam hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Uit je locatiegeschiedenis - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 4.480.000 resultaten (0 51 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over dit resultaat Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen WisFaq - digitale vraagbaak voor het wiskundeonderwijs https://www.wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? komkommer geel geworden nadelen van komkommer witte komkommer wilde komkommer hoeveel komkommer mag je eten slangkomkommer of komkommer komkommer voedingswaarde levenscyclus komkommerplant Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 3.790.000 resultaten (0 41 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over samenvattingen Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen WisFaq - digitale vraagbaak voor het wiskundeonderwijs wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer komkommer geel geworden witte komkommer hoeveel komkommer mag je eten wilde komkommer komkommer voedingswaarde komkommer eten voor het slapen slangkomkommer of komkommer Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Uit je locatiegeschiedenis - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 40.800.000 resultaten (0 83 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller 20 dec. 2019 - De bevolkingsteller laat het actuele aantal inwoners van Nederland zien. Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 https://longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2019: 17 4 miljoen inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in de grotere Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Bevolking Nederland groeit sterker dan vorig jaar | Het Parool https://www.parool.nl › nederland › bevolking-nederland-groeit-sterker-da 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober 17.384.238 inwoners. gingen bijna drie keer zoveel immigranten in Amsterdam wonen. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door https://www.rtlnieuws.nl › bevolkingsgroei-2019-migratie-grote-steden 6 dagen geleden - waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente groeit of Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 1600 aantal inwoners nederland 2018 leeftijdsopbouw nederland inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 37.100.000 resultaten (0 82 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller 20 dec. 2019 - Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2019: 17 4 miljoen inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in de grotere ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Bevolkingssamenstelling Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Bevolking Nederland groeit sneller dan verwacht: 18 4 miljoen volkskrant.nl › nieuws-achtergrond › bevolking-nederland-groe 17 dec. 2019 - In de komende tien jaar komen er een miljoen mensen bij in Nederland. In 2030 loopt het inwonertal op tot 18 4 miljoen. De bevolkingsgroei Bevolking Nederland groeit sterker dan vorig jaar | Het Parool parool.nl › nederland › bevolking-nederland-groeit-sterker-da 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober 17.384.238 inwoners. gingen bijna drie keer zoveel immigranten in Amsterdam wonen. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. Bijna 40 procent inwoners Nederland heeft in 2060… - NRC nrc.nl › nieuws › 2019/12/16 › bijna-40-procent-inwoners-nede 17 dec. 2019 - In het jaar 2060 heeft 39 procent van de inwoners van Nederland een migratieachtergrond. Er wonen dan bijna 20 miljoen mensen in Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 1600 aantal inwoners nederland 2018 leeftijdsopbouw nederland inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Nederland6525 Nijmegen - Uit je locatiegeschiedenis - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -1409,27 +1409,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Brood bakken recept About 2.470.000 results (0 54 seconds) Search Results Web results Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voo Translate this page Brood bakken recept from uitpaulineskeuken.nl Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Wil je een speltbrood bakken? Recept stap voor stap brood maken. Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎23 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-ba Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Translate this page Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-b Translate this page Brood bakken recept from www.bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Translate this page Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Zelf Ambachtelijk brood bakken in een uur | Recepten.tips https://recepten.tips › Recepten Translate this page Brood bakken recept from recepten.tips Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk Recipes Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 hrs Op Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Web results Zelf Brood Bakken Zonder Machine | Budgetstijl https://budgetstijl.nl › zelf-brood-bakken-zonder-machine Translate this page Brood bakken recept from budgetstijl.nl Apr 15 2012 - Een paar jaar geleden heb ik het zelf bakken van brood ontdekt. Ik wist wel dat er Hierbij heb ik een recept voor zowel wit- als volkorenbrood. Searches related to Brood bakken recept brood bakken broodbakmachine wit brood recept volkoren brood recept bruin brood bakken zelf brood bakken zonder broodbakmachine brood bakken zonder gist broodjes bakken brood bakken temperatuur Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6525 Nijmegen - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve"> Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 2.100.000 results (0 50 seconds) Search Results Web results uitpaulineskeuken.nl/uitpaulineskeuken.nl › 2018/11 › basisrecept-voor- Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl/ Translate this page Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Wil je een speltbrood bakken? Recept stap voor stap brood maken. libelle-lekker.be/libelle-lekker.be › artikelen › zelf-brood-bak Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be/ Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook bakkenzoalsoma.nl/bakkenzoalsoma.nl › 2012/10 › dagelijks-bro Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl/ Translate this page Brood bakken recept from bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is rutgerbakt.nl/rutgerbakt.nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl/ Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎23 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Recipes Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 hrs Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Web results ah.nl/ah.nl › allerhande › recepten › brood-bakken Brood bakken - Allerhande - Albert Heijn ah.nl/ Translate this page Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept broodsmakelijk.nl/broodsmakelijk.nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl/ Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. broodsmakelijk.nl/broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Hoe bak ik zelf mijn eerste brood (en goedkoop)? broodsmakelijk.nl/ Translate this page Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders recepten.tips/recepten.tips › Recepten Zelf Ambachtelijk brood bakken in een uur | Recepten.tips recepten.tips/ Translate this page Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk laurasbakery.nl/laurasbakery.nl › tips-voor-brood-bakken Tips voor brood bakken - Laura's Bakery laurasbakery.nl/ Translate this page Jun 25 2017 - Met deze tips voor brood bakken zul je zien dat het niet moeilijk is om zelf een Wat je nodig hebt staat altijd wel in het recept aangegeven. Searches related to Brood bakken recept brood bakken broodbakmachine wit brood recept volkoren brood recept bruin brood bakken zelf brood bakken zonder broodbakmachine brood bakken zonder gist broodjes bakken brood bakken temperatuur Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6708 PB Wageningen - Based on your Location History - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Honden namen About 3.230.000 results (0 47 seconds) Search Results Featured snippet from the web Image result for Honden namen Hondennamen top 10 Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. More items Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Feedback About Featured Snippets Web results 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2019! www.herdershonden.nl › hondennamen Translate this page Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Korte hondennamen · ‎Namen voor een teefje Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Translate this page De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Populaire hondennamen | Royal Canin https://www.royalcanin.nl › hondennamen Translate this page Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Populaire hondennamen | Petplan.nl https://www.petplan.nl › aanschaf-van-je-huisdier › pop Translate this page In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Top 100 Populaire HondenNamen - Hondenpage https://www.hondenpage.com › hondennamen › top Translate this page Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Hondennamen op alfabetische volgorde - Dierennamen https://www.dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Searches related to Honden namen honden namen teefje originele hondennamen populaire hondennamen speciale hondennamen teefje spaanse hondennamen hondennamen met betekenis friese hondennamen hondennamen met s Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6525 Nijmegen - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve"> Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 3.080.000 results (0 48 seconds) Search Results Featured snippet from the web Image result for Honden namen Hondennamen top 10 Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. More items mcvoordieren.nl/mcvoordieren.nl › hondennamen Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl/ Feedback About Featured Snippets Web results dierendokters.com/dierendokters.com › honden › namen 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com/ Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS herdershonden.nl/herdershonden.nl › hondennamen Top 100 Leuke grappige en stoere hondennamen van 2020! herdershonden.nl/ Translate this page Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen petplan.nl/petplan.nl › aanschaf-van-je-huisdier › popul Populaire hondennamen | Petplan.nl petplan.nl/ Translate this page In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. hondennamen.nu/hondennamen.nu Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu/ Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Namen voor een teefje · ‎Korte hondennamen · ‎Mijn namen honden-plein.nl/honden-plein.nl › hondennamen Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl/ Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je hondennamen.nl/hondennamen.nl Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl/ Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. royalcanin.nl/royalcanin.nl › hondennamen Populaire hondennamen | Royal Canin royalcanin.nl/ Translate this page Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak mcvoordieren.nl/mcvoordieren.nl › hondennamen Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl/ Translate this page De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere hondenpage.com/hondenpage.com › hondennamen › top Top 100 Populaire HondenNamen - Hondenpage hondenpage.com/ Translate this page Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd dierennamen.net/dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Dierennamen dierennamen.net/ Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Searches related to Honden namen honden namen teefje originele hondennamen populaire hondennamen speciale hondennamen teefje spaanse hondennamen hondennamen reu met betekenis hondennamen met s friese hondennamen Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6708 PB Wageningen - Based on your Location History - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Wat is het grootste bot in het menselijk lichaam? About 2.500.000 results (0 52 seconds) Search Results Featured snippet from the web Image result for Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback About Featured Snippets Web results Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-b Translate this page Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in Translate this page Manfragas. 27 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-me Translate this page Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biolog Translate this page Mar 8 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › botten › item45095 Translate this page Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Translate this page Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam Translate this page Apr 23 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Beenderen | Skelet | Menselijk Lichaam - Menselijk Lichaam https://www.menselijklichaam.nl › skelet Translate this page Dec 30 2010 - De beenderen komen in nogal wat vormen voor. Naast botweefsel dat het grootste deel van het bot uitmaakt vindt men in het beenmerg vet- Images for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? View all More images for Wat is het grootste bot in het menselijk lichaam? Report images Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen aantal botten baby skelet hoofd skelet kopen skelet mens hoeveel spieren heeft een mens skelet tekening Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6525 Nijmegen - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve"> Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 1.440.000 results (0 51 seconds) Search Results Featured snippet from the web Misschien wil je wel eens weten wat nou het grootste en het kleinste bot in je lichaam is. Het langste bot is in ieder geval het dijbeen. De lengte ervan is meer dan een kwart van je totale lichaamslengte. Het kleinste botje in je lichaam is de stijgbeugel die zit binnen in je oor.Mar 8 2007 scholieren.com/scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam-3 Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com/ Feedback About Featured Snippets Web results nl.wikipedia.org/nl.wikipedia.org › wiki › Skelet_(mens) Skelet (mens) - Wikipedia nl.wikipedia.org/ Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. scholieren.com/scholieren.com › verslag › werkstuk-biologie Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com/ Translate this page Mar 8 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit alletop10lijstjes.nl/alletop10lijstjes.nl › top-10-feitjes-over-mens Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl/ Translate this page Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. nl.toluna.com/nl.toluna.com › polls › Wat-is-het-grootste-bot-in-h Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com/ Translate this page Manfragas. 27 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 nl.ripleybelieves.com/nl.ripleybelieves.com › what-is-largest-bone-in-bod Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com/ Translate this page Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup gezondheidsplein.nl/gezondheidsplein.nl › botten › item45095 Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl/ Translate this page Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je alleswetenoverosteoporose.nl/alleswetenoverosteoporose.nl › de-botten De botten - Alles weten over osteoporose alleswetenoverosteoporose.nl/ Translate this page Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Images for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? View all More images for Wat is het grootste bot in het menselijk lichaam? Report images Web results natuurinformatie.nl/natuurinformatie.nl › Homepage › Skeletten Het skelet van de mens - Natuurinformatie natuurinformatie.nl/ Translate this page De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van welingelichtekringen.nl/welingelichtekringen.nl › samenleving › 50-f 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl/ Translate this page Feb 27 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen aantal botten baby skelet hoofd skelet mens hoeveel spieren heeft een mens hoeveel botten heeft een kat skelet tekening Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6708 PB Wageningen - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel van een komkommer is water? About 3.810.000 results (0 43 seconds) Search Results Featured snippet from the web Image result for Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback About Featured Snippets Web results Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de . In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. WisFaq - digitale vraagbaak voor het wiskundeonderwijs https://www.wisfaq.nl › Translate this page Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wiskunde › vraag › 100-kil Translate this page Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › › Eten &amp; drinken Translate this page Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komk Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een bepaald Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › themas › eten-drinken › e Translate this page Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Hoeveel water zit er per d Translate this page May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer Translate this page Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Komkommer - Diana's mooie moestuin https://www.mooiemoestuin.nl › vruchtgewassen › kom Translate this page Komkommers zijn dorstige planten en door regelmatig een flinke hoeveelheid water te geven zorg je ervoor dat de planten niet te ver van de plant water Searches related to Hoeveel van een komkommer is water? komkommer groente of fruit augurk komkommer engels Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6525 Nijmegen - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve"> Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 3.100.000 results (0 53 seconds) Search Results Featured snippet from the web Image result for Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. dokterdokter.nl/dokterdokter.nl › waarom-zijn-komkommers-gezond › item29820 Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl/ Feedback About Featured Snippets Web results nl.wikipedia.org/nl.wikipedia.org › wiki › Komkommer Komkommer - Wikipedia nl.wikipedia.org/ Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen wisfaq.nl/wisfaq.nl › WisFaq - digitale vraagbaak voor het wiskundeonderwijs wisfaq.nl/ Translate this page Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers facebook.com/facebook.com › DietistZoeetje › posts › een- Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com/ Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. startpagina.nl/startpagina.nl › wetenschap › wiskunde › vraag 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl/ Translate this page 7 answers Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. dokterdokter.nl/dokterdokter.nl › › Eten &amp; drinken Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl/ Translate this page Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? voedingscentrum.nl/voedingscentrum.nl › encyclopedie › komko Komkommer | Voedingscentrum voedingscentrum.nl/ Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een maxvandaag.nl/maxvandaag.nl › themas › eten-drinken › een Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl/ Translate this page Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de vitens.com/vitens.com › › Hoeveel water zit er per d Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com/ Translate this page May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? voedingsacademy.nl/voedingsacademy.nl › komkommer 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl/ Translate this page Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten rdzl.nl/rdzl.nl › komkommers_raadsel › uitleg raadsels en puzzels - rdzl | Komkommers raadsel uitleg rdzl.nl/ Translate this page Door de hitte bestaan de komkommers aan het eind van de dag nog maar voor 98% uit water. Hoeveel kg komkommers heeft de groenteboer over aan het eind Searches related to Hoeveel van een komkommer is water? komkommer groente of fruit augurk komkommer engels Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6708 PB Wageningen - Based on your Location History - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel mensen wonen er in Nederland? About 7.740.000 results (0 62 seconds) Tip: Search for English results only. You can specify your search language in Preferences Search Results Netherlands/Population 17.18 million (2018) •Netherlands 17.18 million ‌ •Belgium 11.4 million ‌ •Sweden 10.12 million ‌ Explore more Feedback Sources include: Eurostat Web results Population counter - CBS https://www.cbs.nl › en-gb › visualisaties › population-counter Dec 20 2019 - How many people are living in the Netherlands? The counter shows how many registered inhabitants there are in the Netherlands at this moment according to the most recent estimate of Statistics Netherlands. The population of the Netherlands is growing by an average of 370 people per Missing: wonen ‎er Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-m Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederl Translate this page Nederland telde in 2019: 17 4 miljoen inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in de grotere ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Bevolkingssamenstelling Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Translate this page Nederland in cijfers en grafieken met meer dan 100 onderwerpen! [17.282.163 inwoners met 7.740.984 woningen met een gemiddelde waarde van €230.000 Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederland Translate this page Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Bevolking Nederland groeit sterker dan vorig jaar | Het Parool https://www.parool.nl › nederland › bevolking-nederlan Translate this page Oct 30 2019 - Nederland telde volgens het statistiekbureau op 1 oktober 17.384.238 inwoners. gingen bijna drie keer zoveel immigranten in Amsterdam wonen. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolkin Translate this page Jul 31 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Nederland Bevolking stijgt naar 17 4 miljoen inwoners https://www.rtlnieuws.nl › nieuws › nederland › artikel Translate this page 7 days ago - waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente groeit of Jeugd - algemeen - Cijfers | NJi https://www.nji.nl › Databank › Cijfers-per-onderwerp Translate this page Aantal kinderen en jongeren in Nederland Percentage jeugd per provincie Leerlingen per De meeste kinderen en jongeren wonen in Zuid-Holland gevolgd door Noord-Holland. Hoeveel kinderen en jongeren zijn er in Nederland? EU member states View 15+ more France France United Kingdom United Kingdom Germany Germany Belgium Belgium Sweden Sweden Luxembourg Luxembourg Italy Italy Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen in nederland 2019 bevolking nederland 2019 populatie nederland 2019 aantal inwoners nederland 2018 hoeveel inwoners heeft nederland 2018 Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlandsmap expand icon Netherlands (Nederland) Country in Europe DescriptionThe Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Related statistics Gross domestic product 826.2 billion USD ‎(2017) Population growth rate 0.6% annual change ‎(2017) Life expectancy 81.51 years ‎(2016) Population elsewhere Germany 82.79 million ‎(2018) Amsterdam 821 752 ‎(2015) France 66.89 million ‎(2018) Feedback Sources include: World Bank Eurostat United Nations INSEE Footer links Netherlands6525 Nijmegen - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve"> Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 9.110.000 results (0 84 seconds) Search Results Netherlands/Population 17.18 million (2018) • Netherlands 17.18 million ‌ • Belgium 11.4 million ‌ • Sweden 10.12 million ‌ Explore more Feedback Sources include: Eurostat Web results cbs.nl/cbs.nl › en-gb › visualisaties › population-counter Population counter - CBS cbs.nl/ Dec 20 2019 - How many people are living in the Netherlands? The counter shows how many registered inhabitants there are in the Netherlands at this moment according to the most recent estimate of Statistics Netherlands. The population of the Netherlands is growing by an average of 370 people per cbs.nl/cbs.nl › nl-nl › faq › specifiek › hoeveel-men Hoeveel mensen wonen er in Nederland? - CBS cbs.nl/ Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners nl.wikipedia.org/nl.wikipedia.org › wiki › Bevolking_van_Nederland Bevolking van Nederland - Wikipedia nl.wikipedia.org/ Translate this page Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Bevolkingssamenstelling allecijfers.nl/allecijfers.nl › nederland Héél véél informatie over Nederland (update 2019 allecijfers.nl/ Translate this page Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of republiekallochtonie.nl/republiekallochtonie.nl › blog › feiten › nede Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl/ Translate this page Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. hartvannederland.nl/hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl/ Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. nu.nl/nu.nl › binnenland › nederlandse-bevolking- Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl/ Translate this page Jul 31 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. parool.nl/parool.nl › nederland › bevolking-nederland- Bevolking Nederland groeit sterker dan vorig jaar | Het Parool parool.nl/ Translate this page Oct 30 2019 - Nederland telde volgens het statistiekbureau op 1 oktober 17.384.238 inwoners. gingen bijna drie keer zoveel immigranten in Amsterdam wonen. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. nrc.nl/nrc.nl › nieuws › 2019/12/16 › bijna-40-proc Bijna 40 procent inwoners Nederland heeft in 2060 - NRC nrc.nl/ - Translate this page Dec 17 2019 - In het jaar 2060 heeft 39 procent van de inwoners van Nederland een migratieachtergrond. Er wonen dan bijna 20 miljoen mensen in volkskrant.nl/volkskrant.nl › nieuws-achtergrond › nederla Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet volkskrant.nl/ - Translate this page Jan 2 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de EU member states View 15+ more France France United Kingdom United Kingdom Germany Germany Belgium Belgium Sweden Sweden Luxembourg Luxembourg Italy Italy Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 hoeveel mensen in nederland 2019 bevolking nederland 2019 populatie nederland 2019 aantal inwoners nederland 2018 hoeveel inwoners heeft nederland 2018 Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlands map expand icon Netherlands (Nederland) Country in Europe Description The Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Related statistics Gross domestic product 826.2 billion USD ‎(2017) Population growth rate 0.6% annual change ‎(2017) Life expectancy 81.51 years ‎(2016) Population elsewhere Germany 82.79 million ‎(2018) Amsterdam 821 752 ‎(2015) France 66.89 million ‎(2018) Feedback Sources include: World Bank Eurostat United Nations INSEE Footer links Netherlands6708 PB Wageningen - Based on your Location History - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
         </is>
       </c>
     </row>
@@ -1439,27 +1439,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 8.800.000 resultaten (0 47 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Kerf het deeg in met een scherp mes en bak het brood in ongeveer 35 Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎7 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van www.bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Afbeeldingen van Brood bakken recept Afbeeldingsresultaat voor Brood bakken recept Afbeeldingsresultaat voor Brood bakken recept Afbeeldingsresultaat voor Brood bakken recept Afbeeldingsresultaat voor Brood bakken recept Afbeeldingsresultaat voor Brood bakken recept Afbeeldingsresultaat voor Brood bakken recept Afbeeldingsresultaat voor Brood bakken recept Afbeeldingsresultaat voor Brood bakken recept Afbeeldingsresultaat voor Brood bakken recept Afbeeldingsresultaat voor Brood bakken recept Alles bekijken Meer afbeeldingen voor Brood bakken recept Afbeeldingen melden Zoekopdrachten gerelateerd aan Brood bakken recept volkoren brood bakken brood bakken broodbakmachine zelf brood bakken zonder broodbakmachine simpel brood bakken wit brood bakken brood bakken temperatuur zelf brood bakken goedkoper brood bakken benodigdheden Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Uit je locatiegeschiedenis - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 7.770.000 resultaten (0 45 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten uitpaulineskeuken.nl/uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Basisrecept voor brood incl. stap voor stap beschrijving - Uit Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Kerf het deeg in met een scherp mes en bak het brood in ongeveer 35 rutgerbakt.nl/rutgerbakt.nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? broodsmakelijk.nl/broodsmakelijk.nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. libelle-lekker.be/libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenverse- Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker Brood bakken recept van libelle-lekker.be Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook bakkenzoalsoma.nl/bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Dagelijks brood (uit eigen oven) - Bakken Zoals Oma Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is ah.nl/ah.nl › allerhande › recepten › brood-bakken Brood bakken - Allerhande - Albert Heijn Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept culy.nl/culy.nl › Recepten › Wat eten we vandaag? › Diner Het makkelijkste brood dat je ooit zal maken - Culy.nl Brood bakken recept van culy.nl 30 jan. 2014 - De gedachte dat brood maken alleen weggelegd is voor bakkers en uren aan kneedwerk onlangs dit supermakkelijke recept waarbij geen kneden aan te pas komt. Tijdens het bakken zal dit nog gelijkmatiger worden. laurasbakery.nl/laurasbakery.nl › volkorenbrood Volkorenbrood - Laura's Bakery Brood bakken recept van laurasbakery.nl 11 jul. 2014 - Een lekker recept om zelf volkorenbrood te maken volgens het recept Ik ben nog niet zo'n ervaren broodbakster maar met de uitleg in het waterlily-unlimited.nl/waterlily-unlimited.nl › brood Zelf brood bakken - waterlily-unlimited Brood bakken recept van waterlily-unlimited.nl Zelf brood bakken is gemakkelijk snel goedkoop en lekker. Als je het nog nooit gedaan hebt lijkt het heel ingewikkeld en overal vind je weer andere recepten. Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken simpel brood bakken zelf brood bakken zonder broodbakmachine brood bakken zonder gist brood bakken temperatuur zelf brood bakken goedkoper brood bakken benodigdheden Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam-Oost Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 4.350.000 resultaten (0 37 seconden) Advertenties Top 5 Populaire Hondennamen | Bekijk de top 5 | Bekijk de Lijst‎ Advertentiewww.dier.nu/‎ Stichting DierenLot steunt lokale en regionale dierenorganisaties. Helpt u ook mee? Kattenweetjes Leuke en interessante kattenweetjes. Schapenweetjes Leuke en interessante Schapenweetjes. Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen De tien meest populaire hondennamen zijn: Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Feedback Over samenvattingen Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2020! https://www.herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Lijst met alle leuke hondennamen voor reu &amp; teef https://www.hondennamen.nl › leuke-hondennamen Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Populaire hondennamen | Royal Canin https://www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Populaire hondennamen | Petplan.nl https://www.petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Hondennamen op alfabetische volgorde - Dierennamen https://www.dierennamen.net › hondennamen-op-alfab Vertaal deze pagina Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen limburgse honden namen hondennamen met betekenis aparte hondennamen tekenfilm hondennamen indische hondennamen friese hondennamen brabantse hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Uit je locatiegeschiedenis - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 3.330.000 resultaten (0 33 seconden) Advertenties Advertentie· dier.nu/ ‎ Top 5 Populaire Hondennamen | Bekijk de top 5 | dier.nu‎ ‎ Stichting DierenLot steunt lokale en regionale dierenorganisaties. Helpt u ook mee? Allerlei tips en interessante weetjes vindt u op de website van Stichting DierenLot. Help Dieren In Nood. Steun Goede Doelen. Steun Lokale Initiatieven. Beter bestaan voor DierenKnaagdierenweetjesSchapenweetjesVogelweetjes Zoekresultaten Webresultaten dierendokters.com/dierendokters.com › honden › namen 1001 hondennamen voor je pup reu of teef - DierenDokters Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Stoer · ‎Grappig herdershonden.nl/herdershonden.nl › hondennamen Top 100 Leuke grappige en stoere hondennamen van 2020! Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen petplan.nl/petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populaire Populaire hondennamen | Petplan.nl In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. hondennamen.nl/hondennamen.nl Lijst met alle hondennamen? Vind de perfecte hondennaam Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. hondennamen.nu/hondennamen.nu Hondennamen - Vind de perfecte naam voor je hond. Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu · ‎Mijn namen honden-plein.nl/honden-plein.nl › hondennamen Leuke grappige en stoere hondennamen | Honden-plein.nl Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je honden-plein.nl/honden-plein.nl › hondennamen › hondennamen-teefje Hondennamen teef - vind een naam voor je teefje | Honden Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. mcvoordieren.nl/mcvoordieren.nl › hondennamen Hondennamen - Medisch Centrum voor Dieren De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere royalcanin.nl/royalcanin.nl › populaire-kattennamen-populaire-hondennamen Populaire hondennamen | Royal Canin Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak dierennamen.net/dierennamen.net › hondennamen-op-alfabeti Hondennamen op alfabetische volgorde - Dierennamen Vertaal deze pagina Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Zoekopdrachten gerelateerd aan Honden namen aparte hondennamen geweldige hondennamen hondennamen met betekenis brabantse hondennamen tekenfilm hondennamen limburgse honden namen indische hondennamen friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam-Oost Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 1.610.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over samenvattingen Webresultaten Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Het dijbeen staat bekend als het grootste – én sterkste – bot van ons lichaam. De sterkte van het dijbeen Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaa 8 mrt. 2007 - Your browser does not currently recognize any of the video formats available. Click here to visit our frequently asked questions about HTML5 Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Manfragas. 27 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je Botten - Kosmisch.nl www.kosmisch.nl › normal Dat skelet geeft je lichaam stevigheid en beschermt kwetsbare organen. Het grootste bot in je lichaam is je dijbeen het kleinste botje zit in je oor en is 3mm. 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. [DOC]De botten maken.wikiwijs.nl › bestanden › Artikel_De_botten Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Menselijk lichaam - Wikikids https://wikikids.nl › Menselijk_lichaam 23 apr. 2019 - Het menselijk lichaam bestaat uit allerlei organen zoals het hart de lever en de longen die gegroepeerd worden in De huid is het grootste orgaan. Het lichaam Het bot bestaat uit twee stoffen: calciumfosfaat en collageen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen wat is het kleinste bot in je lichaam noem de botten van de onderste ledematen benen sterkste bot menselijk lichaam botten menselijk lichaam hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Uit je locatiegeschiedenis - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 1.490.000 resultaten (0 41 seconden) Zoekresultaten Samenvatting van internet Misschien wil je wel eens weten wat nou het grootste en het kleinste bot in je lichaam is. Het langste bot is in ieder geval het dijbeen. De lengte ervan is meer dan een kwart van je totale lichaamslengte. Het kleinste botje in je lichaam is de stijgbeugel die zit binnen in je oor.8 mrt. 2007 scholieren.com/scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam-3 Werkstuk Biologie Menselijk lichaam | Scholieren.com Feedback Over samenvattingen Webresultaten nl.wikipedia.org/nl.wikipedia.org › wiki › Skelet_(mens) Skelet (mens) - Wikipedia Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. scholieren.com/scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam Werkstuk Biologie Menselijk lichaam | Scholieren.com 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit alletop10lijstjes.nl/alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. nl.toluna.com/nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-licha Wat is het grootste bot in het menselijk lichaam? | Toluna Manfragas. 27 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 nl.ripleybelieves.com/nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Wat Is Het Grootste Bot In Het Lichaam? Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup gezondheidsplein.nl/gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Botten - Menselijk lichaam | Gezondheidsplein.nl Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je kosmisch.nl/kosmisch.nl › normal Botten - Kosmisch.nl Dat skelet geeft je lichaam stevigheid en beschermt kwetsbare organen. Het grootste bot in je lichaam is je dijbeen het kleinste botje zit in je oor en is 3mm. alleswetenoverosteoporose.nl/alleswetenoverosteoporose.nl › het-ziektebeeld-osteoporose › de De botten - Alles weten over osteoporose Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot welingelichtekringen.nl/welingelichtekringen.nl › samenleving › 50-feiten-over-je-licha 50 feiten over je lichaam – Wel.nl 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. natuurinformatie.nl/natuurinformatie.nl › Homepage › Skeletten Het skelet van de mens - Natuurinformatie De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen armen sterkste bot menselijk lichaam noem de botten van de onderste ledematen benen botten menselijk lichaam oefenen hoeveel spieren heeft een mens wat is het kleinste bot in je lichaam Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam-Oost Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 3.790.000 resultaten (0 41 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › gezond-leven › eten-drinken › item29820 Feedback Over samenvattingen Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen WisFaq - digitale vraagbaak voor het wiskundeonderwijs https://www.wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer komkommer geel geworden witte komkommer hoeveel komkommer mag je eten wilde komkommer komkommer voedingswaarde komkommer eten voor het slapen slangkomkommer of komkommer Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Uit je locatiegeschiedenis - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 3.140.000 resultaten (0 41 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. dokterdokter.nl/dokterdokter.nl › waarom-zijn-komkommers-gezond › item29820 Waarom zijn komkommers gezond? | Dokterdokter.nl Feedback Over samenvattingen Webresultaten wisfaq.nl/wisfaq.nl › WisFaq - digitale vraagbaak voor het wiskundeonderwijs 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers facebook.com/facebook.com › DietistZoeetje › posts › een-mens-bestaat-voor- Zoeetje - Een mens bestaat voor 60% uit water komkommer Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. nl.wikipedia.org/nl.wikipedia.org › wiki › Komkommer Komkommer - Wikipedia De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen dokterdokter.nl/dokterdokter.nl › Gezond leven › Eten &amp; drinken Waarom zijn komkommers gezond? | Dokterdokter.nl Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? startpagina.nl/startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-kom 100 kilo komkommers bestaan uit 99% water. er verdampt 1 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. startpagina.nl/startpagina.nl › eten-drinken › vraag › smaakt-komkommer-het Waarom smaakt komkommer niet hetzelfde als water 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de voedingscentrum.nl/voedingscentrum.nl › encyclopedie › komkommer Komkommer | Voedingscentrum Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een maxvandaag.nl/maxvandaag.nl › sessies › themas › eten-drinken › een-komko Een komkommer bevat meer dan water: hierom is hij zo gezond 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de voedingsacademy.nl/voedingsacademy.nl › komkommer 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten vitens.com/vitens.com › › Blogoverzicht › Hoeveel water zit er per d Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? komkommer geel geworden nadelen van komkommer witte komkommer hoeveel komkommer mag je eten komkommer eten voor het slapen komkommer voedingswaarde hoeveel weegt een komkommer slangkomkommer of komkommer Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam-Oost Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 37.100.000 resultaten (0 82 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller 20 dec. 2019 - Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 https://longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde in 2019: 17 4 miljoen inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in de grotere ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Bevolkingssamenstelling Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Bevolking Nederland groeit sneller dan verwacht: 18 4 miljoen https://www.volkskrant.nl › nieuws-achtergrond › bevolking-nederland-groe 17 dec. 2019 - In de komende tien jaar komen er een miljoen mensen bij in Nederland. In 2030 loopt het inwonertal op tot 18 4 miljoen. De bevolkingsgroei Bevolking Nederland groeit sterker dan vorig jaar | Het Parool https://www.parool.nl › nederland › bevolking-nederland-groeit-sterker-da 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober 17.384.238 inwoners. gingen bijna drie keer zoveel immigranten in Amsterdam wonen. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. Bijna 40 procent inwoners Nederland heeft in 2060… - NRC https://www.nrc.nl › nieuws › 2019/12/16 › bijna-40-procent-inwoners-nede 17 dec. 2019 - In het jaar 2060 heeft 39 procent van de inwoners van Nederland een migratieachtergrond. Er wonen dan bijna 20 miljoen mensen in Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 1600 aantal inwoners nederland 2018 leeftijdsopbouw nederland inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Nederland6525 Nijmegen - Uit je locatiegeschiedenis - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 32.300.000 resultaten (0 67 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten cbs.nl/cbs.nl › nl-nl › visualisaties › bevolkingsteller Bevolkingsteller - CBS 20 dec. 2019 - Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten cbs.nl/cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in-n Hoeveel mensen wonen er in Nederland? - CBS De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners longreads.cbs.nl/longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de nl.wikipedia.org/nl.wikipedia.org › wiki › Bevolking_van_Nederland Bevolking van Nederland - Wikipedia Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in allecijfers.nl/allecijfers.nl › nederland Héél véél informatie over Nederland (update 2019 Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of republiekallochtonie.nl/republiekallochtonie.nl › blog › feiten › nederlanders-buitenlan Nederlanders buitenlanders allochtonen. De cijfers 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. hartvannederland.nl/hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 Nederland groeit in 2018 met 100.000 mensen naar 17 3 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. nu.nl/nu.nl › binnenland › nederlandse-bevolking-groeit-met-46000- Nederlandse bevolking groeit met 46.000 mensen in eerste 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. parool.nl/parool.nl › nederland › bevolking-nederland-groeit-sterker-dan- Bevolking Nederland groeit sterker dan vorig jaar | Het Parool 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober 17.384.238 inwoners. gingen bijna drie keer zoveel immigranten in Amsterdam wonen. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. nrc.nl/nrc.nl › nieuws › 2019/12/16 › bijna-40-procent-inwoners-nederla Bijna 40 procent inwoners Nederland heeft in 2060 - NRC 17 dec. 2019 - In het jaar 2060 heeft 39 procent van de inwoners van Nederland een migratieachtergrond. Er wonen dan bijna 20 miljoen mensen in Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 1600 aantal inwoners nederland 2018 leeftijdsopbouw nederland inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst NederlandAmsterdam-Oost Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -1469,27 +1469,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 2.100.000 results (0 50 seconds) Search Results Web results https://uitpaulineskeuken.nl/uitpaulineskeuken.nl › 2018/11 › basisrecept-voor- Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl/ Translate this page Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Wil je een speltbrood bakken? Recept stap voor stap brood maken. https://www.libelle-lekker.be/www.libelle-lekker.be › artikelen › zelf-brood-bak Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be/ Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook https://www.bakkenzoalsoma.nl/www.bakkenzoalsoma.nl › 2012/10 › dagelijks-bro Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl/ Translate this page Brood bakken recept from www.bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is https://rutgerbakt.nl/rutgerbakt.nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl/ Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎23 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Recipes Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 hrs Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Web results https://www.ah.nl/www.ah.nl › allerhande › recepten › brood-bakken Brood bakken - Allerhande - Albert Heijn https://www.ah.nl/ Translate this page Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept https://broodsmakelijk.nl/broodsmakelijk.nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl/ Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. https://broodsmakelijk.nl/broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Hoe bak ik zelf mijn eerste brood (en goedkoop)? https://broodsmakelijk.nl/ Translate this page Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders https://recepten.tips/recepten.tips › Recepten Zelf Ambachtelijk brood bakken in een uur | Recepten.tips https://recepten.tips/ Translate this page Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk https://www.laurasbakery.nl/www.laurasbakery.nl › tips-voor-brood-bakken Tips voor brood bakken - Laura's Bakery https://www.laurasbakery.nl/ Translate this page Jun 25 2017 - Met deze tips voor brood bakken zul je zien dat het niet moeilijk is om zelf een Wat je nodig hebt staat altijd wel in het recept aangegeven. Searches related to Brood bakken recept brood bakken broodbakmachine wit brood recept volkoren brood recept bruin brood bakken zelf brood bakken zonder broodbakmachine brood bakken zonder gist broodjes bakken brood bakken temperatuur Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6708 PB Wageningen - Based on your Location History - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 7.790.000 resultaten (0 48 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten uitpaulineskeuken.nl/uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Basisrecept voor brood incl. stap voor stap beschrijving - Uit Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Kerf het deeg in met een scherp mes en bak het brood in ongeveer 35 rutgerbakt.nl/rutgerbakt.nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? broodsmakelijk.nl/broodsmakelijk.nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. libelle-lekker.be/libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenverse- Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook bakkenzoalsoma.nl/bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Dagelijks brood (uit eigen oven) - Bakken Zoals Oma Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is ah.nl/ah.nl › allerhande › recepten › brood-bakken Brood bakken - Allerhande - Albert Heijn Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept culy.nl/culy.nl › Recepten › Wat eten we vandaag? › Diner Het makkelijkste brood dat je ooit zal maken - Culy.nl Brood bakken recept van culy.nl 30 jan. 2014 - De gedachte dat brood maken alleen weggelegd is voor bakkers en uren aan kneedwerk onlangs dit supermakkelijke recept waarbij geen kneden aan te pas komt. Tijdens het bakken zal dit nog gelijkmatiger worden. laurasbakery.nl/laurasbakery.nl › volkorenbrood Volkorenbrood - Laura's Bakery Brood bakken recept van laurasbakery.nl 11 jul. 2014 - Een lekker recept om zelf volkorenbrood te maken volgens het recept Ik ben nog niet zo'n ervaren broodbakster maar met de uitleg in het waterlily-unlimited.nl/waterlily-unlimited.nl › brood Zelf brood bakken - waterlily-unlimited Brood bakken recept van waterlily-unlimited.nl Zelf brood bakken is gemakkelijk snel goedkoop en lekker. Als je het nog nooit gedaan hebt lijkt het heel ingewikkeld en overal vind je weer andere recepten. Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken simpel brood bakken zelf brood bakken zonder broodbakmachine brood bakken zonder gist brood bakken temperatuur zelf brood bakken goedkoper brood bakken benodigdheden Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 3.080.000 results (0 48 seconds) Search Results Featured snippet from the web Image result for Honden namen Hondennamen top 10 Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. More items https://www.mcvoordieren.nl/www.mcvoordieren.nl › hondennamen Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl/ Feedback About Featured Snippets Web results https://www.dierendokters.com/www.dierendokters.com › honden › namen 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com/ Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS https://www.herdershonden.nl/www.herdershonden.nl › hondennamen Top 100 Leuke grappige en stoere hondennamen van 2020! https://www.herdershonden.nl/ Translate this page Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen https://www.petplan.nl/www.petplan.nl › aanschaf-van-je-huisdier › popul Populaire hondennamen | Petplan.nl https://www.petplan.nl/ Translate this page In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. http://www.hondennamen.nu/www.hondennamen.nu Hondennamen - Vind de perfecte naam voor je hond. http://www.hondennamen.nu/ Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Namen voor een teefje · ‎Korte hondennamen · ‎Mijn namen https://www.honden-plein.nl/www.honden-plein.nl › hondennamen Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl/ Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je https://www.hondennamen.nl/www.hondennamen.nl Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl/ Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. https://www.royalcanin.nl/www.royalcanin.nl › hondennamen Populaire hondennamen | Royal Canin https://www.royalcanin.nl/ Translate this page Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak https://www.mcvoordieren.nl/www.mcvoordieren.nl › hondennamen Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl/ Translate this page De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere https://www.hondenpage.com/www.hondenpage.com › hondennamen › top Top 100 Populaire HondenNamen - Hondenpage https://www.hondenpage.com/ Translate this page Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd https://www.dierennamen.net/www.dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Dierennamen https://www.dierennamen.net/ Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Searches related to Honden namen honden namen teefje originele hondennamen populaire hondennamen speciale hondennamen teefje spaanse hondennamen hondennamen reu met betekenis hondennamen met s friese hondennamen Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6708 PB Wageningen - Based on your Location History - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 3.470.000 resultaten (0 34 seconden) Zoekresultaten Webresultaten dierendokters.com/dierendokters.com › honden › namen 1001 hondennamen voor je pup reu of teef - DierenDokters Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Grappig herdershonden.nl/herdershonden.nl › hondennamen Top 100 Leuke grappige en stoere hondennamen van 2020! Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen petplan.nl/petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populaire Populaire hondennamen | Petplan.nl In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. hondennamen.nl/hondennamen.nl Lijst met alle hondennamen? Vind de perfecte hondennaam Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. hondennamen.nu/hondennamen.nu Hondennamen - Vind de perfecte naam voor je hond. Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw honden-plein.nl/honden-plein.nl › hondennamen Leuke grappige en stoere hondennamen | Honden-plein.nl Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je honden-plein.nl/honden-plein.nl › hondennamen › hondennamen-teefje Hondennamen teef - vind een naam voor je teefje | Honden Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. mcvoordieren.nl/mcvoordieren.nl › hondennamen Hondennamen - Medisch Centrum voor Dieren De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere royalcanin.nl/royalcanin.nl › populaire-kattennamen-populaire-hondennamen Populaire hondennamen | Royal Canin Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak dierennamen.net/dierennamen.net › hondennamen-op-alfabeti Hondennamen op alfabetische volgorde - Dierennamen Vertaal deze pagina Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Zoekopdrachten gerelateerd aan Honden namen aparte hondennamen geweldige hondennamen hondennamen met betekenis brabantse hondennamen tekenfilm hondennamen limburgse honden namen indische hondennamen friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 1.440.000 results (0 51 seconds) Search Results Featured snippet from the web Misschien wil je wel eens weten wat nou het grootste en het kleinste bot in je lichaam is. Het langste bot is in ieder geval het dijbeen. De lengte ervan is meer dan een kwart van je totale lichaamslengte. Het kleinste botje in je lichaam is de stijgbeugel die zit binnen in je oor.Mar 8 2007 https://www.scholieren.com/www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam-3 Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com/ Feedback About Featured Snippets Web results https://nl.wikipedia.org/nl.wikipedia.org › wiki › Skelet_(mens) Skelet (mens) - Wikipedia https://nl.wikipedia.org/ Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. https://www.scholieren.com/www.scholieren.com › verslag › werkstuk-biologie Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com/ Translate this page Mar 8 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit https://www.alletop10lijstjes.nl/www.alletop10lijstjes.nl › top-10-feitjes-over-mens Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl/ Translate this page Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. https://nl.toluna.com/nl.toluna.com › polls › Wat-is-het-grootste-bot-in-h Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com/ Translate this page Manfragas. 27 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 https://nl.ripleybelieves.com/nl.ripleybelieves.com › what-is-largest-bone-in-bod Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com/ Translate this page Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup https://www.gezondheidsplein.nl/www.gezondheidsplein.nl › botten › item45095 Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl/ Translate this page Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je https://www.alleswetenoverosteoporose.nl/www.alleswetenoverosteoporose.nl › de-botten De botten - Alles weten over osteoporose https://www.alleswetenoverosteoporose.nl/ Translate this page Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Images for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? View all More images for Wat is het grootste bot in het menselijk lichaam? Report images Web results http://www.natuurinformatie.nl/www.natuurinformatie.nl › Homepage › Skeletten Het skelet van de mens - Natuurinformatie http://www.natuurinformatie.nl/ Translate this page De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van https://www.welingelichtekringen.nl/www.welingelichtekringen.nl › samenleving › 50-f 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl/ Translate this page Feb 27 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen aantal botten baby skelet hoofd skelet mens hoeveel spieren heeft een mens hoeveel botten heeft een kat skelet tekening Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6708 PB Wageningen - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 1.350.000 resultaten (0 51 seconden) Zoekresultaten Samenvatting van internet Misschien wil je wel eens weten wat nou het grootste en het kleinste bot in je lichaam is. Het langste bot is in ieder geval het dijbeen. De lengte ervan is meer dan een kwart van je totale lichaamslengte. Het kleinste botje in je lichaam is de stijgbeugel die zit binnen in je oor.8 mrt. 2007 scholieren.com/scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam-3 Werkstuk Biologie Menselijk lichaam | Scholieren.com Feedback Over samenvattingen Webresultaten nl.wikipedia.org/nl.wikipedia.org › wiki › Skelet_(mens) Skelet (mens) - Wikipedia Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. scholieren.com/scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam Werkstuk Biologie Menselijk lichaam | Scholieren.com 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit alletop10lijstjes.nl/alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Het dijbeen staat bekend als het grootste – én sterkste – bot van ons lichaam. De sterkte van het dijbeen nl.toluna.com/nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-licha Wat is het grootste bot in het menselijk lichaam? | Toluna Manfragas. 27 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 nl.ripleybelieves.com/nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Wat Is Het Grootste Bot In Het Lichaam? Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup gezondheidsplein.nl/gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Botten - Menselijk lichaam | Gezondheidsplein.nl Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je welingelichtekringen.nl/welingelichtekringen.nl › samenleving › 50-feiten-over-je-licha 50 feiten over je lichaam – Wel.nl 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. alleswetenoverosteoporose.nl/alleswetenoverosteoporose.nl › het-ziektebeeld-osteoporose › de De botten - Alles weten over osteoporose Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot natuurinformatie.nl/natuurinformatie.nl › Homepage › Skeletten Het skelet van de mens - Natuurinformatie De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van w-tjes.nl/w-tjes.nl › searchresult Wat is het grootste bot van het lichaam? Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen armen sterkste bot menselijk lichaam noem de botten van de onderste ledematen benen botten menselijk lichaam oefenen hoeveel spieren heeft een mens wat is het kleinste bot in je lichaam Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst </t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 3.100.000 results (0 53 seconds) Search Results Featured snippet from the web Image result for Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. https://www.dokterdokter.nl/www.dokterdokter.nl › waarom-zijn-komkommers-gezond › item29820 Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl/ Feedback About Featured Snippets Web results https://nl.wikipedia.org/nl.wikipedia.org › wiki › Komkommer Komkommer - Wikipedia https://nl.wikipedia.org/ Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen https://www.wisfaq.nl/www.wisfaq.nl › WisFaq - digitale vraagbaak voor het wiskundeonderwijs https://www.wisfaq.nl/ Translate this page Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers https://www.facebook.com/www.facebook.com › DietistZoeetje › posts › een- Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com/ Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. https://www.startpagina.nl/www.startpagina.nl › wetenschap › wiskunde › vraag 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl/ Translate this page 7 answers Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. https://www.dokterdokter.nl/www.dokterdokter.nl › › Eten &amp; drinken Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl/ Translate this page Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? https://www.voedingscentrum.nl/www.voedingscentrum.nl › encyclopedie › komko Komkommer | Voedingscentrum https://www.voedingscentrum.nl/ Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een https://www.maxvandaag.nl/www.maxvandaag.nl › themas › eten-drinken › een Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl/ Translate this page Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de https://www.vitens.com/www.vitens.com › › Hoeveel water zit er per d Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com/ Translate this page May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? https://www.voedingsacademy.nl/www.voedingsacademy.nl › komkommer 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl/ Translate this page Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten http://www.rdzl.nl/www.rdzl.nl › komkommers_raadsel › uitleg raadsels en puzzels - rdzl | Komkommers raadsel uitleg http://www.rdzl.nl/ Translate this page Door de hitte bestaan de komkommers aan het eind van de dag nog maar voor 98% uit water. Hoeveel kg komkommers heeft de groenteboer over aan het eind Searches related to Hoeveel van een komkommer is water? komkommer groente of fruit augurk komkommer engels Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6708 PB Wageningen - Based on your Location History - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 2.770.000 resultaten (0 40 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. dokterdokter.nl/dokterdokter.nl › waarom-zijn-komkommers-gezond › item29820 Waarom zijn komkommers gezond? | Dokterdokter.nl Feedback Over samenvattingen Webresultaten wisfaq.nl/wisfaq.nl › WisFaq - digitale vraagbaak voor het wiskundeonderwijs 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers facebook.com/facebook.com › DietistZoeetje › posts › een-mens-bestaat-voor- Zoeetje - Een mens bestaat voor 60% uit water komkommer Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. nl.wikipedia.org/nl.wikipedia.org › wiki › Komkommer Komkommer - Wikipedia De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen dokterdokter.nl/dokterdokter.nl › Gezond leven › Eten &amp; drinken Waarom zijn komkommers gezond? | Dokterdokter.nl Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? startpagina.nl/startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-kom 100 kilo komkommers bestaan uit 99% water. er verdampt 1 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. startpagina.nl/startpagina.nl › eten-drinken › vraag › smaakt-komkommer-het Waarom smaakt komkommer niet hetzelfde als water 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de voedingscentrum.nl/voedingscentrum.nl › encyclopedie › komkommer Komkommer | Voedingscentrum Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een maxvandaag.nl/maxvandaag.nl › sessies › themas › eten-drinken › een-komko Een komkommer bevat meer dan water: hierom is hij zo gezond 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de voedingsacademy.nl/voedingsacademy.nl › komkommer 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten vitens.com/vitens.com › › Blogoverzicht › Hoeveel water zit er per d Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? komkommer geel geworden nadelen van komkommer witte komkommer hoeveel komkommer mag je eten komkommer eten voor het slapen komkommer voedingswaarde hoeveel weegt een komkommer slangkomkommer of komkommer Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 9.110.000 results (0 84 seconds) Search Results Netherlands/Population 17.18 million (2018) • Netherlands 17.18 million ‌ • Belgium 11.4 million ‌ • Sweden 10.12 million ‌ Explore more Feedback Sources include: Eurostat Web results https://www.cbs.nl/www.cbs.nl › en-gb › visualisaties › population-counter Population counter - CBS https://www.cbs.nl/ Dec 20 2019 - How many people are living in the Netherlands? The counter shows how many registered inhabitants there are in the Netherlands at this moment according to the most recent estimate of Statistics Netherlands. The population of the Netherlands is growing by an average of 370 people per https://www.cbs.nl/www.cbs.nl › nl-nl › faq › specifiek › hoeveel-men Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl/ Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners https://nl.wikipedia.org/nl.wikipedia.org › wiki › Bevolking_van_Nederland Bevolking van Nederland - Wikipedia https://nl.wikipedia.org/ Translate this page Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Bevolkingssamenstelling https://allecijfers.nl/allecijfers.nl › nederland Héél véél informatie over Nederland (update 2019 https://allecijfers.nl/ Translate this page Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of http://www.republiekallochtonie.nl/www.republiekallochtonie.nl › blog › feiten › nede Nederlanders buitenlanders allochtonen. De cijfers http://www.republiekallochtonie.nl/ Translate this page Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. https://www.hartvannederland.nl/www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl/ Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. https://www.nu.nl/www.nu.nl › binnenland › nederlandse-bevolking- Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl/ Translate this page Jul 31 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. https://www.parool.nl/www.parool.nl › nederland › bevolking-nederland- Bevolking Nederland groeit sterker dan vorig jaar | Het Parool https://www.parool.nl/ Translate this page Oct 30 2019 - Nederland telde volgens het statistiekbureau op 1 oktober 17.384.238 inwoners. gingen bijna drie keer zoveel immigranten in Amsterdam wonen. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. https://www.nrc.nl/www.nrc.nl › nieuws › 2019/12/16 › bijna-40-proc Bijna 40 procent inwoners Nederland heeft in 2060 - NRC https://www.nrc.nl/ - Translate this page Dec 17 2019 - In het jaar 2060 heeft 39 procent van de inwoners van Nederland een migratieachtergrond. Er wonen dan bijna 20 miljoen mensen in https://www.volkskrant.nl/www.volkskrant.nl › nieuws-achtergrond › nederla Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet https://www.volkskrant.nl/ - Translate this page Jan 2 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de EU member states View 15+ more France France United Kingdom United Kingdom Germany Germany Belgium Belgium Sweden Sweden Luxembourg Luxembourg Italy Italy Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 hoeveel mensen in nederland 2019 bevolking nederland 2019 populatie nederland 2019 aantal inwoners nederland 2018 hoeveel inwoners heeft nederland 2018 Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlands map expand icon Netherlands (Nederland) Country in Europe Description The Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Related statistics Gross domestic product 826.2 billion USD ‎(2017) Population growth rate 0.6% annual change ‎(2017) Life expectancy 81.51 years ‎(2016) Population elsewhere Germany 82.79 million ‎(2018) Amsterdam 821 752 ‎(2015) France 66.89 million ‎(2018) Feedback Sources include: World Bank Eurostat United Nations INSEE Footer links Netherlands6708 PB Wageningen - Based on your Location History - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 34.800.000 resultaten (0 78 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten cbs.nl/cbs.nl › nl-nl › visualisaties › bevolkingsteller Bevolkingsteller - CBS 20 dec. 2019 - Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten cbs.nl/cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in-n Hoeveel mensen wonen er in Nederland? - CBS De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners longreads.cbs.nl/longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de nl.wikipedia.org/nl.wikipedia.org › wiki › Bevolking_van_Nederland Bevolking van Nederland - Wikipedia Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in allecijfers.nl/allecijfers.nl › nederland Héél véél informatie over Nederland (update 2019 Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of republiekallochtonie.nl/republiekallochtonie.nl › blog › feiten › nederlanders-buitenlan Nederlanders buitenlanders allochtonen. De cijfers 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. hartvannederland.nl/hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 Nederland groeit in 2018 met 100.000 mensen naar 17 3 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. nu.nl/nu.nl › binnenland › nederlandse-bevolking-groeit-met-46000- Nederlandse bevolking groeit met 46.000 mensen in eerste 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. parool.nl/parool.nl › nederland › bevolking-nederland-groeit-sterker-dan- Bevolking Nederland groeit sterker dan vorig jaar | Het Parool 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober 17.384.238 inwoners. gingen bijna drie keer zoveel immigranten in Amsterdam wonen. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. volkskrant.nl/volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-miljo Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 1600 aantal inwoners nederland 2018 leeftijdsopbouw nederland inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst </t>
         </is>
       </c>
     </row>
@@ -1499,27 +1499,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 7.770.000 resultaten (0 45 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten https://uitpaulineskeuken.nl/uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Basisrecept voor brood incl. stap voor stap beschrijving - Uit Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Kerf het deeg in met een scherp mes en bak het brood in ongeveer 35 https://rutgerbakt.nl/rutgerbakt.nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? https://broodsmakelijk.nl/broodsmakelijk.nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. https://www.libelle-lekker.be/www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenverse- Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker Brood bakken recept van www.libelle-lekker.be Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook https://www.bakkenzoalsoma.nl/www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Dagelijks brood (uit eigen oven) - Bakken Zoals Oma Brood bakken recept van www.bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is https://www.ah.nl/www.ah.nl › allerhande › recepten › brood-bakken Brood bakken - Allerhande - Albert Heijn Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept https://www.culy.nl/www.culy.nl › Recepten › Wat eten we vandaag? › Diner Het makkelijkste brood dat je ooit zal maken - Culy.nl Brood bakken recept van www.culy.nl 30 jan. 2014 - De gedachte dat brood maken alleen weggelegd is voor bakkers en uren aan kneedwerk onlangs dit supermakkelijke recept waarbij geen kneden aan te pas komt. Tijdens het bakken zal dit nog gelijkmatiger worden. https://www.laurasbakery.nl/www.laurasbakery.nl › volkorenbrood Volkorenbrood - Laura's Bakery Brood bakken recept van www.laurasbakery.nl 11 jul. 2014 - Een lekker recept om zelf volkorenbrood te maken volgens het recept Ik ben nog niet zo'n ervaren broodbakster maar met de uitleg in het https://www.waterlily-unlimited.nl/www.waterlily-unlimited.nl › brood Zelf brood bakken - waterlily-unlimited Brood bakken recept van www.waterlily-unlimited.nl Zelf brood bakken is gemakkelijk snel goedkoop en lekker. Als je het nog nooit gedaan hebt lijkt het heel ingewikkeld en overal vind je weer andere recepten. Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken simpel brood bakken zelf brood bakken zonder broodbakmachine brood bakken zonder gist brood bakken temperatuur zelf brood bakken goedkoper brood bakken benodigdheden Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam-Oost Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 8.200.000 resultaten (0 52 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten uitpaulineskeuken.nl/uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Basisrecept voor brood incl. stap voor stap beschrijving - Uit Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Kerf het deeg in met een scherp mes en bak het brood in ongeveer 35 rutgerbakt.nl/rutgerbakt.nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? broodsmakelijk.nl/broodsmakelijk.nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. libelle-lekker.be/libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenverse- Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook bakkenzoalsoma.nl/bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Dagelijks brood (uit eigen oven) - Bakken Zoals Oma Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is ah.nl/ah.nl › allerhande › recepten › brood-bakken Brood bakken - Allerhande - Albert Heijn Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept culy.nl/culy.nl › Recepten › Wat eten we vandaag? › Diner Het makkelijkste brood dat je ooit zal maken - Culy.nl Brood bakken recept van culy.nl 30 jan. 2014 - De gedachte dat brood maken alleen weggelegd is voor bakkers en uren aan kneedwerk onlangs dit supermakkelijke recept waarbij geen kneden aan te pas komt. Tijdens het bakken zal dit nog gelijkmatiger worden. laurasbakery.nl/laurasbakery.nl › volkorenbrood Volkorenbrood - Laura's Bakery Brood bakken recept van laurasbakery.nl 11 jul. 2014 - Een lekker recept om zelf volkorenbrood te maken volgens het recept Ik ben nog niet zo'n ervaren broodbakster maar met de uitleg in het waterlily-unlimited.nl/waterlily-unlimited.nl › brood Zelf brood bakken - waterlily-unlimited Brood bakken recept van waterlily-unlimited.nl Zelf brood bakken is gemakkelijk snel goedkoop en lekker. Als je het nog nooit gedaan hebt lijkt het heel ingewikkeld en overal vind je weer andere recepten. Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken simpel brood bakken zelf brood bakken zonder broodbakmachine brood bakken zonder gist brood bakken temperatuur zelf brood bakken goedkoper wit brood bakken Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland2512 GB Den Haag - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 3.330.000 resultaten (0 33 seconden) Advertenties Advertentie· www.dier.nu/ ‎ Top 5 Populaire Hondennamen | Bekijk de top 5 | dier.nu‎ ‎ Stichting DierenLot steunt lokale en regionale dierenorganisaties. Helpt u ook mee? Allerlei tips en interessante weetjes vindt u op de website van Stichting DierenLot. Help Dieren In Nood. Steun Goede Doelen. Steun Lokale Initiatieven. Beter bestaan voor DierenKnaagdierenweetjesSchapenweetjesVogelweetjes Zoekresultaten Webresultaten https://www.dierendokters.com/www.dierendokters.com › honden › namen 1001 hondennamen voor je pup reu of teef - DierenDokters Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Stoer · ‎Grappig https://www.herdershonden.nl/www.herdershonden.nl › hondennamen Top 100 Leuke grappige en stoere hondennamen van 2020! Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen https://www.petplan.nl/www.petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populaire Populaire hondennamen | Petplan.nl In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. https://www.hondennamen.nl/www.hondennamen.nl Lijst met alle hondennamen? Vind de perfecte hondennaam Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. http://www.hondennamen.nu/www.hondennamen.nu Hondennamen - Vind de perfecte naam voor je hond. Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu · ‎Mijn namen https://www.honden-plein.nl/www.honden-plein.nl › hondennamen Leuke grappige en stoere hondennamen | Honden-plein.nl Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je https://www.honden-plein.nl/www.honden-plein.nl › hondennamen › hondennamen-teefje Hondennamen teef - vind een naam voor je teefje | Honden Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. https://www.mcvoordieren.nl/www.mcvoordieren.nl › hondennamen Hondennamen - Medisch Centrum voor Dieren De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere https://www.royalcanin.nl/www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Populaire hondennamen | Royal Canin Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak https://www.dierennamen.net/www.dierennamen.net › hondennamen-op-alfabeti Hondennamen op alfabetische volgorde - Dierennamen Vertaal deze pagina Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Zoekopdrachten gerelateerd aan Honden namen aparte hondennamen geweldige hondennamen hondennamen met betekenis brabantse hondennamen tekenfilm hondennamen limburgse honden namen indische hondennamen friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam-Oost Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 3.670.000 resultaten (0 35 seconden) Zoekresultaten Webresultaten dierendokters.com/dierendokters.com › honden › namen 1001 hondennamen voor je pup reu of teef - DierenDokters Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Grappig herdershonden.nl/herdershonden.nl › hondennamen Top 100 Leuke grappige en stoere hondennamen van 2020! Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen petplan.nl/petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populaire Populaire hondennamen | Petplan.nl In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. hondennamen.nl/hondennamen.nl Lijst met alle hondennamen? Vind de perfecte hondennaam Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. hondennamen.nu/hondennamen.nu Hondennamen - Vind de perfecte naam voor je hond. Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw honden-plein.nl/honden-plein.nl › hondennamen Leuke grappige en stoere hondennamen | Honden-plein.nl Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je mcvoordieren.nl/mcvoordieren.nl › hondennamen Hondennamen - Medisch Centrum voor Dieren De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere royalcanin.nl/royalcanin.nl › populaire-kattennamen-populaire-hondennamen Populaire hondennamen | Royal Canin Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak hondenpage.com/hondenpage.com › hondennamen › top Top 100 Populaire HondenNamen - Hondenpage Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd dierennamen.net/dierennamen.net › hondennamen-op-alfabeti Hondennamen op alfabetische volgorde - Dierennamen Vertaal deze pagina Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen hondennamen met betekenis limburgse honden namen brabantse hondennamen tekenfilm hondennamen indische hondennamen friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland2512 GB Den Haag - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 1.490.000 resultaten (0 41 seconden) Zoekresultaten Samenvatting van internet Misschien wil je wel eens weten wat nou het grootste en het kleinste bot in je lichaam is. Het langste bot is in ieder geval het dijbeen. De lengte ervan is meer dan een kwart van je totale lichaamslengte. Het kleinste botje in je lichaam is de stijgbeugel die zit binnen in je oor.8 mrt. 2007 https://www.scholieren.com/www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam-3 Werkstuk Biologie Menselijk lichaam | Scholieren.com Feedback Over samenvattingen Webresultaten https://nl.wikipedia.org/nl.wikipedia.org › wiki › Skelet_(mens) Skelet (mens) - Wikipedia Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. https://www.scholieren.com/www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam Werkstuk Biologie Menselijk lichaam | Scholieren.com 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit https://www.alletop10lijstjes.nl/www.alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. https://nl.toluna.com/nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-licha Wat is het grootste bot in het menselijk lichaam? | Toluna Manfragas. 27 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 https://nl.ripleybelieves.com/nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Wat Is Het Grootste Bot In Het Lichaam? Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup https://www.gezondheidsplein.nl/www.gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Botten - Menselijk lichaam | Gezondheidsplein.nl Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je http://www.kosmisch.nl/www.kosmisch.nl › normal Botten - Kosmisch.nl Dat skelet geeft je lichaam stevigheid en beschermt kwetsbare organen. Het grootste bot in je lichaam is je dijbeen het kleinste botje zit in je oor en is 3mm. https://www.alleswetenoverosteoporose.nl/www.alleswetenoverosteoporose.nl › het-ziektebeeld-osteoporose › de De botten - Alles weten over osteoporose Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot https://www.welingelichtekringen.nl/www.welingelichtekringen.nl › samenleving › 50-feiten-over-je-licha 50 feiten over je lichaam – Wel.nl 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. http://www.natuurinformatie.nl/www.natuurinformatie.nl › Homepage › Skeletten Het skelet van de mens - Natuurinformatie De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen armen sterkste bot menselijk lichaam noem de botten van de onderste ledematen benen botten menselijk lichaam oefenen hoeveel spieren heeft een mens wat is het kleinste bot in je lichaam Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam-Oost Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 1.120.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Misschien wil je wel eens weten wat nou het grootste en het kleinste bot in je lichaam is. Het langste bot is in ieder geval het dijbeen. De lengte ervan is meer dan een kwart van je totale lichaamslengte. Het kleinste botje in je lichaam is de stijgbeugel die zit binnen in je oor.8 mrt. 2007 scholieren.com/scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam-3 Werkstuk Biologie Menselijk lichaam | Scholieren.com Feedback Over samenvattingen Webresultaten nl.wikipedia.org/nl.wikipedia.org › wiki › Skelet_(mens) Skelet (mens) - Wikipedia Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. alletop10lijstjes.nl/alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes botten worden geboren! Hieronder lees je nog meer feitjes over menselijke botten. Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep Grootste bot in het menselijk lichaam: dijbeen. dijbeen. nl.toluna.com/nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-licha Wat is het grootste bot in het menselijk lichaam? | Toluna Manfragas. 27 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 nl.ripleybelieves.com/nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Wat Is Het Grootste Bot In Het Lichaam? Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup gezondheidsplein.nl/gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Botten - Menselijk lichaam | Gezondheidsplein.nl Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je alleswetenoverosteoporose.nl/alleswetenoverosteoporose.nl › het-ziektebeeld-osteoporose › de De botten - Alles weten over osteoporose Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot welingelichtekringen.nl/welingelichtekringen.nl › samenleving › 50-feiten-over-je-licha 50 feiten over je lichaam – Wel.nl 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. encyclo.nl/encyclo.nl › begrip › skelet Skelet - 22 definities - Encyclo Het menselijk skelet bevat 206 verschillende botten waarvan de kleinste drie in het middenoor zitten Het grootste bot in het menselijk lichaam is het dijbeen. natuurinformatie.nl/natuurinformatie.nl › Homepage › Skeletten Het skelet van de mens - Natuurinformatie De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen armen sterkste bot menselijk lichaam noem de botten van de onderste ledematen benen botten menselijk lichaam oefenen hoeveel spieren heeft een mens skelet onderdelen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland2512 GB Den Haag - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 3.140.000 resultaten (0 41 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. https://www.dokterdokter.nl/www.dokterdokter.nl › waarom-zijn-komkommers-gezond › item29820 Waarom zijn komkommers gezond? | Dokterdokter.nl Feedback Over samenvattingen Webresultaten https://www.wisfaq.nl/www.wisfaq.nl › WisFaq - digitale vraagbaak voor het wiskundeonderwijs 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers https://www.facebook.com/www.facebook.com › DietistZoeetje › posts › een-mens-bestaat-voor- Zoeetje - Een mens bestaat voor 60% uit water komkommer Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. https://nl.wikipedia.org/nl.wikipedia.org › wiki › Komkommer Komkommer - Wikipedia De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen https://www.dokterdokter.nl/www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Waarom zijn komkommers gezond? | Dokterdokter.nl Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? https://www.startpagina.nl/www.startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-kom 100 kilo komkommers bestaan uit 99% water. er verdampt 1 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. https://www.startpagina.nl/www.startpagina.nl › eten-drinken › vraag › smaakt-komkommer-het Waarom smaakt komkommer niet hetzelfde als water 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de https://www.voedingscentrum.nl/www.voedingscentrum.nl › encyclopedie › komkommer Komkommer | Voedingscentrum Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een https://www.maxvandaag.nl/www.maxvandaag.nl › sessies › themas › eten-drinken › een-komko Een komkommer bevat meer dan water: hierom is hij zo gezond 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de https://www.voedingsacademy.nl/www.voedingsacademy.nl › komkommer 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten https://www.vitens.com/www.vitens.com › › Blogoverzicht › Hoeveel water zit er per d Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? komkommer geel geworden nadelen van komkommer witte komkommer hoeveel komkommer mag je eten komkommer eten voor het slapen komkommer voedingswaarde hoeveel weegt een komkommer slangkomkommer of komkommer Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam-Oost Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 2.480.000 resultaten (0 47 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. dokterdokter.nl/dokterdokter.nl › waarom-zijn-komkommers-gezond › item29820 Waarom zijn komkommers gezond? | Dokterdokter.nl Feedback Over samenvattingen Webresultaten facebook.com/facebook.com › DietistZoeetje › posts › een-mens-bestaat-voor- Zoeetje - Een mens bestaat voor 60% uit water komkommer Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. wisfaq.nl/wisfaq.nl › WisFaq - digitale vraagbaak voor het wiskundeonderwijs 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers nl.wikipedia.org/nl.wikipedia.org › wiki › Komkommer Komkommer - Wikipedia De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen startpagina.nl/startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-kom 100 kilo komkommers bestaan uit 99% water. er verdampt 1 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. startpagina.nl/startpagina.nl › eten-drinken › vraag › smaakt-komkommer-het Waarom smaakt komkommer niet hetzelfde als water 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de maxvandaag.nl/maxvandaag.nl › sessies › themas › eten-drinken › een-komko Een komkommer bevat meer dan water: hierom is hij zo gezond 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de voedingscentrum.nl/voedingscentrum.nl › encyclopedie › komkommer Komkommer | Voedingscentrum Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een vitens.com/vitens.com › › Blogoverzicht › Hoeveel water zit er per d Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? voedingsacademy.nl/voedingsacademy.nl › komkommer 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? komkommer geel geworden nadelen van komkommer witte komkommer hoeveel komkommer mag je eten komkommer eten voor het slapen hoeveel weegt een komkommer komkommer gezondheidsvoordelen komkommer voedingswaarde Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland2512 GB Den Haag - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 32.300.000 resultaten (0 67 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten https://www.cbs.nl/www.cbs.nl › nl-nl › visualisaties › bevolkingsteller Bevolkingsteller - CBS 20 dec. 2019 - Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten https://www.cbs.nl/www.cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in-n Hoeveel mensen wonen er in Nederland? - CBS De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners https://longreads.cbs.nl/longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de https://nl.wikipedia.org/nl.wikipedia.org › wiki › Bevolking_van_Nederland Bevolking van Nederland - Wikipedia Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in https://allecijfers.nl/allecijfers.nl › nederland Héél véél informatie over Nederland (update 2019 Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of http://www.republiekallochtonie.nl/www.republiekallochtonie.nl › blog › feiten › nederlanders-buitenlan Nederlanders buitenlanders allochtonen. De cijfers 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. https://www.hartvannederland.nl/www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 Nederland groeit in 2018 met 100.000 mensen naar 17 3 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. https://www.nu.nl/www.nu.nl › binnenland › nederlandse-bevolking-groeit-met-46000- Nederlandse bevolking groeit met 46.000 mensen in eerste 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. https://www.parool.nl/www.parool.nl › nederland › bevolking-nederland-groeit-sterker-dan- Bevolking Nederland groeit sterker dan vorig jaar | Het Parool 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober 17.384.238 inwoners. gingen bijna drie keer zoveel immigranten in Amsterdam wonen. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. https://www.nrc.nl/www.nrc.nl › nieuws › 2019/12/16 › bijna-40-procent-inwoners-nederla Bijna 40 procent inwoners Nederland heeft in 2060 - NRC 17 dec. 2019 - In het jaar 2060 heeft 39 procent van de inwoners van Nederland een migratieachtergrond. Er wonen dan bijna 20 miljoen mensen in Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 1600 aantal inwoners nederland 2018 leeftijdsopbouw nederland inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst NederlandAmsterdam-Oost Amsterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 35.700.000 resultaten (0 77 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten cbs.nl/cbs.nl › nl-nl › visualisaties › bevolkingsteller Bevolkingsteller - CBS 20 dec. 2019 - Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten cbs.nl/cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in-n Hoeveel mensen wonen er in Nederland? - CBS De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners longreads.cbs.nl/longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de nl.wikipedia.org/nl.wikipedia.org › wiki › Bevolking_van_Nederland Bevolking van Nederland - Wikipedia Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in allecijfers.nl/allecijfers.nl › nederland Héél véél informatie over Nederland (update 2019 Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of republiekallochtonie.nl/republiekallochtonie.nl › blog › feiten › nederlanders-buitenlan Nederlanders buitenlanders allochtonen. De cijfers 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. hartvannederland.nl/hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 Nederland groeit in 2018 met 100.000 mensen naar 17 3 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. nu.nl/nu.nl › binnenland › nederlandse-bevolking-groeit-met-46000- Nederlandse bevolking groeit met 46.000 mensen in eerste 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. nrc.nl/nrc.nl › nieuws › 2019/12/16 › bijna-40-procent-inwoners-nederla Bijna 40 procent inwoners Nederland heeft in 2060 - NRC 17 dec. 2019 - In het jaar 2060 heeft 39 procent van de inwoners van Nederland een migratieachtergrond. Er wonen dan bijna 20 miljoen mensen in parool.nl/parool.nl › nederland › bevolking-nederland-groeit-sterker-dan- Bevolking Nederland groeit sterker dan vorig jaar | Het Parool 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober 17.384.238 inwoners. gingen bijna drie keer zoveel immigranten in Amsterdam wonen. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 1600 leeftijdsopbouw nederland inwoners nederland 1923 aantal inwoners nederland 2018 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Nederland2512 GB Den Haag - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -1529,27 +1529,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 7.790.000 resultaten (0 48 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten https://uitpaulineskeuken.nl/uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Basisrecept voor brood incl. stap voor stap beschrijving - Uit Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Kerf het deeg in met een scherp mes en bak het brood in ongeveer 35 https://rutgerbakt.nl/rutgerbakt.nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? https://broodsmakelijk.nl/broodsmakelijk.nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. https://www.libelle-lekker.be/www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenverse- Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook https://www.bakkenzoalsoma.nl/www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Dagelijks brood (uit eigen oven) - Bakken Zoals Oma Brood bakken recept van www.bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is https://www.ah.nl/www.ah.nl › allerhande › recepten › brood-bakken Brood bakken - Allerhande - Albert Heijn Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept https://www.culy.nl/www.culy.nl › Recepten › Wat eten we vandaag? › Diner Het makkelijkste brood dat je ooit zal maken - Culy.nl Brood bakken recept van www.culy.nl 30 jan. 2014 - De gedachte dat brood maken alleen weggelegd is voor bakkers en uren aan kneedwerk onlangs dit supermakkelijke recept waarbij geen kneden aan te pas komt. Tijdens het bakken zal dit nog gelijkmatiger worden. https://www.laurasbakery.nl/www.laurasbakery.nl › volkorenbrood Volkorenbrood - Laura's Bakery Brood bakken recept van www.laurasbakery.nl 11 jul. 2014 - Een lekker recept om zelf volkorenbrood te maken volgens het recept Ik ben nog niet zo'n ervaren broodbakster maar met de uitleg in het https://www.waterlily-unlimited.nl/www.waterlily-unlimited.nl › brood Zelf brood bakken - waterlily-unlimited Brood bakken recept van www.waterlily-unlimited.nl Zelf brood bakken is gemakkelijk snel goedkoop en lekker. Als je het nog nooit gedaan hebt lijkt het heel ingewikkeld en overal vind je weer andere recepten. Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken simpel brood bakken zelf brood bakken zonder broodbakmachine brood bakken zonder gist brood bakken temperatuur zelf brood bakken goedkoper brood bakken benodigdheden Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst </t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 8.180.000 resultaten (0 60 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Kerf het deeg in met een scherp mes en bak het brood in ongeveer 35 Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Het makkelijkste brood dat je ooit zal maken - Culy.nl culy.nl › Recepten › Wat eten we vandaag? › Diner Brood bakken recept van culy.nl 30 jan. 2014 - De gedachte dat brood maken alleen weggelegd is voor bakkers en uren aan kneedwerk onlangs dit supermakkelijke recept waarbij geen kneden aan te pas komt. Tijdens het bakken zal dit nog gelijkmatiger worden. Volkorenbrood - Laura's Bakery laurasbakery.nl › volkorenbrood Brood bakken recept van laurasbakery.nl 11 jul. 2014 - Een lekker recept om zelf volkorenbrood te maken volgens het recept Ik ben nog niet zo'n ervaren broodbakster maar met de uitleg in het Basis Brood recept | Smulweb.nl smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken simpel brood bakken zelf brood bakken zonder broodbakmachine brood bakken zonder gist brood bakken temperatuur zelf brood bakken goedkoper wit brood bakken Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 3.470.000 resultaten (0 34 seconden) Zoekresultaten Webresultaten https://www.dierendokters.com/www.dierendokters.com › honden › namen 1001 hondennamen voor je pup reu of teef - DierenDokters Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Grappig https://www.herdershonden.nl/www.herdershonden.nl › hondennamen Top 100 Leuke grappige en stoere hondennamen van 2020! Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen https://www.petplan.nl/www.petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populaire Populaire hondennamen | Petplan.nl In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. https://www.hondennamen.nl/www.hondennamen.nl Lijst met alle hondennamen? Vind de perfecte hondennaam Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. http://www.hondennamen.nu/www.hondennamen.nu Hondennamen - Vind de perfecte naam voor je hond. Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw https://www.honden-plein.nl/www.honden-plein.nl › hondennamen Leuke grappige en stoere hondennamen | Honden-plein.nl Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je https://www.honden-plein.nl/www.honden-plein.nl › hondennamen › hondennamen-teefje Hondennamen teef - vind een naam voor je teefje | Honden Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. https://www.mcvoordieren.nl/www.mcvoordieren.nl › hondennamen Hondennamen - Medisch Centrum voor Dieren De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere https://www.royalcanin.nl/www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Populaire hondennamen | Royal Canin Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak https://www.dierennamen.net/www.dierennamen.net › hondennamen-op-alfabeti Hondennamen op alfabetische volgorde - Dierennamen Vertaal deze pagina Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Zoekopdrachten gerelateerd aan Honden namen aparte hondennamen geweldige hondennamen hondennamen met betekenis brabantse hondennamen tekenfilm hondennamen limburgse honden namen indische hondennamen friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst </t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 3.040.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Hondennamen top 10 Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen Feedback Over samenvattingen Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2020! herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Populaire hondennamen | Petplan.nl petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Populaire hondennamen | Royal Canin royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Top 100 Populaire HondenNamen - Hondenpage hondenpage.com › hondennamen › top Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Hondennamen op alfabetische volgorde - Dierennamen dierennamen.net › hondennamen-op-alfab Vertaal deze pagina Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Zoekopdrachten gerelateerd aan Honden namen aparte hondennamen geweldige hondennamen hondennamen met betekenis limburgse honden namen brabantse hondennamen tekenfilm hondennamen indische hondennamen friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6533 BR Nijmegen - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 1.350.000 resultaten (0 51 seconden) Zoekresultaten Samenvatting van internet Misschien wil je wel eens weten wat nou het grootste en het kleinste bot in je lichaam is. Het langste bot is in ieder geval het dijbeen. De lengte ervan is meer dan een kwart van je totale lichaamslengte. Het kleinste botje in je lichaam is de stijgbeugel die zit binnen in je oor.8 mrt. 2007 https://www.scholieren.com/www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam-3 Werkstuk Biologie Menselijk lichaam | Scholieren.com Feedback Over samenvattingen Webresultaten https://nl.wikipedia.org/nl.wikipedia.org › wiki › Skelet_(mens) Skelet (mens) - Wikipedia Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. https://www.scholieren.com/www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam Werkstuk Biologie Menselijk lichaam | Scholieren.com 8 mrt. 2007 - Scholieren.com helpt scholieren om samen betere resultaten te halen en slimmere keuzes te maken voor de toekomst. Met kennis actualiteit https://www.alletop10lijstjes.nl/www.alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Het dijbeen staat bekend als het grootste – én sterkste – bot van ons lichaam. De sterkte van het dijbeen https://nl.toluna.com/nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-licha Wat is het grootste bot in het menselijk lichaam? | Toluna Manfragas. 27 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 https://nl.ripleybelieves.com/nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Wat Is Het Grootste Bot In Het Lichaam? Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup https://www.gezondheidsplein.nl/www.gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Botten - Menselijk lichaam | Gezondheidsplein.nl Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je https://www.welingelichtekringen.nl/www.welingelichtekringen.nl › samenleving › 50-feiten-over-je-licha 50 feiten over je lichaam – Wel.nl 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. https://www.alleswetenoverosteoporose.nl/www.alleswetenoverosteoporose.nl › het-ziektebeeld-osteoporose › de De botten - Alles weten over osteoporose Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot http://www.natuurinformatie.nl/www.natuurinformatie.nl › Homepage › Skeletten Het skelet van de mens - Natuurinformatie De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van https://www.w-tjes.nl/www.w-tjes.nl › searchresult Wat is het grootste bot van het lichaam? Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen armen sterkste bot menselijk lichaam noem de botten van de onderste ledematen benen botten menselijk lichaam oefenen hoeveel spieren heeft een mens wat is het kleinste bot in je lichaam Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst </t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 1.170.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Misschien wil je wel eens weten wat nou het grootste en het kleinste bot in je lichaam is. Het langste bot is in ieder geval het dijbeen. De lengte ervan is meer dan een kwart van je totale lichaamslengte. Het kleinste botje in je lichaam is de stijgbeugel die zit binnen in je oor.24 jul. 2008 Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam Feedback Over samenvattingen Webresultaten Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten botten worden geboren! Hieronder lees je nog meer feitjes over menselijke botten. Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Manfragas. 27 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Wat Is Het Grootste Bot In Het Lichaam? nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De kleinste is de De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Extreem hoge luchtdruk in Nederland: Wat merk je daar van? 3 De botten - Alles weten over osteoporose alleswetenoverosteoporose.nl › het-ziektebeeld-osteoporose Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Het skelet van de mens - Natuurinformatie natuurinformatie.nl › Homepage › Skeletten De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van Wat is het grootste bot van het lichaam? w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen armen sterkste bot menselijk lichaam noem de botten van de onderste ledematen benen botten menselijk lichaam oefenen hoeveel spieren heeft een mens skelet onderdelen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6533 BR Nijmegen - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 2.770.000 resultaten (0 40 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. https://www.dokterdokter.nl/www.dokterdokter.nl › waarom-zijn-komkommers-gezond › item29820 Waarom zijn komkommers gezond? | Dokterdokter.nl Feedback Over samenvattingen Webresultaten https://www.wisfaq.nl/www.wisfaq.nl › WisFaq - digitale vraagbaak voor het wiskundeonderwijs 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers https://www.facebook.com/www.facebook.com › DietistZoeetje › posts › een-mens-bestaat-voor- Zoeetje - Een mens bestaat voor 60% uit water komkommer Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. https://nl.wikipedia.org/nl.wikipedia.org › wiki › Komkommer Komkommer - Wikipedia De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen https://www.dokterdokter.nl/www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Waarom zijn komkommers gezond? | Dokterdokter.nl Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? https://www.startpagina.nl/www.startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-kom 100 kilo komkommers bestaan uit 99% water. er verdampt 1 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. https://www.startpagina.nl/www.startpagina.nl › eten-drinken › vraag › smaakt-komkommer-het Waarom smaakt komkommer niet hetzelfde als water 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de https://www.voedingscentrum.nl/www.voedingscentrum.nl › encyclopedie › komkommer Komkommer | Voedingscentrum Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een https://www.maxvandaag.nl/www.maxvandaag.nl › sessies › themas › eten-drinken › een-komko Een komkommer bevat meer dan water: hierom is hij zo gezond 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de https://www.voedingsacademy.nl/www.voedingsacademy.nl › komkommer 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten https://www.vitens.com/www.vitens.com › › Blogoverzicht › Hoeveel water zit er per d Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? komkommer geel geworden nadelen van komkommer witte komkommer hoeveel komkommer mag je eten komkommer eten voor het slapen komkommer voedingswaarde hoeveel weegt een komkommer slangkomkommer of komkommer Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst </t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 2.620.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › Gezond leven › Eten &amp; drinken Feedback Over samenvattingen Webresultaten WisFaq - digitale vraagbaak voor het wiskundeonderwijs wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer komkommer geel geworden witte komkommer hoeveel komkommer mag je eten komkommer eten voor het slapen hoeveel weegt een komkommer komkommer gezondheidsvoordelen komkommer voedingswaarde Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6533 BR Nijmegen - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 34.800.000 resultaten (0 78 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten https://www.cbs.nl/www.cbs.nl › nl-nl › visualisaties › bevolkingsteller Bevolkingsteller - CBS 20 dec. 2019 - Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten https://www.cbs.nl/www.cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in-n Hoeveel mensen wonen er in Nederland? - CBS De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners https://longreads.cbs.nl/longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de https://nl.wikipedia.org/nl.wikipedia.org › wiki › Bevolking_van_Nederland Bevolking van Nederland - Wikipedia Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in https://allecijfers.nl/allecijfers.nl › nederland Héél véél informatie over Nederland (update 2019 Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of http://www.republiekallochtonie.nl/www.republiekallochtonie.nl › blog › feiten › nederlanders-buitenlan Nederlanders buitenlanders allochtonen. De cijfers 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. https://www.hartvannederland.nl/www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 Nederland groeit in 2018 met 100.000 mensen naar 17 3 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. https://www.nu.nl/www.nu.nl › binnenland › nederlandse-bevolking-groeit-met-46000- Nederlandse bevolking groeit met 46.000 mensen in eerste 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. https://www.parool.nl/www.parool.nl › nederland › bevolking-nederland-groeit-sterker-dan- Bevolking Nederland groeit sterker dan vorig jaar | Het Parool 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober 17.384.238 inwoners. gingen bijna drie keer zoveel immigranten in Amsterdam wonen. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. https://www.volkskrant.nl/www.volkskrant.nl › nieuws-achtergrond › nederland-telt-nu-17-2-miljo Nederland telt nu 17 2 miljoen inwoners: 'Van de baby's moet 2 jan. 2018 - Over vijf jaar zullen er volgens het CBS 17 5 miljoen mensen in Nederland wonen. 'Maar van de baby's moet de groei het niet hebben van de Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 1600 aantal inwoners nederland 2018 leeftijdsopbouw nederland inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst </t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 25.500.000 resultaten (0 67 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller 20 dec. 2019 - Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Nederland heeft nu meer dan 17 4 miljoen inwoners - NRC nrc.nl › nieuws › 2020/01/02 › nederland-heeft-nu-meer-dan-1 3 jan. 2020 - Nederland heeft er vorig jaar naar schatting 132.000 inwoners bij gekregen en daarmee wonen er nu meer dan 17 4 miljoen mensen in Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Bevolking Nederland groeit sneller dan verwacht: 18 4 miljoen volkskrant.nl › nieuws-achtergrond › bevolking-nederland-groe 17 dec. 2019 - In de komende tien jaar komen er een miljoen mensen bij in Nederland. In 2030 loopt het inwonertal op tot 18 4 miljoen. De bevolkingsgroei Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 1600 leeftijdsopbouw nederland inwoners nederland 1923 aantal inwoners nederland 2018 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Nederland6533 BR Nijmegen - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -1559,27 +1559,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 8.200.000 resultaten (0 52 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten https://uitpaulineskeuken.nl/uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Basisrecept voor brood incl. stap voor stap beschrijving - Uit Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Kerf het deeg in met een scherp mes en bak het brood in ongeveer 35 https://rutgerbakt.nl/rutgerbakt.nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? https://broodsmakelijk.nl/broodsmakelijk.nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. https://www.libelle-lekker.be/www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenverse- Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook https://www.bakkenzoalsoma.nl/www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Dagelijks brood (uit eigen oven) - Bakken Zoals Oma Brood bakken recept van www.bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is https://www.ah.nl/www.ah.nl › allerhande › recepten › brood-bakken Brood bakken - Allerhande - Albert Heijn Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept https://www.culy.nl/www.culy.nl › Recepten › Wat eten we vandaag? › Diner Het makkelijkste brood dat je ooit zal maken - Culy.nl Brood bakken recept van www.culy.nl 30 jan. 2014 - De gedachte dat brood maken alleen weggelegd is voor bakkers en uren aan kneedwerk onlangs dit supermakkelijke recept waarbij geen kneden aan te pas komt. Tijdens het bakken zal dit nog gelijkmatiger worden. https://www.laurasbakery.nl/www.laurasbakery.nl › volkorenbrood Volkorenbrood - Laura's Bakery Brood bakken recept van www.laurasbakery.nl 11 jul. 2014 - Een lekker recept om zelf volkorenbrood te maken volgens het recept Ik ben nog niet zo'n ervaren broodbakster maar met de uitleg in het https://www.waterlily-unlimited.nl/www.waterlily-unlimited.nl › brood Zelf brood bakken - waterlily-unlimited Brood bakken recept van www.waterlily-unlimited.nl Zelf brood bakken is gemakkelijk snel goedkoop en lekker. Als je het nog nooit gedaan hebt lijkt het heel ingewikkeld en overal vind je weer andere recepten. Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken simpel brood bakken zelf brood bakken zonder broodbakmachine brood bakken zonder gist brood bakken temperatuur zelf brood bakken goedkoper wit brood bakken Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland2512 GB Den Haag - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Brood bakken recept About 2.330.000 results (0 53 seconds) Search Results Web results uitpaulineskeuken.nl › 2018/11 › basisrecept-voor- Basisrecept voor brood incl. stap voor stap beschrijving - Uit Translate this page Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Wil je een speltbrood bakken? Recept stap voor stap brood maken. libelle-lekker.be › artikelen › zelf-brood-bak Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook bakkenzoalsoma.nl › 2012/10 › dagelijks-bro Dagelijks brood (uit eigen oven) - Bakken Zoals Oma Translate this page Brood bakken recept from bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is rutgerbakt.nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎23 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? broodsmakelijk.nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Hoe bak ik zelf mijn eerste brood (en goedkoop)? Translate this page Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Recipes Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 hrs Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Web results ah.nl › allerhande › recepten › brood-bakken Brood bakken - Allerhande - Albert Heijn Translate this page Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept recepten.tips › Recepten Zelf Ambachtelijk brood bakken in een uur | Recepten.tips Translate this page Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk laurasbakery.nl › tips-voor-brood-bakken Tips voor brood bakken - Laura's Bakery Translate this page Jun 25 2017 - Met deze tips voor brood bakken zul je zien dat het niet moeilijk is om zelf een Wat je nodig hebt staat altijd wel in het recept aangegeven. Searches related to Brood bakken recept wit brood recept brood bakken broodbakmachine volkoren brood recept bruin brood bakken zelf brood bakken zonder broodbakmachine brood bakken zonder gist broodjes bakken brood bakken temperatuur Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsUtrecht - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 3.670.000 resultaten (0 35 seconden) Zoekresultaten Webresultaten https://www.dierendokters.com/www.dierendokters.com › honden › namen 1001 hondennamen voor je pup reu of teef - DierenDokters Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Grappig https://www.herdershonden.nl/www.herdershonden.nl › hondennamen Top 100 Leuke grappige en stoere hondennamen van 2020! Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen https://www.petplan.nl/www.petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populaire Populaire hondennamen | Petplan.nl In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. https://www.hondennamen.nl/www.hondennamen.nl Lijst met alle hondennamen? Vind de perfecte hondennaam Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. http://www.hondennamen.nu/www.hondennamen.nu Hondennamen - Vind de perfecte naam voor je hond. Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw https://www.honden-plein.nl/www.honden-plein.nl › hondennamen Leuke grappige en stoere hondennamen | Honden-plein.nl Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je https://www.mcvoordieren.nl/www.mcvoordieren.nl › hondennamen Hondennamen - Medisch Centrum voor Dieren De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere https://www.royalcanin.nl/www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Populaire hondennamen | Royal Canin Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak https://www.hondenpage.com/www.hondenpage.com › hondennamen › top Top 100 Populaire HondenNamen - Hondenpage Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd https://www.dierennamen.net/www.dierennamen.net › hondennamen-op-alfabeti Hondennamen op alfabetische volgorde - Dierennamen Vertaal deze pagina Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen hondennamen met betekenis limburgse honden namen brabantse hondennamen tekenfilm hondennamen indische hondennamen friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland2512 GB Den Haag - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Honden namen About 2.730.000 results (0 48 seconds) Search Results Featured snippet from the web Image result for Honden namen Hondennamen top 10 Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. More items mcvoordieren.nl › hondennamen Hondennamen - Medisch Centrum voor Dieren Feedback About Featured Snippets Web results dierendokters.com › honden › namen 1001 hondennamen voor je pup reu of teef - DierenDokters Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS herdershonden.nl › hondennamen Top 100 Leuke grappige en stoere hondennamen van 2020! Translate this page Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen petplan.nl › aanschaf-van-je-huisdier › popul Populaire hondennamen | Petplan.nl Translate this page In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. hondennamen.nu Hondennamen - Vind de perfecte naam voor je hond. Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Korte hondennamen · ‎Namen voor een teefje honden-plein.nl › hondennamen Leuke grappige en stoere hondennamen | Honden-plein.nl Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je hondennamen.nl Lijst met alle hondennamen? Vind de perfecte hondennaam Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. royalcanin.nl › hondennamen Populaire hondennamen | Royal Canin Translate this page Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Dierennamen Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of hondenpage.com › hondennamen › top Top 100 Populaire HondenNamen - Hondenpage Translate this page Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Searches related to Honden namen honden namen teefje originele hondennamen populaire hondennamen speciale hondennamen teefje spaanse hondennamen hondennamen reu met betekenis friese hondennamen hondennamen met s Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsUtrecht - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 1.120.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Misschien wil je wel eens weten wat nou het grootste en het kleinste bot in je lichaam is. Het langste bot is in ieder geval het dijbeen. De lengte ervan is meer dan een kwart van je totale lichaamslengte. Het kleinste botje in je lichaam is de stijgbeugel die zit binnen in je oor.8 mrt. 2007 https://www.scholieren.com/www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam-3 Werkstuk Biologie Menselijk lichaam | Scholieren.com Feedback Over samenvattingen Webresultaten https://nl.wikipedia.org/nl.wikipedia.org › wiki › Skelet_(mens) Skelet (mens) - Wikipedia Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. https://www.alletop10lijstjes.nl/www.alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes botten worden geboren! Hieronder lees je nog meer feitjes over menselijke botten. Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep Grootste bot in het menselijk lichaam: dijbeen. dijbeen. https://nl.toluna.com/nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-licha Wat is het grootste bot in het menselijk lichaam? | Toluna Manfragas. 27 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 https://nl.ripleybelieves.com/nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Wat Is Het Grootste Bot In Het Lichaam? Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup https://www.gezondheidsplein.nl/www.gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Botten - Menselijk lichaam | Gezondheidsplein.nl Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je https://www.alleswetenoverosteoporose.nl/www.alleswetenoverosteoporose.nl › het-ziektebeeld-osteoporose › de De botten - Alles weten over osteoporose Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot https://www.welingelichtekringen.nl/www.welingelichtekringen.nl › samenleving › 50-feiten-over-je-licha 50 feiten over je lichaam – Wel.nl 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. https://www.encyclo.nl/www.encyclo.nl › begrip › skelet Skelet - 22 definities - Encyclo Het menselijk skelet bevat 206 verschillende botten waarvan de kleinste drie in het middenoor zitten Het grootste bot in het menselijk lichaam is het dijbeen. http://www.natuurinformatie.nl/www.natuurinformatie.nl › Homepage › Skeletten Het skelet van de mens - Natuurinformatie De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen armen sterkste bot menselijk lichaam noem de botten van de onderste ledematen benen botten menselijk lichaam oefenen hoeveel spieren heeft een mens skelet onderdelen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland2512 GB Den Haag - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Wat is het grootste bot in het menselijk lichaam? About 804.000 results (0 50 seconds) Search Results Featured snippet from the web Misschien wil je wel eens weten wat nou het grootste en het kleinste bot in je lichaam is. Het langste bot is in ieder geval het dijbeen. De lengte ervan is meer dan een kwart van je totale lichaamslengte. Het kleinste botje in je lichaam is de stijgbeugel die zit binnen in je oor.Jul 24 2008 scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam-3 Werkstuk Biologie Menselijk lichaam | Scholieren.com Feedback About Featured Snippets Web results nl.wikipedia.org › wiki › Skelet_(mens) Skelet (mens) - Wikipedia Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. nl.toluna.com › polls › Wat-is-het-grootste-bot-in-h Wat is het grootste bot in het menselijk lichaam? | Toluna Translate this page Manfragas. 27 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 alletop10lijstjes.nl › top-10-feitjes-over-mens Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes Translate this page botten worden geboren! Hieronder lees je nog meer feitjes over menselijke botten. Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep Grootste bot in het menselijk lichaam: dijbeen. dijbeen. nl.ripleybelieves.com › what-is-largest-bone-in-bod Wat Is Het Grootste Bot In Het Lichaam? Translate this page Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup gezondheidsplein.nl › botten › item45095 Botten - Menselijk lichaam | Gezondheidsplein.nl Translate this page Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je alleswetenoverosteoporose.nl › de-botten De botten - Alles weten over osteoporose Translate this page Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Images for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? View all More images for Wat is het grootste bot in het menselijk lichaam? Report images Web results natuurinformatie.nl › Homepage › Skeletten Het skelet van de mens - Natuurinformatie Translate this page De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van welingelichtekringen.nl › samenleving › 50-f 50 feiten over je lichaam – Wel.nl Translate this page Feb 27 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen aantal botten baby skelet kopen skelet hoofd skelet mens hoeveel spieren heeft een mens hoeveel botten heeft een kat Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsUtrecht - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 2.480.000 resultaten (0 47 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. https://www.dokterdokter.nl/www.dokterdokter.nl › waarom-zijn-komkommers-gezond › item29820 Waarom zijn komkommers gezond? | Dokterdokter.nl Feedback Over samenvattingen Webresultaten https://www.facebook.com/www.facebook.com › DietistZoeetje › posts › een-mens-bestaat-voor- Zoeetje - Een mens bestaat voor 60% uit water komkommer Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. https://www.wisfaq.nl/www.wisfaq.nl › WisFaq - digitale vraagbaak voor het wiskundeonderwijs 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers https://nl.wikipedia.org/nl.wikipedia.org › wiki › Komkommer Komkommer - Wikipedia De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen https://www.startpagina.nl/www.startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-kom 100 kilo komkommers bestaan uit 99% water. er verdampt 1 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. https://www.startpagina.nl/www.startpagina.nl › eten-drinken › vraag › smaakt-komkommer-het Waarom smaakt komkommer niet hetzelfde als water 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de https://www.maxvandaag.nl/www.maxvandaag.nl › sessies › themas › eten-drinken › een-komko Een komkommer bevat meer dan water: hierom is hij zo gezond 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de https://www.voedingscentrum.nl/www.voedingscentrum.nl › encyclopedie › komkommer Komkommer | Voedingscentrum Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een https://www.vitens.com/www.vitens.com › › Blogoverzicht › Hoeveel water zit er per d Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? https://www.voedingsacademy.nl/www.voedingsacademy.nl › komkommer 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? komkommer geel geworden nadelen van komkommer witte komkommer hoeveel komkommer mag je eten komkommer eten voor het slapen hoeveel weegt een komkommer komkommer gezondheidsvoordelen komkommer voedingswaarde Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland2512 GB Den Haag - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel van een komkommer is water? About 4.600.000 results (0 61 seconds) Search Results Featured snippet from the web Image result for Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. dokterdokter.nl › Gezond leven › Eten &amp; drinken Waarom zijn komkommers gezond? | Dokterdokter.nl Feedback About Featured Snippets Web results nl.wikipedia.org › wiki › Komkommer Komkommer - Wikipedia Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen wisfaq.nl › WisFaq - digitale vraagbaak voor het wiskundeonderwijs Translate this page Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers facebook.com › DietistZoeetje › posts › een- Zoeetje - Een mens bestaat voor 60% uit water komkommer Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. startpagina.nl › wetenschap › wiskunde › vraag 100 kilo komkommers bestaan uit 99% water. er verdampt 1 Translate this page 7 answers Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. voedingscentrum.nl › encyclopedie › komko Komkommer | Voedingscentrum Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een maxvandaag.nl › themas › eten-drinken › een Een komkommer bevat meer dan water: hierom is hij zo gezond Translate this page Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de vitens.com › › Hoeveel water zit er per d Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens Translate this page May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? voedingsacademy.nl › komkommer 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten Translate this page Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten mooiemoestuin.nl › vruchtgewassen › komko Komkommer - Diana's mooie moestuin Translate this page Komkommers zijn dorstige planten en door regelmatig een flinke hoeveelheid water te geven zorg je ervoor dat de planten niet te ver van de plant water Searches related to Hoeveel van een komkommer is water? komkommer groente of fruit augurk Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsUtrecht - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 35.700.000 resultaten (0 77 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten https://www.cbs.nl/www.cbs.nl › nl-nl › visualisaties › bevolkingsteller Bevolkingsteller - CBS 20 dec. 2019 - Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten https://www.cbs.nl/www.cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in-n Hoeveel mensen wonen er in Nederland? - CBS De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners https://longreads.cbs.nl/longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de https://nl.wikipedia.org/nl.wikipedia.org › wiki › Bevolking_van_Nederland Bevolking van Nederland - Wikipedia Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in https://allecijfers.nl/allecijfers.nl › nederland Héél véél informatie over Nederland (update 2019 Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of http://www.republiekallochtonie.nl/www.republiekallochtonie.nl › blog › feiten › nederlanders-buitenlan Nederlanders buitenlanders allochtonen. De cijfers 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. https://www.hartvannederland.nl/www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 Nederland groeit in 2018 met 100.000 mensen naar 17 3 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. https://www.nu.nl/www.nu.nl › binnenland › nederlandse-bevolking-groeit-met-46000- Nederlandse bevolking groeit met 46.000 mensen in eerste 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. https://www.nrc.nl/www.nrc.nl › nieuws › 2019/12/16 › bijna-40-procent-inwoners-nederla Bijna 40 procent inwoners Nederland heeft in 2060 - NRC 17 dec. 2019 - In het jaar 2060 heeft 39 procent van de inwoners van Nederland een migratieachtergrond. Er wonen dan bijna 20 miljoen mensen in https://www.parool.nl/www.parool.nl › nederland › bevolking-nederland-groeit-sterker-dan- Bevolking Nederland groeit sterker dan vorig jaar | Het Parool 30 okt. 2019 - Nederland telde volgens het statistiekbureau op 1 oktober 17.384.238 inwoners. gingen bijna drie keer zoveel immigranten in Amsterdam wonen. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 1600 leeftijdsopbouw nederland inwoners nederland 1923 aantal inwoners nederland 2018 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Levensverwachting 81 51 jaar ‎(2016) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Nederland2512 GB Den Haag - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel mensen wonen er in Nederland? About 7.810.000 results (0 62 seconds) Tip: Search for English results only. You can specify your search language in Preferences Search Results Netherlands/Population 17.18 million (2018) •Netherlands 17.18 million ‌ •Belgium 11.4 million ‌ •Sweden 10.12 million ‌ Explore more Feedback Sources include: Eurostat Web results cbs.nl › en-gb › visualisaties › population-counter Population counter - CBS Dec 20 2019 - How many people are living in the Netherlands? The counter shows how many registered inhabitants there are in the Netherlands at this moment according to the most recent estimate of Statistics Netherlands. The population of the Netherlands is growing by an average of 370 people per cbs.nl › nl-nl › faq › specifiek › hoeveel-men Hoeveel mensen wonen er in Nederland? - CBS Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners longreads.cbs.nl › trends19 › cijfers › bevolking Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 Translate this page In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de nl.wikipedia.org › wiki › Bevolking_van_Nederland Bevolking van Nederland - Wikipedia Translate this page Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Bevolkingssamenstelling allecijfers.nl › nederland Héél véél informatie over Nederland (update 2019 Translate this page Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of rtlnieuws.nl › nieuws › nederland › artikel Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door Translate this page Jan 3 2020 - inwoners waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente republiekallochtonie.nl › blog › feiten › nede Nederlanders buitenlanders allochtonen. De cijfers Translate this page Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. nrc.nl › nieuws › 2020/01/02 › nederland-hee Nederland heeft nu meer dan 17 4 miljoen inwoners - NRC- Translate this page Jan 3 2020 - Nederland heeft er vorig jaar naar schatting 132.000 inwoners bij gekregen en daarmee wonen er nu meer dan 17 4 miljoen mensen in hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 Nederland groeit in 2018 met 100.000 mensen naar 17 3 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. nu.nl › binnenland › nederlandse-bevolking- Nederlandse bevolking groeit met 46.000 mensen in eerste Translate this page Jul 31 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. EU member states View 15+ more Germany Germany France France Belgium Belgium Sweden Sweden United Kingdom United Kingdom Italy Italy Luxembourg Luxembourg Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 hoeveel mensen in nederland 2019 populatie nederland 2019 aantal inwoners nederland 2018 hoeveel mensen wonen er in china Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlandsmap expand icon Netherlands (Nederland) Country in Europe DescriptionThe Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Related statistics Gross domestic product 826.2 billion USD ‎(2017) Population growth rate 0.6% annual change ‎(2017) Population elsewhere Germany 82.79 million ‎(2018) Amsterdam 821 752 ‎(2015) France 66.89 million ‎(2018) Feedback Sources include: World Bank Eurostat United Nations INSEE Footer links NetherlandsUtrecht - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
     </row>
@@ -1589,27 +1589,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 8.180.000 resultaten (0 60 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit https://uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Kerf het deeg in met een scherp mes en bak het brood in ongeveer 35 Recepten voor het zelf bakken van brood - Broodsmakelijk https://broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker https://www.libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Basisrecept voor wit brooddeeg - Rutger Bakt https://rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Dagelijks brood (uit eigen oven) - Bakken Zoals Oma https://www.bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van www.bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Brood bakken - Allerhande - Albert Heijn https://www.ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Het makkelijkste brood dat je ooit zal maken - Culy.nl https://www.culy.nl › Recepten › Wat eten we vandaag? › Diner Brood bakken recept van www.culy.nl 30 jan. 2014 - De gedachte dat brood maken alleen weggelegd is voor bakkers en uren aan kneedwerk onlangs dit supermakkelijke recept waarbij geen kneden aan te pas komt. Tijdens het bakken zal dit nog gelijkmatiger worden. Volkorenbrood - Laura's Bakery https://www.laurasbakery.nl › volkorenbrood Brood bakken recept van www.laurasbakery.nl 11 jul. 2014 - Een lekker recept om zelf volkorenbrood te maken volgens het recept Ik ben nog niet zo'n ervaren broodbakster maar met de uitleg in het Basis Brood recept | Smulweb.nl https://www.smulweb.nl › Recepten › Nederlandse keuken Brood bakken recept van www.smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken simpel brood bakken zelf brood bakken zonder broodbakmachine brood bakken zonder gist brood bakken temperatuur zelf brood bakken goedkoper wit brood bakken Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 7.860.000 resultaten (0 46 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Basisrecept voor brood incl. stap voor stap beschrijving - Uit Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Kerf het deeg in met een scherp mes en bak het brood in ongeveer 35 broodsmakelijk.nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenverse- Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook rutgerbakt.nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Dagelijks brood (uit eigen oven) - Bakken Zoals Oma Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is ah.nl › allerhande › recepten › brood-bakken Brood bakken - Allerhande - Albert Heijn Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept smulweb.nl › Recepten › Nederlandse keuken Basis Brood recept | Smulweb.nl Brood bakken recept van smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken waterlily-unlimited.nl › brood Zelf brood bakken - waterlily-unlimited Brood bakken recept van waterlily-unlimited.nl Zelf brood bakken is gemakkelijk snel goedkoop en lekker. Als je het nog nooit gedaan hebt lijkt het heel ingewikkeld en overal vind je weer andere recepten. culy.nl › Recepten › Wat eten we vandaag? › Diner Het makkelijkste brood dat je ooit zal maken - Culy.nl Brood bakken recept van culy.nl 30 jan. 2014 - De gedachte dat brood maken alleen weggelegd is voor bakkers en uren aan kneedwerk Het deeg in dit recept wordt vrij nat wat ervoor zorgt dat de buitenkant super Tijdens het bakken zal dit nog gelijkmatiger worden. Advertenties Advertentie· waldkorn.com/recepten/belegtips ‎ Waldkorn® Recepten | De lekkerste ideeën met brood‎ ‎ Zin in een lekker broodje? De smakelijkste belegtips vind je bij Waldkorn®. Ontbijt brunch lunch en on the go. Brunchideeën. Voedzaam. Genieten. Origineel. Volop variatie. Lekker eenvoudig. Typen: Waldkorn® Donker Volkoren Waldkorn® Trispelti Waldkorn® Haver. Onze productenOver Waldkorn®Onze graansoorten Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken simpel brood bakken zelf brood bakken zonder broodbakmachine brood bakken zonder gist brood bakken temperatuur zelf brood bakken goedkoper wit brood bakken Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland5741 Beek en Donk - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 3.040.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Hondennamen top 10 Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. Meer items Hondennamen - Medisch Centrum voor Dieren https://www.mcvoordieren.nl › hondennamen Feedback Over samenvattingen Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters https://www.dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS Top 100 Leuke grappige en stoere hondennamen van 2020! https://www.herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Populaire hondennamen | Petplan.nl https://www.petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populai In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. Lijst met alle hondennamen? Vind de perfecte hondennaam https://www.hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Hondennamen - Vind de perfecte naam voor je hond. www.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Leuke grappige en stoere hondennamen | Honden-plein.nl https://www.honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Populaire hondennamen | Royal Canin https://www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Top 100 Populaire HondenNamen - Hondenpage https://www.hondenpage.com › hondennamen › top Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Hondennamen op alfabetische volgorde - Dierennamen https://www.dierennamen.net › hondennamen-op-alfab Vertaal deze pagina Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Zoekopdrachten gerelateerd aan Honden namen aparte hondennamen geweldige hondennamen hondennamen met betekenis limburgse honden namen brabantse hondennamen tekenfilm hondennamen indische hondennamen friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6533 BR Nijmegen - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 7.860.000 resultaten (0 46 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Basisrecept voor brood incl. stap voor stap beschrijving - Uit Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Kerf het deeg in met een scherp mes en bak het brood in ongeveer 35 broodsmakelijk.nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenverse- Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook rutgerbakt.nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Dagelijks brood (uit eigen oven) - Bakken Zoals Oma Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is ah.nl › allerhande › recepten › brood-bakken Brood bakken - Allerhande - Albert Heijn Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept smulweb.nl › Recepten › Nederlandse keuken Basis Brood recept | Smulweb.nl Brood bakken recept van smulweb.nl 2 uur 30 min 14 nov. 2016 - Het basis brood recept is één van de simpelste brood recepten die er is. Als je het basis brood eenmaal kan bakken dan wordt het bakken waterlily-unlimited.nl › brood Zelf brood bakken - waterlily-unlimited Brood bakken recept van waterlily-unlimited.nl Zelf brood bakken is gemakkelijk snel goedkoop en lekker. Als je het nog nooit gedaan hebt lijkt het heel ingewikkeld en overal vind je weer andere recepten. culy.nl › Recepten › Wat eten we vandaag? › Diner Het makkelijkste brood dat je ooit zal maken - Culy.nl Brood bakken recept van culy.nl 30 jan. 2014 - De gedachte dat brood maken alleen weggelegd is voor bakkers en uren aan kneedwerk Het deeg in dit recept wordt vrij nat wat ervoor zorgt dat de buitenkant super Tijdens het bakken zal dit nog gelijkmatiger worden. Advertenties Advertentie· waldkorn.com/recepten/belegtips ‎ Waldkorn® Recepten | De lekkerste ideeën met brood‎ ‎ Zin in een lekker broodje? De smakelijkste belegtips vind je bij Waldkorn®. Ontbijt brunch lunch en on the go. Brunchideeën. Voedzaam. Genieten. Origineel. Volop variatie. Lekker eenvoudig. Typen: Waldkorn® Donker Volkoren Waldkorn® Trispelti Waldkorn® Haver. Onze productenOver Waldkorn®Onze graansoorten Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken simpel brood bakken zelf brood bakken zonder broodbakmachine brood bakken zonder gist brood bakken temperatuur zelf brood bakken goedkoper wit brood bakken Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland5741 Beek en Donk - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 1.170.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Misschien wil je wel eens weten wat nou het grootste en het kleinste bot in je lichaam is. Het langste bot is in ieder geval het dijbeen. De lengte ervan is meer dan een kwart van je totale lichaamslengte. Het kleinste botje in je lichaam is de stijgbeugel die zit binnen in je oor.24 jul. 2008 Werkstuk Biologie Menselijk lichaam | Scholieren.com https://www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam Feedback Over samenvattingen Webresultaten Skelet (mens) - Wikipedia https://nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes https://www.alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten botten worden geboren! Hieronder lees je nog meer feitjes over menselijke botten. Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Wat is het grootste bot in het menselijk lichaam? | Toluna https://nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Manfragas. 27 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Wat Is Het Grootste Bot In Het Lichaam? https://nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup Botten - Menselijk lichaam | Gezondheidsplein.nl https://www.gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je 50 feiten over je lichaam – Wel.nl https://www.welingelichtekringen.nl › samenleving › 50-feiten-over-je-lich 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De kleinste is de De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Extreem hoge luchtdruk in Nederland: Wat merk je daar van? 3 De botten - Alles weten over osteoporose https://www.alleswetenoverosteoporose.nl › het-ziektebeeld-osteoporose Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Het skelet van de mens - Natuurinformatie www.natuurinformatie.nl › Homepage › Skeletten De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van Wat is het grootste bot van het lichaam? https://www.w-tjes.nl › searchresult Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen armen sterkste bot menselijk lichaam noem de botten van de onderste ledematen benen botten menselijk lichaam oefenen hoeveel spieren heeft een mens skelet onderdelen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6533 BR Nijmegen - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 437.000 resultaten (0 47 seconden) Zoekresultaten Samenvatting van internet Misschien wil je wel eens weten wat nou het grootste en het kleinste bot in je lichaam is. Het langste bot is in ieder geval het dijbeen. De lengte ervan is meer dan een kwart van je totale lichaamslengte. Het kleinste botje in je lichaam is de stijgbeugel die zit binnen in je oor.24 jul. 2008 scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam-3 Werkstuk Biologie Menselijk lichaam | Scholieren.com Feedback Over samenvattingen Webresultaten nl.wikipedia.org › wiki › Skelet_(mens) Skelet (mens) - Wikipedia Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes botten worden geboren! Hieronder lees je nog meer feitjes over menselijke botten. Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep Grootste bot in het menselijk lichaam: dijbeen. dijbeen. nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-licha Wat is het grootste bot in het menselijk lichaam? | Toluna Manfragas. 27 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Wat Is Het Grootste Bot In Het Lichaam? Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Botten - Menselijk lichaam | Gezondheidsplein.nl Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je welingelichtekringen.nl › samenleving › 50-feiten-over-je-licha 50 feiten over je lichaam – Wel.nl 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. alleswetenoverosteoporose.nl › het-ziektebeeld-osteoporose › de De botten - Alles weten over osteoporose Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot natuurinformatie.nl › Homepage › Skeletten Het skelet van de mens - Natuurinformatie De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van w-tjes.nl › searchresult Wat is het grootste bot van het lichaam? Ook leuk: Wat is het kleinste bot van het lichaam? Het femur (dijbeen) is het langste grootste en sterkste bot van het menselijk lichaam. Dit bot is gemiddeld 43 Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen armen sterkste bot menselijk lichaam noem de botten van de onderste ledematen benen botten menselijk lichaam oefenen hoeveel spieren heeft een mens skelet onderdelen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland5741 Beek en Donk - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 2.620.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl https://www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Feedback Over samenvattingen Webresultaten WisFaq - digitale vraagbaak voor het wiskundeonderwijs https://www.wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Zoeetje - Een mens bestaat voor 60% uit water komkommer https://www.facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia https://nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen 100 kilo komkommers bestaan uit 99% water. er verdampt 1 https://www.startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water https://www.startpagina.nl › eten-drinken › vraag › smaakt-komkommer-h 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Een komkommer bevat meer dan water: hierom is hij zo gezond https://www.maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Komkommer | Voedingscentrum https://www.voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten https://www.voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens https://www.vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer komkommer geel geworden witte komkommer hoeveel komkommer mag je eten komkommer eten voor het slapen hoeveel weegt een komkommer komkommer gezondheidsvoordelen komkommer voedingswaarde Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6533 BR Nijmegen - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 2.280.000 resultaten (0 43 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. dokterdokter.nl › Gezond leven › Eten &amp; drinken Waarom zijn komkommers gezond? | Dokterdokter.nl Feedback Over samenvattingen Webresultaten facebook.com › DietistZoeetje › posts › een-mens-bestaat-voor- Zoeetje - Een mens bestaat voor 60% uit water komkommer Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. wisfaq.nl › WisFaq - digitale vraagbaak voor het wiskundeonderwijs 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers nl.wikipedia.org › wiki › Komkommer Komkommer - Wikipedia De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-kom 100 kilo komkommers bestaan uit 99% water. er verdampt 1 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. startpagina.nl › eten-drinken › vraag › smaakt-komkommer-het Waarom smaakt komkommer niet hetzelfde als water 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de voedingscentrum.nl › encyclopedie › komkommer Komkommer | Voedingscentrum Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een maxvandaag.nl › sessies › themas › eten-drinken › een-komko Een komkommer bevat meer dan water: hierom is hij zo gezond 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de voedingsacademy.nl › komkommer 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten vitens.com › › Blogoverzicht › Hoeveel water zit er per d Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer komkommer geel geworden witte komkommer hoeveel komkommer mag je eten komkommer eten voor het slapen hoeveel weegt een komkommer komkommer gezondheidsvoordelen komkommer voedingswaarde Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland5741 Beek en Donk - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 25.500.000 resultaten (0 67 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS https://www.cbs.nl › nl-nl › visualisaties › bevolkingsteller 20 dec. 2019 - Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS https://www.cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 https://longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Bevolking van Nederland - Wikipedia https://nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in Héél véél informatie over Nederland (update 2019 https://allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Nederland heeft nu meer dan 17 4 miljoen inwoners - NRC https://www.nrc.nl › nieuws › 2020/01/02 › nederland-heeft-nu-meer-dan-1 3 jan. 2020 - Nederland heeft er vorig jaar naar schatting 132.000 inwoners bij gekregen en daarmee wonen er nu meer dan 17 4 miljoen mensen in Nederlanders buitenlanders allochtonen. De cijfers www.republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. Nederland groeit in 2018 met 100.000 mensen naar 17 3 https://www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlandse bevolking groeit met 46.000 mensen in eerste https://www.nu.nl › binnenland › nederlandse-bevolking-groeit-met-4600 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Bevolking Nederland groeit sneller dan verwacht: 18 4 miljoen https://www.volkskrant.nl › nieuws-achtergrond › bevolking-nederland-groe 17 dec. 2019 - In de komende tien jaar komen er een miljoen mensen bij in Nederland. In 2030 loopt het inwonertal op tot 18 4 miljoen. De bevolkingsgroei Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 1600 leeftijdsopbouw nederland inwoners nederland 1923 aantal inwoners nederland 2018 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Nederland6533 BR Nijmegen - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 28.500.000 resultaten (0 71 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten cbs.nl › nl-nl › visualisaties › bevolkingsteller Bevolkingsteller - CBS 20 dec. 2019 - Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in-n Hoeveel mensen wonen er in Nederland? - CBS De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de nl.wikipedia.org › wiki › Bevolking_van_Nederland Bevolking van Nederland - Wikipedia Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in allecijfers.nl › nederland Héél véél informatie over Nederland (update 2019 Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of rtlnieuws.nl › bevolkingsgroei-2019-migratie-grote-steden Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door 3 jan. 2020 - inwoners waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente nrc.nl › nieuws › 2020/01/02 › nederland-heeft-nu-meer-dan-174 Nederland heeft nu meer dan 17 4 miljoen inwoners - NRC 3 jan. 2020 - Nederland heeft er vorig jaar naar schatting 132.000 inwoners bij gekregen en daarmee wonen er nu meer dan 17 4 miljoen mensen in republiekallochtonie.nl › blog › feiten › nederlanders-buitenlan Nederlanders buitenlanders allochtonen. De cijfers 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 Nederland groeit in 2018 met 100.000 mensen naar 17 3 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. nu.nl › binnenland › nederlandse-bevolking-groeit-met-46000- Nederlandse bevolking groeit met 46.000 mensen in eerste 31 jul. 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 1600 inwoners nederland 1923 leeftijdsopbouw nederland aantal inwoners nederland 2018 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Nederland5741 Beek en Donk - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -1619,27 +1619,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Brood bakken recept About 2.330.000 results (0 53 seconds) Search Results Web results uitpaulineskeuken.nl › 2018/11 › basisrecept-voor- Basisrecept voor brood incl. stap voor stap beschrijving - Uit Translate this page Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Wil je een speltbrood bakken? Recept stap voor stap brood maken. www.libelle-lekker.be › artikelen › zelf-brood-bak Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook www.bakkenzoalsoma.nl › 2012/10 › dagelijks-bro Dagelijks brood (uit eigen oven) - Bakken Zoals Oma Translate this page Brood bakken recept from www.bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is rutgerbakt.nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎23 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? broodsmakelijk.nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Hoe bak ik zelf mijn eerste brood (en goedkoop)? Translate this page Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Recipes Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 hrs Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Web results www.ah.nl › allerhande › recepten › brood-bakken Brood bakken - Allerhande - Albert Heijn Translate this page Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept recepten.tips › Recepten Zelf Ambachtelijk brood bakken in een uur | Recepten.tips Translate this page Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk www.laurasbakery.nl › tips-voor-brood-bakken Tips voor brood bakken - Laura's Bakery Translate this page Jun 25 2017 - Met deze tips voor brood bakken zul je zien dat het niet moeilijk is om zelf een Wat je nodig hebt staat altijd wel in het recept aangegeven. Searches related to Brood bakken recept wit brood recept brood bakken broodbakmachine volkoren brood recept bruin brood bakken zelf brood bakken zonder broodbakmachine brood bakken zonder gist broodjes bakken brood bakken temperatuur Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsUtrecht - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Brood bakken recept About 2.450.000 results (0 44 seconds) A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Search Results Web results uitpaulineskeuken.nl › 2018/11 › basisrecept-voor- Basisrecept voor brood incl. stap voor stap beschrijving - Uit Translate this page Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Wil je een speltbrood bakken? Recept stap voor stap brood maken. libelle-lekker.be › artikelen › zelf-brood-bak Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook bakkenzoalsoma.nl › 2012/10 › dagelijks-bro Dagelijks brood (uit eigen oven) - Bakken Zoals Oma Translate this page Brood bakken recept from bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is rutgerbakt.nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎23 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? broodsmakelijk.nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Hoe bak ik zelf mijn eerste brood (en goedkoop)? Translate this page Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Recipes Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 hrs Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Web results ah.nl › allerhande › recepten › brood-bakken Brood bakken - Allerhande - Albert Heijn Translate this page Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept recepten.tips › Recepten Zelf Ambachtelijk brood bakken in een uur | Recepten.tips Translate this page Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk waterlily-unlimited.nl › brood Zelf brood bakken - waterlily-unlimited Translate this page Zelf brood bakken is gemakkelijk snel goedkoop en lekker. Als je het nog nooit gedaan hebt lijkt het heel ingewikkeld en overal vind je weer andere recepten. Searches related to Brood bakken recept wit brood recept brood bakken broodbakmachine volkoren brood recept bruin brood bakken zelf brood bakken zonder broodbakmachine brood bakken zonder gist broodjes bakken brood bakken temperatuur Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4814 Breda - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Honden namen About 2.730.000 results (0 48 seconds) Search Results Featured snippet from the web Image result for Honden namen Hondennamen top 10 Max. Beau of Bo. Sam of Sammy. Bobby. Lady. Spike. Daisy. Rocky. More items www.mcvoordieren.nl › hondennamen Hondennamen - Medisch Centrum voor Dieren Feedback About Featured Snippets Web results www.dierendokters.com › honden › namen 1001 hondennamen voor je pup reu of teef - DierenDokters Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS www.herdershonden.nl › hondennamen Top 100 Leuke grappige en stoere hondennamen van 2020! Translate this page Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen www.petplan.nl › aanschaf-van-je-huisdier › popul Populaire hondennamen | Petplan.nl Translate this page In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennaam van dit jaar is. www.hondennamen.nu Hondennamen - Vind de perfecte naam voor je hond. Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Korte hondennamen · ‎Namen voor een teefje www.honden-plein.nl › hondennamen Leuke grappige en stoere hondennamen | Honden-plein.nl Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je www.hondennamen.nl Lijst met alle hondennamen? Vind de perfecte hondennaam Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. www.royalcanin.nl › hondennamen Populaire hondennamen | Royal Canin Translate this page Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak www.dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Dierennamen Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of www.hondenpage.com › hondennamen › top Top 100 Populaire HondenNamen - Hondenpage Translate this page Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Searches related to Honden namen honden namen teefje originele hondennamen populaire hondennamen speciale hondennamen teefje spaanse hondennamen hondennamen reu met betekenis friese hondennamen hondennamen met s Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsUtrecht - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Honden namen About 2.800.000 results (0 43 seconds) A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Search Results Samenvatting van internet Image result for Honden namen Top 10 populaire hondennamen Luna. Max. Diesel. Bo. Sam. Senna. Daisy. Kyra. More items royalcanin.nl › populaire-kattennamen-populaire-hondennamen Populaire hondennamen | Royal Canin Feedback Over samenvattingen Web results dierendokters.com › honden › namen 1001 hondennamen voor je pup reu of teef - DierenDokters Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS herdershonden.nl › hondennamen Top 100 Leuke grappige en stoere hondennamen van 2020! Translate this page Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen petplan.nl › aanschaf-van-je-huisdier › popul Populaire hondennamen | Petplan.nl Translate this page 5 days ago - In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennamen.nu Hondennamen - Vind de perfecte naam voor je hond. Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Korte hondennamen · ‎Namen voor een teefje · ‎Mijn namen honden-plein.nl › hondennamen Leuke grappige en stoere hondennamen | Honden-plein.nl Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je hondennamen.nl Lijst met alle hondennamen? Vind de perfecte hondennaam Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. mcvoordieren.nl › hondennamen Hondennamen - Medisch Centrum voor Dieren Translate this page De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Dierennamen Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of hondenpage.com › hondennamen › top Top 100 Populaire HondenNamen - Hondenpage Translate this page Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Searches related to Honden namen honden namen teefje originele hondennamen populaire hondennamen speciale hondennamen teefje spaanse hondennamen hondennamen reu met betekenis friese hondennamen hondennamen met s Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4814 TV Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Wat is het grootste bot in het menselijk lichaam? About 804.000 results (0 50 seconds) Search Results Featured snippet from the web Misschien wil je wel eens weten wat nou het grootste en het kleinste bot in je lichaam is. Het langste bot is in ieder geval het dijbeen. De lengte ervan is meer dan een kwart van je totale lichaamslengte. Het kleinste botje in je lichaam is de stijgbeugel die zit binnen in je oor.Jul 24 2008 www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam-3 Werkstuk Biologie Menselijk lichaam | Scholieren.com Feedback About Featured Snippets Web results nl.wikipedia.org › wiki › Skelet_(mens) Skelet (mens) - Wikipedia Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. nl.toluna.com › polls › Wat-is-het-grootste-bot-in-h Wat is het grootste bot in het menselijk lichaam? | Toluna Translate this page Manfragas. 27 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 www.alletop10lijstjes.nl › top-10-feitjes-over-mens Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes Translate this page botten worden geboren! Hieronder lees je nog meer feitjes over menselijke botten. Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep Grootste bot in het menselijk lichaam: dijbeen. dijbeen. nl.ripleybelieves.com › what-is-largest-bone-in-bod Wat Is Het Grootste Bot In Het Lichaam? Translate this page Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup www.gezondheidsplein.nl › botten › item45095 Botten - Menselijk lichaam | Gezondheidsplein.nl Translate this page Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je www.alleswetenoverosteoporose.nl › de-botten De botten - Alles weten over osteoporose Translate this page Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Images for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? View all More images for Wat is het grootste bot in het menselijk lichaam? Report images Web results www.natuurinformatie.nl › Homepage › Skeletten Het skelet van de mens - Natuurinformatie Translate this page De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van www.welingelichtekringen.nl › samenleving › 50-f 50 feiten over je lichaam – Wel.nl Translate this page Feb 27 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen aantal botten baby skelet kopen skelet hoofd skelet mens hoeveel spieren heeft een mens hoeveel botten heeft een kat Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsUtrecht - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Wat is het grootste bot in het menselijk lichaam? About 413.000 results (1 07 seconds) A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Search Results Samenvatting van internet Misschien wil je wel eens weten wat nou het grootste en het kleinste bot in je lichaam is. Het langste bot is in ieder geval het dijbeen. De lengte ervan is meer dan een kwart van je totale lichaamslengte. Het kleinste botje in je lichaam is de stijgbeugel die zit binnen in je oor.Jul 24 2008 scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam-3 Werkstuk Biologie Menselijk lichaam | Scholieren.com Feedback Over samenvattingen Web results nl.wikipedia.org › wiki › Skelet_(mens) Skelet (mens) - Wikipedia Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. alletop10lijstjes.nl › top-10-feitjes-over-mens Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes Translate this page Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. nl.ripleybelieves.com › what-is-largest-bone-in-bod Wat Is Het Grootste Bot In Het Lichaam? Translate this page Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup nl.toluna.com › polls › Wat-is-het-grootste-bot-in-h Wat is het grootste bot in het menselijk lichaam? | Toluna Translate this page Manfragas. 27 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 gezondheidsplein.nl › botten › item45095 Botten - Menselijk lichaam | Gezondheidsplein.nl Translate this page Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je alleswetenoverosteoporose.nl › de-botten De botten - Alles weten over osteoporose Translate this page Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Images for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? View all More images for Wat is het grootste bot in het menselijk lichaam? Report images Web results natuurinformatie.nl › Homepage › Skeletten Het skelet van de mens - Natuurinformatie Translate this page De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van welingelichtekringen.nl › samenleving › 50-f 50 feiten over je lichaam – Wel.nl Translate this page Feb 27 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen aantal botten baby skelet kopen skelet hoofd skelet mens hoeveel spieren heeft een mens hoeveel botten heeft een kat Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4814 TV Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel van een komkommer is water? About 4.600.000 results (0 61 seconds) Search Results Featured snippet from the web Image result for Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Waarom zijn komkommers gezond? | Dokterdokter.nl Feedback About Featured Snippets Web results nl.wikipedia.org › wiki › Komkommer Komkommer - Wikipedia Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen www.wisfaq.nl › WisFaq - digitale vraagbaak voor het wiskundeonderwijs Translate this page Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers www.facebook.com › DietistZoeetje › posts › een- Zoeetje - Een mens bestaat voor 60% uit water komkommer Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. www.startpagina.nl › wetenschap › wiskunde › vraag 100 kilo komkommers bestaan uit 99% water. er verdampt 1 Translate this page 7 answers Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. www.voedingscentrum.nl › encyclopedie › komko Komkommer | Voedingscentrum Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een www.maxvandaag.nl › themas › eten-drinken › een Een komkommer bevat meer dan water: hierom is hij zo gezond Translate this page Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de www.vitens.com › › Hoeveel water zit er per d Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens Translate this page May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? www.voedingsacademy.nl › komkommer 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten Translate this page Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten www.mooiemoestuin.nl › vruchtgewassen › komko Komkommer - Diana's mooie moestuin Translate this page Komkommers zijn dorstige planten en door regelmatig een flinke hoeveelheid water te geven zorg je ervoor dat de planten niet te ver van de plant water Searches related to Hoeveel van een komkommer is water? komkommer groente of fruit augurk Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsUtrecht - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel van een komkommer is water? About 860.000 results (0 47 seconds) A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Search Results Samenvatting van internet Image result for Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. dokterdokter.nl › Gezond leven › Eten &amp; drinken Waarom zijn komkommers gezond? | Dokterdokter.nl Feedback Over samenvattingen Web results nl.wikipedia.org › wiki › Komkommer Komkommer - Wikipedia Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen wisfaq.nl › WisFaq - digitale vraagbaak voor het wiskundeonderwijs Translate this page Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers facebook.com › DietistZoeetje › posts › een- Zoeetje - Een mens bestaat voor 60% uit water komkommer Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. startpagina.nl › wetenschap › wiskunde › vraag 100 kilo komkommers bestaan uit 99% water. er verdampt 1 Translate this page 7 answers Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. maxvandaag.nl › themas › eten-drinken › een Een komkommer bevat meer dan water: hierom is hij zo gezond Translate this page Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de voedingscentrum.nl › encyclopedie › komko Komkommer | Voedingscentrum Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een vitens.com › › Hoeveel water zit er per d Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens Translate this page May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? voedingsacademy.nl › komkommer 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten Translate this page Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten rdzl.nl › komkommers_raadsel › uitleg raadsels en puzzels - rdzl | Komkommers raadsel uitleg Translate this page Door de hitte bestaan de komkommers aan het eind van de dag nog maar voor 98% uit water. Hoeveel kg komkommers heeft de groenteboer over aan het eind Searches related to Hoeveel van een komkommer is water? komkommer groente of fruit augurk komkommer engels Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4814 TV Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel mensen wonen er in Nederland? About 7.810.000 results (0 62 seconds) Tip: Search for English results only. You can specify your search language in Preferences Search Results Netherlands/Population 17.18 million (2018) •Netherlands 17.18 million ‌ •Belgium 11.4 million ‌ •Sweden 10.12 million ‌ Explore more Feedback Sources include: Eurostat Web results www.cbs.nl › en-gb › visualisaties › population-counter Population counter - CBS Dec 20 2019 - How many people are living in the Netherlands? The counter shows how many registered inhabitants there are in the Netherlands at this moment according to the most recent estimate of Statistics Netherlands. The population of the Netherlands is growing by an average of 370 people per www.cbs.nl › nl-nl › faq › specifiek › hoeveel-men Hoeveel mensen wonen er in Nederland? - CBS Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners longreads.cbs.nl › trends19 › cijfers › bevolking Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 Translate this page In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de nl.wikipedia.org › wiki › Bevolking_van_Nederland Bevolking van Nederland - Wikipedia Translate this page Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Bevolkingssamenstelling allecijfers.nl › nederland Héél véél informatie over Nederland (update 2019 Translate this page Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of www.rtlnieuws.nl › nieuws › nederland › artikel Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door Translate this page Jan 3 2020 - inwoners waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente www.republiekallochtonie.nl › blog › feiten › nede Nederlanders buitenlanders allochtonen. De cijfers Translate this page Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. www.nrc.nl › nieuws › 2020/01/02 › nederland-hee Nederland heeft nu meer dan 17 4 miljoen inwoners - NRC- Translate this page Jan 3 2020 - Nederland heeft er vorig jaar naar schatting 132.000 inwoners bij gekregen en daarmee wonen er nu meer dan 17 4 miljoen mensen in www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 Nederland groeit in 2018 met 100.000 mensen naar 17 3 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. www.nu.nl › binnenland › nederlandse-bevolking- Nederlandse bevolking groeit met 46.000 mensen in eerste Translate this page Jul 31 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. EU member states View 15+ more Germany Germany France France Belgium Belgium Sweden Sweden United Kingdom United Kingdom Italy Italy Luxembourg Luxembourg Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 hoeveel mensen in nederland 2019 populatie nederland 2019 aantal inwoners nederland 2018 hoeveel mensen wonen er in china Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlandsmap expand icon Netherlands (Nederland) Country in Europe DescriptionThe Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Related statistics Gross domestic product 826.2 billion USD ‎(2017) Population growth rate 0.6% annual change ‎(2017) Population elsewhere Germany 82.79 million ‎(2018) Amsterdam 821 752 ‎(2015) France 66.89 million ‎(2018) Feedback Sources include: World Bank Eurostat United Nations INSEE Footer links NetherlandsUtrecht - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel mensen wonen er in Nederland? About 8.180.000 results (0 63 seconds) Tip: Search for English results only. You can specify your search language in Preferences A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Search Results Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Web results cbs.nl › en-gb › visualisaties › population-counter Population counter - CBS Dec 20 2019 - How many people are living in the Netherlands? The counter shows how many registered inhabitants there are in the Netherlands at this moment according to the most recent estimate of Statistics Netherlands. The population of the Netherlands is growing by an average of 370 people per cbs.nl › nl-nl › faq › specifiek › hoeveel-men Hoeveel mensen wonen er in Nederland? - CBS Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners longreads.cbs.nl › trends19 › cijfers › bevolking Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 Translate this page In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de nl.wikipedia.org › wiki › Bevolking_van_Nederland Bevolking van Nederland - Wikipedia Translate this page Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Bevolkingssamenstelling allecijfers.nl › nederland Héél véél informatie over Nederland (update 2019 Translate this page Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of rtlnieuws.nl › nieuws › nederland › artikel Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door Translate this page Jan 3 2020 - inwoners waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente republiekallochtonie.nl › blog › feiten › nede Nederlanders buitenlanders allochtonen. De cijfers Translate this page Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. nrc.nl › nieuws › 2020/01/02 › nederland-hee Nederland heeft nu meer dan 17 4 miljoen inwoners - NRC- Translate this page Jan 3 2020 - Nederland heeft er vorig jaar naar schatting 132.000 inwoners bij gekregen en daarmee wonen er nu meer dan 17 4 miljoen mensen in hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 Nederland groeit in 2018 met 100.000 mensen naar 17 3 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. nu.nl › binnenland › nederlandse-bevolking- Nederlandse bevolking groeit met 46.000 mensen in eerste Translate this page Jul 31 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 hoeveel mensen in nederland 2019 populatie nederland 2019 aantal inwoners nederland 2018 hoeveel mensen wonen er in china Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Kennisresultaat Image result for Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland (Netherlands) Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Related statistics Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Bevolking elsewhere Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Footer links Netherlands4814 TV Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
     </row>
@@ -1649,27 +1649,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Brood bakken recept About 2.450.000 results (0 44 seconds) A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Search Results Web results uitpaulineskeuken.nl › 2018/11 › basisrecept-voor- Basisrecept voor brood incl. stap voor stap beschrijving - Uit Translate this page Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Wil je een speltbrood bakken? Recept stap voor stap brood maken. www.libelle-lekker.be › artikelen › zelf-brood-bak Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook www.bakkenzoalsoma.nl › 2012/10 › dagelijks-bro Dagelijks brood (uit eigen oven) - Bakken Zoals Oma Translate this page Brood bakken recept from www.bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is rutgerbakt.nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎23 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? broodsmakelijk.nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Hoe bak ik zelf mijn eerste brood (en goedkoop)? Translate this page Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Recipes Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 hrs Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Web results www.ah.nl › allerhande › recepten › brood-bakken Brood bakken - Allerhande - Albert Heijn Translate this page Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept recepten.tips › Recepten Zelf Ambachtelijk brood bakken in een uur | Recepten.tips Translate this page Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk www.waterlily-unlimited.nl › brood Zelf brood bakken - waterlily-unlimited Translate this page Zelf brood bakken is gemakkelijk snel goedkoop en lekker. Als je het nog nooit gedaan hebt lijkt het heel ingewikkeld en overal vind je weer andere recepten. Searches related to Brood bakken recept wit brood recept brood bakken broodbakmachine volkoren brood recept bruin brood bakken zelf brood bakken zonder broodbakmachine brood bakken zonder gist broodjes bakken brood bakken temperatuur Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4814 Breda - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Brood bakken recept About 2.450.000 results (0 57 seconds) A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Search Results Web results uitpaulineskeuken.nl › 2018/11 › basisrecept-voor- Basisrecept voor brood incl. stap voor stap beschrijving - Uit Translate this page Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Wil je een speltbrood bakken? Recept stap voor stap brood maken. libelle-lekker.be › artikelen › zelf-brood-bak Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook bakkenzoalsoma.nl › 2012/10 › dagelijks-bro Dagelijks brood (uit eigen oven) - Bakken Zoals Oma Translate this page Brood bakken recept from bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is rutgerbakt.nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎23 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? broodsmakelijk.nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Hoe bak ik zelf mijn eerste brood (en goedkoop)? Translate this page Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Recipes Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 hrs Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Web results ah.nl › allerhande › recepten › brood-bakken Brood bakken - Allerhande - Albert Heijn Translate this page Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept recepten.tips › Recepten Zelf Ambachtelijk brood bakken in een uur | Recepten.tips Translate this page Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk waterlily-unlimited.nl › brood Zelf brood bakken - waterlily-unlimited Translate this page Zelf brood bakken is gemakkelijk snel goedkoop en lekker. Als je het nog nooit gedaan hebt lijkt het heel ingewikkeld en overal vind je weer andere recepten. Searches related to Brood bakken recept wit brood recept brood bakken broodbakmachine volkoren brood recept bruin brood bakken zelf brood bakken zonder broodbakmachine brood bakken zonder gist broodjes bakken brood bakken temperatuur Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4814 TE Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Honden namen About 2.800.000 results (0 43 seconds) A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Search Results Samenvatting van internet Image result for Honden namen Top 10 populaire hondennamen Luna. Max. Diesel. Bo. Sam. Senna. Daisy. Kyra. More items www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Populaire hondennamen | Royal Canin Feedback Over samenvattingen Web results www.dierendokters.com › honden › namen 1001 hondennamen voor je pup reu of teef - DierenDokters Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS www.herdershonden.nl › hondennamen Top 100 Leuke grappige en stoere hondennamen van 2020! Translate this page Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen www.petplan.nl › aanschaf-van-je-huisdier › popul Populaire hondennamen | Petplan.nl Translate this page 5 days ago - In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste www.hondennamen.nu Hondennamen - Vind de perfecte naam voor je hond. Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Korte hondennamen · ‎Namen voor een teefje · ‎Mijn namen www.honden-plein.nl › hondennamen Leuke grappige en stoere hondennamen | Honden-plein.nl Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je www.hondennamen.nl Lijst met alle hondennamen? Vind de perfecte hondennaam Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. www.mcvoordieren.nl › hondennamen Hondennamen - Medisch Centrum voor Dieren Translate this page De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere www.dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Dierennamen Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of www.hondenpage.com › hondennamen › top Top 100 Populaire HondenNamen - Hondenpage Translate this page Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Searches related to Honden namen honden namen teefje originele hondennamen populaire hondennamen speciale hondennamen teefje spaanse hondennamen hondennamen reu met betekenis friese hondennamen hondennamen met s Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4814 TV Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Honden namen About 2.950.000 results (0 43 seconds) A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Search Results Samenvatting van internet Image result for Honden namen Top 10 populaire hondennamen Luna. Max. Diesel. Bo. Sam. Senna. Daisy. Kyra. More items royalcanin.nl › populaire-kattennamen-populaire-hondennamen Populaire hondennamen | Royal Canin Feedback Over samenvattingen Web results dierendokters.com › honden › namen 1001 hondennamen voor je pup reu of teef - DierenDokters Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS herdershonden.nl › hondennamen Top 100 Leuke grappige en stoere hondennamen van 2020! Translate this page Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen petplan.nl › aanschaf-van-je-huisdier › popul Populaire hondennamen | Petplan.nl Translate this page 5 days ago - In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennamen.nu Hondennamen - Vind de perfecte naam voor je hond. Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Korte hondennamen · ‎Namen voor een teefje · ‎Mijn namen honden-plein.nl › hondennamen Leuke grappige en stoere hondennamen | Honden-plein.nl Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je hondennamen.nl Lijst met alle hondennamen? Vind de perfecte hondennaam Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. mcvoordieren.nl › hondennamen Hondennamen - Medisch Centrum voor Dieren Translate this page De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Dierennamen Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of hondenpage.com › hondennamen › top Top 100 Populaire HondenNamen - Hondenpage Translate this page Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Searches related to Honden namen honden namen teefje originele hondennamen populaire hondennamen speciale hondennamen teefje spaanse hondennamen hondennamen reu met betekenis friese hondennamen hondennamen met s Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4814 TE Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Wat is het grootste bot in het menselijk lichaam? About 413.000 results (1 07 seconds) A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Search Results Samenvatting van internet Misschien wil je wel eens weten wat nou het grootste en het kleinste bot in je lichaam is. Het langste bot is in ieder geval het dijbeen. De lengte ervan is meer dan een kwart van je totale lichaamslengte. Het kleinste botje in je lichaam is de stijgbeugel die zit binnen in je oor.Jul 24 2008 www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam-3 Werkstuk Biologie Menselijk lichaam | Scholieren.com Feedback Over samenvattingen Web results nl.wikipedia.org › wiki › Skelet_(mens) Skelet (mens) - Wikipedia Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. www.alletop10lijstjes.nl › top-10-feitjes-over-mens Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes Translate this page Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. nl.ripleybelieves.com › what-is-largest-bone-in-bod Wat Is Het Grootste Bot In Het Lichaam? Translate this page Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup nl.toluna.com › polls › Wat-is-het-grootste-bot-in-h Wat is het grootste bot in het menselijk lichaam? | Toluna Translate this page Manfragas. 27 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 www.gezondheidsplein.nl › botten › item45095 Botten - Menselijk lichaam | Gezondheidsplein.nl Translate this page Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je www.alleswetenoverosteoporose.nl › de-botten De botten - Alles weten over osteoporose Translate this page Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Images for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? View all More images for Wat is het grootste bot in het menselijk lichaam? Report images Web results www.natuurinformatie.nl › Homepage › Skeletten Het skelet van de mens - Natuurinformatie Translate this page De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van www.welingelichtekringen.nl › samenleving › 50-f 50 feiten over je lichaam – Wel.nl Translate this page Feb 27 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen aantal botten baby skelet kopen skelet hoofd skelet mens hoeveel spieren heeft een mens hoeveel botten heeft een kat Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4814 TV Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Wat is het grootste bot in het menselijk lichaam? About 413.000 results (0 97 seconds) A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Search Results Samenvatting van internet Misschien wil je wel eens weten wat nou het grootste en het kleinste bot in je lichaam is. Het langste bot is in ieder geval het dijbeen. De lengte ervan is meer dan een kwart van je totale lichaamslengte. Het kleinste botje in je lichaam is de stijgbeugel die zit binnen in je oor.Jul 24 2008 scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam-3 Werkstuk Biologie Menselijk lichaam | Scholieren.com Feedback Over samenvattingen Web results nl.wikipedia.org › wiki › Skelet_(mens) Skelet (mens) - Wikipedia Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. alletop10lijstjes.nl › top-10-feitjes-over-mens Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes Translate this page Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. nl.ripleybelieves.com › what-is-largest-bone-in-bod Wat Is Het Grootste Bot In Het Lichaam? Translate this page Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup nl.toluna.com › polls › Wat-is-het-grootste-bot-in-h Wat is het grootste bot in het menselijk lichaam? | Toluna Translate this page Manfragas. 27 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 gezondheidsplein.nl › botten › item45095 Botten - Menselijk lichaam | Gezondheidsplein.nl Translate this page Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je alleswetenoverosteoporose.nl › de-botten De botten - Alles weten over osteoporose Translate this page Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Images for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? View all More images for Wat is het grootste bot in het menselijk lichaam? Report images Web results natuurinformatie.nl › Homepage › Skeletten Het skelet van de mens - Natuurinformatie Translate this page De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van welingelichtekringen.nl › samenleving › 50-f 50 feiten over je lichaam – Wel.nl Translate this page Feb 27 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen aantal botten baby skelet kopen skelet hoofd skelet mens hoeveel spieren heeft een mens hoeveel botten heeft een kat Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4814 TE Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel van een komkommer is water? About 860.000 results (0 47 seconds) A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Search Results Samenvatting van internet Image result for Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Waarom zijn komkommers gezond? | Dokterdokter.nl Feedback Over samenvattingen Web results nl.wikipedia.org › wiki › Komkommer Komkommer - Wikipedia Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen www.wisfaq.nl › WisFaq - digitale vraagbaak voor het wiskundeonderwijs Translate this page Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers www.facebook.com › DietistZoeetje › posts › een- Zoeetje - Een mens bestaat voor 60% uit water komkommer Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. www.startpagina.nl › wetenschap › wiskunde › vraag 100 kilo komkommers bestaan uit 99% water. er verdampt 1 Translate this page 7 answers Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. www.maxvandaag.nl › themas › eten-drinken › een Een komkommer bevat meer dan water: hierom is hij zo gezond Translate this page Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de www.voedingscentrum.nl › encyclopedie › komko Komkommer | Voedingscentrum Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een www.vitens.com › › Hoeveel water zit er per d Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens Translate this page May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? www.voedingsacademy.nl › komkommer 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten Translate this page Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten www.rdzl.nl › komkommers_raadsel › uitleg raadsels en puzzels - rdzl | Komkommers raadsel uitleg Translate this page Door de hitte bestaan de komkommers aan het eind van de dag nog maar voor 98% uit water. Hoeveel kg komkommers heeft de groenteboer over aan het eind Searches related to Hoeveel van een komkommer is water? komkommer groente of fruit augurk komkommer engels Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4814 TV Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel van een komkommer is water? About 3.000.000 results (0 59 seconds) A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Search Results Samenvatting van internet Image result for Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. dokterdokter.nl › Gezond leven › Eten &amp; drinken Waarom zijn komkommers gezond? | Dokterdokter.nl Feedback Over samenvattingen Web results nl.wikipedia.org › wiki › Komkommer Komkommer - Wikipedia Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen wisfaq.nl › WisFaq - digitale vraagbaak voor het wiskundeonderwijs Translate this page Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers facebook.com › DietistZoeetje › posts › een- Zoeetje - Een mens bestaat voor 60% uit water komkommer Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. startpagina.nl › wetenschap › wiskunde › vraag 100 kilo komkommers bestaan uit 99% water. er verdampt 1 Translate this page 7 answers Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. maxvandaag.nl › themas › eten-drinken › een Een komkommer bevat meer dan water: hierom is hij zo gezond Translate this page Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de voedingscentrum.nl › encyclopedie › komko Komkommer | Voedingscentrum Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een vitens.com › › Hoeveel water zit er per d Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens Translate this page May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? voedingsacademy.nl › komkommer 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten Translate this page Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten rdzl.nl › komkommers_raadsel › uitleg raadsels en puzzels - rdzl | Komkommers raadsel uitleg Translate this page Door de hitte bestaan de komkommers aan het eind van de dag nog maar voor 98% uit water. Hoeveel kg komkommers heeft de groenteboer over aan het eind Searches related to Hoeveel van een komkommer is water? komkommer groente of fruit augurk komkommer engels Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4814 TE Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel mensen wonen er in Nederland? About 8.180.000 results (0 63 seconds) Tip: Search for English results only. You can specify your search language in Preferences A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Search Results Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Web results www.cbs.nl › en-gb › visualisaties › population-counter Population counter - CBS Dec 20 2019 - How many people are living in the Netherlands? The counter shows how many registered inhabitants there are in the Netherlands at this moment according to the most recent estimate of Statistics Netherlands. The population of the Netherlands is growing by an average of 370 people per www.cbs.nl › nl-nl › faq › specifiek › hoeveel-men Hoeveel mensen wonen er in Nederland? - CBS Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners longreads.cbs.nl › trends19 › cijfers › bevolking Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 Translate this page In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de nl.wikipedia.org › wiki › Bevolking_van_Nederland Bevolking van Nederland - Wikipedia Translate this page Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Bevolkingssamenstelling allecijfers.nl › nederland Héél véél informatie over Nederland (update 2019 Translate this page Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of www.rtlnieuws.nl › nieuws › nederland › artikel Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door Translate this page Jan 3 2020 - inwoners waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente www.republiekallochtonie.nl › blog › feiten › nede Nederlanders buitenlanders allochtonen. De cijfers Translate this page Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. www.nrc.nl › nieuws › 2020/01/02 › nederland-hee Nederland heeft nu meer dan 17 4 miljoen inwoners - NRC- Translate this page Jan 3 2020 - Nederland heeft er vorig jaar naar schatting 132.000 inwoners bij gekregen en daarmee wonen er nu meer dan 17 4 miljoen mensen in www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 Nederland groeit in 2018 met 100.000 mensen naar 17 3 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. www.nu.nl › binnenland › nederlandse-bevolking- Nederlandse bevolking groeit met 46.000 mensen in eerste Translate this page Jul 31 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 hoeveel mensen in nederland 2019 populatie nederland 2019 aantal inwoners nederland 2018 hoeveel mensen wonen er in china Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Kennisresultaat Image result for Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland (Netherlands) Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Related statistics Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Bevolking elsewhere Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Footer links Netherlands4814 TV Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel mensen wonen er in Nederland? About 8.180.000 results (0 72 seconds) Tip: Search for English results only. You can specify your search language in Preferences A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Search Results Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Web results cbs.nl › en-gb › visualisaties › population-counter Population counter - CBS Dec 20 2019 - How many people are living in the Netherlands? The counter shows how many registered inhabitants there are in the Netherlands at this moment according to the most recent estimate of Statistics Netherlands. The population of the Netherlands is growing by an average of 370 people per cbs.nl › nl-nl › faq › specifiek › hoeveel-men Hoeveel mensen wonen er in Nederland? - CBS Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners longreads.cbs.nl › trends19 › cijfers › bevolking Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 Translate this page In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de nl.wikipedia.org › wiki › Bevolking_van_Nederland Bevolking van Nederland - Wikipedia Translate this page Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Bevolkingssamenstelling allecijfers.nl › nederland Héél véél informatie over Nederland (update 2019 Translate this page Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of rtlnieuws.nl › nieuws › nederland › artikel Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door Translate this page Jan 3 2020 - inwoners waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente republiekallochtonie.nl › blog › feiten › nede Nederlanders buitenlanders allochtonen. De cijfers Translate this page Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. nrc.nl › nieuws › 2020/01/02 › nederland-hee Nederland heeft nu meer dan 17 4 miljoen inwoners - NRC- Translate this page Jan 3 2020 - Nederland heeft er vorig jaar naar schatting 132.000 inwoners bij gekregen en daarmee wonen er nu meer dan 17 4 miljoen mensen in hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 Nederland groeit in 2018 met 100.000 mensen naar 17 3 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. nu.nl › binnenland › nederlandse-bevolking- Nederlandse bevolking groeit met 46.000 mensen in eerste Translate this page Jul 31 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 hoeveel mensen in nederland 2019 populatie nederland 2019 aantal inwoners nederland 2018 hoeveel mensen wonen er in china Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Kennisresultaat Image result for Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland (Netherlands) Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Related statistics Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Bevolking elsewhere Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Footer links Netherlands4814 TE Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
     </row>
@@ -1679,27 +1679,657 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Brood bakken recept About 2.450.000 results (0 57 seconds) A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Search Results Web results uitpaulineskeuken.nl › 2018/11 › basisrecept-voor- Basisrecept voor brood incl. stap voor stap beschrijving - Uit Translate this page Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Wil je een speltbrood bakken? Recept stap voor stap brood maken. www.libelle-lekker.be › artikelen › zelf-brood-bak Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook www.bakkenzoalsoma.nl › 2012/10 › dagelijks-bro Dagelijks brood (uit eigen oven) - Bakken Zoals Oma Translate this page Brood bakken recept from www.bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is rutgerbakt.nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎23 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? broodsmakelijk.nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Hoe bak ik zelf mijn eerste brood (en goedkoop)? Translate this page Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Recipes Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 hrs Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Web results www.ah.nl › allerhande › recepten › brood-bakken Brood bakken - Allerhande - Albert Heijn Translate this page Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept recepten.tips › Recepten Zelf Ambachtelijk brood bakken in een uur | Recepten.tips Translate this page Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk www.waterlily-unlimited.nl › brood Zelf brood bakken - waterlily-unlimited Translate this page Zelf brood bakken is gemakkelijk snel goedkoop en lekker. Als je het nog nooit gedaan hebt lijkt het heel ingewikkeld en overal vind je weer andere recepten. Searches related to Brood bakken recept wit brood recept brood bakken broodbakmachine volkoren brood recept bruin brood bakken zelf brood bakken zonder broodbakmachine brood bakken zonder gist broodjes bakken brood bakken temperatuur Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4814 TE Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 8.790.000 resultaten (0 49 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Basisrecept voor brood incl. stap voor stap beschrijving - Uit Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Kerf het deeg in met een scherp mes en bak het brood in ongeveer 35 rutgerbakt.nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenverse- Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook broodsmakelijk.nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Dagelijks brood (uit eigen oven) - Bakken Zoals Oma Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is laurasbakery.nl › tips-voor-brood-bakken Tips voor brood bakken - Laura's Bakery Brood bakken recept van laurasbakery.nl Nieuwe broodrecepten staan dus steeds vaker op Laura's Bakery en daarmee komen er ook steeds meer vragen over brood bakken binnen. Door al die vragen ah.nl › allerhande › recepten › brood-bakken Brood bakken - Allerhande - Albert Heijn Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept culy.nl › Recepten › Wat eten we vandaag? › Diner Het makkelijkste brood dat je ooit zal maken - Culy.nl Brood bakken recept van culy.nl 30 jan. 2014 - De gedachte dat brood maken alleen weggelegd is voor bakkers en uren aan kneedwerk onlangs dit supermakkelijke recept waarbij geen kneden aan te pas komt. Tijdens het bakken zal dit nog gelijkmatiger worden. waterlily-unlimited.nl › brood Zelf brood bakken - waterlily-unlimited Brood bakken recept van waterlily-unlimited.nl Zelf brood bakken is gemakkelijk snel goedkoop en lekker. Als je het nog nooit gedaan hebt lijkt het heel ingewikkeld en overal vind je weer andere recepten. Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken simpel brood bakken zelf brood bakken zonder broodbakmachine brood bakken zonder gist brood bakken temperatuur zelf brood bakken goedkoper wit brood bakken Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland7071 Ulft - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Honden namen About 2.950.000 results (0 43 seconds) A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Search Results Samenvatting van internet Image result for Honden namen Top 10 populaire hondennamen Luna. Max. Diesel. Bo. Sam. Senna. Daisy. Kyra. More items www.royalcanin.nl › populaire-kattennamen-populaire-hondennamen Populaire hondennamen | Royal Canin Feedback Over samenvattingen Web results www.dierendokters.com › honden › namen 1001 hondennamen voor je pup reu of teef - DierenDokters Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS www.herdershonden.nl › hondennamen Top 100 Leuke grappige en stoere hondennamen van 2020! Translate this page Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen www.petplan.nl › aanschaf-van-je-huisdier › popul Populaire hondennamen | Petplan.nl Translate this page 5 days ago - In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste www.hondennamen.nu Hondennamen - Vind de perfecte naam voor je hond. Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Korte hondennamen · ‎Namen voor een teefje · ‎Mijn namen www.honden-plein.nl › hondennamen Leuke grappige en stoere hondennamen | Honden-plein.nl Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je www.hondennamen.nl Lijst met alle hondennamen? Vind de perfecte hondennaam Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. www.mcvoordieren.nl › hondennamen Hondennamen - Medisch Centrum voor Dieren Translate this page De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere www.dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Dierennamen Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of www.hondenpage.com › hondennamen › top Top 100 Populaire HondenNamen - Hondenpage Translate this page Hier vind je de top 100 populaire hondennamen op de HondenPage. Dit wordt gemeten aan de hand van het aantal baasjes die hun hond hebben toegevoegd Searches related to Honden namen honden namen teefje originele hondennamen populaire hondennamen speciale hondennamen teefje spaanse hondennamen hondennamen reu met betekenis friese hondennamen hondennamen met s Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4814 TE Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 2.920.000 resultaten (0 41 seconden) Zoekresultaten Webresultaten dierendokters.com › honden › namen 1001 hondennamen voor je pup reu of teef - DierenDokters Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Namen met de tag ENGELS · ‎Grappig petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populaire Populaire hondennamen | Petplan.nl 22 jan. 2020 - In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste herdershonden.nl › hondennamen Top 100 Leuke grappige en stoere hondennamen van 2020! Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen hondennamen.nu Hondennamen - Vind de perfecte naam voor je hond. Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Korte hondennamen · ‎Namen voor een teefje · ‎Namen voor een reu · ‎Mijn namen hondennamen.nl Lijst met alle hondennamen? Vind de perfecte hondennaam Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. hondennamen.nl › leuke-hondennamen Lijst met alle leuke hondennamen voor reu &amp; teef Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. honden-plein.nl › hondennamen Leuke grappige en stoere hondennamen | Honden-plein.nl Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je mcvoordieren.nl › hondennamen Hondennamen - Medisch Centrum voor Dieren De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere royalcanin.nl › populaire-kattennamen-populaire-hondennamen Populaire hondennamen | Royal Canin Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak dierennamen.net › hondennamen-op-alfabeti Hondennamen op alfabetische volgorde - Dierennamen Vertaal deze pagina Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen hondennamen met betekenis limburgse honden namen tekenfilm hondennamen brabantse hondennamen indische hondennamen friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland7071 Ulft - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Wat is het grootste bot in het menselijk lichaam? About 413.000 results (0 97 seconds) A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Search Results Samenvatting van internet Misschien wil je wel eens weten wat nou het grootste en het kleinste bot in je lichaam is. Het langste bot is in ieder geval het dijbeen. De lengte ervan is meer dan een kwart van je totale lichaamslengte. Het kleinste botje in je lichaam is de stijgbeugel die zit binnen in je oor.Jul 24 2008 www.scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam-3 Werkstuk Biologie Menselijk lichaam | Scholieren.com Feedback Over samenvattingen Web results nl.wikipedia.org › wiki › Skelet_(mens) Skelet (mens) - Wikipedia Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. www.alletop10lijstjes.nl › top-10-feitjes-over-mens Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes Translate this page Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. nl.ripleybelieves.com › what-is-largest-bone-in-bod Wat Is Het Grootste Bot In Het Lichaam? Translate this page Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup nl.toluna.com › polls › Wat-is-het-grootste-bot-in-h Wat is het grootste bot in het menselijk lichaam? | Toluna Translate this page Manfragas. 27 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 www.gezondheidsplein.nl › botten › item45095 Botten - Menselijk lichaam | Gezondheidsplein.nl Translate this page Als je geboren wordt heb je meer dan 270 botten maar doordat een aantal van deze botten aan elkaar groeien blijven er dus 206 over. Het grootste bot dat je www.alleswetenoverosteoporose.nl › de-botten De botten - Alles weten over osteoporose Translate this page Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Images for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? View all More images for Wat is het grootste bot in het menselijk lichaam? Report images Web results www.natuurinformatie.nl › Homepage › Skeletten Het skelet van de mens - Natuurinformatie Translate this page De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van www.welingelichtekringen.nl › samenleving › 50-f 50 feiten over je lichaam – Wel.nl Translate this page Feb 27 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet met namen aantal botten baby skelet kopen skelet hoofd skelet mens hoeveel spieren heeft een mens hoeveel botten heeft een kat Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4814 TE Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 409.000 resultaten (0 56 seconden) Zoekresultaten Samenvatting van internet Misschien wil je wel eens weten wat nou het grootste en het kleinste bot in je lichaam is. Het langste bot is in ieder geval het dijbeen. De lengte ervan is meer dan een kwart van je totale lichaamslengte. Het kleinste botje in je lichaam is de stijgbeugel die zit binnen in je oor.24 jul. 2008 scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam-3 Werkstuk Biologie Menselijk lichaam | Scholieren.com Feedback Over samenvattingen Webresultaten nl.wikipedia.org › wiki › Skelet_(mens) Skelet (mens) - Wikipedia Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-licha Wat is het grootste bot in het menselijk lichaam? | Toluna Manfragas. 27 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Wat Is Het Grootste Bot In Het Lichaam? Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Botten - Menselijk lichaam | Gezondheidsplein.nl Een bot bestaat uit verschillende lagen. De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en bestaat uit een soort welingelichtekringen.nl › samenleving › 50-feiten-over-je-licha 50 feiten over je lichaam – Wel.nl 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. alleswetenoverosteoporose.nl › het-ziektebeeld-osteoporose › de De botten - Alles weten over osteoporose Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot natuurinformatie.nl › Homepage › Skeletten Het skelet van de mens - Natuurinformatie De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van maken.wikiwijs.nl › 2_1_Botten 2.1 botten - Lesmateriaal - Wikiwijs 30 okt. 2018 - Wat is het langste bot van jouw lichaam. Wat is Daarom is het belangrijk dat je de menselijke botten leert als basis voordat je die van andere Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen armen sterkste bot menselijk lichaam noem de botten van de onderste ledematen benen botten menselijk lichaam oefenen hoeveel spieren heeft een mens skelet onderdelen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland7071 Ulft - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel van een komkommer is water? About 3.000.000 results (0 59 seconds) A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Search Results Samenvatting van internet Image result for Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. www.dokterdokter.nl › Gezond leven › Eten &amp; drinken Waarom zijn komkommers gezond? | Dokterdokter.nl Feedback Over samenvattingen Web results nl.wikipedia.org › wiki › Komkommer Komkommer - Wikipedia Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen www.wisfaq.nl › WisFaq - digitale vraagbaak voor het wiskundeonderwijs Translate this page Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers www.facebook.com › DietistZoeetje › posts › een- Zoeetje - Een mens bestaat voor 60% uit water komkommer Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. www.startpagina.nl › wetenschap › wiskunde › vraag 100 kilo komkommers bestaan uit 99% water. er verdampt 1 Translate this page 7 answers Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. www.maxvandaag.nl › themas › eten-drinken › een Een komkommer bevat meer dan water: hierom is hij zo gezond Translate this page Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de www.voedingscentrum.nl › encyclopedie › komko Komkommer | Voedingscentrum Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een www.vitens.com › › Hoeveel water zit er per d Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens Translate this page May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? www.voedingsacademy.nl › komkommer 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten Translate this page Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten www.rdzl.nl › komkommers_raadsel › uitleg raadsels en puzzels - rdzl | Komkommers raadsel uitleg Translate this page Door de hitte bestaan de komkommers aan het eind van de dag nog maar voor 98% uit water. Hoeveel kg komkommers heeft de groenteboer over aan het eind Searches related to Hoeveel van een komkommer is water? komkommer groente of fruit augurk komkommer engels Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4814 TE Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 2.570.000 resultaten (0 39 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. dokterdokter.nl › Gezond leven › Eten &amp; drinken Waarom zijn komkommers gezond? | Dokterdokter.nl Feedback Over samenvattingen Webresultaten wisfaq.nl › WisFaq - digitale vraagbaak voor het wiskundeonderwijs 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers facebook.com › DietistZoeetje › posts › een-mens-bestaat-voor- Zoeetje - Een mens bestaat voor 60% uit water komkommer Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. nl.wikipedia.org › wiki › Komkommer Komkommer - Wikipedia De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-kom 100 kilo komkommers bestaan uit 99% water. er verdampt 1 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. startpagina.nl › eten-drinken › vraag › smaakt-komkommer-het Waarom smaakt komkommer niet hetzelfde als water 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de maxvandaag.nl › sessies › themas › eten-drinken › een-komko Een komkommer bevat meer dan water: hierom is hij zo gezond 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de voedingscentrum.nl › encyclopedie › komkommer Komkommer | Voedingscentrum Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een vitens.com › › Blogoverzicht › Hoeveel water zit er per d Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? voedingsacademy.nl › komkommer 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer komkommer geel geworden witte komkommer hoeveel komkommer mag je eten komkommer eten voor het slapen hoeveel weegt een komkommer komkommer gezondheidsvoordelen komkommer voedingswaarde Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland7071 Ulft - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel mensen wonen er in Nederland? About 8.180.000 results (0 72 seconds) Tip: Search for English results only. You can specify your search language in Preferences A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Search Results Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Web results www.cbs.nl › en-gb › visualisaties › population-counter Population counter - CBS Dec 20 2019 - How many people are living in the Netherlands? The counter shows how many registered inhabitants there are in the Netherlands at this moment according to the most recent estimate of Statistics Netherlands. The population of the Netherlands is growing by an average of 370 people per www.cbs.nl › nl-nl › faq › specifiek › hoeveel-men Hoeveel mensen wonen er in Nederland? - CBS Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners longreads.cbs.nl › trends19 › cijfers › bevolking Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 Translate this page In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de nl.wikipedia.org › wiki › Bevolking_van_Nederland Bevolking van Nederland - Wikipedia Translate this page Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Bevolkingssamenstelling allecijfers.nl › nederland Héél véél informatie over Nederland (update 2019 Translate this page Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of www.rtlnieuws.nl › nieuws › nederland › artikel Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door Translate this page Jan 3 2020 - inwoners waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente www.republiekallochtonie.nl › blog › feiten › nede Nederlanders buitenlanders allochtonen. De cijfers Translate this page Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. www.nrc.nl › nieuws › 2020/01/02 › nederland-hee Nederland heeft nu meer dan 17 4 miljoen inwoners - NRC- Translate this page Jan 3 2020 - Nederland heeft er vorig jaar naar schatting 132.000 inwoners bij gekregen en daarmee wonen er nu meer dan 17 4 miljoen mensen in www.hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 Nederland groeit in 2018 met 100.000 mensen naar 17 3 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. www.nu.nl › binnenland › nederlandse-bevolking- Nederlandse bevolking groeit met 46.000 mensen in eerste Translate this page Jul 31 2019 - De bevolking van Nederland is in de eerste helft van dit jaar met 46.000 82.000 kinderen geboren terwijl er 77.000 mensen zijn gestorven. Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 hoeveel mensen in nederland 2019 populatie nederland 2019 aantal inwoners nederland 2018 hoeveel mensen wonen er in china Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Kennisresultaat Image result for Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland (Netherlands) Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Related statistics Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Bevolking elsewhere Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Footer links Netherlands4814 TE Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 33.000.000 resultaten (0 71 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten cbs.nl › nl-nl › visualisaties › bevolkingsteller Bevolkingsteller - CBS 20 dec. 2019 - Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in-n Hoeveel mensen wonen er in Nederland? - CBS De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de nl.wikipedia.org › wiki › Bevolking_van_Nederland Bevolking van Nederland - Wikipedia Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Bevolkingssamenstelling allecijfers.nl › nederland Héél véél informatie over Nederland (update 2019 Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of rtlnieuws.nl › bevolkingsgroei-2019-migratie-grote-steden Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door 3 jan. 2020 - inwoners waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente nrc.nl › nieuws › 2020/01/02 › nederland-heeft-nu-meer-dan-174 Nederland heeft nu meer dan 17 4 miljoen inwoners - NRC 3 jan. 2020 - Nederland heeft er vorig jaar naar schatting 132.000 inwoners bij gekregen en daarmee wonen er nu meer dan 17 4 miljoen mensen in nrc.nl › nieuws › 2019/12/16 › bijna-40-procent-inwoners-nederla Bijna 40 procent inwoners Nederland heeft in 2060 - NRC 17 dec. 2019 - In het jaar 2060 heeft 39 procent van de inwoners van Nederland een migratieachtergrond. Er wonen dan bijna 20 miljoen mensen in republiekallochtonie.nl › blog › feiten › nederlanders-buitenlan Nederlanders buitenlanders allochtonen. De cijfers 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 Nederland groeit in 2018 met 100.000 mensen naar 17 3 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 1600 leeftijdsopbouw nederland aantal inwoners nederland 2018 inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Frankrijk 66 89 miljoen ‎(2018) Feedback Bronnen omvatten: Wereldbank Eurostat Verenigde Naties Institut national de la statistique et des études économiques Links in voettekst Nederland7071 Ulft - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Accessibility Links Skip to main contentAccessibility help Accessibility feedback Google Search Modes AllOfbyldingsWinkeljeFideo'sMear YnstellingsTools Likernôch 3.210.000 resultaten (0 34 sekonden) Resultaten fan it sykjen Web results uitpaulineskeuken.nl › 2018/11 › basisrecept-voor- Basisrecept voor brood incl. stap voor stap beschrijving - Uit Dizze side oersette 8 Nov 2018 - Brood maken klinkt altijd moeilijk maar met dit basisrecept voor brood kan ik vandaag met jullie een eenvoudig recept voor het maken van brood. een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. libelle-lekker.be › artikelen › zelf-brood-bakk Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker Dizze side oersette Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook laurasbakery.nl › tips-voor-brood-bakken Tips voor brood bakken - Laura's Bakery Dizze side oersette 27 Jan 2020 - Met deze tips voor brood bakken zul je zien dat het niet moeilijk is om zelf een Wat je nodig hebt staat altijd wel in het recept aangegeven. bakkenzoalsoma.nl › 2012/10 › dagelijks-bro Dagelijks brood (uit eigen oven) - Bakken Zoals Oma Dizze side oersette 15 Des 2015 - Het kost wat geduld maar brood uit je eigen oven is dat meer dan Het komt uit de jaren '80 en geeft een simpel recept voor het bakken van broodsmakelijk.nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk Dizze side oersette Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Hoe bak ik zelf mijn eerste brood (en goedkoop)? Dizze side oersette Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders rutgerbakt.nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt Dizze side oersette 13 Des 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Als je wilt kun je De langere rijstijd zorgt voor een vollere smaak aan het brood. Wat zou jij met dit basis brooddeeg willen bakken? rutgerbakt.nl › Brood recepten Bak thuis het lekkerste brood! - Rutger Bakt Dizze side oersette 2 Jun 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat ah.nl › allerhande › recepten › brood-bakken Brood bakken - Allerhande - Albert Heijn Dizze side oersette Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept recepten.tips › Recepten Zelf Ambachtelijk brood bakken in een uur | Recepten.tips Dizze side oersette 6 Feb 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk Page Navigation 1 2 3 4 5 6 7 8 9 10 Folgjende Footer Links Nederlân7545 Ynskedee - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Accessibility Links Skip to main contentAccessibility help Accessibility feedback Google Search Modes AllOfbyldingsWinkeljeFideo'sBoekenMear YnstellingsTools Likernôch 7.060.000 resultaten (0 34 sekonden) Resultaten fan it sykjen Web results dierendokters.com › honden › namen 1001 hondennamen voor je pup reu of teef - DierenDokters Dizze side oersette Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Namen met de tag ENGELS herdershonden.nl › hondennamen Top 100 Leuke grappige en stoere hondennamen van 2020! Dizze side oersette Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen honden-plein.nl › hondennamen Leuke grappige en stoere hondennamen | Honden-plein.nl Dizze side oersette Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je ‎Hondennamen teefje · ‎Hondennamen reu · ‎Hondennamen top 10 hondennamen.nu Hondennamen - Vind de perfecte naam voor je hond. Dizze side oersette Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw hondennamen.nl Lijst met alle hondennamen? Vind de perfecte hondennaam Dizze side oersette Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. hondennamen.nl › leuke-hondennamen Lijst met alle leuke hondennamen voor reu &amp; teef Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. petplan.nl › dierenadvies › aanschaf-van-je-huisdier Populaire hondennamen | Petplan.nl Dizze side oersette 22 Jan 2020 - In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste royalcanin.nl › hondennamen Populaire hondennamen | Royal Canin Dizze side oersette Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak mcvoordieren.nl › hondennamen Hondennamen - Medisch Centrum voor Dieren Dizze side oersette De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere dierennamen.net › hondennamen-op-alfabetis Hondennamen op alfabetische volgorde - Dierennamen Dizze side oersette Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Sykopdracht ferlykber oan Honden namen honden namen reu hondennamen teefje Page Navigation 1 2 3 4 5 6 7 8 9 10 Folgjende Footer Links Nederlân7545 Ynskedee - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Accessibility Links Skip to main contentAccessibility help Accessibility feedback Google Search Modes AllOfbyldingsWinkeljeFideo'sMear YnstellingsTools Likernôch 170.000 resultaten (0 44 sekonden) Resultaten fan it sykjen Web results nl.wikipedia.org › wiki › Skelet_(mens) Skelet (mens) - Wikipedia Dizze side oersette Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. scholieren.com › verslag › werkstuk-biologie- Werkstuk Biologie Menselijk lichaam | Scholieren.com Dizze side oersette Menselijk lichaam. Beoordeling 5 2. Foto van een scholier. Werkstuk door een scholier Klas onbekend | 952 woorden 24 juli 2008 38 keer beoordeeld. Cijfer nl.toluna.com › polls › Wat-is-het-grootste-bot-in-h Wat is het grootste bot in het menselijk lichaam? | Toluna Dizze side oersette Manfragas. 27 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 alletop10lijstjes.nl › top-10-feitjes-over-mense Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes Dizze side oersette Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Het dijbeen staat bekend als het grootste – én sterkste – bot van ons lichaam. De sterkte van het dijbeen schooltv.nl › video › geraamte-been-wist-je-dat-het Geraamte been - Wist je dat het zwaarste bot uit je - Schooltv Dizze side oersette Het dijbeen is het zwaarste bot. Bij een man ouder dan 18 jaar weegt dat bot ongeveer een kilo! In je voet Wist je dat het zwaarste bot uit je lichaam in je been zit? Wat gebeurt er in je lichaam als je verliefd bent? Het menselijk lichaam. nl.ripleybelieves.com › what-is-largest-bone-in-bod Wat Is Het Grootste Bot In Het Lichaam? | 2020 Dizze side oersette Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de knie naar de heup encyclo.nl › begrip › skelet Skelet - 22 definities - Encyclo Dizze side oersette Het menselijk skelet bevat 206 verschillende botten waarvan de kleinste drie in het middenoor zitten Het grootste bot in het menselijk lichaam is het dijbeen. welingelichtekringen.nl › samenleving › 50-f 50 feiten over je lichaam – Wel.nl Dizze side oersette 27 Feb 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. gezondheidsplein.nl › botten › item45095 Botten - Menselijk lichaam | Gezondheidsplein.nl Dizze side oersette Een bot bestaat uit verschillende lagen. De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en bestaat uit een soort natuurinformatie.nl › Homepage › Skeletten Het skelet van de mens - Natuurinformatie Dizze side oersette De onderkaak is het enige beweegbare bot van de schedel. Hij kan omlaag naar Het scheenbeen is na het dijbeen het langste en zwaarste bot in je lichaam. Page Navigation 1 2 3 4 5 6 7 8 9 10 Folgjende Footer Links Nederlân7545 Ynskedee - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Accessibility Links Skip to main contentAccessibility help Accessibility feedback Google Search Modes AllOfbyldingsWinkeljeFideo'sMear YnstellingsTools Likernôch 316.000 resultaten (0 35 sekonden) Resultaten fan it sykjen Web results facebook.com › DietistZoeetje › posts › een- Zoeetje - Een mens bestaat voor 60% uit water komkommer Dizze side oersette Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. nl.wikipedia.org › wiki › Komkommer Komkommer - Wikipedia Dizze side oersette De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen wisfaq.nl › WisFaq - digitale vraagbaak voor het wiskundeonderwijs Dizze side oersette 18 Okt 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers dokterdokter.nl › › Eten &amp; drinken Waarom zijn komkommers gezond? | Dokterdokter.nl Dizze side oersette Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Wat maakt komkommers gezond? startpagina.nl › wetenschap › wiskunde › vraag 100 kilo komkommers bestaan uit 99% water. er verdampt 1 Dizze side oersette 7 answers 1 Jul 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. startpagina.nl › eten-drinken › vraag › smaakt Waarom smaakt komkommer niet hetzelfde als water Dizze side oersette 5 answers 4 Mrt 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de maxvandaag.nl › themas › eten-drinken › een Een komkommer bevat meer dan water: hierom is hij zo gezond Dizze side oersette 27 Aug 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de voedingscentrum.nl › encyclopedie › komko Komkommer | Voedingscentrum Dizze side oersette Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een voedingsacademy.nl › komkommer 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten Dizze side oersette 27 Jun 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten vitens.com › › Hoeveel water zit er per d Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens Dizze side oersette 4 Mai 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Page Navigation 1 2 3 4 5 6 7 8 9 10 Folgjende Footer Links</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Accessibility Links Skip to main contentAccessibility help Accessibility feedback Google Search Modes AllOfbyldingsWinkeljeFideo'sMear YnstellingsTools Likernôch 10.100.000 resultaten (0 42 sekonden) Resultaten fan it sykjen Web results cbs.nl › nl-nl › visualisaties › bevolkingsteller Bevolkingsteller - CBS Dizze side oersette 20 Des 2019 - Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten cbs.nl › nl-nl › faq › specifiek › hoeveel-men Hoeveel mensen wonen er in Nederland? - CBS Dizze side oersette De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners nl.wikipedia.org › wiki › Bevolking_van_Nederland Bevolking van Nederland - Wikipedia Dizze side oersette Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Bevolkingssamenstelling allecijfers.nl › nederland Héél véél informatie over Nederland (update 2019 Dizze side oersette Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of rtlnieuws.nl › nieuws › nederland › artikel › b Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door Dizze side oersette 3 Jan 2020 - inwoners waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente nrc.nl › nieuws › 2020/01/02 › nederland-hee Nederland heeft nu meer dan 17 4 miljoen inwoners - NRC - Dizze side oersette 3 Jan 2020 - Nederland heeft er vorig jaar naar schatting 132.000 inwoners bij gekregen en daarmee wonen er nu meer dan 17 4 miljoen mensen in nrc.nl › nieuws › 2019/12/16 › bijna-40-proc Bijna 40 procent inwoners Nederland heeft in 2060 - NRC - Dizze side oersette 17 Des 2019 - In het jaar 2060 heeft 39 procent van de inwoners van Nederland een migratieachtergrond. Er wonen dan bijna 20 miljoen mensen in republiekallochtonie.nl › blog › feiten › nede Nederlanders buitenlanders allochtonen. De cijfers Dizze side oersette 15 Okt 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 Nederland groeit in 2018 met 100.000 mensen naar 17 3 2 Jan 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. parool.nl › nederland › bevolking-nederland- Bevolking Nederland groeit sterker dan vorig jaar | Het Parool Dizze side oersette 30 Okt 2019 - Nederland telde volgens het statistiekbureau op 1 oktober 17.384.238 inwoners. gingen bijna drie keer zoveel immigranten in Amsterdam wonen. Voor elke 100 mensen die er naar de stad verhuisden vertrokken er 93. Sykopdracht ferlykber oan Hoeveel mensen wonen er in Nederland? inwoners china oppervlakte nederland inwoners duitsland Page Navigation 1 2 3 4 5 6 7 8 9 10 Folgjende Footer Links</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 7.730.000 resultaten (0 54 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Basisrecept voor brood incl. stap voor stap beschrijving - Uit Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Kerf het deeg in met een scherp mes en bak het brood in ongeveer 35 broodsmakelijk.nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Dagelijks brood (uit eigen oven) - Bakken Zoals Oma Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenverse- Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook rutgerbakt.nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? rutgerbakt.nl › Brood recepten Bak thuis het lekkerste brood! - Rutger Bakt Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎7 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat ah.nl › allerhande › recepten › brood-bakken Brood bakken - Allerhande - Albert Heijn Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept laurasbakery.nl › tips-voor-brood-bakken Tips voor brood bakken - Laura's Bakery Brood bakken recept van laurasbakery.nl 27 jan. 2020 - Nieuwe broodrecepten staan dus steeds vaker op Laura's Bakery en daarmee komen er ook steeds meer vragen over brood bakken binnen. waterlily-unlimited.nl › brood Zelf brood bakken - waterlily-unlimited Brood bakken recept van waterlily-unlimited.nl Zelf brood bakken is gemakkelijk snel goedkoop en lekker. Als je het nog nooit gedaan hebt lijkt het heel ingewikkeld en overal vind je weer andere recepten. Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken simpel brood bakken zelf brood bakken zonder broodbakmachine brood bakken zonder gist brood bakken temperatuur zelf brood bakken goedkoper wit brood bakken Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArnhem - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 2.520.000 resultaten (0 40 seconden) Zoekresultaten Webresultaten dierendokters.com › honden › namen 1001 hondennamen voor je pup reu of teef - DierenDokters Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Engelse hondennamen vind je herdershonden.nl › hondennamen Top 100 Leuke grappige en stoere hondennamen van 2020! Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen hondennamen.nl Lijst met alle hondennamen? Vind de perfecte hondennaam Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populaire-hond Populaire hondennamen | Petplan.nl 22 jan. 2020 - In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste honden-plein.nl › hondennamen Leuke grappige en stoere hondennamen | Honden-plein.nl Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je hondennamen.nu Hondennamen - Vind de perfecte naam voor je hond. Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw hondennamen.nu › suggesties › korte-honden-namen Korte hondennamen - Hondennamen Er is een goede reden dat de meest populaire hondennamen (en infeite alle De grote voordelen van een korte naam zijn onder nadere: simpel voor de hond mcvoordieren.nl › hondennamen Hondennamen - Medisch Centrum voor Dieren De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere royalcanin.nl › populaire-kattennamen-populaire-hondennamen Populaire hondennamen | Royal Canin Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak dierennamen.net › hondennamen-op-alfabeti Hondennamen op alfabetische volgorde - Dierennamen Vertaal deze pagina Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Zoekopdrachten gerelateerd aan Honden namen geweldige hondennamen aparte hondennamen hondennamen met betekenis brabantse hondennamen limburgse honden namen populaire hondennamen tekenfilm hondennamen indische hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArnhem - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 149.000 resultaten (0 59 seconden) Zoekresultaten Samenvatting van internet Misschien wil je wel eens weten wat nou het grootste en het kleinste bot in je lichaam is. Het langste bot is in ieder geval het dijbeen. De lengte ervan is meer dan een kwart van je totale lichaamslengte. Het kleinste botje in je lichaam is de stijgbeugel die zit binnen in je oor.24 jul. 2008 scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam-3 Werkstuk Biologie Menselijk lichaam | Scholieren.com Feedback Over samenvattingen Webresultaten nl.wikipedia.org › wiki › Skelet_(mens) Skelet (mens) - Wikipedia Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes botten worden geboren! Hieronder lees je nog meer feitjes over menselijke botten. Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep Grootste bot in het menselijk lichaam: dijbeen. dijbeen. nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-licha Wat is het grootste bot in het menselijk lichaam? | Toluna Manfragas. 28 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Wat Is Het Grootste Bot In Het Lichaam? | 2020 1 feb. 2020 - Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Botten - Menselijk lichaam | Gezondheidsplein.nl Een bot bestaat uit verschillende lagen. De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en bestaat uit een soort natuurinformatie.nl › Homepage › Skeletten Het skelet van de mens - Natuurinformatie De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van maken.wikiwijs.nl › 2_1_Botten 2.1 botten - Lesmateriaal - Wikiwijs 30 okt. 2018 - Wat is het langste bot van jouw lichaam. Wat is Daarom is het belangrijk dat je de menselijke botten leert als basis voordat je die van andere kosmisch.nl › normal Botten - Kosmisch.nl Dat skelet geeft je lichaam stevigheid en beschermt kwetsbare organen. Het grootste bot in je lichaam is je dijbeen het kleinste botje zit in je oor en is 3mm. alleswetenoverosteoporose.nl › het-ziektebeeld-osteoporose › de De botten - Alles weten over osteoporose Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het grootste botje in je lichaam hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen armen sterkste bot menselijk lichaam botten menselijk lichaam oefenen noem de botten van de onderste ledematen benen hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArnhem - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 216.000 resultaten (0 50 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. dokterdokter.nl › Gezond leven › Eten &amp; drinken Waarom zijn komkommers gezond? | Dokterdokter.nl Feedback Over samenvattingen Webresultaten wisfaq.nl › WisFaq - digitale vraagbaak voor het wiskundeonderwijs 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers facebook.com › DietistZoeetje › posts › een-mens-bestaat-voor- Zoeetje - Een mens bestaat voor 60% uit water komkommer Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-kom 100 kilo komkommers bestaan uit 99% water. er verdampt 1 7 antwoorden 1 jul. 2010 - graag uitleg hoe je dit berekend. een rekendocent beweerd dat je 50 kilo overhoud nl.wikipedia.org › wiki › Komkommer Komkommer - Wikipedia De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen voedingscentrum.nl › encyclopedie › komkommer Komkommer | Voedingscentrum Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een maxvandaag.nl › sessies › themas › eten-drinken › een-komko Een komkommer bevat meer dan water: hierom is hij zo gezond 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de rdzl.nl › komkommers_raadsel › uitleg raadsels en puzzels - rdzl | Komkommers raadsel uitleg Door de hitte bestaan de komkommers aan het eind van de dag nog maar voor 98% uit water. Hoeveel kg komkommers heeft de groenteboer over aan het eind voedingsacademy.nl › komkommer 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten vitens.com › › Blogoverzicht › Hoeveel water zit er per d Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer komkommer geel geworden witte komkommer hoeveel komkommer mag je eten komkommer eten voor het slapen komkommer gezondheidsvoordelen hoeveel weegt een komkommer komkommer voedingswaarde Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArnhem - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 29.800.000 resultaten (0 90 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten cbs.nl › nl-nl › visualisaties › bevolkingsteller Bevolkingsteller - CBS 20 dec. 2019 - Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in-n Hoeveel mensen wonen er in Nederland? - CBS De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de nl.wikipedia.org › wiki › Bevolking_van_Nederland Bevolking van Nederland - Wikipedia Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in allecijfers.nl › nederland Héél véél informatie over Nederland (update 2019 Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of nrc.nl › nieuws › 2020/01/02 › nederland-heeft-nu-meer-dan-174 Nederland heeft nu meer dan 17 4 miljoen inwoners - NRC 3 jan. 2020 - Nederland heeft er vorig jaar naar schatting 132.000 inwoners bij gekregen en daarmee wonen er nu meer dan 17 4 miljoen mensen in hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 Nederland groeit in 2018 met 100.000 mensen naar 17 3 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. rtlnieuws.nl › bevolkingsgroei-2019-migratie-grote-steden Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door 3 jan. 2020 - inwoners waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente republiekallochtonie.nl › blog › feiten › nederlanders-buitenlan Nederlanders buitenlanders allochtonen. De cijfers 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. volkskrant.nl › nieuws-achtergrond › bevolking-nederland-groeit- Bevolking Nederland groeit sneller dan verwacht: 18 4 miljoen 17 dec. 2019 - In de komende tien jaar komen er een miljoen mensen bij in Nederland. In 2030 loopt het inwonertal op tot 18 4 miljoen. De bevolkingsgroei Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 1600 inwoners nederland 1923 leeftijdsopbouw nederland aantal inwoners nederland 2018 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Frankrijk 66 89 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Feedback Bronnen omvatten: Wereldbank Eurostat Institut national de la statistique et des études économiques Verenigde Naties Links in voettekst NederlandArnhem - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenVideo'sShoppingMapsMeer InstellingenTools Ongeveer 7.730.000 resultaten (0 40 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Kerf het deeg in met een scherp mes en bak het brood in ongeveer 35 Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenvers Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt rutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎7 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Tips voor brood bakken - Laura's Bakery laurasbakery.nl › tips-voor-brood-bakken Brood bakken recept van laurasbakery.nl 27 jan. 2020 - Nieuwe broodrecepten staan dus steeds vaker op Laura's Bakery en daarmee komen er ook steeds meer vragen over brood bakken binnen. Zelf brood bakken - waterlily-unlimited waterlily-unlimited.nl › brood Brood bakken recept van waterlily-unlimited.nl Zelf brood bakken is gemakkelijk snel goedkoop en lekker. Als je het nog nooit gedaan hebt lijkt het heel ingewikkeld en overal vind je weer andere recepten. Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken simpel brood bakken zelf brood bakken zonder broodbakmachine brood bakken zonder gist brood bakken temperatuur zelf brood bakken goedkoper wit brood bakken Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandDen Haag - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 2.140.000 resultaten (0 36 seconden) Zoekresultaten Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Engelse hondennamen vind je Top 100 Leuke grappige en stoere hondennamen van 2020! herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Populaire hondennamen | Petplan.nl petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populaire-ho 22 jan. 2020 - In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden honden-plein.nl › hondennamen › hondennamen-teefje Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Populaire hondennamen | Royal Canin royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Hondennamen op alfabetische volgorde - Dierennamen dierennamen.net › hondennamen-op-alfab Vertaal deze pagina Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Zoekopdrachten gerelateerd aan Honden namen aparte hondennamen hondennamen met betekenis geweldige hondennamen brabantse hondennamen indische hondennamen limburgse honden namen tekenfilm hondennamen friese hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandDen Haag - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 159.000 resultaten (0 48 seconden) Zoekresultaten Samenvatting van internet Misschien wil je wel eens weten wat nou het grootste en het kleinste bot in je lichaam is. Het langste bot is in ieder geval het dijbeen. De lengte ervan is meer dan een kwart van je totale lichaamslengte. Het kleinste botje in je lichaam is de stijgbeugel die zit binnen in je oor.24 jul. 2008 Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam Feedback Over samenvattingen Webresultaten Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten botten worden geboren! Hieronder lees je nog meer feitjes over menselijke botten. Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken . Hoewel deze ingreep Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-lich Manfragas. 28 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Wat Is Het Grootste Bot In Het Lichaam? | 2020 nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 1 feb. 2020 - Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Een bot bestaat uit verschillende lagen. De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en bestaat uit een soort Het skelet van de mens - Natuurinformatie natuurinformatie.nl › Homepage › Skeletten De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van 2.1 botten - Lesmateriaal - Wikiwijs maken.wikiwijs.nl › 2_1_Botten 30 okt. 2018 - Wat is het langste bot van jouw lichaam. Wat is Daarom is het belangrijk dat je de menselijke botten leert als basis voordat je die van andere De botten - Alles weten over osteoporose alleswetenoverosteoporose.nl › het-ziektebeeld-osteoporose Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot Botten - Kosmisch.nl kosmisch.nl › normal Dat skelet geeft je lichaam stevigheid en beschermt kwetsbare organen. Het grootste bot in je lichaam is je dijbeen het kleinste botje zit in je oor en is 3mm. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het grootste botje in je lichaam hoeveel botten heeft een baby skelet mens achterkant noem de botten van de bovenste ledematen armen sterkste bot menselijk lichaam botten menselijk lichaam oefenen hoeveel spieren heeft een mens noem de botten van de onderste ledematen benen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandDen Haag - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 1.180.000 resultaten (0 58 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › Gezond leven › Eten &amp; drinken Feedback Over samenvattingen Webresultaten WisFaq - digitale vraagbaak voor het wiskundeonderwijs wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voo Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-ko 7 antwoorden 1 jul. 2010 - graag uitleg hoe je dit berekend. een rekendocent beweerd dat je 50 kilo overhoud Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › sessies › themas › eten-drinken › een-komk 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de raadsels en puzzels - rdzl | Komkommers raadsel uitleg rdzl.nl › komkommers_raadsel › uitleg Door de hitte bestaan de komkommers aan het eind van de dag nog maar voor 98% uit water. Hoeveel kg komkommers heeft de groenteboer over aan het eind 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer komkommer geel geworden witte komkommer hoeveel komkommer mag je eten komkommer eten voor het slapen komkommer gezondheidsvoordelen hoeveel weegt een komkommer komkommer voedingswaarde Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandDen Haag - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenShoppingNieuwsMapsMeer InstellingenTools Ongeveer 29.800.000 resultaten (0 86 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) 1960 1970 1980 1990 2000 2010 20.000.000 20.000.000 15.000.000 15.000.000 10.000.000 10.000.000 5.000.000 5.000.000 0 0 •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller 20 dec. 2019 - Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Nederland heeft nu meer dan 17 4 miljoen inwoners - NRC nrc.nl › nieuws › 2020/01/02 › nederland-heeft-nu-meer-dan-1 3 jan. 2020 - Nederland heeft er vorig jaar naar schatting 132.000 inwoners bij gekregen en daarmee wonen er nu meer dan 17 4 miljoen mensen in Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-1 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederlanders-buitenlanders- 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door rtlnieuws.nl › bevolkingsgroei-2019-migratie-grote-steden 3 jan. 2020 - inwoners waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente Bevolking Nederland groeit sneller dan verwacht: 18 4 miljoen volkskrant.nl › nieuws-achtergrond › bevolking-nederland-groe 17 dec. 2019 - In de komende tien jaar komen er een miljoen mensen bij in Nederland. In 2030 loopt het inwonertal op tot 18 4 miljoen. De bevolkingsgroei Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 aantal inwoners nederland 1600 aantal inwoners nederland 2018 leeftijdsopbouw nederland inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Frankrijk 66 89 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Feedback Bronnen omvatten: Wereldbank Eurostat Institut national de la statistique et des études économiques Verenigde Naties Links in voettekst NederlandDen Haag - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Search modes AllImagesVideosMapsShoppingMore SettingsTools About 2.380.000 results (0 43 seconds) Search Results Web results uitpaulineskeuken.nl › 2018/11 › basisrecept-voor- Basisrecept voor brood incl. stap voor stap beschrijving - Uit Translate this page Brood bakken recept from uitpaulineskeuken.nl Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. libelle-lekker.be › artikelen › zelf-brood-bak Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook bakkenzoalsoma.nl › 2012/10 › dagelijks-bro Dagelijks brood (uit eigen oven) - Bakken Zoals Oma Translate this page Brood bakken recept from bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is broodsmakelijk.nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. laurasbakery.nl › tips-voor-brood-bakken Tips voor brood bakken - Laura's Bakery Translate this page Brood bakken recept from laurasbakery.nl Jan 27 2020 - Met deze tips voor brood bakken zul je zien dat het niet moeilijk is om zelf een Wat je nodig hebt staat altijd wel in het recept aangegeven. rutgerbakt.nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎23 reviews - ‎3 hrs Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Recipes Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 hrs Op Basis brood Smulweb No reviews 2 hrs 30 mins Show more Web results rutgerbakt.nl › Brood recepten Bak thuis het lekkerste brood! - Rutger Bakt Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎7 reviews - ‎14 hrs 40 mins Jun 2 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat ah.nl › allerhande › recepten › brood-bakken Brood bakken - Allerhande - Albert Heijn Translate this page Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met Brood bakken. Kookvraag? Gelukkig worden van een Bak 'm hartig of zoet. recept recepten.tips › Recepten Zelf Ambachtelijk brood bakken in een uur | Recepten.tips Translate this page Brood bakken recept from recepten.tips Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk Searches related to Brood bakken recept wit brood recept bruin brood bakken brood bakken broodbakmachine volkoren brood recept brood bakken zonder gist broodjes bakken cake recept brood bakken temperatuur Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4817 Breda - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Search modes AllImagesShoppingMapsVideosMore SettingsTools About 2.150.000 results (0 44 seconds) Search Results Featured snippet from the web Image result for Honden namen Top 100 stoere hondennamen teefje Aaf. Alexis. Alix. April. Avery. Babet. Babs. Bliss. Blue. Bo. Bowie. Brecht. Cadence. Caro. Fem. Fie. Fiore. Flo. Gigi. Gwen. Hasse. Hope. Indy. Ivy. Izzy. Jane. Jaylinn. Jazz. Liv. Liz. Loïs. Luz. Madison. Mae. Maud. Maxe. Mex. Mijs. Mikki. Moos. Nim. Riley. River. Rixt. Robin. Ronja. Roxy. Sam. Scarlett. Seven. Sis. Sjors. Sjuul. Sky. herdershonden.nl › hondennamen Top 100 Leuke grappige en stoere hondennamen van 2020! Feedback About Featured Snippets Web results dierendokters.com › honden › namen 1001 hondennamen voor je pup reu of teef - DierenDokters Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Engelse hondennamen vind je petplan.nl › dierenadvies › aanschaf-van-je-huisdier Populaire hondennamen | Petplan.nl Translate this page Jan 22 2020 - In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennamen.nu Hondennamen - Vind de perfecte naam voor je hond. Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw honden-plein.nl › hondennamen Leuke grappige en stoere hondennamen | Honden-plein.nl Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je hondennamen.nl Lijst met alle hondennamen? Vind de perfecte hondennaam Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. hondennamen.nl › leuke-hondennamen Lijst met alle leuke hondennamen voor reu &amp; teef Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. mcvoordieren.nl › hondennamen Hondennamen - Medisch Centrum voor Dieren Translate this page De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere royalcanin.nl › hondennamen Populaire hondennamen | Royal Canin Translate this page Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Dierennamen Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Searches related to Honden namen honden namen teefje originele hondennamen populaire hondennamen speciale hondennamen teefje friese hondennamen spaanse hondennamen hondennamen reu met betekenis franse hondennamen Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4817 Breda - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Search modes AllImagesVideosShoppingNewsMore SettingsTools About 124.000 results (0 49 seconds) Search Results Featured snippet from the web Misschien wil je wel eens weten wat nou het grootste en het kleinste bot in je lichaam is. Het langste bot is in ieder geval het dijbeen. De lengte ervan is meer dan een kwart van je totale lichaamslengte. Het kleinste botje in je lichaam is de stijgbeugel die zit binnen in je oor.Jul 24 2008 scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam-3 Werkstuk Biologie Menselijk lichaam | Scholieren.com Feedback About Featured Snippets Web results nl.wikipedia.org › wiki › Skelet_(mens) Skelet (mens) - Wikipedia Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. nl.toluna.com › polls › Wat-is-het-grootste-bot-in-h Wat is het grootste bot in het menselijk lichaam? | Toluna Translate this page Manfragas. 28 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 alletop10lijstjes.nl › top-10-feitjes-over-mens Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes Translate this page botten worden geboren! Hieronder lees je nog meer feitjes over menselijke botten. Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken . Hoewel deze ingreep Grootste bot in het menselijk lichaam: dijbeen. dijbeen. nl.ripleybelieves.com › what-is-largest-bone-in-bod Wat Is Het Grootste Bot In Het Lichaam? | 2020 Translate this page Feb 1 2020 - Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de gezondheidsplein.nl › botten › item45095 Botten - Menselijk lichaam | Gezondheidsplein.nl Translate this page Een bot bestaat uit verschillende lagen. De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en bestaat uit een soort natuurinformatie.nl › Homepage › Skeletten Het skelet van de mens - Natuurinformatie Translate this page De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van maken.wikiwijs.nl › 2_1_Botten 2.1 botten - Lesmateriaal - Wikiwijs Translate this page Oct 30 2018 - Wat is het langste bot van jouw lichaam. Wat is Daarom is het belangrijk dat je de menselijke botten leert als basis voordat je die van andere alleswetenoverosteoporose.nl › de-botten De botten - Alles weten over osteoporose Translate this page Het grootste bot in het menselijk lichaam is het dijbeen. Botten zijn het sterkste en hardste materiaal wat zich in ons lichaam bevindt dat wil zeggen levend bot kosmisch.nl › normal Botten - Kosmisch.nl Translate this page Dat skelet geeft je lichaam stevigheid en beschermt kwetsbare organen. Het grootste bot in je lichaam is je dijbeen het kleinste botje zit in je oor en is 3mm. Searches related to Wat is het grootste bot in het menselijk lichaam? skelet met namen hoeveel spieren heeft een mens skelet hoofd skelet kopen hoeveel botten heeft een kat hoeveel botten heeft een kind skelet tekening met hoeveel botten worden babys geboren Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Sponsored See Wat is het groot Image of HUMAN SCIENCE: MENSELIJK SKELET glow in the dark HUMAN SCIENCE: MENSELIJK SKELET glow in the dark €16.95 bol.com Free shipping By beslist.nl Footer links Netherlands4817 Breda - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Search modes AllImagesShoppingVideosNewsMore SettingsTools About 226.000 results (0 64 seconds) Search Results Featured snippet from the web Image result for Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. dokterdokter.nl › Gezond leven › Eten &amp; drinken Waarom zijn komkommers gezond? | Dokterdokter.nl Feedback About Featured Snippets Web results nl.wikipedia.org › wiki › Komkommer Komkommer - Wikipedia Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen wisfaq.nl › WisFaq - digitale vraagbaak voor het wiskundeonderwijs Translate this page Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers facebook.com › DietistZoeetje › posts › een- Zoeetje - Een mens bestaat voor 60% uit water komkommer Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. startpagina.nl › wetenschap › wiskunde › vraag 100 kilo komkommers bestaan uit 99% water. er verdampt 1 Translate this page 7 answers Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. voedingscentrum.nl › encyclopedie › komko Komkommer | Voedingscentrum Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een maxvandaag.nl › themas › eten-drinken › een Een komkommer bevat meer dan water: hierom is hij zo gezond Translate this page Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de vitens.com › › Hoeveel water zit er per d Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens Translate this page May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? voedingsacademy.nl › komkommer 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten Translate this page Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten mooiemoestuin.nl › vruchtgewassen › komko Komkommer - Diana's mooie moestuin Translate this page Komkommers zijn dorstige planten en door regelmatig een flinke hoeveelheid water te geven zorg je ervoor dat de planten niet te ver van de plant water Searches related to Hoeveel van een komkommer is water? komkommer groente of fruit augurk Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4817 Breda - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Search modes AllImagesMapsNewsShoppingMore SettingsTools About 8.140.000 results (0 65 seconds) Tip: Search for English results only. You can specify your search language in Preferences Search Results Netherlands/Population 17.18 million (2018) 1960 1970 1980 1990 2000 2010 20M 20M 15M 15M 10M 10M 5M 5M 0 0 •Netherlands 17.18 million ‌ •Belgium 11.4 million ‌ •Sweden 10.12 million ‌ Explore more Feedback Sources include: Eurostat Web results cbs.nl › en-gb › visualisaties › population-counter Population counter - CBS Dec 20 2019 - How many people are living in the Netherlands? The counter shows how many registered inhabitants there are in the Netherlands at this moment according to the most recent estimate of Statistics Netherlands. The population of the Netherlands is growing by an average of 370 people per cbs.nl › nl-nl › faq › specifiek › hoeveel-men Hoeveel mensen wonen er in Nederland? - CBS Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners longreads.cbs.nl › trends19 › cijfers › bevolking Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 Translate this page In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de nl.wikipedia.org › wiki › Bevolking_van_Nederland Bevolking van Nederland - Wikipedia Translate this page Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Bevolkingssamenstelling allecijfers.nl › nederland Héél véél informatie over Nederland (update 2019 Translate this page Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of nrc.nl › nieuws › 2020/01/02 › nederland-hee Nederland heeft nu meer dan 17 4 miljoen inwoners - NRC - Translate this page Jan 3 2020 - Nederland heeft er vorig jaar naar schatting 132.000 inwoners bij gekregen en daarmee wonen er nu meer dan 17 4 miljoen mensen in republiekallochtonie.nl › blog › feiten › nede Nederlanders buitenlanders allochtonen. De cijfers Translate this page Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. rtlnieuws.nl › nieuws › nederland › artikel Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door Translate this page Jan 3 2020 - inwoners waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 Nederland groeit in 2018 met 100.000 mensen naar 17 3 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. volkskrant.nl › nieuws-achtergrond › bevolki Bevolking Nederland groeit sneller dan verwacht: 18 4 miljoen - Translate this page Dec 17 2019 - In de komende tien jaar komen er een miljoen mensen bij in Nederland. In 2030 loopt het inwonertal op tot 18 4 miljoen. De bevolkingsgroei EU member states View 15+ more Germany Germany France France Belgium Belgium Sweden Sweden United Kingdom United Kingdom Italy Italy Luxembourg Luxembourg Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 2019 hoeveel inwoners heeft nederland 2020 bevolking nederland 2019 hoeveel mensen in nederland 2019 aantal inwoners nederland 2020 Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlandsmap expand icon Netherlands (Nederland) Country in Europe DescriptionThe Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Related statistics Gross domestic product 826.2 billion USD ‎(2017) Population growth rate 0.6% annual change ‎(2017) Population elsewhere Germany 82.79 million ‎(2018) France 66.89 million ‎(2018) Amsterdam 821 752 ‎(2015) Feedback Sources include: World Bank Eurostat INSEE United Nations Footer links Netherlands4817 Breda - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Brood bakken recept About 1 970 000 results (0.38 seconds) Search Results Recipes Dagelijks brood uit eigen oven Bakken Zoals Oma No reviews Op Wit brood Dagelijkse kost No reviews 2 hr 10 min Op Basisrecept voor wit brooddeeg Rutger Bakt 3.0 (23) 3 hr Op Show more Web results libelle-lekker.be › artikelen › zelf-brood-bak Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker Translate this page Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook uitpaulineskeuken.nl › 2018/11 › basisrecept-voor- Basisrecept voor brood incl. stap voor stap beschrijving - Uit Translate this page Brood bakken recept from uitpaulineskeuken.nl Nov 8 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood een bakplaat bekleed met bakpapier tenzij je op een steen gaat bakken. recepten.tips › Recepten Zelf Ambachtelijk brood bakken in een uur | Recepten.tips Translate this page Brood bakken recept from recepten.tips Feb 6 2019 - Zelf een brood bakken is niet moeilijk met dit recept kan je een mooi ambachtelijk brood bakken in een uurtje tijd. Dit is een heerlijk broodsmakelijk.nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk Translate this page Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. bakkenzoalsoma.nl › 2012/10 › dagelijks-bro Dagelijks brood (uit eigen oven) - Bakken Zoals Oma Translate this page Brood bakken recept from bakkenzoalsoma.nl Dec 15 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is dagelijksekost.een.be › gerechten › wit-brood Wit brood | Dagelijkse kost Translate this page Brood bakken recept from dagelijksekost.een.be 2 hr 10 min Moeilijk is het niet. Maar om een vers brood te bakken heb je wel een beetje geduld nodig.Jeroen maakte vers brood voor het gerecht avevewinkels.be › thuisbakken › Recepten › brood Brood bakken met de hand - Aveve Translate this page Brood bakken recept from avevewinkels.be 45 min Brood bakken met de hand. Hoe bak je een brood op de traditionele manier? We leggen het je stap voor op een rooster. Recepten met hetzelfde ingredient. rutgerbakt.nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎23 reviews - ‎3 hr Dec 13 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? rutgerbakt.nl › Brood recepten Bak thuis het lekkerste brood! - Rutger Bakt Translate this page Brood bakken recept from rutgerbakt.nl Rating: 3 - ‎7 reviews - ‎14 hr 40 min Jun 2 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Searches related to Brood bakken recept wit brood recept brood bakken broodbakmachine bruin brood bakken volkoren brood recept brood bakken zonder gist broodjes bakken meergranenbrood bakken ingredienten voor brood Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Honden namen About 2 440 000 results (0.35 seconds) Search Results Featured snippet from the web Image result for Honden namen Top 100 stoere hondennamen teefje Aaf. Alexis. Alix. April. Avery. Babet. Babs. Bliss. Blue. Bo. Bowie. Brecht. Cadence. Caro. Fem. Fie. Fiore. Flo. Gigi. Gwen. Hasse. Hope. Indy. Ivy. Izzy. Jane. Jaylinn. Jazz. Liv. Liz. Loïs. Luz. Madison. Mae. Maud. Maxe. Mex. Mijs. Mikki. Moos. Nim. Riley. River. Rixt. Robin. Ronja. Roxy. Sam. Scarlett. Seven. Sis. Sjors. Sjuul. Sky. herdershonden.nl › hondennamen Top 100 Leuke grappige en stoere hondennamen van 2020! Feedback About Featured Snippets Web results dierendokters.com › honden › namen 1001 hondennamen voor je pup reu of teef - DierenDokters Translate this page Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Engelse hondennamen vind je hondennamen.nu Hondennamen - Vind de perfecte naam voor je hond. Translate this page Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw ‎Namen voor een reu · ‎Namen voor een teefje · ‎Korte hondennamen · ‎Mijn namen dierennamen.net › hondennamen-op-alfabetische-volgorde Hondennamen op alfabetische volgorde - Dierennamen Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of hondennamen.nl Lijst met alle hondennamen? Vind de perfecte hondennaam Translate this page Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. honden-plein.nl › hondennamen Leuke grappige en stoere hondennamen | Honden-plein.nl Translate this page Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je ‎Hondennamen teefje · ‎Hondennamen reu · ‎Hondennamen top 10 petplan.nl › dierenadvies › aanschaf-van-je-huisdier Populaire hondennamen | Petplan.nl Translate this page Jan 22 2020 - In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste mcvoordieren.nl › hondennamen Hondennamen - Medisch Centrum voor Dieren Translate this page De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere royalcanin.nl › hondennamen Populaire hondennamen | Royal Canin Translate this page Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak hondenpage.com › hondennamen › top Top 1000 Populaire HondenNamen - Hondenpage Hier vind je de top 1000 populaire hondennamen op de HondenPage. Dit wordt Klik op een letter om alle honden namen te zien die met deze letter beginnen. Searches related to Honden namen honden namen teefje originele hondennamen friese hondennamen populaire hondennamen speciale hondennamen teefje spaanse hondennamen hondennamen reu met betekenis franse hondennamen Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links UkraineUkraine - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Wat is het grootste bot in het menselijk lichaam? About 289 000 results (0.47 seconds) Search Results Featured snippet from the web Misschien wil je wel eens weten wat nou het grootste en het kleinste bot in je lichaam is. Het langste bot is in ieder geval het dijbeen. De lengte ervan is meer dan een kwart van je totale lichaamslengte. Het kleinste botje in je lichaam is de stijgbeugel die zit binnen in je oor.Jul 24 2008 scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam-3 Werkstuk Biologie Menselijk lichaam | Scholieren.com Feedback About Featured Snippets Web results nl.wikipedia.org › wiki › Skelet_(mens) Skelet (mens) - Wikipedia Translate this page Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. nl.ripleybelieves.com › what-is-largest-bone-in-bod Wat Is Het Grootste Bot In Het Lichaam? | 2020 Translate this page Feb 1 2020 - Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de nl.toluna.com › polls › Wat-is-het-grootste-bot-in-h Wat is het grootste bot in het menselijk lichaam? | Toluna Translate this page Manfragas. 28 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 alletop10lijstjes.nl › top-10-feitjes-over-mens Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes Translate this page botten worden geboren! Hieronder lees je nog meer feitjes over menselijke botten. Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Images for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? Image result for Wat is het grootste bot in het menselijk lichaam? View all More images for Wat is het grootste bot in het menselijk lichaam? Report images Web results gezondheidsplein.nl › botten › item45095 Botten - Menselijk lichaam | Gezondheidsplein.nl Translate this page Een bot bestaat uit verschillende lagen. De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en bestaat uit een soort natuurinformatie.nl › Homepage › Skeletten Het skelet van de mens - Natuurinformatie Translate this page De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van startpagina.nl › wetenschap › biologie › vraag Wat is het kleinste bot in het menselijk lichaam? - Startpagina.nl Translate this page 3 answers Nov 30 2009 - Het 1e kootje van de kleine teen? Of zit er ergens nog iets veel een veel kleiner? Toegevoegd na 1 minuut: een = en exuus. nl.quora.com › Waarom-is-het-dijbeen-het-grootste Waarom is het dijbeen het grootste bot? - Quora- Translate this page 1 answer Wat zijn de verschillen en overeenkomsten tussen botten en spieren? Welk bot in het menselijk lichaam breken mensen het vaakst en waarom? Searches related to Wat is het grootste bot in het menselijk lichaam? hoeveel botten heeft een kat met hoeveel botten worden babys geboren schedel Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel van een komkommer is water? About 1 290 000 results (0.47 seconds) Search Results Featured snippet from the web Image result for Hoeveel van een komkommer is water? Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. dokterdokter.nl › Gezond leven › Eten &amp; drinken Waarom zijn komkommers gezond? | Dokterdokter.nl Feedback About Featured Snippets Web results nl.wikipedia.org › wiki › Komkommer Komkommer - Wikipedia Translate this page De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen wisfaq.nl › WisFaq - digitale vraagbaak voor het wiskundeonderwijs Translate this page Oct 18 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers facebook.com › DietistZoeetje › posts › een- Zoeetje - Een mens bestaat voor 60% uit water komkommer Translate this page Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. startpagina.nl › wetenschap › wiskunde › vraag 100 kilo komkommers bestaan uit 99% water. er verdampt 1 Translate this page 7 answers Jul 1 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. voedingscentrum.nl › encyclopedie › komko Komkommer | Voedingscentrum Translate this page Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een maxvandaag.nl › themas › eten-drinken › een Een komkommer bevat meer dan water: hierom is hij zo gezond Translate this page Aug 27 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de rdzl.nl › komkommers_raadsel › uitleg raadsels en puzzels - rdzl | Komkommers raadsel uitleg Translate this page Door de hitte bestaan de komkommers aan het eind van de dag nog maar voor 98% uit water. Hoeveel kg komkommers heeft de groenteboer over aan het eind voedingsacademy.nl › komkommer 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten Translate this page Jun 27 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten vitens.com › › Hoeveel water zit er per d Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens Translate this page May 4 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links UkraineUkraine - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Hoeveel mensen wonen er in Nederland? About 11 100 000 results (0.55 seconds) Search Results Netherlands/Population 17.18 million (2018) •Netherlands 17.18 million ‌ •Belgium 11.4 million ‌ •Sweden 10.12 million ‌ Explore more Feedback Sources include: Eurostat Web results cbs.nl › nl-nl › visualisaties › bevolkingsteller Bevolkingsteller - CBS Translate this page Dec 20 2019 - Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten cbs.nl › nl-nl › faq › specifiek › hoeveel-men Hoeveel mensen wonen er in Nederland? - CBS Translate this page De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners cbs.nl › en-gb › visualisaties › population-counter Population counter - CBS Dec 20 2019 - How many people are living in the Netherlands? The counter shows how many registered inhabitants there are in the Netherlands at this moment according to the most recent estimate of Statistics Netherlands. The population of the Netherlands is growing by an average of 370 people per nl.wikipedia.org › wiki › Bevolking_van_Nederland Bevolking van Nederland - Wikipedia Translate this page Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Bevolkingssamenstelling allecijfers.nl › nederland Héél véél informatie over Nederland (update 2019 Translate this page Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of nrc.nl › nieuws › 2020/01/02 › nederland-hee Nederland heeft nu meer dan 17 4 miljoen inwoners - NRC- Translate this page Jan 3 2020 - Nederland heeft er vorig jaar naar schatting 132.000 inwoners bij gekregen en daarmee wonen er nu meer dan 17 4 miljoen mensen in nrc.nl › nieuws › 2019/12/16 › bijna-40-proc Bijna 40 procent inwoners Nederland heeft in 2060 - NRC- Translate this page Dec 17 2019 - In het jaar 2060 heeft 39 procent van de inwoners van Nederland een migratieachtergrond. Er wonen dan bijna 20 miljoen mensen in republiekallochtonie.nl › blog › feiten › nede Nederlanders buitenlanders allochtonen. De cijfers Translate this page Oct 15 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. rtlnieuws.nl › nieuws › nederland › artikel Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door Translate this page Jan 3 2020 - inwoners waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 Nederland groeit in 2018 met 100.000 mensen naar 17 3 Jan 2 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Searches related to Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen in nederland 2019 hoeveel mensen in nederland 2019 aantal inwoners nederland 2019 bevolking nederland 2019 populatie nederland 2019 hoeveel mensen wonen er in china aantal inwoners nederland 2018 Page navigation 1 2 3 4 5 6 7 8 9 10 Next Complementary results Knowledge result Image result for Hoeveel mensen wonen er in Nederland? Map of Netherlandsmap expand icon Netherlands (Nederland) Country in Europe DescriptionThe Netherlands a country in northwestern Europe is known for a flat landscape of canals tulip fields windmills and cycling routes. Amsterdam the capital is home to the Rijksmuseum Van Gogh Museum and the house where Jewish diarist Anne Frank hid during WWII. Canalside mansions and a trove of works from artists including Rembrandt and Vermeer remain from the city's 17th-century "Golden Age." Related statistics Gross domestic product 826.2 billion USD ‎(2017) Population growth rate 0.6% annual change ‎(2017) Population elsewhere Germany 82.79 million ‎(2018) France 66.89 million ‎(2018) Amsterdam 821 752 ‎(2015) Feedback Sources include: World Bank Eurostat INSEE United Nations Footer links</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 8.120.000 resultaten (0 47 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 3 0 (23) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Basisrecept voor brood incl. stap voor stap beschrijving - Uit Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Kerf het deeg in met een scherp mes en bak het brood in ongeveer 35 libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenverse- Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook rutgerbakt.nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt Brood bakken recept van rutgerbakt.nl Beoordeling: 3 - ‎23 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Dagelijks brood (uit eigen oven) - Bakken Zoals Oma Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is broodsmakelijk.nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Hoe bak ik zelf mijn eerste brood (en goedkoop)? Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders ah.nl › allerhande › recepten › brood-bakken Brood bakken - Allerhande - Albert Heijn Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept laurasbakery.nl › tips-voor-brood-bakken Tips voor brood bakken - Laura's Bakery Brood bakken recept van laurasbakery.nl 27 jan. 2020 - Nieuwe broodrecepten staan dus steeds vaker op Laura's Bakery en daarmee komen er ook steeds meer vragen over brood bakken binnen. laurasbakery.nl › volkorenbrood Volkorenbrood - Laura's Bakery Brood bakken recept van laurasbakery.nl 11 jul. 2014 - Een lekker recept om zelf volkorenbrood te maken volgens het recept Ik ben nog niet zo'n ervaren broodbakster maar met de uitleg in het Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine simpel brood bakken volkoren brood bakken zelf brood bakken zonder broodbakmachine bruin brood bakken brood bakken in de oven hetelucht lekkerste brood recept zelf brood bakken goedkoper Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6833 HS Arnhem - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 2.630.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen Top 100 stoere hondennamen teefje Aaf. Alexis. Alix. April. Avery. Babet. Babs. Bliss. Blue. Bo. Bowie. Brecht. Cadence. Caro. Fem. Fie. Fiore. Flo. Gigi. Gwen. Hasse. Hope. Indy. Ivy. Izzy. Jane. Jaylinn. Jazz. Liv. Liz. Loïs. Luz. Madison. Mae. Maud. Maxe. Mex. Mijs. Mikki. Moos. Nim. Riley. River. Rixt. Robin. Ronja. Roxy. Sam. Scarlett. Seven. Sis. Sjors. Sjuul. Sky. herdershonden.nl › hondennamen Top 100 Leuke grappige en stoere hondennamen van 2020! Feedback Over samenvattingen Webresultaten dierendokters.com › honden › namen 1001 hondennamen voor je pup reu of teef - DierenDokters Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Grappig · ‎Engelse hondennamen vind je petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populaire-hond Populaire hondennamen | Petplan.nl 22 jan. 2020 - In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennamen.nu Hondennamen - Vind de perfecte naam voor je hond. Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw hondennamen.nl Lijst met alle hondennamen? Vind de perfecte hondennaam Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. hondennamen.nl › leuke-hondennamen Lijst met alle leuke hondennamen voor reu &amp; teef Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. honden-plein.nl › hondennamen Leuke grappige en stoere hondennamen | Honden-plein.nl Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je honden-plein.nl › hondennamen › hondennamen-teefje Hondennamen teef - vind een naam voor je teefje | Honden Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. mcvoordieren.nl › hondennamen Hondennamen - Medisch Centrum voor Dieren De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere royalcanin.nl › populaire-kattennamen-populaire-hondennamen Populaire hondennamen | Royal Canin Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Zoekopdrachten gerelateerd aan Honden namen honden namen teef aparte hondennamen geweldige hondennamen hondennamen met betekenis brabantse hondennamen honden namen eindigend op ie tekenfilm hondennamen buitenlandse hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6833 HS Arnhem - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 2.630.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen Top 100 stoere hondennamen teefje Aaf. Alexis. Alix. April. Avery. Babet. Babs. Bliss. Blue. Bo. Bowie. Brecht. Cadence. Caro. Fem. Fie. Fiore. Flo. Gigi. Gwen. Hasse. Hope. Indy. Ivy. Izzy. Jane. Jaylinn. Jazz. Liv. Liz. Loïs. Luz. Madison. Mae. Maud. Maxe. Mex. Mijs. Mikki. Moos. Nim. Riley. River. Rixt. Robin. Ronja. Roxy. Sam. Scarlett. Seven. Sis. Sjors. Sjuul. Sky. herdershonden.nl › hondennamen Top 100 Leuke grappige en stoere hondennamen van 2020! Feedback Over samenvattingen Webresultaten dierendokters.com › honden › namen 1001 hondennamen voor je pup reu of teef - DierenDokters Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Grappig · ‎Engelse hondennamen vind je petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populaire-hond Populaire hondennamen | Petplan.nl 22 jan. 2020 - In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennamen.nu Hondennamen - Vind de perfecte naam voor je hond. Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw hondennamen.nl Lijst met alle hondennamen? Vind de perfecte hondennaam Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. hondennamen.nl › leuke-hondennamen Lijst met alle leuke hondennamen voor reu &amp; teef Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. honden-plein.nl › hondennamen Leuke grappige en stoere hondennamen | Honden-plein.nl Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je honden-plein.nl › hondennamen › hondennamen-teefje Hondennamen teef - vind een naam voor je teefje | Honden Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. mcvoordieren.nl › hondennamen Hondennamen - Medisch Centrum voor Dieren De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere royalcanin.nl › populaire-kattennamen-populaire-hondennamen Populaire hondennamen | Royal Canin Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Zoekopdrachten gerelateerd aan Honden namen honden namen teef aparte hondennamen geweldige hondennamen hondennamen met betekenis brabantse hondennamen honden namen eindigend op ie tekenfilm hondennamen buitenlandse hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6833 HS Arnhem - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 2.630.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen Top 100 stoere hondennamen teefje Aaf. Alexis. Alix. April. Avery. Babet. Babs. Bliss. Blue. Bo. Bowie. Brecht. Cadence. Caro. Fem. Fie. Fiore. Flo. Gigi. Gwen. Hasse. Hope. Indy. Ivy. Izzy. Jane. Jaylinn. Jazz. Liv. Liz. Loïs. Luz. Madison. Mae. Maud. Maxe. Mex. Mijs. Mikki. Moos. Nim. Riley. River. Rixt. Robin. Ronja. Roxy. Sam. Scarlett. Seven. Sis. Sjors. Sjuul. Sky. herdershonden.nl › hondennamen Top 100 Leuke grappige en stoere hondennamen van 2020! Feedback Over samenvattingen Webresultaten dierendokters.com › honden › namen 1001 hondennamen voor je pup reu of teef - DierenDokters Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Grappig · ‎Engelse hondennamen vind je petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populaire-hond Populaire hondennamen | Petplan.nl 22 jan. 2020 - In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennamen.nu Hondennamen - Vind de perfecte naam voor je hond. Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw hondennamen.nl Lijst met alle hondennamen? Vind de perfecte hondennaam Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. hondennamen.nl › leuke-hondennamen Lijst met alle leuke hondennamen voor reu &amp; teef Inspiratie voor leuke hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. honden-plein.nl › hondennamen Leuke grappige en stoere hondennamen | Honden-plein.nl Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je honden-plein.nl › hondennamen › hondennamen-teefje Hondennamen teef - vind een naam voor je teefje | Honden Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. mcvoordieren.nl › hondennamen Hondennamen - Medisch Centrum voor Dieren De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere royalcanin.nl › populaire-kattennamen-populaire-hondennamen Populaire hondennamen | Royal Canin Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Zoekopdrachten gerelateerd aan Honden namen honden namen teef aparte hondennamen geweldige hondennamen hondennamen met betekenis brabantse hondennamen honden namen eindigend op ie tekenfilm hondennamen buitenlandse hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6833 HS Arnhem - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 29.100.000 resultaten (0 80 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten cbs.nl › nl-nl › visualisaties › bevolkingsteller Bevolkingsteller - CBS 20 dec. 2019 - Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in-n Hoeveel mensen wonen er in Nederland? - CBS De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de nl.wikipedia.org › wiki › Bevolking_van_Nederland Bevolking van Nederland - Wikipedia Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in allecijfers.nl › nederland Héél véél informatie over Nederland (update 2019 Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of nrc.nl › nieuws › 2020/01/02 › nederland-heeft-nu-meer-dan-174 Nederland heeft nu meer dan 17 4 miljoen inwoners - NRC 3 jan. 2020 - Nederland heeft er vorig jaar naar schatting 132.000 inwoners bij gekregen en daarmee wonen er nu meer dan 17 4 miljoen mensen in volkskrant.nl › nieuws-achtergrond › bevolking-nederland-groeit- Bevolking Nederland groeit sneller dan verwacht: 18 4 miljoen 17 dec. 2019 - In de komende tien jaar komen er een miljoen mensen bij in Nederland. In 2030 loopt het inwonertal op tot 18 4 miljoen. De bevolkingsgroei hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 Nederland groeit in 2018 met 100.000 mensen naar 17 3 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. rtlnieuws.nl › bevolkingsgroei-2019-migratie-grote-steden Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door 3 jan. 2020 - inwoners waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente republiekallochtonie.nl › blog › feiten › nederlanders-buitenlan Nederlanders buitenlanders allochtonen. De cijfers 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen er in nederland 2020 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 inwoners nederland 1850 inwoners nederland 1923 aantal inwoners nederland 2018 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Frankrijk 66 89 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Feedback Bronnen omvatten: Wereldbank Eurostat Institut national de la statistique et des études économiques Verenigde Naties Links in voettekst Nederland6833 HS Arnhem - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 8.760.000 resultaten (0 45 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 4 0 (45) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Basisrecept voor brood incl. stap voor stap beschrijving - Uit Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Kerf het deeg in met een scherp mes en bak het brood in ongeveer 35 libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenverse- Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook broodsmakelijk.nl › recepten Recepten voor het zelf bakken van brood - Broodsmakelijk Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. rutgerbakt.nl › Brood recepten Basisrecept voor wit brooddeeg - Rutger Bakt Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎45 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Dagelijks brood (uit eigen oven) - Bakken Zoals Oma Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is ah.nl › allerhande › recepten › brood-bakken Brood bakken - Allerhande - Albert Heijn Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept laurasbakery.nl › tips-voor-brood-bakken Tips voor brood bakken - Laura's Bakery Brood bakken recept van laurasbakery.nl 27 jan. 2020 - Nieuwe broodrecepten staan dus steeds vaker op Laura's Bakery en daarmee komen er ook steeds meer vragen over brood bakken binnen. laurasbakery.nl › volkorenbrood Volkorenbrood - Laura's Bakery Brood bakken recept van laurasbakery.nl 11 jul. 2014 - Een lekker recept om zelf volkorenbrood te maken volgens het recept Ik ben nog niet zo'n ervaren broodbakster maar met de uitleg in het patesserie.com › Recepten › Brood Lichtbruin brood uit 'Meer Brood uit eigen Oven' - PaTESSerie Brood bakken recept van patesserie.com 3 uur 15 min 7 feb. 2017 - Het leuke van het nieuwe boek van Levine is dat je bij een flink aantal recepten kunt kiezen voor verschillende opties. Broodbakken op basis Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken simpel brood bakken zelf brood bakken zonder broodbakmachine bruin brood bakken brood bakken in de oven hetelucht lekkerste brood recept zelf brood bakken goedkoper Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6741 Lunteren - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 2.500.000 resultaten (0 44 seconden) Advertenties Advertentie· dier.nu/ ‎ Top 5 Populaire Hondennamen | Bekijk de top 5 | dier.nu‎ ‎ Stichting DierenLot steunt lokale en regionale dierenorganisaties. Helpt u ook mee? Allerlei tips en interessante weetjes vindt u op de website van Stichting DierenLot. Steun Goede Doelen. Help Dieren In Nood. Steun Lokale Initiatieven. Steun de Dieren Dankzij uw eenmalige gift helpt u lokale dierenorganisaties Knaagdierenweetjes Leuke en interessante knaagdierenweetjes. Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen Top 100 stoere hondennamen teefje Aaf. Alexis. Alix. April. Avery. Babet. Babs. Bliss. Blue. Bo. Bowie. Brecht. Cadence. Caro. Fem. Fie. Fiore. Flo. Gigi. Gwen. Hasse. Hope. Indy. Ivy. Izzy. Jane. Jaylinn. Jazz. Liv. Liz. Loïs. Luz. Madison. Mae. Maud. Maxe. Mex. Mijs. Mikki. Moos. Nim. Riley. River. Rixt. Robin. Ronja. Roxy. Sam. Scarlett. Seven. Sis. Sjors. Sjuul. Sky. herdershonden.nl › hondennamen Top 100 Leuke grappige en stoere hondennamen van 2020! Feedback Over samenvattingen Webresultaten dierendokters.com › honden › namen 1001 hondennamen voor je pup reu of teef - DierenDokters Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Engelse hondennamen vind je petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populaire-hond Populaire hondennamen | Petplan.nl 22 jan. 2020 - In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste hondennamen.nl Lijst met alle hondennamen? Vind de perfecte hondennaam Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. honden-plein.nl › hondennamen Leuke grappige en stoere hondennamen | Honden-plein.nl Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je hondennamen.nu Hondennamen - Vind de perfecte naam voor je hond. Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw hondennamen.nu › suggesties › korte-honden-namen Korte hondennamen - Hondennamen Er is een goede reden dat de meest populaire hondennamen (en infeite alle De grote voordelen van een korte naam zijn onder nadere: simpel voor de hond mcvoordieren.nl › hondennamen Hondennamen - Medisch Centrum voor Dieren De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere royalcanin.nl › populaire-kattennamen-populaire-hondennamen Populaire hondennamen | Royal Canin Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak dierennamen.net › hondennamen-op-alfabeti Hondennamen op alfabetische volgorde - Dierennamen Vertaal deze pagina Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Zoekopdrachten gerelateerd aan Honden namen honden namen teef geweldige hondennamen aparte hondennamen honden namen eindigend op ie hondennamen met betekenis brabantse hondennamen tekenfilm hondennamen buitenlandse hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6741 Lunteren - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 298.000 resultaten (0 54 seconden) Zoekresultaten Samenvatting van internet Misschien wil je wel eens weten wat nou het grootste en het kleinste bot in je lichaam is. Het langste bot is in ieder geval het dijbeen. De lengte ervan is meer dan een kwart van je totale lichaamslengte. Het kleinste botje in je lichaam is de stijgbeugel die zit binnen in je oor.24 jul. 2008 scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam-3 Werkstuk Biologie Menselijk lichaam | Scholieren.com Feedback Over samenvattingen Webresultaten nl.wikipedia.org › wiki › Skelet_(mens) Skelet (mens) - Wikipedia Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Het dijbeen staat bekend als het grootste – én sterkste – bot van ons lichaam. De sterkte van het dijbeen nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-licha Wat is het grootste bot in het menselijk lichaam? | Toluna Manfragas. 28 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 Wat Is Het Grootste Bot In Het Lichaam? | 2020 1 feb. 2020 - Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Botten - Menselijk lichaam | Gezondheidsplein.nl Een bot bestaat uit verschillende lagen. De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en bestaat uit een soort natuurinformatie.nl › Homepage › Skeletten Het skelet van de mens - Natuurinformatie De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van maken.wikiwijs.nl › 2_1_Botten 2.1 botten - Lesmateriaal - Wikiwijs 30 okt. 2018 - Wat is het langste bot van jouw lichaam. Wat is Daarom is het belangrijk dat je de menselijke botten leert als basis voordat je die van andere ofa-bamberg.com › › Steun- en bewegingsapparaat Botten - Ofa Bamberg Het dijbeen als het grootste bot van het menselijk lichaam kan maar liefst een gewicht van 1 5 ton (1500 kg.) dragen. Naast deze drukbelasting kunnen onze welingelichtekringen.nl › samenleving › 50-feiten-over-je-licha 50 feiten over je lichaam – Wel.nl 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het grootste botje in je lichaam hoeveel botten heeft een baby welke botten koppelt het bekken aan elkaar sterkste bot menselijk lichaam skelet mens achterkant noem de botten van de onderste ledematen benen hoeveel spieren heeft een mens botten menselijk lichaam Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6741 Lunteren - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 1.060.000 resultaten (0 51 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. dokterdokter.nl › Gezond leven › Eten &amp; drinken Waarom zijn komkommers gezond? | Dokterdokter.nl Feedback Over samenvattingen Webresultaten wisfaq.nl › WisFaq - digitale vraagbaak voor het wiskundeonderwijs 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers facebook.com › DietistZoeetje › posts › een-mens-bestaat-voor- Zoeetje - Een mens bestaat voor 60% uit water komkommer Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. nl.wikipedia.org › wiki › Komkommer Komkommer - Wikipedia De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-kom 100 kilo komkommers bestaan uit 99% water. er verdampt 1 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. startpagina.nl › eten-drinken › vraag › smaakt-komkommer-het Waarom smaakt komkommer niet hetzelfde als water 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de voedingscentrum.nl › encyclopedie › komkommer Komkommer | Voedingscentrum Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een maxvandaag.nl › sessies › themas › eten-drinken › een-komko Een komkommer bevat meer dan water: hierom is hij zo gezond 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de rdzl.nl › komkommers_raadsel › uitleg raadsels en puzzels - rdzl | Komkommers raadsel uitleg Door de hitte bestaan de komkommers aan het eind van de dag nog maar voor 98% uit water. Hoeveel kg komkommers heeft de groenteboer over aan het eind vitens.com › › Blogoverzicht › Hoeveel water zit er per d Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer hoeveel komkommer mag je eten uit hoeveel procent water bestaat tomaat komkommer eten voor het slapen komkommer voedingswaarde hoeveel weegt een komkommer komkommer water schil komkommer giftig? Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6741 Lunteren - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 29.900.000 resultaten (0 78 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten cbs.nl › nl-nl › visualisaties › bevolkingsteller Bevolkingsteller - CBS 20 dec. 2019 - Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in-n Hoeveel mensen wonen er in Nederland? - CBS De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de nl.wikipedia.org › wiki › Bevolking_van_Nederland Bevolking van Nederland - Wikipedia Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in allecijfers.nl › nederland Héél véél informatie over Nederland (update 2019 Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of nrc.nl › nieuws › 2020/01/02 › nederland-heeft-nu-meer-dan-174 Nederland heeft nu meer dan 17 4 miljoen inwoners - NRC 3 jan. 2020 - Nederland heeft er vorig jaar naar schatting 132.000 inwoners bij gekregen en daarmee wonen er nu meer dan 17 4 miljoen mensen in rtlnieuws.nl › bevolkingsgroei-2019-migratie-grote-steden Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door 3 jan. 2020 - inwoners waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente volkskrant.nl › nieuws-achtergrond › bevolking-nederland-groeit- Bevolking Nederland groeit sneller dan verwacht: 18 4 miljoen 17 dec. 2019 - In de komende tien jaar komen er een miljoen mensen bij in Nederland. In 2030 loopt het inwonertal op tot 18 4 miljoen. De bevolkingsgroei republiekallochtonie.nl › blog › feiten › nederlanders-buitenlan Nederlanders buitenlanders allochtonen. De cijfers 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 Nederland groeit in 2018 met 100.000 mensen naar 17 3 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen er in nederland 2020 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 inwoners nederland 1850 inwoners nederland 1923 aantal inwoners nederland 2018 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Frankrijk 66 89 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Feedback Bronnen omvatten: Wereldbank Eurostat Institut national de la statistique et des études économiques Verenigde Naties Links in voettekst Nederland6741 Lunteren - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 8.220.000 resultaten (0 51 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 4 0 (45) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Kerf het deeg in met een scherp mes en bak het brood in ongeveer 35 Zelf brood bakken: 10 ovenverse recepten - Libelle Lekkerlibelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenverse- Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Basisrecept voor wit brooddeeg - Rutger Baktrutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎45 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Recepten voor het zelf bakken van brood - Broodsmakelijkbroodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Dagelijks brood (uit eigen oven) - Bakken Zoals Omabakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Brood bakken - Allerhande - Albert Heijnah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Tips voor brood bakken - Laura's Bakerylaurasbakery.nl › tips-voor-brood-bakken Brood bakken recept van laurasbakery.nl 27 jan. 2020 - Nieuwe broodrecepten staan dus steeds vaker op Laura's Bakery en daarmee komen er ook steeds meer vragen over brood bakken binnen. Volkorenbrood - Laura's Bakerylaurasbakery.nl › volkorenbrood Brood bakken recept van laurasbakery.nl 11 jul. 2014 - Een lekker recept om zelf volkorenbrood te maken volgens het recept Ik ben nog niet zo'n ervaren broodbakster maar met de uitleg in het Lichtbruin brood uit 'Meer Brood uit eigen Oven' - PaTESSerie patesserie.com › Recepten › Brood Brood bakken recept van patesserie.com 3 uur 15 min 7 feb. 2017 - Het leuke van het nieuwe boek van Levine is dat je bij een flink aantal recepten kunt kiezen voor verschillende opties. Broodbakken op basis Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken simpel brood bakken zelf brood bakken zonder broodbakmachine bruin brood bakken brood bakken in de oven hetelucht lekkerste brood recept zelf brood bakken goedkoper Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland8531 BP Lemmer - Uit je plaatsen (werk) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 2.820.000 resultaten (0 50 seconden) Zoekresultaten Zoekprestaties voor deze zoekopdracht onlinehondencursus.nl/ Afgelopen 28 dagen Klikken 0 Geen eerdere gegevens Vertoningen 108 +370% Gem. positie 83 1 +8.4 Manieren bekijken om de prestaties te verbeteren FeedbackAlleen zichtbaar voor u Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDoktersdierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Engelse hondennamen vind je · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2020!herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Populaire hondennamen | Petplan.nlpetplan.nl › dierenadvies › aanschaf-van-je-huisdier › populaire-hond 22 jan. 2020 - In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Leuke grappige en stoere hondennamen | Honden-plein.nlhonden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden honden-plein.nl › hondennamen › hondennamen-teefje Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Hondennamen - Vind de perfecte naam voor je hond.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Hondennamen - Medisch Centrum voor Dierenmcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Populaire hondennamen | Royal Caninroyalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Zoekopdrachten gerelateerd aan Honden namen honden namen teef geweldige hondennamen aparte hondennamen honden namen eindigend op ie hondennamen met betekenis brabantse hondennamen tekenfilm hondennamen buitenlandse hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland8531 BP Lemmer - Uit je plaatsen (werk) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden Gesproken zoekopdracht</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 172.000 resultaten (0 60 seconden) Zoekresultaten Samenvatting van internet Misschien wil je wel eens weten wat nou het grootste en het kleinste bot in je lichaam is. Het langste bot is in ieder geval het dijbeen. De lengte ervan is meer dan een kwart van je totale lichaamslengte. Het kleinste botje in je lichaam is de stijgbeugel die zit binnen in je oor.24 jul. 2008 Werkstuk Biologie Menselijk lichaam | Scholieren.comscholieren.com › verslag › werkstuk-biologie-menselijk-lichaam-3 Feedback Over samenvattingen Webresultaten Skelet (mens) - Wikipedianl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjesalletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Het dijbeen staat bekend als het grootste – én sterkste – bot van ons lichaam. De sterkte van het dijbeen Wat is het grootste bot in het menselijk lichaam? | Tolunanl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-licha Manfragas. 28 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Wat Is Het Grootste Bot In Het Lichaam? | 2020nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 1 feb. 2020 - Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de Botten - Menselijk lichaam | Gezondheidsplein.nlgezondheidsplein.nl › menselijk-lichaam › botten › item45095 Een bot bestaat uit verschillende lagen. De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en bestaat uit een soort Het skelet van de mens - Natuurinformatienatuurinformatie.nl › Homepage › Skeletten De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van 50 feiten over je lichaam – Wel.nlwelingelichtekringen.nl › samenleving › 50-feiten-over-je-licha 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Botten - Kosmisch.nlkosmisch.nl › normal Dat skelet geeft je lichaam stevigheid en beschermt kwetsbare organen. Het grootste bot in je lichaam is je dijbeen het kleinste botje zit in je oor en is 3mm. Botten - Ofa Bambergofa-bamberg.com › › Steun- en bewegingsapparaat Het dijbeen als het grootste bot van het menselijk lichaam kan maar liefst een gewicht van 1 5 ton (1500 kg.) dragen. Naast deze drukbelasting kunnen onze Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het grootste botje in je lichaam hoeveel botten heeft een baby welke botten koppelt het bekken aan elkaar sterkste bot menselijk lichaam skelet mens achterkant noem de botten van de onderste ledematen benen hoeveel spieren heeft een mens botten menselijk lichaam Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland8531 BP Lemmer - Uit je plaatsen (werk) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 240.000 resultaten (0 52 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nldokterdokter.nl › Gezond leven › Eten &amp; drinken Feedback Over samenvattingen Webresultaten Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voor- Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. WisFaq - digitale vraagbaak voor het wiskundeonderwijswisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Komkommer - Wikipedianl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-kom 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-het 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrumvoedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een Een komkommer bevat meer dan water: hierom is hij zo gezondmaxvandaag.nl › sessies › themas › eten-drinken › een-komko 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitensvitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer hoeveel komkommer mag je eten uit hoeveel procent water bestaat tomaat komkommer eten voor het slapen komkommer voedingswaarde hoeveel weegt een komkommer komkommer water schil komkommer giftig? Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland8531 BP Lemmer - Uit je plaatsen (werk) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 22.000.000 resultaten (0 81 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBScbs.nl › nl-nl › visualisaties › bevolkingsteller 20 dec. 2019 - Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Je hebt deze pagina 3 keer bezocht. Laatste bezoek: 9-2-20 Hoeveel mensen wonen er in Nederland? - CBScbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in-n De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Bevolking van Nederland - Wikipedianl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Nederland heeft nu meer dan 17 4 miljoen inwoners - NRCnrc.nl › nieuws › 2020/01/02 › nederland-heeft-nu-meer-dan-174 3 jan. 2020 - Nederland heeft er vorig jaar naar schatting 132.000 inwoners bij gekregen en daarmee wonen er nu meer dan 17 4 miljoen mensen in Bevolking Nederland groeit sneller dan verwacht: 18 4 miljoen volkskrant.nl › nieuws-achtergrond › bevolking-nederland-groeit- 17 dec. 2019 - In de komende tien jaar komen er een miljoen mensen bij in Nederland. In 2030 loopt het inwonertal op tot 18 4 miljoen. De bevolkingsgroei Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door rtlnieuws.nl › bevolkingsgroei-2019-migratie-grote-steden 3 jan. 2020 - inwoners waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente Nederlanders buitenlanders allochtonen. De cijfersrepubliekallochtonie.nl › blog › feiten › nederlanders-buitenlan 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen er in nederland 2020 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 inwoners nederland 1850 inwoners nederland 1923 aantal inwoners nederland 2018 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa Gerelateerde gebeurtenissen Wereldkampioenschappen schaatsen afstanden 2020 Wedstrijd · 13–16 feb. Concurrent BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Frankrijk 66 89 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Feedback Bronnen omvatten: Wereldbank Eurostat Institut national de la statistique et des études économiques Verenigde Naties Links in voettekst Nederland8531 BP Lemmer - Uit je plaatsen (werk) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 8.220.000 resultaten (0 42 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 4 0 (45) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Kerf het deeg in met een scherp mes en bak het brood in ongeveer 35 Zelf brood bakken: 10 ovenverse recepten - Libelle Lekkerlibelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenverse- Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Basisrecept voor wit brooddeeg - Rutger Baktrutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎45 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Recepten voor het zelf bakken van brood - Broodsmakelijkbroodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Dagelijks brood (uit eigen oven) - Bakken Zoals Omabakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Brood bakken - Allerhande - Albert Heijnah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Tips voor brood bakken - Laura's Bakerylaurasbakery.nl › tips-voor-brood-bakken Brood bakken recept van laurasbakery.nl 27 jan. 2020 - Nieuwe broodrecepten staan dus steeds vaker op Laura's Bakery en daarmee komen er ook steeds meer vragen over brood bakken binnen. Volkorenbrood - Laura's Bakerylaurasbakery.nl › volkorenbrood Brood bakken recept van laurasbakery.nl 11 jul. 2014 - Een lekker recept om zelf volkorenbrood te maken volgens het recept Ik ben nog niet zo'n ervaren broodbakster maar met de uitleg in het Lichtbruin brood uit 'Meer Brood uit eigen Oven' - PaTESSerie patesserie.com › Recepten › Brood Brood bakken recept van patesserie.com 3 uur 15 min 7 feb. 2017 - Het leuke van het nieuwe boek van Levine is dat je bij een flink aantal recepten kunt kiezen voor verschillende opties. Broodbakken op basis Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken simpel brood bakken zelf brood bakken zonder broodbakmachine bruin brood bakken brood bakken in de oven hetelucht lekkerste brood recept zelf brood bakken goedkoper Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland8922 GX Leeuwarden - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 3.060.000 resultaten (0 37 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen Top 100 stoere hondennamen teefje Aaf. Alexis. Alix. April. Avery. Babet. Babs. Bliss. Blue. Bo. Bowie. Brecht. Cadence. Caro. Fem. Fie. Fiore. Flo. Gigi. Gwen. Hasse. Hope. Indy. Ivy. Izzy. Jane. Jaylinn. Jazz. Liv. Liz. Loïs. Luz. Madison. Mae. Maud. Maxe. Mex. Mijs. Mikki. Moos. Nim. Riley. River. Rixt. Robin. Ronja. Roxy. Sam. Scarlett. Seven. Sis. Sjors. Sjuul. Sky. Top 100 Leuke grappige en stoere hondennamen van 2020!herdershonden.nl › hondennamen Feedback Over samenvattingen Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDoktersdierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Engelse hondennamen vind je Populaire hondennamen | Petplan.nlpetplan.nl › dierenadvies › aanschaf-van-je-huisdier › populaire-hond 22 jan. 2020 - In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Hondennamen - Vind de perfecte naam voor je hond.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Leuke grappige en stoere hondennamen | Honden-plein.nlhonden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden honden-plein.nl › hondennamen › hondennamen-teefje Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Hondennamen - Medisch Centrum voor Dierenmcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Populaire hondennamen | Royal Caninroyalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Hondennamen op alfabetische volgorde - Dierennamendierennamen.net › hondennamen-op-alfabeti Vertaal deze pagina Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Zoekopdrachten gerelateerd aan Honden namen honden namen teef aparte hondennamen geweldige hondennamen hondennamen met betekenis brabantse hondennamen honden namen eindigend op ie tekenfilm hondennamen buitenlandse hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland8922 GX Leeuwarden - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 162.000 resultaten (0 47 seconden) Zoekresultaten Samenvatting van internet Misschien wil je wel eens weten wat nou het grootste en het kleinste bot in je lichaam is. Het langste bot is in ieder geval het dijbeen. De lengte ervan is meer dan een kwart van je totale lichaamslengte. Het kleinste botje in je lichaam is de stijgbeugel die zit binnen in je oor.24 jul. 2008 Werkstuk Biologie Menselijk lichaam | Scholieren.comscholieren.com › verslag › werkstuk-biologie-menselijk-lichaam-3 Feedback Over samenvattingen Webresultaten Skelet (mens) - Wikipedianl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjesalletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Wat is het grootste bot in het menselijk lichaam? | Tolunanl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-licha Manfragas. 28 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Wat Is Het Grootste Bot In Het Lichaam? | 2020nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 1 feb. 2020 - Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de Botten - Menselijk lichaam | Gezondheidsplein.nlgezondheidsplein.nl › menselijk-lichaam › botten › item45095 Een bot bestaat uit verschillende lagen. De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en bestaat uit een soort Het skelet van de mens - Natuurinformatienatuurinformatie.nl › Homepage › Skeletten De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van Botten - Kosmisch.nlkosmisch.nl › normal Dat skelet geeft je lichaam stevigheid en beschermt kwetsbare organen. Het grootste bot in je lichaam is je dijbeen het kleinste botje zit in je oor en is 3mm. 50 feiten over je lichaam – Wel.nlwelingelichtekringen.nl › samenleving › 50-feiten-over-je-licha 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Skelet - 22 definities - Encycloencyclo.nl › begrip › skelet Het menselijk skelet bevat 206 verschillende botten waarvan de kleinste drie in het middenoor zitten Het grootste bot in het menselijk lichaam is het dijbeen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het grootste botje in je lichaam hoeveel botten heeft een baby welke botten koppelt het bekken aan elkaar sterkste bot menselijk lichaam skelet mens achterkant noem de botten van de onderste ledematen benen hoeveel spieren heeft een mens botten menselijk lichaam Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland8922 GX Leeuwarden - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 1.090.000 resultaten (0 51 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nldokterdokter.nl › Gezond leven › Eten &amp; drinken Feedback Over samenvattingen Webresultaten WisFaq - digitale vraagbaak voor het wiskundeonderwijswisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voor- Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedianl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-kom 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-het 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrumvoedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een Een komkommer bevat meer dan water: hierom is hij zo gezondmaxvandaag.nl › sessies › themas › eten-drinken › een-komko 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitensvitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer hoeveel komkommer mag je eten uit hoeveel procent water bestaat tomaat komkommer eten voor het slapen hoeveel weegt een komkommer komkommer water komkommer voedingswaarde schil komkommer giftig? Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland8922 GX Leeuwarden - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 22.000.000 resultaten (0 88 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBScbs.nl › nl-nl › visualisaties › bevolkingsteller 20 dec. 2019 - Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBScbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in-n De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Bevolking van Nederland - Wikipedianl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Nederland heeft nu meer dan 17 4 miljoen inwoners - NRCnrc.nl › nieuws › 2020/01/02 › nederland-heeft-nu-meer-dan-174 3 jan. 2020 - Nederland heeft er vorig jaar naar schatting 132.000 inwoners bij gekregen en daarmee wonen er nu meer dan 17 4 miljoen mensen in Bevolking Nederland groeit sneller dan verwacht: 18 4 miljoen volkskrant.nl › nieuws-achtergrond › bevolking-nederland-groeit- 17 dec. 2019 - In de komende tien jaar komen er een miljoen mensen bij in Nederland. In 2030 loopt het inwonertal op tot 18 4 miljoen. De bevolkingsgroei Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door rtlnieuws.nl › bevolkingsgroei-2019-migratie-grote-steden 3 jan. 2020 - inwoners waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente Nederlanders buitenlanders allochtonen. De cijfersrepubliekallochtonie.nl › blog › feiten › nederlanders-buitenlan 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen er in nederland 2020 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 inwoners nederland 1850 inwoners nederland 1923 aantal inwoners nederland 2018 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa Gerelateerde gebeurtenissen Wereldkampioenschappen schaatsen afstanden 2020 Wedstrijd · 13–16 feb. Concurrent BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Frankrijk 66 89 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Feedback Bronnen omvatten: Wereldbank Eurostat Institut national de la statistique et des études économiques Verenigde Naties Links in voettekst Nederland8922 GX Leeuwarden - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 8.260.000 resultaten (0 36 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 4 0 (45) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Kerf het deeg in met een scherp mes en bak het brood in ongeveer 35 Zelf brood bakken: 10 ovenverse recepten - Libelle Lekkerlibelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenverse- Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Basisrecept voor wit brooddeeg - Rutger Baktrutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎45 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Recepten voor het zelf bakken van brood - Broodsmakelijkbroodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Dagelijks brood (uit eigen oven) - Bakken Zoals Omabakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Brood bakken - Allerhande - Albert Heijnah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Tips voor brood bakken - Laura's Bakerylaurasbakery.nl › tips-voor-brood-bakken Brood bakken recept van laurasbakery.nl 27 jan. 2020 - Nieuwe broodrecepten staan dus steeds vaker op Laura's Bakery en daarmee komen er ook steeds meer vragen over brood bakken binnen. Volkorenbrood - Laura's Bakerylaurasbakery.nl › volkorenbrood Brood bakken recept van laurasbakery.nl 11 jul. 2014 - Een lekker recept om zelf volkorenbrood te maken volgens het recept Ik ben nog niet zo'n ervaren broodbakster maar met de uitleg in het Het makkelijkste brood dat je ooit zal maken - Culy.nlculy.nl › Recepten › Wat eten we vandaag? › Diner Brood bakken recept van culy.nl 30 jan. 2014 - De gedachte dat brood maken alleen weggelegd is voor bakkers en uren aan kneedwerk onlangs dit supermakkelijke recept waarbij geen kneden aan te pas komt. Tijdens het bakken zal dit nog gelijkmatiger worden. Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken simpel brood bakken zelf brood bakken zonder broodbakmachine bruin brood bakken brood bakken in de oven hetelucht lekkerste brood recept zelf brood bakken goedkoper Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandHeerenveen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 2.510.000 resultaten (0 53 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Honden namen Top 100 stoere hondennamen teefje Aaf. Alexis. Alix. April. Avery. Babet. Babs. Bliss. Blue. Bo. Bowie. Brecht. Cadence. Caro. Fem. Fie. Fiore. Flo. Gigi. Gwen. Hasse. Hope. Indy. Ivy. Izzy. Jane. Jaylinn. Jazz. Liv. Liz. Loïs. Luz. Madison. Mae. Maud. Maxe. Mex. Mijs. Mikki. Moos. Nim. Riley. River. Rixt. Robin. Ronja. Roxy. Sam. Scarlett. Seven. Sis. Sjors. Sjuul. Sky. Top 100 Leuke grappige en stoere hondennamen van 2020!herdershonden.nl › hondennamen Feedback Over samenvattingen Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDoktersdierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Engelse hondennamen vind je · ‎Grappig Populaire hondennamen | Petplan.nlpetplan.nl › dierenadvies › aanschaf-van-je-huisdier › populaire-hond 22 jan. 2020 - In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Hondennamen - Vind de perfecte naam voor je hond.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Leuke grappige en stoere hondennamen | Honden-plein.nlhonden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden honden-plein.nl › hondennamen › hondennamen-teefje Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Hondennamen - Medisch Centrum voor Dierenmcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Populaire hondennamen | Royal Caninroyalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Hondennamen op alfabetische volgorde - Dierennamendierennamen.net › hondennamen-op-alfabeti Vertaal deze pagina Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Zoekopdrachten gerelateerd aan Honden namen honden namen teef aparte hondennamen geweldige hondennamen hondennamen met betekenis brabantse hondennamen honden namen eindigend op ie tekenfilm hondennamen buitenlandse hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandHeerenveen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 166.000 resultaten (0 41 seconden) Zoekresultaten Samenvatting van internet Misschien wil je wel eens weten wat nou het grootste en het kleinste bot in je lichaam is. Het langste bot is in ieder geval het dijbeen. De lengte ervan is meer dan een kwart van je totale lichaamslengte. Het kleinste botje in je lichaam is de stijgbeugel die zit binnen in je oor.24 jul. 2008 Werkstuk Biologie Menselijk lichaam | Scholieren.comscholieren.com › verslag › werkstuk-biologie-menselijk-lichaam-3 Feedback Over samenvattingen Webresultaten Skelet (mens) - Wikipedianl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjesalletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Wat is het grootste bot in het menselijk lichaam? | Tolunanl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-licha Manfragas. 28 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Wat Is Het Grootste Bot In Het Lichaam? | 2020nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 1 feb. 2020 - Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de Botten - Menselijk lichaam | Gezondheidsplein.nlgezondheidsplein.nl › menselijk-lichaam › botten › item45095 Een bot bestaat uit verschillende lagen. De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en bestaat uit een soort Het skelet van de mens - Natuurinformatienatuurinformatie.nl › Homepage › Skeletten De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van 50 feiten over je lichaam – Wel.nlwelingelichtekringen.nl › samenleving › 50-feiten-over-je-licha 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Botten - Ofa Bambergofa-bamberg.com › › Steun- en bewegingsapparaat Het dijbeen als het grootste bot van het menselijk lichaam kan maar liefst een gewicht van 1 5 ton (1500 kg.) dragen. Naast deze drukbelasting kunnen onze Skelet - 22 definities - Encycloencyclo.nl › begrip › skelet Het menselijk skelet bevat 206 verschillende botten waarvan de kleinste drie in het middenoor zitten Het grootste bot in het menselijk lichaam is het dijbeen. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het grootste botje in je lichaam hoeveel botten heeft een baby noem de botten van de bovenste ledematen armen sterkste bot menselijk lichaam skelet mens achterkant noem de botten van de onderste ledematen benen hoeveel spieren heeft een mens botten menselijk lichaam Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandHeerenveen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 230.000 resultaten (0 43 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nldokterdokter.nl › Gezond leven › Eten &amp; drinken Feedback Over samenvattingen Webresultaten WisFaq - digitale vraagbaak voor het wiskundeonderwijswisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voor- Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedianl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-kom 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-het 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrumvoedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een Een komkommer bevat meer dan water: hierom is hij zo gezondmaxvandaag.nl › sessies › themas › eten-drinken › een-komko 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitensvitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer hoeveel komkommer mag je eten uit hoeveel procent water bestaat tomaat komkommer eten voor het slapen hoeveel weegt een komkommer komkommer water komkommer voedingswaarde schil komkommer giftig? Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandHeerenveen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 28.700.000 resultaten (0 77 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBScbs.nl › nl-nl › visualisaties › bevolkingsteller 20 dec. 2019 - Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBScbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in-n De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Bevolking van Nederland - Wikipedianl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Nederland heeft nu meer dan 17 4 miljoen inwoners - NRCnrc.nl › nieuws › 2020/01/02 › nederland-heeft-nu-meer-dan-174 3 jan. 2020 - Nederland heeft er vorig jaar naar schatting 132.000 inwoners bij gekregen en daarmee wonen er nu meer dan 17 4 miljoen mensen in Bevolking Nederland groeit sneller dan verwacht: 18 4 miljoen volkskrant.nl › nieuws-achtergrond › bevolking-nederland-groeit- 17 dec. 2019 - In de komende tien jaar komen er een miljoen mensen bij in Nederland. In 2030 loopt het inwonertal op tot 18 4 miljoen. De bevolkingsgroei Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door rtlnieuws.nl › bevolkingsgroei-2019-migratie-grote-steden 3 jan. 2020 - inwoners waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlanders buitenlanders allochtonen. De cijfersrepubliekallochtonie.nl › blog › feiten › nederlanders-buitenlan 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen er in nederland 2020 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 inwoners nederland 1850 inwoners nederland 1923 aantal inwoners nederland 2018 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa Beschrijving BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde gebeurtenissen Wereldkampioenschappen schaatsen afstanden 2020 Wedstrijd · 13–16 feb. Concurrent Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Frankrijk 66 89 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Mensen zoeken ook naar Nog 10+ weergeven Amsterdam Amsterdam België België Luxemburg Luxemburg Noorwegen Noorwegen Denemarken Denemarken Feedback Links in voettekst NederlandHeerenveen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 7.180.000 resultaten (0 45 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 4 0 (45) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Het makkelijkste brood dat je ooit zal maken Culy Geen reviews Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Kerf het deeg in met een scherp mes en bak het brood in ongeveer 35 Zelf brood bakken: 10 ovenverse recepten - Libelle Lekkerlibelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenverse- Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Basisrecept voor wit brooddeeg - Rutger Baktrutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎45 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Recepten voor het zelf bakken van brood - Broodsmakelijkbroodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Dagelijks brood (uit eigen oven) - Bakken Zoals Omabakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Brood bakken - Allerhande - Albert Heijnah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Tips voor brood bakken - Laura's Bakerylaurasbakery.nl › tips-voor-brood-bakken Brood bakken recept van laurasbakery.nl 27 jan. 2020 - Nieuwe broodrecepten staan dus steeds vaker op Laura's Bakery en daarmee komen er ook steeds meer vragen over brood bakken binnen. Volkorenbrood - Laura's Bakerylaurasbakery.nl › volkorenbrood Brood bakken recept van laurasbakery.nl 11 jul. 2014 - Een lekker recept om zelf volkorenbrood te maken volgens het recept Ik ben nog niet zo'n ervaren broodbakster maar met de uitleg in het Het makkelijkste brood dat je ooit zal maken - Culy.nlculy.nl › Recepten › Wat eten we vandaag? › Diner Brood bakken recept van culy.nl 30 jan. 2014 - De gedachte dat brood maken alleen weggelegd is voor bakkers en uren aan kneedwerk onlangs dit supermakkelijke recept waarbij geen kneden aan te pas komt. Tijdens het bakken zal dit nog gelijkmatiger worden. Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine volkoren brood bakken simpel brood bakken zelf brood bakken zonder broodbakmachine bruin brood bakken brood bakken in de oven hetelucht lekkerste brood recept zelf brood bakken goedkoper Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland8531 BP Lemmer - Uit je plaatsen (werk) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 2.630.000 resultaten (0 41 seconden) Zoekresultaten Zoekprestaties voor deze zoekopdracht onlinehondencursus.nl/ Afgelopen 28 dagen Klikken 0 Geen eerdere gegevens Vertoningen 106 +231% Gem. positie 83 0 +5.9 Manieren bekijken om de prestaties te verbeteren FeedbackAlleen zichtbaar voor u Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDoktersdierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Engelse hondennamen vind je · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2020!herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Populaire hondennamen | Petplan.nlpetplan.nl › dierenadvies › aanschaf-van-je-huisdier › populaire-hond 22 jan. 2020 - In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Leuke grappige en stoere hondennamen | Honden-plein.nlhonden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden honden-plein.nl › hondennamen › hondennamen-teefje Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Hondennamen - Vind de perfecte naam voor je hond.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Hondennamen - Medisch Centrum voor Dierenmcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Populaire hondennamen | Royal Caninroyalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Zoekopdrachten gerelateerd aan Honden namen honden namen teef geweldige hondennamen aparte hondennamen honden namen eindigend op ie hondennamen met betekenis brabantse hondennamen tekenfilm hondennamen buitenlandse hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland8531 BP Lemmer - Uit je plaatsen (werk) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 304.000 resultaten (0 63 seconden) Zoekresultaten Samenvatting van internet Misschien wil je wel eens weten wat nou het grootste en het kleinste bot in je lichaam is. Het langste bot is in ieder geval het dijbeen. De lengte ervan is meer dan een kwart van je totale lichaamslengte. Het kleinste botje in je lichaam is de stijgbeugel die zit binnen in je oor.24 jul. 2008 Werkstuk Biologie Menselijk lichaam | Scholieren.comscholieren.com › verslag › werkstuk-biologie-menselijk-lichaam-3 Feedback Over samenvattingen Webresultaten Skelet (mens) - Wikipedianl.wikipedia.org › wiki › Skelet_(mens) Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de de schouder. In het skelet zit beenmerg wat belangrijk is voor hematopoëse. Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjesalletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Wat is het grootste bot in het menselijk lichaam? | Tolunanl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-licha Manfragas. 28 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Wat Is Het Grootste Bot In Het Lichaam? | 2020nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 1 feb. 2020 - Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de Botten - Menselijk lichaam | Gezondheidsplein.nlgezondheidsplein.nl › menselijk-lichaam › botten › item45095 Een bot bestaat uit verschillende lagen. De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en bestaat uit een soort Het skelet van de mens - Natuurinformatienatuurinformatie.nl › Homepage › Skeletten De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van 50 feiten over je lichaam – Wel.nlwelingelichtekringen.nl › samenleving › 50-feiten-over-je-licha 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Wat is het grootste bot in je lichaam? wat is het kleinste bot in competicionesdemotos.com › koos-konijn › wat-is-het-kleinste-bot-in 8 mrt. 2019 - Fibula is het andere bot van de twee botten namelijk het kuitbeen aan Aantal ribben De ribben in het menselijk lichaam vormen een soort Botten - Kosmisch.nlkosmisch.nl › normal Dat skelet geeft je lichaam stevigheid en beschermt kwetsbare organen. Het grootste bot in je lichaam is je dijbeen het kleinste botje zit in je oor en is 3mm. Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland8531 BP Lemmer - Uit je plaatsen (werk) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 242.000 resultaten (0 43 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nldokterdokter.nl › Gezond leven › Eten &amp; drinken Feedback Over samenvattingen Webresultaten WisFaq - digitale vraagbaak voor het wiskundeonderwijswisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voor- Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedianl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-kom 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-het 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrumvoedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een Een komkommer bevat meer dan water: hierom is hij zo gezondmaxvandaag.nl › sessies › themas › eten-drinken › een-komko 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitensvitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer hoeveel komkommer mag je eten uit hoeveel procent water bestaat tomaat komkommer eten voor het slapen hoeveel weegt een komkommer komkommer water komkommer voedingswaarde komkommer hoeveel procent water Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland8531 BP Lemmer - Uit je plaatsen (werk) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 31.100.000 resultaten (0 80 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBScbs.nl › nl-nl › visualisaties › bevolkingsteller 20 dec. 2019 - Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Je hebt deze pagina 3 keer bezocht. Laatste bezoek: 9-2-20 Hoeveel mensen wonen er in Nederland? - CBScbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in-n De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Bevolking van Nederland - Wikipedianl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Bekijk de informatie over meer dan 100 onderwerpen voor Nederland. Deze onderwerpen zijn op AlleCijfers ook per gemeente woonplaats postcode wijk of Nederland heeft nu meer dan 17 4 miljoen inwoners - NRCnrc.nl › nieuws › 2020/01/02 › nederland-heeft-nu-meer-dan-174 3 jan. 2020 - Nederland heeft er vorig jaar naar schatting 132.000 inwoners bij gekregen en daarmee wonen er nu meer dan 17 4 miljoen mensen in Bevolking Nederland groeit sneller dan verwacht: 18 4 miljoen volkskrant.nl › nieuws-achtergrond › bevolking-nederland-groeit- 17 dec. 2019 - In de komende tien jaar komen er een miljoen mensen bij in Nederland. In 2030 loopt het inwonertal op tot 18 4 miljoen. De bevolkingsgroei Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door rtlnieuws.nl › bevolkingsgroei-2019-migratie-grote-steden 3 jan. 2020 - inwoners waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Nederlanders buitenlanders allochtonen. De cijfersrepubliekallochtonie.nl › blog › feiten › nederlanders-buitenlan 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen er in nederland 2020 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 inwoners nederland 1850 inwoners nederland 1923 aantal inwoners nederland 2018 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa Gerelateerde gebeurtenissen Wereldkampioenschappen schaatsen afstanden 2020 Wedstrijd · 13–16 feb. Concurrent BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Frankrijk 66 89 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Feedback Bronnen omvatten: Wereldbank Eurostat Institut national de la statistique et des études économiques Verenigde Naties Links in voettekst Nederland8531 BP Lemmer - Uit je plaatsen (werk) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Zoekmodi Alle Afbeeldingen Video's Shopping Maps Meer InstellingenTools Ongeveer 7.660.000 resultaten (0 44 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 4 0 (45) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Kerf het deeg in met een scherp mes en bak het brood in ongeveer 35 Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenverse- Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Tips voor brood bakken - Laura's Bakery laurasbakery.nl › tips-voor-brood-bakken 27 jan. 2020 - Nieuwe broodrecepten staan dus steeds vaker op Laura's Bakery en daarmee komen er ook steeds meer vragen over brood bakken binnen. Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Beoordeling: 4 - ‎45 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt rutgerbakt.nl › Brood recepten Beoordeling: 4 - ‎13 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Het makkelijkste brood dat je ooit zal maken - Culy.nl culy.nl › Recepten › Wat eten we vandaag? › Diner 30 jan. 2014 - De gedachte dat brood maken alleen weggelegd is voor bakkers en uren aan kneedwerk onlangs dit supermakkelijke recept waarbij geen kneden aan te pas komt. Tijdens het bakken zal dit nog gelijkmatiger worden. Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine simpel brood bakken zelf brood bakken zonder broodbakmachine lekkerste brood recept volkoren brood bakken luchtig wit brood bakken bruin brood bakken brood bakken benodigdheden Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland3062 Rotterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Zoekmodi Alle Afbeeldingen Shopping Video's Nieuws Meer InstellingenTools Ongeveer 2.110.000 resultaten (0 41 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Zoekresultaten Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Engelse hondennamen vind je · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2020! herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Populaire hondennamen | Petplan.nl petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populaire-hond 22 jan. 2020 - In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden honden-plein.nl › hondennamen › hondennamen-teefje Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Populaire hondennamen | Royal Canin royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Hondennamen op alfabetische volgorde - Dierennamen dierennamen.net › hondennamen-op-alfabeti Vertaal deze pagina Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Zoekopdrachten gerelateerd aan Honden namen honden namen teef aparte hondennamen geweldige hondennamen hondennamen met betekenis brabantse hondennamen honden namen eindigend op ie tekenfilm hondennamen buitenlandse hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland3062 Rotterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Zoekmodi Alle Afbeeldingen Shopping Video's Nieuws Meer InstellingenTools Ongeveer 165.000 resultaten (0 42 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Zoekresultaten Samenvatting van internet Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over samenvattingen Webresultaten Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam Menselijk lichaam. Beoordeling 5 2. Foto van een scholier. Werkstuk door een scholier Klas onbekend | 952 woorden 24 juli 2008 38 keer beoordeeld. Cijfer Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Het dijbeen staat bekend als het grootste – én sterkste – bot van ons lichaam. De sterkte van het dijbeen Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-licha Manfragas. 28 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Wat Is Het Grootste Bot In Het Lichaam? | 2020 nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 1 feb. 2020 - Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Een bot bestaat uit verschillende lagen. De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en bestaat uit een soort Het skelet van de mens - Natuurinformatie natuurinformatie.nl › Homepage › Skeletten De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van Wat is het grootste bot in je lichaam? wat is het kleinste bot in competicionesdemotos.com › koos-konijn › wat-is-het-kleinste-bot-in 8 mrt. 2019 - Fibula is het andere bot van de twee botten namelijk het kuitbeen aan Aantal ribben De ribben in het menselijk lichaam vormen een soort 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50-feiten-over-je-licha 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Botten - Kosmisch.nl kosmisch.nl › normal Dat skelet geeft je lichaam stevigheid en beschermt kwetsbare organen. Het grootste bot in je lichaam is je dijbeen het kleinste botje zit in je oor en is 3mm. Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het grootste botje in je lichaam hoeveel botten heeft een baby noem de botten van de bovenste ledematen armen sterkste bot menselijk lichaam skelet mens achterkant hoeveel botten heeft een baby bij geboorte noem de botten van de onderste ledematen benen hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland3062 Rotterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden </t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Zoekmodi Alle Afbeeldingen Shopping Video's Nieuws Meer InstellingenTools Ongeveer 1.040.000 resultaten (0 45 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › Gezond leven › Eten &amp; drinken Feedback Over samenvattingen Webresultaten WisFaq - digitale vraagbaak voor het wiskundeonderwijs wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voor- Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-kom 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-het 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › sessies › themas › eten-drinken › een-komko 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer hoeveel komkommer mag je eten komkommer eten voor het slapen schil komkommer giftig? uit hoeveel procent water bestaat tomaat waar is komkommer goed voor komkommer water hoeveel weegt een komkommer Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland3062 Rotterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Zoekmodi Alle Afbeeldingen Shopping Nieuws Maps Meer InstellingenTools Ongeveer 27.400.000 resultaten (0 70 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) 1960 1970 1980 1990 2000 2010 20.000.000 20.000.000 15.000.000 15.000.000 10.000.000 10.000.000 5.000.000 5.000.000 0 0 • Nederland 17 18 miljoen ‌ • België 11 4 miljoen ‌ • Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller 20 dec. 2019 - Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in-n De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking groeit naar ruim 17 4 miljoen inwoners - CBS cbs.nl › nl-nl › nieuws › 2020/01 › bevolking-groeit-naar-ruim- 3 jan. 2020 - Per saldo kwamen er in 2019 uit alle werelddelen meer mensen naar Nederland dan in 2018. Dat geldt ook voor mensen die in Nederland Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Bevolkingssamenstelling Nederland heeft nu meer dan 17 4 miljoen inwoners - NRC nrc.nl › nieuws › 2020/01/02 › nederland-heeft-nu-meer-dan-174 3 jan. 2020 - Nederland heeft er vorig jaar naar schatting 132.000 inwoners bij gekregen en daarmee wonen er nu meer dan 17 4 miljoen mensen in Bijna 40 procent inwoners Nederland heeft in 2060 - NRC nrc.nl › nieuws › 2019/12/16 › bijna-40-procent-inwoners-nederla 17 dec. 2019 - In het jaar 2060 heeft 39 procent van de inwoners van Nederland een migratieachtergrond. Er wonen dan bijna 20 miljoen mensen in Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Nederland in cijfers en grafieken met meer dan 100 onderwerpen! [17.282.163 inwoners met 7.740.984 woningen met een gemiddelde waarde van €230.000 Bevolking Nederland groeit sneller dan verwacht: 18 4 miljoen volkskrant.nl › nieuws-achtergrond › bevolking-nederland-groeit- 17 dec. 2019 - In de komende tien jaar komen er een miljoen mensen bij in Nederland. In 2030 loopt het inwonertal op tot 18 4 miljoen. De bevolkingsgroei Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederlanders-buitenlan 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door rtlnieuws.nl › bevolkingsgroei-2019-migratie-grote-steden 3 jan. 2020 - inwoners waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen er in nederland 2020 aantal inwoners nederland 2019 aantal inwoners nederland 1600 bevolking nederland 2019 hoeveel mensen wonen in nederland 2019 inwoners nederland 2020 inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Nederland Land in Europa Gerelateerde gebeurtenissen Wereldkampioenschappen schaatsen afstanden 2020 Wedstrijd · 13–16 feb. Concurrent Beschrijving Nederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Frankrijk 66 89 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Feedback Bronnen omvatten: Wereldbank Eurostat Institut national de la statistique et des études économiques Verenigde Naties Links in voettekst Nederland3062 Rotterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Zoekmodi Alle Afbeeldingen Video's Shopping Maps Meer InstellingenTools Ongeveer 7.390.000 resultaten (0 47 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 4 0 (45) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Kerf het deeg in met een scherp mes en bak het brood in ongeveer 35 Zelf brood bakken: 10 ovenverse recepten - Libelle Lekker libelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenverse- Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Tips voor brood bakken - Laura's Bakery laurasbakery.nl › tips-voor-brood-bakken 27 jan. 2020 - Nieuwe broodrecepten staan dus steeds vaker op Laura's Bakery en daarmee komen er ook steeds meer vragen over brood bakken binnen. Recepten voor het zelf bakken van brood - Broodsmakelijk broodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Basisrecept voor wit brooddeeg - Rutger Bakt rutgerbakt.nl › Brood recepten Beoordeling: 4 - ‎45 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Bakt rutgerbakt.nl › Brood recepten Beoordeling: 4 - ‎13 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Dagelijks brood (uit eigen oven) - Bakken Zoals Oma bakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Brood bakken - Allerhande - Albert Heijn ah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Het makkelijkste brood dat je ooit zal maken - Culy.nl culy.nl › Recepten › Wat eten we vandaag? › Diner 30 jan. 2014 - De gedachte dat brood maken alleen weggelegd is voor bakkers en uren aan kneedwerk onlangs dit supermakkelijke recept waarbij geen kneden aan te pas komt. Tijdens het bakken zal dit nog gelijkmatiger worden. Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine simpel brood bakken zelf brood bakken zonder broodbakmachine lekkerste brood recept volkoren brood bakken luchtig wit brood bakken bruin brood bakken brood bakken benodigdheden Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNoord Rotterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Zoekmodi Alle Afbeeldingen Shopping Video's Nieuws Meer InstellingenTools Ongeveer 2.340.000 resultaten (0 36 seconden) Zoekresultaten Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDokters dierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Engelse hondennamen vind je Top 100 Leuke grappige en stoere hondennamen van 2020! herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Populaire hondennamen | Petplan.nl petplan.nl › dierenadvies › aanschaf-van-je-huisdier › populaire-hond 22 jan. 2020 - In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Hondennamen - Medisch Centrum voor Dieren mcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Hondennamen - Vind de perfecte naam voor je hond. hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Leuke grappige en stoere hondennamen | Honden-plein.nl honden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden honden-plein.nl › hondennamen › hondennamen-teefje Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Populaire hondennamen | Royal Canin royalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Hondennamen op alfabetische volgorde - Dierennamen dierennamen.net › hondennamen-op-alfabeti Vertaal deze pagina Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Zoekopdrachten gerelateerd aan Honden namen honden namen teef geweldige hondennamen aparte hondennamen hondennamen met betekenis honden namen eindigend op ie brabantse hondennamen buitenlandse hondennamen tekenfilm hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNoord Rotterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Zoekmodi Alle Afbeeldingen Shopping Video's Nieuws Meer InstellingenTools Ongeveer 186.000 resultaten (0 47 seconden) Zoekresultaten Samenvatting van internet Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedia nl.wikipedia.org › wiki › Skelet_(mens) Feedback Over samenvattingen Webresultaten Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjes alletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Het dijbeen staat bekend als het grootste – én sterkste – bot van ons lichaam. De sterkte van het dijbeen Werkstuk Biologie Menselijk lichaam | Scholieren.com scholieren.com › verslag › werkstuk-biologie-menselijk-lichaam Menselijk lichaam. Beoordeling 5 2. Foto van een scholier. Werkstuk door een scholier Klas onbekend | 952 woorden 24 juli 2008 38 keer beoordeeld. Cijfer Wat is het grootste bot in het menselijk lichaam? | Toluna nl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-licha Manfragas. 28 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Wat Is Het Grootste Bot In Het Lichaam? | 2020 nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 1 feb. 2020 - Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de Botten - Menselijk lichaam | Gezondheidsplein.nl gezondheidsplein.nl › menselijk-lichaam › botten › item45095 Een bot bestaat uit verschillende lagen. De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en bestaat uit een soort Het skelet van de mens - Natuurinformatie natuurinformatie.nl › Homepage › Skeletten De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van 50 feiten over je lichaam – Wel.nl welingelichtekringen.nl › samenleving › 50-feiten-over-je-licha 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Botten - Kosmisch.nl kosmisch.nl › normal Dat skelet geeft je lichaam stevigheid en beschermt kwetsbare organen. Het grootste bot in je lichaam is je dijbeen het kleinste botje zit in je oor en is 3mm. Wat is het grootste bot in je lichaam? wat is het kleinste bot in competicionesdemotos.com › koos-konijn › wat-is-het-kleinste-bot-in 8 mrt. 2019 - Fibula is het andere bot van de twee botten namelijk het kuitbeen aan Aantal ribben De ribben in het menselijk lichaam vormen een soort Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het grootste botje in je lichaam hoeveel botten heeft een baby noem de botten van de bovenste ledematen armen sterkste bot menselijk lichaam skelet mens achterkant hoeveel botten heeft een baby bij geboorte noem de botten van de onderste ledematen benen hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNoord Rotterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden </t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Zoekmodi Alle Afbeeldingen Shopping Video's Nieuws Meer InstellingenTools Ongeveer 1.040.000 resultaten (0 55 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nl dokterdokter.nl › Gezond leven › Eten &amp; drinken Feedback Over samenvattingen Webresultaten WisFaq - digitale vraagbaak voor het wiskundeonderwijs wisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voor- Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedia nl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-kom 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-het 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrum voedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een Een komkommer bevat meer dan water: hierom is hij zo gezond maxvandaag.nl › sessies › themas › eten-drinken › een-komko 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitens vitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? raadsels en puzzels - rdzl | Komkommers raadsel uitleg rdzl.nl › komkommers_raadsel › uitleg Door de hitte bestaan de komkommers aan het eind van de dag nog maar voor 98% uit water. Hoeveel kg komkommers heeft de groenteboer over aan het eind Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer hoeveel komkommer mag je eten komkommer eten voor het slapen uit hoeveel procent water bestaat tomaat schil komkommer giftig? komkommer water hoeveel weegt een komkommer waar is komkommer goed voor Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNoord Rotterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden </t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Zoekmodi Alle Afbeeldingen Shopping Nieuws Maps Meer InstellingenTools Ongeveer 27.400.000 resultaten (0 71 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) 1960 1970 1980 1990 2000 2010 20.000.000 20.000.000 15.000.000 15.000.000 10.000.000 10.000.000 5.000.000 5.000.000 0 0 • Nederland 17 18 miljoen ‌ • België 11 4 miljoen ‌ • Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBS cbs.nl › nl-nl › visualisaties › bevolkingsteller 20 dec. 2019 - Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBS cbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in-n De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking - Cijfers - Maatschappij | Trends in Nederland 2019 longreads.cbs.nl › trends19 › maatschappij › cijfers › bevolking In 2018 vestigden zich 87 duizend meer mensen in Nederland dan er vertrokken een Ook in andere plaatsen waar veel (streng)gereformeerden wonen is de Bevolking groeit naar ruim 17 4 miljoen inwoners - CBS cbs.nl › nl-nl › nieuws › 2020/01 › bevolking-groeit-naar-ruim- 3 jan. 2020 - Per saldo kwamen er in 2019 uit alle werelddelen meer mensen naar Nederland dan in 2018. Dat geldt ook voor mensen die in Nederland Bevolking van Nederland - Wikipedia nl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Bevolkingssamenstelling Nederland heeft nu meer dan 17 4 miljoen inwoners - NRC nrc.nl › nieuws › 2020/01/02 › nederland-heeft-nu-meer-dan-174 3 jan. 2020 - Nederland heeft er vorig jaar naar schatting 132.000 inwoners bij gekregen en daarmee wonen er nu meer dan 17 4 miljoen mensen in Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Nederland in cijfers en grafieken met meer dan 100 onderwerpen! [17.282.163 inwoners met 7.740.984 woningen met een gemiddelde waarde van €230.000 Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door rtlnieuws.nl › bevolkingsgroei-2019-migratie-grote-steden 3 jan. 2020 - inwoners waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente Bevolking Nederland groeit sneller dan verwacht: 18 4 miljoen volkskrant.nl › nieuws-achtergrond › bevolking-nederland-groeit- 17 dec. 2019 - In de komende tien jaar komen er een miljoen mensen bij in Nederland. In 2030 loopt het inwonertal op tot 18 4 miljoen. De bevolkingsgroei Nederlanders buitenlanders allochtonen. De cijfers republiekallochtonie.nl › blog › feiten › nederlanders-buitenlan 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen er in nederland 2020 aantal inwoners nederland 2019 hoeveel mensen wonen in nederland 2019 aantal inwoners nederland 1600 bevolking nederland 2019 inwoners nederland 1923 hoeveel mensen wonen er in china Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Nederland Land in Europa Gerelateerde gebeurtenissen Wereldkampioenschappen schaatsen afstanden 2020 Wedstrijd · 13–16 feb. Concurrent Beschrijving Nederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Frankrijk 66 89 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Feedback Bronnen omvatten: Wereldbank Eurostat Institut national de la statistique et des études économiques Verenigde Naties Links in voettekst NederlandNoord Rotterdam - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid We updaten onze Servicevoorwaarden. Lees de nieuwe voorwaarden voor ze in werking treden op 31 maart 2020BekijkenAccepteren Google Zoekmodi AlleAfbeeldingenVideo'sShoppingMapsMeer InstellingenTools Ongeveer 8.370.000 resultaten (0 56 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 4 0 (45) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Kerf het deeg in met een scherp mes en bak het brood in ongeveer 35 Zelf brood bakken: 10 ovenverse recepten - Libelle Lekkerlibelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenverse- Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Tips voor brood bakken - Laura's Bakerylaurasbakery.nl › tips-voor-brood-bakken Brood bakken recept van laurasbakery.nl 27 jan. 2020 - Nieuwe broodrecepten staan dus steeds vaker op Laura's Bakery en daarmee komen er ook steeds meer vragen over brood bakken binnen. Recepten voor het zelf bakken van brood - Broodsmakelijkbroodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Basisrecept voor wit brooddeeg - Rutger Baktrutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎45 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Bak thuis het lekkerste brood! - Rutger Baktrutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎13 reviews - ‎14 uur 40 min 2 jun. 2019 - Zelf brood bakken is heel erg leuk om te doen en er gaat maar weinig De Franse bloem T65 die ik voor dit recept heb gebruikt is van een wat Dagelijks brood (uit eigen oven) - Bakken Zoals Omabakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Brood bakken - Allerhande - Albert Heijnah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Het makkelijkste brood dat je ooit zal maken - Culy.nlculy.nl › Recepten › Wat eten we vandaag? › Diner Brood bakken recept van culy.nl 30 jan. 2014 - De gedachte dat brood maken alleen weggelegd is voor bakkers en uren aan kneedwerk onlangs dit supermakkelijke recept waarbij geen kneden aan te pas komt. Tijdens het bakken zal dit nog gelijkmatiger worden. Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine simpel brood bakken zelf brood bakken zonder broodbakmachine lekkerste brood recept volkoren brood bakken luchtig wit brood bakken bruin brood bakken brood bakken benodigdheden Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandWoensel-Noord Eindhoven - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid We updaten onze Servicevoorwaarden. Lees de nieuwe voorwaarden voor ze in werking treden op 31 maart 2020BekijkenAccepteren Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 2.340.000 resultaten (0 54 seconden) Zoekresultaten Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDoktersdierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Namen beginnend met de · ‎Engelse hondennamen vind je · ‎Grappig Top 100 Leuke grappige en stoere hondennamen van 2020!herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Populaire hondennamen | Petplan.nlpetplan.nl › dierenadvies › aanschaf-van-je-huisdier › populaire-hond 22 jan. 2020 - In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Hondennamen - Medisch Centrum voor Dierenmcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Hondennamen - Vind de perfecte naam voor je hond.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Leuke grappige en stoere hondennamen | Honden-plein.nlhonden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden honden-plein.nl › hondennamen › hondennamen-teefje Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Populaire hondennamen | Royal Caninroyalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Hondennamen op alfabetische volgorde - Dierennamendierennamen.net › hondennamen-op-alfabeti Vertaal deze pagina Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Zoekopdrachten gerelateerd aan Honden namen honden namen teef geweldige hondennamen aparte hondennamen hondennamen met betekenis honden namen eindigend op ie brabantse hondennamen buitenlandse hondennamen tekenfilm hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandWoensel-Noord Eindhoven - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid We updaten onze Servicevoorwaarden. Lees de nieuwe voorwaarden voor ze in werking treden op 31 maart 2020BekijkenAccepteren Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 186.000 resultaten (0 65 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedianl.wikipedia.org › wiki › Skelet_(mens) Feedback Over samenvattingen Webresultaten Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjesalletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Het dijbeen staat bekend als het grootste – én sterkste – bot van ons lichaam. De sterkte van het dijbeen Werkstuk Biologie Menselijk lichaam | Scholieren.comscholieren.com › verslag › werkstuk-biologie-menselijk-lichaam Menselijk lichaam. Beoordeling 5 2. Foto van een scholier. Werkstuk door een scholier Klas onbekend | 952 woorden 24 juli 2008 38 keer beoordeeld. Cijfer Wat is het grootste bot in het menselijk lichaam? | Tolunanl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-licha Manfragas. 28 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Wat Is Het Grootste Bot In Het Lichaam? | 2020nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 1 feb. 2020 - Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de Botten - Menselijk lichaam | Gezondheidsplein.nlgezondheidsplein.nl › menselijk-lichaam › botten › item45095 Een bot bestaat uit verschillende lagen. De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en bestaat uit een soort Het skelet van de mens - Natuurinformatienatuurinformatie.nl › Homepage › Skeletten De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van 50 feiten over je lichaam – Wel.nlwelingelichtekringen.nl › samenleving › 50-feiten-over-je-licha 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Botten - Kosmisch.nlkosmisch.nl › normal Dat skelet geeft je lichaam stevigheid en beschermt kwetsbare organen. Het grootste bot in je lichaam is je dijbeen het kleinste botje zit in je oor en is 3mm. Wat is het grootste bot in je lichaam? wat is het kleinste bot in competicionesdemotos.com › koos-konijn › wat-is-het-kleinste-bot-in 8 mrt. 2019 - Fibula is het andere bot van de twee botten namelijk het kuitbeen aan Aantal ribben De ribben in het menselijk lichaam vormen een soort Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het grootste botje in je lichaam hoeveel botten heeft een baby noem de botten van de bovenste ledematen armen sterkste bot menselijk lichaam skelet mens achterkant hoeveel botten heeft een baby bij geboorte noem de botten van de onderste ledematen benen hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandWoensel-Noord Eindhoven - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid We updaten onze Servicevoorwaarden. Lees de nieuwe voorwaarden voor ze in werking treden op 31 maart 2020BekijkenAccepteren Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 243.000 resultaten (0 47 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nldokterdokter.nl › Gezond leven › Eten &amp; drinken Feedback Over samenvattingen Webresultaten WisFaq - digitale vraagbaak voor het wiskundeonderwijswisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voor- Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedianl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-kom 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-het 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Komkommer | Voedingscentrumvoedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een Een komkommer bevat meer dan water: hierom is hij zo gezondmaxvandaag.nl › sessies › themas › eten-drinken › een-komko 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de raadsels en puzzels - rdzl | Komkommers raadsel uitlegrdzl.nl › komkommers_raadsel › uitleg Door de hitte bestaan de komkommers aan het eind van de dag nog maar voor 98% uit water. Hoeveel kg komkommers heeft de groenteboer over aan het eind Hoeveel water zit er per dag in ons eten | Waterbedrijf Vitensvitens.com › › Blogoverzicht › Hoeveel water zit er per d 4 mei 2016 - Het ene product bevat natuurlijk meer water dan het andere. Wist je dat een watermeloen en een komkommer voor wel 97% uit water bestaan? Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer hoeveel komkommer mag je eten komkommer eten voor het slapen uit hoeveel procent water bestaat tomaat schil komkommer giftig? komkommer water hoeveel weegt een komkommer waar is komkommer goed voor Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandWoensel-Noord Eindhoven - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid We updaten onze Servicevoorwaarden. Lees de nieuwe voorwaarden voor ze in werking treden op 31 maart 2020BekijkenAccepteren Google Zoekmodi AlleAfbeeldingenShoppingNieuwsMapsMeer InstellingenTools Ongeveer 27.400.000 resultaten (0 71 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) 1960 1970 1980 1990 2000 2010 20.000.000 20.000.000 15.000.000 15.000.000 10.000.000 10.000.000 5.000.000 5.000.000 0 0 •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBScbs.nl › nl-nl › visualisaties › bevolkingsteller 20 dec. 2019 - Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBScbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in-n De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking groeit naar ruim 17 4 miljoen inwoners - CBScbs.nl › nl-nl › nieuws › 2020/01 › bevolking-groeit-naar-ruim- 3 jan. 2020 - Per saldo kwamen er in 2019 uit alle werelddelen meer mensen naar Nederland dan in 2018. Dat geldt ook voor mensen die in Nederland Bevolking van Nederland - Wikipedianl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Bevolkingssamenstelling Nederland heeft nu meer dan 17 4 miljoen inwoners - NRCnrc.nl › nieuws › 2020/01/02 › nederland-heeft-nu-meer-dan-174 3 jan. 2020 - Nederland heeft er vorig jaar naar schatting 132.000 inwoners bij gekregen en daarmee wonen er nu meer dan 17 4 miljoen mensen in Héél véél informatie over Nederland (update 2019 allecijfers.nl › nederland Nederland in cijfers en grafieken met meer dan 100 onderwerpen! [17.282.163 inwoners met 7.740.984 woningen met een gemiddelde waarde van €230.000 Nederlanders buitenlanders allochtonen. De cijfersrepubliekallochtonie.nl › blog › feiten › nederlanders-buitenlan 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. Bevolking Nederland groeit sneller dan verwacht: 18 4 miljoen volkskrant.nl › nieuws-achtergrond › bevolking-nederland-groeit- 17 dec. 2019 - In de komende tien jaar komen er een miljoen mensen bij in Nederland. In 2030 loopt het inwonertal op tot 18 4 miljoen. De bevolkingsgroei Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door rtlnieuws.nl › bevolkingsgroei-2019-migratie-grote-steden 3 jan. 2020 - inwoners waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen er in nederland 2020 aantal inwoners nederland 2019 aantal inwoners nederland 1600 hoeveel mensen wonen in nederland 2019 bevolking nederland 2019 inwoners nederland 2020 inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa Gerelateerde gebeurtenissen Wereldkampioenschappen schaatsen afstanden 2020 Wedstrijd · 13–16 feb. Concurrent BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Frankrijk 66 89 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Feedback Bronnen omvatten: Wereldbank Eurostat Institut national de la statistique et des études économiques Verenigde Naties Links in voettekst NederlandWoensel-Noord Eindhoven - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Brood bakken recept Ongeveer 8.620.000 resultaten (0 50 seconden) Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 4 0 (46) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Kerf het deeg in met een scherp mes en bak het brood in ongeveer 35 Zelf brood bakken: 10 ovenverse recepten - Libelle Lekkerlibelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenverse- Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Tips voor brood bakken - Laura's Bakerylaurasbakery.nl › tips-voor-brood-bakken Brood bakken recept van laurasbakery.nl 27 jan. 2020 - Nieuwe broodrecepten staan dus steeds vaker op Laura's Bakery en daarmee komen er ook steeds meer vragen over brood bakken binnen. Basisrecept voor wit brooddeeg - Rutger Baktrutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎46 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Recepten voor het zelf bakken van brood - Broodsmakelijkbroodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)?broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Omabakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Brood bakken - Allerhande - Albert Heijnah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Zelf brood bakken - waterlily-unlimitedwaterlily-unlimited.nl › brood Brood bakken recept van waterlily-unlimited.nl Zelf brood bakken is gemakkelijk snel goedkoop en lekker. Als je het nog nooit gedaan hebt lijkt het heel ingewikkeld en overal vind je weer andere recepten. Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine simpel brood bakken zelf brood bakken zonder broodbakmachine lekkerste brood recept volkoren brood bakken luchtig wit brood bakken bruin brood bakken brood bakken benodigdheden Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandIJmuiden - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Honden namen Ongeveer 3.010.000 resultaten (0 50 seconden) Zoekresultaten Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDoktersdierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Engelse hondennamen vind je Populaire hondennamen | Petplan.nlpetplan.nl › dierenadvies › aanschaf-van-je-huisdier › populaire-hond 22 jan. 2020 - In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Kijk snel wat de populairste Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Hondennamen - Vind de perfecte naam voor je hond.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Top 100 Leuke grappige en stoere hondennamen van 2020!herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Medisch Centrum voor Dierenmcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Leuke grappige en stoere hondennamen | Honden-plein.nlhonden-plein.nl › hondennamen Hondennamen. Of je nu op zoek bent naar een leuke grappige of juist stoere hondennaam hier vind je ze allemaal! Het kiezen van een leuke naam voor je Hondennamen teef - vind een naam voor je teefje | Honden honden-plein.nl › hondennamen › hondennamen-teefje Of je nu op zoek bent naar een stoere leuke of schattige naam voor je teefje. Hier vind je diverse originele hondennamen voor je teefje. Populaire hondennamen | Royal Caninroyalcanin.nl › populaire-kattennamen-populaire-hondennamen Op zoek naar een leuke originele naam voor jouw nieuwe hond? Wil jij graag weten hoe populair de naam van jouw hond is en bij welk ras deze vaak Hondennamen op alfabetische volgorde - Dierennamendierennamen.net › hondennamen-op-alfabeti Vertaal deze pagina Hondennamen op alfabetische volgorde - Op zoek naar een mooie hondennamen? Maak uw keuze en kies de mooieste en leukste naam voor uw hond of Zoekopdrachten gerelateerd aan Honden namen honden namen teef aparte hondennamen geweldige hondennamen hondennamen met betekenis brabantse hondennamen honden namen eindigend op ie tekenfilm hondennamen buitenlandse hondennamen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandIJmuiden - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Wat is het grootste bot in het menselijk lichaam? Ongeveer 168.000 resultaten (0 50 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Wat is het grootste bot in het menselijk lichaam? Het grootste bot uit het menselijk lichaam is het dijbeen. Het kleinste is de stijgbeugel een van de drie gehoorbeentjes. Skelet (mens) - Wikipedianl.wikipedia.org › wiki › Skelet_(mens) Feedback Over samenvattingen Webresultaten Top 10 Feitjes Over Menselijke Botten - Alletop10lijstjesalletop10lijstjes.nl › top-10-feitjes-over-menselijke-botten Zo kan vrijwel elk wat groter gewricht heel nauwkeurig worden bekeken. Hoewel deze ingreep ook Grootste bot in het menselijk lichaam: dijbeen. dijbeen. Werkstuk Biologie Menselijk lichaam | Scholieren.comscholieren.com › verslag › werkstuk-biologie-menselijk-lichaam Menselijk lichaam. Beoordeling 5 2. Foto van een scholier. Werkstuk door een scholier Klas onbekend | 952 woorden 24 juli 2008 38 keer beoordeeld. Cijfer Wat is het grootste bot in het menselijk lichaam? | Tolunanl.toluna.com › polls › Wat-is-het-grootste-bot-in-het-menselijk-licha Manfragas. 28 maanden geleden. Wat is het grootste bot in het menselijk lichaam? Gesloten. Statistieken Klik om meer te zien. 32% 46 stemmen. 68% 98 Wat Is Het Grootste Bot In Het Lichaam? | 2020nl.ripleybelieves.com › what-is-largest-bone-in-body-1037 2 feb. 2020 - Dijbeen / dijbeenHet sterkste langste en grootste bot in het menselijk lichaam is het femur of dijbeen dat een bot in het been is dat van de Botten - Menselijk lichaam | Gezondheidsplein.nlgezondheidsplein.nl › menselijk-lichaam › botten › item45095 Een bot bestaat uit verschillende lagen. De buitenlaag van je botten bestaat uit compact bot of corticaal bot. Dat is een hard materiaal en bestaat uit een soort Het skelet van de mens - Natuurinformatienatuurinformatie.nl › Homepage › Skeletten De onderkaak is het enige beweegbare bot van de schedel. Het borstbeen heeft meerdere functies: versterking van de lichaamswand bescherming van 50 feiten over je lichaam – Wel.nlwelingelichtekringen.nl › samenleving › 50-feiten-over-je-licha 27 feb. 2012 - Eén van de grootste cellen in het menselijk lichaam is de eicel. De sterkste spier van het lichaam is de tong. Het sterkste bot is de kaak. 5. Botten - Kosmisch.nlkosmisch.nl › normal Dat skelet geeft je lichaam stevigheid en beschermt kwetsbare organen. Het grootste bot in je lichaam is je dijbeen het kleinste botje zit in je oor en is 3mm. Wat is het grootste bot in je lichaam? wat is het kleinste bot in competicionesdemotos.com › koos-konijn › wat-is-het-kleinste-bot-in 8 mrt. 2019 - Fibula is het andere bot van de twee botten namelijk het kuitbeen aan Aantal ribben De ribben in het menselijk lichaam vormen een soort Zoekopdrachten gerelateerd aan Wat is het grootste bot in het menselijk lichaam? wat is het grootste botje in je lichaam hoeveel botten heeft een baby noem de botten van de bovenste ledematen armen sterkste bot menselijk lichaam skelet mens achterkant hoeveel botten heeft een baby bij geboorte noem de botten van de onderste ledematen benen hoeveel spieren heeft een mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandIJmuiden - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel van een komkommer is water? Ongeveer 233.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Komkommers worden als gezond bestempeld terwijl deze groente voor zo'n 95 procent uit water bestaat. Ondanks al dat water bestaat komkommer uit veel meer stoffen. Waarom zijn komkommers gezond? | Dokterdokter.nldokterdokter.nl › Gezond leven › Eten &amp; drinken Feedback Over samenvattingen Webresultaten WisFaq - digitale vraagbaak voor het wiskundeonderwijswisfaq.nl › 18 okt. 2002 - Aan het einde van de dag zijn de komkommers wat uitgedroogd en bestaan ze nog maar voor 98 procent uit water. Hoeveel kilo komkommers Zoeetje - Een mens bestaat voor 60% uit water komkommer facebook.com › DietistZoeetje › posts › een-mens-bestaat-voor- Een mens bestaat voor 60% uit water komkommer bestaat voor 97% uit water. De mens bestaat dus voor 58% uit komkommer :D. Komkommer - Wikipedianl.wikipedia.org › wiki › Komkommer De komkommer is een eenjarige plant uit de komkommerfamilie en waarvan de In plakjes gesneden in azijn in water ingemaakte komkommers kunnen met ‎Teelt · ‎Cultivars · ‎Bereiding · ‎Inhoudstoffen 100 kilo komkommers bestaan uit 99% water. er verdampt 1 startpagina.nl › wetenschap › wiskunde › vraag › 100-kilo-kom 7 antwoorden 1 jul. 2010 - 100 kilo komkommers bestaan uit 99% water. er verdampt 1% van hoeveel kilo komkommers hou ik over. graag uitleg hoe je dit berekend. Waarom smaakt komkommer niet hetzelfde als water startpagina.nl › eten-drinken › vraag › smaakt-komkommer-het 5 antwoorden 4 mrt. 2012 - Komkommer bestaat 96% uit water maar toch heeft het zijn eigen Het gaat dus niet om het percentage water maar om de hoeveel en de Een komkommer bevat meer dan water: hierom is hij zo gezondmaxvandaag.nl › sessies › themas › eten-drinken › een-komko 27 aug. 2019 - Komkommer is één van de populairste groentes in Nederland maar is het ook een gezonde optie? Of is de groente vooral goed voor de Komkommer | Voedingscentrumvoedingscentrum.nl › encyclopedie › komkommer Komkommer is een van de populairste groenten. Komkommer bevat weinig calorieën. Komkommer hoort bij de familie van meloen en courgette. Voor het water geven van de komkommers maken boeren vooral gebruik van waarmee in één oogopslag is te zien hoeveel energie het heeft gekost om een product in een raadsels en puzzels - rdzl | Komkommers raadsel uitlegrdzl.nl › komkommers_raadsel › uitleg Door de hitte bestaan de komkommers aan het eind van de dag nog maar voor 98% uit water. Hoeveel kg komkommers heeft de groenteboer over aan het eind 10 Redenen Waarom Je Dagelijks Komkommer Zou Moeten voedingsacademy.nl › komkommer 27 jun. 2019 - Komkommer is een groente die veel wordt gegeten in Nederland. Een komkommer bestaat voor een groot deel uit water daarom ook te eten Zoekopdrachten gerelateerd aan Hoeveel van een komkommer is water? nadelen van komkommer hoeveel komkommer mag je eten komkommer eten voor het slapen uit hoeveel procent water bestaat tomaat schil komkommer giftig? komkommer water hoeveel weegt een komkommer waar is komkommer goed voor Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandIJmuiden - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Hoeveel mensen wonen er in Nederland? Ongeveer 29.000.000 resultaten (0 88 seconden) Zoekresultaten Nederland/Bevolking 17 18 miljoen (2018) •Nederland 17 18 miljoen ‌ •België 11 4 miljoen ‌ •Zweden 10 12 miljoen ‌ Meer verkennen Feedback Bronnen omvatten: Eurostat Webresultaten Bevolkingsteller - CBScbs.nl › nl-nl › visualisaties › bevolkingsteller 20 dec. 2019 - Hoeveel mensen wonen nu in Nederland? Verder vestigen zich gemiddeld 775 immigranten per dag in Nederland terwijl er 445 emigranten Hoeveel mensen wonen er in Nederland? - CBScbs.nl › nl-nl › faq › specifiek › hoeveel-mensen-wonen-er-in-n De Bevolkingsteller toont het actuele aantal inwoners van Nederland. Maandcijfers over de bevolking van Nederland staan in deze tabel. Het aantal inwoners Bevolking groeit naar ruim 17 4 miljoen inwoners - CBScbs.nl › nl-nl › nieuws › 2020/01 › bevolking-groeit-naar-ruim- 3 jan. 2020 - Per saldo kwamen er in 2019 uit alle werelddelen meer mensen naar Nederland dan in 2018. Dat geldt ook voor mensen die in Nederland Bevolking van Nederland - Wikipedianl.wikipedia.org › wiki › Bevolking_van_Nederland Nederland telde op 1 November 2019: 17.424.978 inwoners. In 2005 woonden er 3 1 miljoen mensen met een migratieachtergrond in Nederland. Mensen met een volledige of gedeeltelijke niet-westerse achtergrond wonen voornamelijk in ‎Bevolkingsontwikkeling · ‎Leeftijdsopbouw · ‎Bevolkingssamenstelling Nederland heeft nu meer dan 17 4 miljoen inwoners - NRCnrc.nl › nieuws › 2020/01/02 › nederland-heeft-nu-meer-dan-174 3 jan. 2020 - Nederland heeft er vorig jaar naar schatting 132.000 inwoners bij gekregen en daarmee wonen er nu meer dan 17 4 miljoen mensen in Héél véél informatie over Nederland (update 2020 allecijfers.nl › nederland Nederland in cijfers en grafieken met meer dan 100 onderwerpen! [17.282.163 inwoners met 7.740.984 woningen met een gemiddelde waarde van €230.000 Nederlanders buitenlanders allochtonen. De cijfersrepubliekallochtonie.nl › blog › feiten › nederlanders-buitenlan 15 okt. 2019 - Hoeveel 'buitenlanders' wonen er in Nederland? om de cijfers van 1 januari 2019 toen er 17.282.163 mensen in Nederland woonden. Bevolking Nederland groeit sneller dan verwacht: 18 4 miljoen volkskrant.nl › nieuws-achtergrond › bevolking-nederland-groeit- 17 dec. 2019 - In de komende tien jaar komen er een miljoen mensen bij in Nederland. In 2030 loopt het inwonertal op tot 18 4 miljoen. De bevolkingsgroei Bevolking stijgt naar 17 4 miljoen inwoners voornamelijk door rtlnieuws.nl › bevolkingsgroei-2019-migratie-grote-steden 3 jan. 2020 - inwoners waardoor er nu 17 4 miljoen mensen in Nederland wonen. Amsterdam wordt miljoenenstad: zoek op hoeveel jouw gemeente Nederland groeit in 2018 met 100.000 mensen naar 17 3 hartvannederland.nl › nieuws › nederland-groeit-in-2018-met-100 2 jan. 2019 - In totaal kwamen 241.000 mensen naar Nederland en vertrokken er met een Nederlandse achtergrond die ergens anders gaan wonen.”. Zoekopdrachten gerelateerd aan Hoeveel mensen wonen er in Nederland? hoeveel mensen wonen er in nederland 2019 hoeveel mensen wonen er in nederland 2020 aantal inwoners nederland 2019 aantal inwoners nederland 1600 bevolking nederland 2019 hoeveel mensen wonen in nederland 2019 inwoners nederland 2020 inwoners nederland 1923 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Aanvullende resultaten Kennisresultaat Afbeeldingsresultaat voor Hoeveel mensen wonen er in Nederland? Kaart van Nederlandmap expand icon Nederland Land in Europa BeschrijvingNederland is een van de landen binnen het Koninkrijk der Nederlanden. Nederland ligt voor het overgrote deel in het noordwesten van Europa aan de Noordzee. Naast het Europese deel zijn er nog de drie bijzondere gemeenten in de Caribische Zee die ook wel Caribisch Nederland worden genoemd. Wikipedia Gerelateerde statistieken Bruto Binnenlands Product 826 2 miljard USD ‎(2017) Bevolkingsgroei in procenten 0 6% wijziging per jaar ‎(2017) Bevolking elders Duitsland 82 79 miljoen ‎(2018) Frankrijk 66 89 miljoen ‎(2018) Amsterdam 821.752 ‎(2015) Feedback Bronnen omvatten: Wereldbank Eurostat Institut national de la statistique et des études économiques Verenigde Naties Links in voettekst NederlandIJmuiden - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid We updaten onze Servicevoorwaarden. Lees de nieuwe voorwaarden voor ze in werking treden op 31 maart 2020BekijkenOK Inloggen Google Zoekmodi AlleAfbeeldingenVideo'sShoppingMapsMeer InstellingenTools Ongeveer 7.270.000 resultaten (0 51 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. MIJ LATER HERINNEREN NU BEKIJKEN Zoekresultaten Recepten Basisrecept voor wit brooddeeg Rutger Bakt 4 0 (93) 3 uur Dagelijks brood uit eigen oven Bakken Zoals Oma Geen reviews Basis brood Smulweb Geen reviews 2 uur 30 min Meer weergeven Webresultaten Basisrecept voor brood incl. stap voor stap beschrijving - Uit uitpaulineskeuken.nl › 2018/11 › basisrecept-voor-brood Brood bakken recept van uitpaulineskeuken.nl 8 nov. 2018 - Ik kwam tot de ontdekking dat we nog geen basisrecept voor brood Kerf het deeg in met een scherp mes en bak het brood in ongeveer 35 Zelf brood bakken: 10 ovenverse recepten - Libelle Lekkerlibelle-lekker.be › artikelen › zelf-brood-bakken-10-ovenverse- Om zelf brood te bakken heb je niet veel nodig: bloem gist water en een snuifje zout. Een oven of een broodbakmachine. O ja en een beetje geduld komt ook Basisrecept voor wit brooddeeg - Rutger Baktrutgerbakt.nl › Brood recepten Brood bakken recept van rutgerbakt.nl Beoordeling: 4 - ‎93 reviews - ‎3 uur 13 dec. 2017 - Dit recept voor brooddeeg is een basisrecept het is heel handig maar zeker niet heilig! Wat zou jij met dit basis brooddeeg willen bakken? Tips voor brood bakken - Laura's Bakerylaurasbakery.nl › tips-voor-brood-bakken Brood bakken recept van laurasbakery.nl 27 jan. 2020 - Nieuwe broodrecepten staan dus steeds vaker op Laura's Bakery en daarmee komen er ook steeds meer vragen over brood bakken binnen. Recepten voor het zelf bakken van brood - Broodsmakelijkbroodsmakelijk.nl › recepten Recepten voor het zelf maken van een brood. Daar hebben we van geleerd en die fouten hebben we verzameld in de gouden regels van het broodbakken. Hoe bak ik zelf mijn eerste brood (en goedkoop)?broodsmakelijk.nl › hoe-bak-ik-mijn-eerste-brood Denk eens na over het volgende als wij keer op keer op basis van dit recept en werkwijze een mooi brood kunnen bakken waarom zou het bij jou dan anders Dagelijks brood (uit eigen oven) - Bakken Zoals Omabakkenzoalsoma.nl › 2012/10 › dagelijks-brood-uit-eigen-oven Brood bakken recept van bakkenzoalsoma.nl 15 dec. 2015 - Sneden zelfgebakken witbrood Met dit basisrecept maak je zelf thuis een lekker wit brood. Het kost wat geduld maar brood uit je eigen oven is Brood bakken - Allerhande - Albert Heijnah.nl › allerhande › recepten › brood-bakken Lunch brunch ontbijt: brood kan altijd. Bak je brood zelf. Leef je uit met breekbrood vlechtbrood of tomatenbrood. Bak 'm hartig of zoet. recept Zelf brood bakken - waterlily-unlimitedwaterlily-unlimited.nl › brood Brood bakken recept van waterlily-unlimited.nl Zelf brood bakken is gemakkelijk snel goedkoop en lekker. Als je het nog nooit gedaan hebt lijkt het heel ingewikkeld en overal vind je weer andere recepten. Zoekopdrachten gerelateerd aan Brood bakken recept brood bakken broodbakmachine simpel brood bakken zelf brood bakken zonder broodbakmachine lekkerste brood recept volkoren brood bakken luchtig wit brood bakken bruin brood bakken brood bakken benodigdheden Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid We updaten onze Servicevoorwaarden. Lees de nieuwe voorwaarden voor ze in werking treden op 31 maart 2020BekijkenOK Inloggen Google Zoekmodi AlleAfbeeldingenShoppingVideo'sNieuwsMeer InstellingenTools Ongeveer 2.500.000 resultaten (0 39 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. MIJ LATER HERINNEREN NU BEKIJKEN Advertenties Advertentie· dier.nu/ ‎ Top 5 Populaire Hondennamen | Bekijk de top 5 | dier.nu‎ ‎ Stichting DierenLot steunt lokale en regionale dierenorganisaties. Helpt u ook mee? Allerlei tips en interessante weetjes vindt u op de website van Stichting DierenLot. Steun Goede Doelen. Help Dieren In Nood. Steun Lokale Initiatieven. Knaagdierenweetjes Leuke en interessante knaagdierenweetjes. Schapenweetjes Leuke en interessante Schapenweetjes. Zoekresultaten Webresultaten 1001 hondennamen voor je pup reu of teef - DierenDoktersdierendokters.com › honden › namen Hondennamen aan het zoeken? Vind hier de leukste grappigste en stoere naam voor je hond. Weet je zelf nog een leuke naam? Voeg deze dan toe aan onze ‎Stoer · ‎Grappig · ‎Namen beginnend met de · ‎Engelse hondennamen vind je Populaire hondennamen top 100 | Petplan.nlpetplan.nl › dierenadvies › aanschaf-van-je-huisdier › populaire-hond 22 jan. 2020 - In onze top 100 populaire hondennamen vind je volop inspiratie. Welke naam geef jij je nieuwe hond? Bekijk de populairste hondennaam van Lijst met alle hondennamen? Vind de perfecte hondennaam hondennamen.nl Inspiratie voor hondennamen vind je hier. Kies uit meer dan 10.000 hondennamen gesorteerd op geslacht beginletter ras regio en karakter. Top 100 Leuke grappige en stoere hondennamen van 2020!herdershonden.nl › hondennamen Het kiezen van een naam voor je hond is naast het uitkiezen van de pup het leukste wat er is wanneer je een hond neemt. De gecategoriseerde namen helpen Hondennamen - Vind de perfecte naam voor je hond.hondennamen.nu Inspiratie nodig bij het vinden van de perfecte hondennaam? Onze hondennamen zijn met de hand uitgekozen en gegroepeerd in handige lijstjes voor uw Hondennamen - Medisch Centrum voor Dierenmcvoordieren.nl › hondennamen De meest populaire hondennamen zijn Max Beau Sam Bobby Lady Spike Daisy Rocky Boris en Banjer. Op deze pagina vind u 5600 andere Leuke grappige en stoere